--- a/spreadsheet/macrofree/waf_checklist.es.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.es.xlsx
@@ -20336,7 +20336,11 @@
           <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
-      <c r="K384" s="19" t="n"/>
+      <c r="K384" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project cxId=id, gwId=tostring(properties.virtualNetworkGateway1.id), circuitId=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitId=tostring(id), circuitLocation=tostring(properties.serviceProviderProperties.peeringLocation)) on circuitId | distinct gwId, circuitLocation | summarize countErLocations=count() by id=gwId | extend compliant = (countErLocations &gt;= 2)</t>
+        </is>
+      </c>
       <c r="L384" s="19" t="inlineStr">
         <is>
           <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>

--- a/spreadsheet/macrofree/waf_checklist.es.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.es.xlsx
@@ -27207,7 +27207,7 @@
     <row r="517">
       <c r="A517" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>IoT Hub Review</t>
         </is>
       </c>
       <c r="B517" s="18" t="inlineStr">
@@ -27217,18 +27217,18 @@
       </c>
       <c r="C517" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>IoT</t>
         </is>
       </c>
       <c r="D517" s="18" t="inlineStr">
         <is>
-          <t>Consulte la arquitectura de aplicación web de redundancia de zona de alta disponibilidad de línea de base para conocer los procedimientos recomendados</t>
+          <t>Aproveche las zonas de disponibilidad si corresponden regionalmente (esto se habilita automáticamente)</t>
         </is>
       </c>
       <c r="E517" s="18" t="n"/>
       <c r="F517" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G517" t="inlineStr">
@@ -27246,7 +27246,7 @@
       <c r="K517" s="19" t="n"/>
       <c r="L517" s="19" t="inlineStr">
         <is>
-          <t>b32e1aa1-4813-4602-88fe-27ca2891f421</t>
+          <t>ac1d6380-f866-4bbd-a9b4-b1ee5d7908b8</t>
         </is>
       </c>
       <c r="M517" s="20" t="n"/>
@@ -27258,7 +27258,7 @@
     <row r="518">
       <c r="A518" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>IoT Hub Review</t>
         </is>
       </c>
       <c r="B518" s="18" t="inlineStr">
@@ -27268,12 +27268,12 @@
       </c>
       <c r="C518" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>IoT</t>
         </is>
       </c>
       <c r="D518" s="18" t="inlineStr">
         <is>
-          <t>Utilice los niveles Premium y Estándar. Estos niveles admiten ranuras de ensayo y copias de seguridad automatizadas.</t>
+          <t>Tenga en cuenta las conmutaciones por error iniciadas por Microsoft. Microsoft los ejerce en situaciones excepcionales para conmutar por error todos los centros de IoT de una región afectada a la región emparejada geográficamente correspondiente.</t>
         </is>
       </c>
       <c r="E518" s="18" t="n"/>
@@ -27297,7 +27297,7 @@
       <c r="K518" s="19" t="n"/>
       <c r="L518" s="19" t="inlineStr">
         <is>
-          <t>e4b31c6a-2e3f-4df1-8e8b-9c3aa5a27820</t>
+          <t>35f651e8-0124-4ef7-8c57-658e38609e6e</t>
         </is>
       </c>
       <c r="M518" s="20" t="n"/>
@@ -27309,7 +27309,7 @@
     <row r="519">
       <c r="A519" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>IoT Hub Review</t>
         </is>
       </c>
       <c r="B519" s="18" t="inlineStr">
@@ -27319,12 +27319,12 @@
       </c>
       <c r="C519" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>IoT</t>
         </is>
       </c>
       <c r="D519" s="18" t="inlineStr">
         <is>
-          <t>Aproveche las zonas de disponibilidad cuando corresponda regionalmente (requiere el nivel Premium v2 o v3)</t>
+          <t>Considere la posibilidad de una estrategia de recuperación ante desastres entre regiones para cargas de trabajo críticas</t>
         </is>
       </c>
       <c r="E519" s="18" t="n"/>
@@ -27348,7 +27348,7 @@
       <c r="K519" s="19" t="n"/>
       <c r="L519" s="19" t="inlineStr">
         <is>
-          <t>a7e2e6c2-491f-4fa4-a82b-521d0bc3b202</t>
+          <t>4ed3e490-dc06-4a1e-b467-5d0239d85540</t>
         </is>
       </c>
       <c r="M519" s="20" t="n"/>
@@ -27360,7 +27360,7 @@
     <row r="520">
       <c r="A520" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>IoT Hub Review</t>
         </is>
       </c>
       <c r="B520" s="18" t="inlineStr">
@@ -27370,18 +27370,18 @@
       </c>
       <c r="C520" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>IoT</t>
         </is>
       </c>
       <c r="D520" s="18" t="inlineStr">
         <is>
-          <t>Implementación de comprobaciones de estado</t>
+          <t>Obtenga información sobre cómo desencadenar una conmutación por error manual.</t>
         </is>
       </c>
       <c r="E520" s="18" t="n"/>
       <c r="F520" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G520" t="inlineStr">
@@ -27399,7 +27399,7 @@
       <c r="K520" s="19" t="n"/>
       <c r="L520" s="19" t="inlineStr">
         <is>
-          <t>1275e4a9-7b6a-43c3-a9cd-5ee18d8995ad</t>
+          <t>a11ecab0-db47-46f7-9aa7-17764e7e45a1</t>
         </is>
       </c>
       <c r="M520" s="20" t="n"/>
@@ -27411,7 +27411,7 @@
     <row r="521">
       <c r="A521" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>IoT Hub Review</t>
         </is>
       </c>
       <c r="B521" s="18" t="inlineStr">
@@ -27421,12 +27421,12 @@
       </c>
       <c r="C521" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>IoT</t>
         </is>
       </c>
       <c r="D521" s="18" t="inlineStr">
         <is>
-          <t>Consulte los procedimientos recomendados de copia de seguridad y restauración para Azure App Service</t>
+          <t>Obtenga información sobre cómo conmutar por recuperación después de una conmutación por error.</t>
         </is>
       </c>
       <c r="E521" s="18" t="n"/>
@@ -27450,7 +27450,7 @@
       <c r="K521" s="19" t="n"/>
       <c r="L521" s="19" t="inlineStr">
         <is>
-          <t>35a91c5d-4ad6-4d9b-8e0f-c47db9e6d1e7</t>
+          <t>f9db8dfb-1194-460b-aedd-34dd6a69db22</t>
         </is>
       </c>
       <c r="M521" s="20" t="n"/>
@@ -27477,13 +27477,13 @@
       </c>
       <c r="D522" s="18" t="inlineStr">
         <is>
-          <t>Implementación de los procedimientos recomendados de confiabilidad de Azure App Service</t>
+          <t>Consulte la arquitectura de aplicación web de redundancia de zona de alta disponibilidad de línea de base para conocer los procedimientos recomendados</t>
         </is>
       </c>
       <c r="E522" s="18" t="n"/>
       <c r="F522" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G522" t="inlineStr">
@@ -27501,7 +27501,7 @@
       <c r="K522" s="19" t="n"/>
       <c r="L522" s="19" t="inlineStr">
         <is>
-          <t>e68cd0ec-afc6-4bd8-a27f-7860ad9a0db2</t>
+          <t>b32e1aa1-4813-4602-88fe-27ca2891f421</t>
         </is>
       </c>
       <c r="M522" s="20" t="n"/>
@@ -27528,13 +27528,13 @@
       </c>
       <c r="D523" s="18" t="inlineStr">
         <is>
-          <t>Familiarizarse con cómo mover una aplicación de App Service a otra región durante un desastre</t>
+          <t>Utilice los niveles Premium y Estándar. Estos niveles admiten ranuras de ensayo y copias de seguridad automatizadas.</t>
         </is>
       </c>
       <c r="E523" s="18" t="n"/>
       <c r="F523" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G523" t="inlineStr">
@@ -27552,7 +27552,7 @@
       <c r="K523" s="19" t="n"/>
       <c r="L523" s="19" t="inlineStr">
         <is>
-          <t>bd2a865c-0835-4418-bb58-4df91a5a9b3f</t>
+          <t>e4b31c6a-2e3f-4df1-8e8b-9c3aa5a27820</t>
         </is>
       </c>
       <c r="M523" s="20" t="n"/>
@@ -27579,7 +27579,7 @@
       </c>
       <c r="D524" s="18" t="inlineStr">
         <is>
-          <t>Familiarizarse con la compatibilidad con la confiabilidad en Azure App Service</t>
+          <t>Aproveche las zonas de disponibilidad cuando corresponda regionalmente (requiere el nivel Premium v2 o v3)</t>
         </is>
       </c>
       <c r="E524" s="18" t="n"/>
@@ -27603,7 +27603,7 @@
       <c r="K524" s="19" t="n"/>
       <c r="L524" s="19" t="inlineStr">
         <is>
-          <t>f3d2f1e4-e6d4-4b7a-a5a5-e2a9b2c6f293</t>
+          <t>a7e2e6c2-491f-4fa4-a82b-521d0bc3b202</t>
         </is>
       </c>
       <c r="M524" s="20" t="n"/>
@@ -27630,7 +27630,7 @@
       </c>
       <c r="D525" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que "Siempre activado" está habilitado para las aplicaciones de funciones que se ejecutan en un plan de App Service</t>
+          <t>Implementación de comprobaciones de estado</t>
         </is>
       </c>
       <c r="E525" s="18" t="n"/>
@@ -27654,7 +27654,7 @@
       <c r="K525" s="19" t="n"/>
       <c r="L525" s="19" t="inlineStr">
         <is>
-          <t>c7b5f3d1-0569-4fd2-9f32-c0b64e9c0c5e</t>
+          <t>1275e4a9-7b6a-43c3-a9cd-5ee18d8995ad</t>
         </is>
       </c>
       <c r="M525" s="20" t="n"/>
@@ -27681,13 +27681,13 @@
       </c>
       <c r="D526" s="18" t="inlineStr">
         <is>
-          <t>Supervisión de instancias de App Service mediante comprobaciones de estado</t>
+          <t>Consulte los procedimientos recomendados de copia de seguridad y restauración para Azure App Service</t>
         </is>
       </c>
       <c r="E526" s="18" t="n"/>
       <c r="F526" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G526" t="inlineStr">
@@ -27705,7 +27705,7 @@
       <c r="K526" s="19" t="n"/>
       <c r="L526" s="19" t="inlineStr">
         <is>
-          <t>a3b4d5f6-758c-4f9d-9e1a-d7c6b7e8f9ab</t>
+          <t>35a91c5d-4ad6-4d9b-8e0f-c47db9e6d1e7</t>
         </is>
       </c>
       <c r="M526" s="20" t="n"/>
@@ -27732,13 +27732,13 @@
       </c>
       <c r="D527" s="18" t="inlineStr">
         <is>
-          <t>Supervisión de la disponibilidad y la capacidad de respuesta de la aplicación web o el sitio web mediante pruebas de disponibilidad de Application Insights</t>
+          <t>Implementación de los procedimientos recomendados de confiabilidad de Azure App Service</t>
         </is>
       </c>
       <c r="E527" s="18" t="n"/>
       <c r="F527" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G527" t="inlineStr">
@@ -27756,7 +27756,7 @@
       <c r="K527" s="19" t="n"/>
       <c r="L527" s="19" t="inlineStr">
         <is>
-          <t>c7d3e5f9-a19c-4833-8ca6-1dcb0128e129</t>
+          <t>e68cd0ec-afc6-4bd8-a27f-7860ad9a0db2</t>
         </is>
       </c>
       <c r="M527" s="20" t="n"/>
@@ -27783,7 +27783,7 @@
       </c>
       <c r="D528" s="18" t="inlineStr">
         <is>
-          <t>Uso de la prueba estándar de Application Insights para supervisar la disponibilidad y la capacidad de respuesta de la aplicación web o el sitio web</t>
+          <t>Familiarizarse con cómo mover una aplicación de App Service a otra región durante un desastre</t>
         </is>
       </c>
       <c r="E528" s="18" t="n"/>
@@ -27807,7 +27807,7 @@
       <c r="K528" s="19" t="n"/>
       <c r="L528" s="19" t="inlineStr">
         <is>
-          <t>b4e3f2d5-a5c6-4d7e-8b2f-c5d9e7a8f0ea</t>
+          <t>bd2a865c-0835-4418-bb58-4df91a5a9b3f</t>
         </is>
       </c>
       <c r="M528" s="20" t="n"/>
@@ -27824,7 +27824,7 @@
       </c>
       <c r="B529" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C529" s="18" t="inlineStr">
@@ -27834,14 +27834,10 @@
       </c>
       <c r="D529" s="18" t="inlineStr">
         <is>
-          <t>Uso de Key Vault para almacenar secretos</t>
-        </is>
-      </c>
-      <c r="E529" s="18" t="inlineStr">
-        <is>
-          <t>Use Azure Key Vault para almacenar los secretos que necesita la aplicación.  Key Vault proporciona un entorno seguro y auditado para almacenar secretos y está bien integrado con App Service a través del SDK de Key Vault o las referencias de Key Vault de App Service.</t>
-        </is>
-      </c>
+          <t>Familiarizarse con la compatibilidad con la confiabilidad en Azure App Service</t>
+        </is>
+      </c>
+      <c r="E529" s="18" t="n"/>
       <c r="F529" s="18" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -27862,7 +27858,7 @@
       <c r="K529" s="19" t="n"/>
       <c r="L529" s="19" t="inlineStr">
         <is>
-          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
+          <t>f3d2f1e4-e6d4-4b7a-a5a5-e2a9b2c6f293</t>
         </is>
       </c>
       <c r="M529" s="20" t="n"/>
@@ -27879,7 +27875,7 @@
       </c>
       <c r="B530" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C530" s="18" t="inlineStr">
@@ -27889,17 +27885,13 @@
       </c>
       <c r="D530" s="18" t="inlineStr">
         <is>
-          <t>Uso de la identidad administrada para conectarse a Key Vault</t>
-        </is>
-      </c>
-      <c r="E530" s="18" t="inlineStr">
-        <is>
-          <t>Use una identidad administrada para conectarse a Key Vault mediante el SDK de Key Vault o a través de las referencias de Key Vault de App Service.</t>
-        </is>
-      </c>
+          <t>Asegúrese de que "Siempre activado" está habilitado para las aplicaciones de funciones que se ejecutan en un plan de App Service</t>
+        </is>
+      </c>
+      <c r="E530" s="18" t="n"/>
       <c r="F530" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G530" t="inlineStr">
@@ -27917,7 +27909,7 @@
       <c r="K530" s="19" t="n"/>
       <c r="L530" s="19" t="inlineStr">
         <is>
-          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
+          <t>c7b5f3d1-0569-4fd2-9f32-c0b64e9c0c5e</t>
         </is>
       </c>
       <c r="M530" s="20" t="n"/>
@@ -27934,7 +27926,7 @@
       </c>
       <c r="B531" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C531" s="18" t="inlineStr">
@@ -27944,17 +27936,13 @@
       </c>
       <c r="D531" s="18" t="inlineStr">
         <is>
-          <t>Use Key Vault para almacenar el certificado TLS.</t>
-        </is>
-      </c>
-      <c r="E531" s="18" t="inlineStr">
-        <is>
-          <t>Almacene el certificado TLS de App Service en Key Vault.</t>
-        </is>
-      </c>
+          <t>Supervisión de instancias de App Service mediante comprobaciones de estado</t>
+        </is>
+      </c>
+      <c r="E531" s="18" t="n"/>
       <c r="F531" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G531" t="inlineStr">
@@ -27972,7 +27960,7 @@
       <c r="K531" s="19" t="n"/>
       <c r="L531" s="19" t="inlineStr">
         <is>
-          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
+          <t>a3b4d5f6-758c-4f9d-9e1a-d7c6b7e8f9ab</t>
         </is>
       </c>
       <c r="M531" s="20" t="n"/>
@@ -27989,7 +27977,7 @@
       </c>
       <c r="B532" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C532" s="18" t="inlineStr">
@@ -27999,14 +27987,10 @@
       </c>
       <c r="D532" s="18" t="inlineStr">
         <is>
-          <t>Aísle los sistemas que procesan información confidencial</t>
-        </is>
-      </c>
-      <c r="E532" s="18" t="inlineStr">
-        <is>
-          <t>Los sistemas que procesan información confidencial deben estar aislados.  Para ello, use planes del Servicio de aplicaciones o entornos del Servicio de aplicaciones independientes y considere la posibilidad de usar suscripciones o grupos de administración diferentes.</t>
-        </is>
-      </c>
+          <t>Supervisión de la disponibilidad y la capacidad de respuesta de la aplicación web o el sitio web mediante pruebas de disponibilidad de Application Insights</t>
+        </is>
+      </c>
+      <c r="E532" s="18" t="n"/>
       <c r="F532" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -28027,7 +28011,7 @@
       <c r="K532" s="19" t="n"/>
       <c r="L532" s="19" t="inlineStr">
         <is>
-          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
+          <t>c7d3e5f9-a19c-4833-8ca6-1dcb0128e129</t>
         </is>
       </c>
       <c r="M532" s="20" t="n"/>
@@ -28044,7 +28028,7 @@
       </c>
       <c r="B533" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C533" s="18" t="inlineStr">
@@ -28054,17 +28038,13 @@
       </c>
       <c r="D533" s="18" t="inlineStr">
         <is>
-          <t>No almacene datos confidenciales en el disco local</t>
-        </is>
-      </c>
-      <c r="E533" s="18" t="inlineStr">
-        <is>
-          <t>Los discos locales de App Service no están cifrados y los datos confidenciales no deben almacenarse en ellos.  (Por ejemplo: D:\\Local y %TMP%).</t>
-        </is>
-      </c>
+          <t>Uso de la prueba estándar de Application Insights para supervisar la disponibilidad y la capacidad de respuesta de la aplicación web o el sitio web</t>
+        </is>
+      </c>
+      <c r="E533" s="18" t="n"/>
       <c r="F533" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G533" t="inlineStr">
@@ -28082,7 +28062,7 @@
       <c r="K533" s="19" t="n"/>
       <c r="L533" s="19" t="inlineStr">
         <is>
-          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
+          <t>b4e3f2d5-a5c6-4d7e-8b2f-c5d9e7a8f0ea</t>
         </is>
       </c>
       <c r="M533" s="20" t="n"/>
@@ -28109,17 +28089,17 @@
       </c>
       <c r="D534" s="18" t="inlineStr">
         <is>
-          <t>Usar un proveedor de identidades establecido para la autenticación</t>
+          <t>Uso de Key Vault para almacenar secretos</t>
         </is>
       </c>
       <c r="E534" s="18" t="inlineStr">
         <is>
-          <t>En el caso de la aplicación web autenticada, use un proveedor de identidades bien establecido, como Azure AD o Azure AD B2C.  Aproveche el marco de aplicaciones de su elección para integrarse con este proveedor o use la característica de autenticación o autorización del Servicio de aplicaciones.</t>
+          <t>Use Azure Key Vault para almacenar los secretos que necesita la aplicación.  Key Vault proporciona un entorno seguro y auditado para almacenar secretos y está bien integrado con App Service a través del SDK de Key Vault o las referencias de Key Vault de App Service.</t>
         </is>
       </c>
       <c r="F534" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G534" t="inlineStr">
@@ -28137,7 +28117,7 @@
       <c r="K534" s="19" t="n"/>
       <c r="L534" s="19" t="inlineStr">
         <is>
-          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
+          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
         </is>
       </c>
       <c r="M534" s="20" t="n"/>
@@ -28164,12 +28144,12 @@
       </c>
       <c r="D535" s="18" t="inlineStr">
         <is>
-          <t>Implementación desde un entorno de confianza</t>
+          <t>Uso de la identidad administrada para conectarse a Key Vault</t>
         </is>
       </c>
       <c r="E535" s="18" t="inlineStr">
         <is>
-          <t>Implemente código en App Service desde un entorno controlado y de confianza, como una canalización de implementación de DevOps bien administrada y segura. De este modo, se evita el código que no se ha controlado la versión y se ha comprobado que se implementará desde un host malintencionado.</t>
+          <t>Use una identidad administrada para conectarse a Key Vault mediante el SDK de Key Vault o a través de las referencias de Key Vault de App Service.</t>
         </is>
       </c>
       <c r="F535" s="18" t="inlineStr">
@@ -28192,7 +28172,7 @@
       <c r="K535" s="19" t="n"/>
       <c r="L535" s="19" t="inlineStr">
         <is>
-          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
+          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
         </is>
       </c>
       <c r="M535" s="20" t="n"/>
@@ -28219,12 +28199,12 @@
       </c>
       <c r="D536" s="18" t="inlineStr">
         <is>
-          <t>Deshabilitar la autenticación básica</t>
+          <t>Use Key Vault para almacenar el certificado TLS.</t>
         </is>
       </c>
       <c r="E536" s="18" t="inlineStr">
         <is>
-          <t>Deshabilite la autenticación básica tanto para FTP/FTPS como para WebDeploy/SCM.  Esto deshabilita el acceso a estos servicios y exige el uso de puntos de conexión protegidos de Azure AD para la implementación.  Tenga en cuenta que el sitio de SCM también se puede abrir con credenciales de Azure AD.</t>
+          <t>Almacene el certificado TLS de App Service en Key Vault.</t>
         </is>
       </c>
       <c r="F536" s="18" t="inlineStr">
@@ -28247,7 +28227,7 @@
       <c r="K536" s="19" t="n"/>
       <c r="L536" s="19" t="inlineStr">
         <is>
-          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
+          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
         </is>
       </c>
       <c r="M536" s="20" t="n"/>
@@ -28274,17 +28254,17 @@
       </c>
       <c r="D537" s="18" t="inlineStr">
         <is>
-          <t>Uso de la identidad administrada para conectarse a los recursos</t>
+          <t>Aísle los sistemas que procesan información confidencial</t>
         </is>
       </c>
       <c r="E537" s="18" t="inlineStr">
         <is>
-          <t>Siempre que sea posible, use Managed Identity para conectarse a los recursos protegidos de Azure AD.  Si esto no es posible, almacene los secretos en Key Vault y conéctese a Key Vault mediante una identidad administrada en su lugar.</t>
+          <t>Los sistemas que procesan información confidencial deben estar aislados.  Para ello, use planes del Servicio de aplicaciones o entornos del Servicio de aplicaciones independientes y considere la posibilidad de usar suscripciones o grupos de administración diferentes.</t>
         </is>
       </c>
       <c r="F537" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G537" t="inlineStr">
@@ -28302,7 +28282,7 @@
       <c r="K537" s="19" t="n"/>
       <c r="L537" s="19" t="inlineStr">
         <is>
-          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
+          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
         </is>
       </c>
       <c r="M537" s="20" t="n"/>
@@ -28329,17 +28309,17 @@
       </c>
       <c r="D538" s="18" t="inlineStr">
         <is>
-          <t>Extracción de contenedores mediante una identidad administrada</t>
+          <t>No almacene datos confidenciales en el disco local</t>
         </is>
       </c>
       <c r="E538" s="18" t="inlineStr">
         <is>
-          <t>Cuando use imágenes almacenadas en Azure Container Registry, extráigalas mediante una identidad administrada.</t>
+          <t>Los discos locales de App Service no están cifrados y los datos confidenciales no deben almacenarse en ellos.  (Por ejemplo: D:\\Local y %TMP%).</t>
         </is>
       </c>
       <c r="F538" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G538" t="inlineStr">
@@ -28357,7 +28337,7 @@
       <c r="K538" s="19" t="n"/>
       <c r="L538" s="19" t="inlineStr">
         <is>
-          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
+          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
         </is>
       </c>
       <c r="M538" s="20" t="n"/>
@@ -28384,12 +28364,12 @@
       </c>
       <c r="D539" s="18" t="inlineStr">
         <is>
-          <t>Envío de registros en tiempo de ejecución de App Service a Log Analytics</t>
+          <t>Usar un proveedor de identidades establecido para la autenticación</t>
         </is>
       </c>
       <c r="E539" s="18" t="inlineStr">
         <is>
-          <t>Al configurar las opciones de diagnóstico de App Service, puede enviar todos los datos de telemetría a Log Analytics como destino central para el registro y la supervisión. Esto le permite supervisar la actividad en tiempo de ejecución de App Service, como los registros HTTP, los registros de aplicaciones, los registros de plataforma, ...</t>
+          <t>En el caso de la aplicación web autenticada, use un proveedor de identidades bien establecido, como Azure AD o Azure AD B2C.  Aproveche el marco de aplicaciones de su elección para integrarse con este proveedor o use la característica de autenticación o autorización del Servicio de aplicaciones.</t>
         </is>
       </c>
       <c r="F539" s="18" t="inlineStr">
@@ -28412,7 +28392,7 @@
       <c r="K539" s="19" t="n"/>
       <c r="L539" s="19" t="inlineStr">
         <is>
-          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
+          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
         </is>
       </c>
       <c r="M539" s="20" t="n"/>
@@ -28439,17 +28419,17 @@
       </c>
       <c r="D540" s="18" t="inlineStr">
         <is>
-          <t>Envío de registros de actividad de App Service a Log Analytics</t>
+          <t>Implementación desde un entorno de confianza</t>
         </is>
       </c>
       <c r="E540" s="18" t="inlineStr">
         <is>
-          <t>Configure una configuración de diagnóstico para enviar el registro de actividad a Log Analytics como destino central para el registro y la supervisión. Esto le permite supervisar la actividad del plano de control en el propio recurso de App Service.</t>
+          <t>Implemente código en App Service desde un entorno controlado y de confianza, como una canalización de implementación de DevOps bien administrada y segura. De este modo, se evita el código que no se ha controlado la versión y se ha comprobado que se implementará desde un host malintencionado.</t>
         </is>
       </c>
       <c r="F540" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G540" t="inlineStr">
@@ -28467,7 +28447,7 @@
       <c r="K540" s="19" t="n"/>
       <c r="L540" s="19" t="inlineStr">
         <is>
-          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
+          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
         </is>
       </c>
       <c r="M540" s="20" t="n"/>
@@ -28494,17 +28474,17 @@
       </c>
       <c r="D541" s="18" t="inlineStr">
         <is>
-          <t>El acceso a la red saliente debe controlarse</t>
+          <t>Deshabilitar la autenticación básica</t>
         </is>
       </c>
       <c r="E541" s="18" t="inlineStr">
         <is>
-          <t>Controle el acceso saliente a la red mediante una combinación de integración de red virtual regional, grupos de seguridad de red y UDR.  El tráfico debe enrutarse a una aplicación virtual de red, como Azure Firewall.  Asegúrese de supervisar los registros del cortafuegos.</t>
+          <t>Deshabilite la autenticación básica tanto para FTP/FTPS como para WebDeploy/SCM.  Esto deshabilita el acceso a estos servicios y exige el uso de puntos de conexión protegidos de Azure AD para la implementación.  Tenga en cuenta que el sitio de SCM también se puede abrir con credenciales de Azure AD.</t>
         </is>
       </c>
       <c r="F541" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G541" t="inlineStr">
@@ -28522,7 +28502,7 @@
       <c r="K541" s="19" t="n"/>
       <c r="L541" s="19" t="inlineStr">
         <is>
-          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
+          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
         </is>
       </c>
       <c r="M541" s="20" t="n"/>
@@ -28549,17 +28529,17 @@
       </c>
       <c r="D542" s="18" t="inlineStr">
         <is>
-          <t>Garantizar una IP estable para las comunicaciones salientes hacia las direcciones de Internet</t>
+          <t>Uso de la identidad administrada para conectarse a los recursos</t>
         </is>
       </c>
       <c r="E542" s="18" t="inlineStr">
         <is>
-          <t>Puede proporcionar una dirección IP de salida estable mediante la integración de red virtual y una puerta de enlace NAT de red virtual o una aplicación virtual de red como Azure Firewall.  Esto permite a la parte receptora incluir en la lista de permitidos en función de la IP, en caso de que sea necesario.  Tenga en cuenta que para las comunicaciones con los servicios de Azure, a menudo no es necesario depender de la dirección IP y, en su lugar, se deben usar mecanismos como los puntos de conexión de servicio.  (Además, el uso de puntos de conexión privados en el extremo receptor evita que se produzca SNAT y proporciona un intervalo de IP de salida estable).</t>
+          <t>Siempre que sea posible, use Managed Identity para conectarse a los recursos protegidos de Azure AD.  Si esto no es posible, almacene los secretos en Key Vault y conéctese a Key Vault mediante una identidad administrada en su lugar.</t>
         </is>
       </c>
       <c r="F542" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G542" t="inlineStr">
@@ -28577,7 +28557,7 @@
       <c r="K542" s="19" t="n"/>
       <c r="L542" s="19" t="inlineStr">
         <is>
-          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
+          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
         </is>
       </c>
       <c r="M542" s="20" t="n"/>
@@ -28604,12 +28584,12 @@
       </c>
       <c r="D543" s="18" t="inlineStr">
         <is>
-          <t>El acceso a la red entrante debe controlarse</t>
+          <t>Extracción de contenedores mediante una identidad administrada</t>
         </is>
       </c>
       <c r="E543" s="18" t="inlineStr">
         <is>
-          <t>Controle el acceso entrante a la red mediante una combinación de restricciones de acceso al Servicio de aplicaciones, puntos de conexión de servicio o puntos de conexión privados. Se pueden requerir y configurar diferentes restricciones de acceso para la propia aplicación web y el sitio de SCM.</t>
+          <t>Cuando use imágenes almacenadas en Azure Container Registry, extráigalas mediante una identidad administrada.</t>
         </is>
       </c>
       <c r="F543" s="18" t="inlineStr">
@@ -28632,7 +28612,7 @@
       <c r="K543" s="19" t="n"/>
       <c r="L543" s="19" t="inlineStr">
         <is>
-          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
+          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
         </is>
       </c>
       <c r="M543" s="20" t="n"/>
@@ -28659,17 +28639,17 @@
       </c>
       <c r="D544" s="18" t="inlineStr">
         <is>
-          <t>Uso de un WAF delante de App Service</t>
+          <t>Envío de registros en tiempo de ejecución de App Service a Log Analytics</t>
         </is>
       </c>
       <c r="E544" s="18" t="inlineStr">
         <is>
-          <t>Protéjase contra el tráfico entrante malintencionado mediante un firewall de aplicaciones web como Application Gateway o Azure Front Door.  Asegúrese de supervisar los registros del WAF.</t>
+          <t>Al configurar las opciones de diagnóstico de App Service, puede enviar todos los datos de telemetría a Log Analytics como destino central para el registro y la supervisión. Esto le permite supervisar la actividad en tiempo de ejecución de App Service, como los registros HTTP, los registros de aplicaciones, los registros de plataforma, ...</t>
         </is>
       </c>
       <c r="F544" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G544" t="inlineStr">
@@ -28687,7 +28667,7 @@
       <c r="K544" s="19" t="n"/>
       <c r="L544" s="19" t="inlineStr">
         <is>
-          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
+          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
         </is>
       </c>
       <c r="M544" s="20" t="n"/>
@@ -28714,17 +28694,17 @@
       </c>
       <c r="D545" s="18" t="inlineStr">
         <is>
-          <t>Evite que se omita WAF</t>
+          <t>Envío de registros de actividad de App Service a Log Analytics</t>
         </is>
       </c>
       <c r="E545" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que no se pueda omitir el WAF bloqueando el acceso solo al WAF.  Use una combinación de restricciones de acceso, puntos de conexión de servicio y puntos de conexión privados.</t>
+          <t>Configure una configuración de diagnóstico para enviar el registro de actividad a Log Analytics como destino central para el registro y la supervisión. Esto le permite supervisar la actividad del plano de control en el propio recurso de App Service.</t>
         </is>
       </c>
       <c r="F545" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G545" t="inlineStr">
@@ -28742,7 +28722,7 @@
       <c r="K545" s="19" t="n"/>
       <c r="L545" s="19" t="inlineStr">
         <is>
-          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
+          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
         </is>
       </c>
       <c r="M545" s="20" t="n"/>
@@ -28769,12 +28749,12 @@
       </c>
       <c r="D546" s="18" t="inlineStr">
         <is>
-          <t>Establezca la directiva TLS mínima en 1.2</t>
+          <t>El acceso a la red saliente debe controlarse</t>
         </is>
       </c>
       <c r="E546" s="18" t="inlineStr">
         <is>
-          <t>Establezca la directiva TLS mínima en 1.2 en la configuración de App Service.</t>
+          <t>Controle el acceso saliente a la red mediante una combinación de integración de red virtual regional, grupos de seguridad de red y UDR.  El tráfico debe enrutarse a una aplicación virtual de red, como Azure Firewall.  Asegúrese de supervisar los registros del cortafuegos.</t>
         </is>
       </c>
       <c r="F546" s="18" t="inlineStr">
@@ -28794,14 +28774,10 @@
         </is>
       </c>
       <c r="J546" s="13" t="n"/>
-      <c r="K546" s="19" t="inlineStr">
-        <is>
-          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.MinTlsVersion&gt;=1.2) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K546" s="19" t="n"/>
       <c r="L546" s="19" t="inlineStr">
         <is>
-          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
+          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
         </is>
       </c>
       <c r="M546" s="20" t="n"/>
@@ -28828,17 +28804,17 @@
       </c>
       <c r="D547" s="18" t="inlineStr">
         <is>
-          <t>Usar solo HTTPS</t>
+          <t>Garantizar una IP estable para las comunicaciones salientes hacia las direcciones de Internet</t>
         </is>
       </c>
       <c r="E547" s="18" t="inlineStr">
         <is>
-          <t>Configure App Service para que use solo HTTPS.  Esto hace que App Service se redirija de HTTP a HTTPS.  Considere seriamente el uso de HTTP Strict Transport Security (HSTS) en su código o desde su WAF, que informa a los navegadores que solo se debe acceder al sitio mediante HTTPS.</t>
+          <t>Puede proporcionar una dirección IP de salida estable mediante la integración de red virtual y una puerta de enlace NAT de red virtual o una aplicación virtual de red como Azure Firewall.  Esto permite a la parte receptora incluir en la lista de permitidos en función de la IP, en caso de que sea necesario.  Tenga en cuenta que para las comunicaciones con los servicios de Azure, a menudo no es necesario depender de la dirección IP y, en su lugar, se deben usar mecanismos como los puntos de conexión de servicio.  (Además, el uso de puntos de conexión privados en el extremo receptor evita que se produzca SNAT y proporciona un intervalo de IP de salida estable).</t>
         </is>
       </c>
       <c r="F547" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G547" t="inlineStr">
@@ -28853,14 +28829,10 @@
         </is>
       </c>
       <c r="J547" s="13" t="n"/>
-      <c r="K547" s="19" t="inlineStr">
-        <is>
-          <t>where (type=='microsoft.web/sites' and (kind == 'app' or kind == 'app,linux' )) | extend compliant = (properties.httpsOnly==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K547" s="19" t="n"/>
       <c r="L547" s="19" t="inlineStr">
         <is>
-          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
+          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
         </is>
       </c>
       <c r="M547" s="20" t="n"/>
@@ -28887,12 +28859,12 @@
       </c>
       <c r="D548" s="18" t="inlineStr">
         <is>
-          <t>Los comodines no deben usarse para CORS</t>
+          <t>El acceso a la red entrante debe controlarse</t>
         </is>
       </c>
       <c r="E548" s="18" t="inlineStr">
         <is>
-          <t>No utilice caracteres comodín en la configuración de CORS, ya que esto permite que todos los orígenes accedan al servicio (lo que anula el propósito de CORS). En concreto, solo permite los orígenes que esperas poder acceder al servicio.</t>
+          <t>Controle el acceso entrante a la red mediante una combinación de restricciones de acceso al Servicio de aplicaciones, puntos de conexión de servicio o puntos de conexión privados. Se pueden requerir y configurar diferentes restricciones de acceso para la propia aplicación web y el sitio de SCM.</t>
         </is>
       </c>
       <c r="F548" s="18" t="inlineStr">
@@ -28915,7 +28887,7 @@
       <c r="K548" s="19" t="n"/>
       <c r="L548" s="19" t="inlineStr">
         <is>
-          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
+          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
         </is>
       </c>
       <c r="M548" s="20" t="n"/>
@@ -28942,12 +28914,12 @@
       </c>
       <c r="D549" s="18" t="inlineStr">
         <is>
-          <t>Desactivar la depuración remota</t>
+          <t>Uso de un WAF delante de App Service</t>
         </is>
       </c>
       <c r="E549" s="18" t="inlineStr">
         <is>
-          <t>La depuración remota no debe estar activada en producción, ya que esto abre puertos adicionales en el servicio, lo que aumenta la superficie expuesta a ataques. Tenga en cuenta que el servicio desactiva la depuración remota automáticamente después de 48 horas.</t>
+          <t>Protéjase contra el tráfico entrante malintencionado mediante un firewall de aplicaciones web como Application Gateway o Azure Front Door.  Asegúrese de supervisar los registros del WAF.</t>
         </is>
       </c>
       <c r="F549" s="18" t="inlineStr">
@@ -28967,14 +28939,10 @@
         </is>
       </c>
       <c r="J549" s="13" t="n"/>
-      <c r="K549" s="19" t="inlineStr">
-        <is>
-          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.RemoteDebuggingEnabled == false) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K549" s="19" t="n"/>
       <c r="L549" s="19" t="inlineStr">
         <is>
-          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
+          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
         </is>
       </c>
       <c r="M549" s="20" t="n"/>
@@ -29001,17 +28969,17 @@
       </c>
       <c r="D550" s="18" t="inlineStr">
         <is>
-          <t>Habilitación de Defender for Cloud: Defender for App Service</t>
+          <t>Evite que se omita WAF</t>
         </is>
       </c>
       <c r="E550" s="18" t="inlineStr">
         <is>
-          <t>Habilite Defender para App Service.  Esto (entre otras amenazas) detecta comunicaciones a direcciones IP maliciosas conocidas.  Revise las recomendaciones de Defender para App Service como parte de las operaciones.</t>
+          <t>Asegúrese de que no se pueda omitir el WAF bloqueando el acceso solo al WAF.  Use una combinación de restricciones de acceso, puntos de conexión de servicio y puntos de conexión privados.</t>
         </is>
       </c>
       <c r="F550" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G550" t="inlineStr">
@@ -29029,7 +28997,7 @@
       <c r="K550" s="19" t="n"/>
       <c r="L550" s="19" t="inlineStr">
         <is>
-          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
+          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
         </is>
       </c>
       <c r="M550" s="20" t="n"/>
@@ -29056,12 +29024,12 @@
       </c>
       <c r="D551" s="18" t="inlineStr">
         <is>
-          <t>Habilitación del estándar de protección DDoS en la red virtual de WAF</t>
+          <t>Establezca la directiva TLS mínima en 1.2</t>
         </is>
       </c>
       <c r="E551" s="18" t="inlineStr">
         <is>
-          <t>Azure proporciona protección básica contra DDoS en su red, que se puede mejorar con funcionalidades inteligentes de DDoS Standard que aprenden sobre los patrones de tráfico normales y pueden detectar comportamientos inusuales. DDoS Standard se aplica a una red virtual, por lo que debe configurarse para el recurso de red delante de la aplicación, como Application Gateway o una aplicación virtual de red.</t>
+          <t>Establezca la directiva TLS mínima en 1.2 en la configuración de App Service.</t>
         </is>
       </c>
       <c r="F551" s="18" t="inlineStr">
@@ -29081,10 +29049,14 @@
         </is>
       </c>
       <c r="J551" s="13" t="n"/>
-      <c r="K551" s="19" t="n"/>
+      <c r="K551" s="19" t="inlineStr">
+        <is>
+          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.MinTlsVersion&gt;=1.2) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L551" s="19" t="inlineStr">
         <is>
-          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
+          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
         </is>
       </c>
       <c r="M551" s="20" t="n"/>
@@ -29111,17 +29083,17 @@
       </c>
       <c r="D552" s="18" t="inlineStr">
         <is>
-          <t>Extracción de contenedores a través de una red virtual</t>
+          <t>Usar solo HTTPS</t>
         </is>
       </c>
       <c r="E552" s="18" t="inlineStr">
         <is>
-          <t>Cuando use imágenes almacenadas en Azure Container Registry, extráigalas a través de una red virtual desde Azure Container Registry mediante su punto de conexión privado y la configuración de la aplicación "WEBSITE_PULL_IMAGE_OVER_VNET".</t>
+          <t>Configure App Service para que use solo HTTPS.  Esto hace que App Service se redirija de HTTP a HTTPS.  Considere seriamente el uso de HTTP Strict Transport Security (HSTS) en su código o desde su WAF, que informa a los navegadores que solo se debe acceder al sitio mediante HTTPS.</t>
         </is>
       </c>
       <c r="F552" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G552" t="inlineStr">
@@ -29136,10 +29108,14 @@
         </is>
       </c>
       <c r="J552" s="13" t="n"/>
-      <c r="K552" s="19" t="n"/>
+      <c r="K552" s="19" t="inlineStr">
+        <is>
+          <t>where (type=='microsoft.web/sites' and (kind == 'app' or kind == 'app,linux' )) | extend compliant = (properties.httpsOnly==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L552" s="19" t="inlineStr">
         <is>
-          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
+          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
         </is>
       </c>
       <c r="M552" s="20" t="n"/>
@@ -29166,17 +29142,17 @@
       </c>
       <c r="D553" s="18" t="inlineStr">
         <is>
-          <t>Realizar una prueba de penetración</t>
+          <t>Los comodines no deben usarse para CORS</t>
         </is>
       </c>
       <c r="E553" s="18" t="inlineStr">
         <is>
-          <t>Realice una prueba de penetración en la aplicación web siguiendo las reglas de participación de las pruebas de penetración.</t>
+          <t>No utilice caracteres comodín en la configuración de CORS, ya que esto permite que todos los orígenes accedan al servicio (lo que anula el propósito de CORS). En concreto, solo permite los orígenes que esperas poder acceder al servicio.</t>
         </is>
       </c>
       <c r="F553" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G553" t="inlineStr">
@@ -29194,7 +29170,7 @@
       <c r="K553" s="19" t="n"/>
       <c r="L553" s="19" t="inlineStr">
         <is>
-          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
+          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
         </is>
       </c>
       <c r="M553" s="20" t="n"/>
@@ -29221,17 +29197,17 @@
       </c>
       <c r="D554" s="18" t="inlineStr">
         <is>
-          <t>Implementación de código validado</t>
+          <t>Desactivar la depuración remota</t>
         </is>
       </c>
       <c r="E554" s="18" t="inlineStr">
         <is>
-          <t>Implemente código de confianza que se haya validado y analizado en busca de vulnerabilidades de acuerdo con las prácticas de DevSecOps.</t>
+          <t>La depuración remota no debe estar activada en producción, ya que esto abre puertos adicionales en el servicio, lo que aumenta la superficie expuesta a ataques. Tenga en cuenta que el servicio desactiva la depuración remota automáticamente después de 48 horas.</t>
         </is>
       </c>
       <c r="F554" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G554" t="inlineStr">
@@ -29246,10 +29222,14 @@
         </is>
       </c>
       <c r="J554" s="13" t="n"/>
-      <c r="K554" s="19" t="n"/>
+      <c r="K554" s="19" t="inlineStr">
+        <is>
+          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.RemoteDebuggingEnabled == false) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L554" s="19" t="inlineStr">
         <is>
-          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
+          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
         </is>
       </c>
       <c r="M554" s="20" t="n"/>
@@ -29276,17 +29256,17 @@
       </c>
       <c r="D555" s="18" t="inlineStr">
         <is>
-          <t>Utilizar plataformas, lenguajes, protocolos y marcos actualizados</t>
+          <t>Habilitación de Defender for Cloud: Defender for App Service</t>
         </is>
       </c>
       <c r="E555" s="18" t="inlineStr">
         <is>
-          <t>Utilice las versiones más recientes de plataformas, lenguajes de programación, protocolos y marcos compatibles.</t>
+          <t>Habilite Defender para App Service.  Esto (entre otras amenazas) detecta comunicaciones a direcciones IP maliciosas conocidas.  Revise las recomendaciones de Defender para App Service como parte de las operaciones.</t>
         </is>
       </c>
       <c r="F555" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G555" t="inlineStr">
@@ -29304,7 +29284,7 @@
       <c r="K555" s="19" t="n"/>
       <c r="L555" s="19" t="inlineStr">
         <is>
-          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
+          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
         </is>
       </c>
       <c r="M555" s="20" t="n"/>
@@ -29314,17 +29294,54 @@
       <c r="Q555" s="20" t="n"/>
     </row>
     <row r="556">
-      <c r="A556" s="18" t="n"/>
-      <c r="B556" s="18" t="n"/>
-      <c r="C556" s="18" t="n"/>
-      <c r="D556" s="18" t="n"/>
-      <c r="E556" s="18" t="n"/>
-      <c r="F556" s="18" t="n"/>
+      <c r="A556" s="18" t="inlineStr">
+        <is>
+          <t>Azure App Service Review</t>
+        </is>
+      </c>
+      <c r="B556" s="18" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C556" s="18" t="inlineStr">
+        <is>
+          <t>App Services</t>
+        </is>
+      </c>
+      <c r="D556" s="18" t="inlineStr">
+        <is>
+          <t>Habilitación del estándar de protección DDoS en la red virtual de WAF</t>
+        </is>
+      </c>
+      <c r="E556" s="18" t="inlineStr">
+        <is>
+          <t>Azure proporciona protección básica contra DDoS en su red, que se puede mejorar con funcionalidades inteligentes de DDoS Standard que aprenden sobre los patrones de tráfico normales y pueden detectar comportamientos inusuales. DDoS Standard se aplica a una red virtual, por lo que debe configurarse para el recurso de red delante de la aplicación, como Application Gateway o una aplicación virtual de red.</t>
+        </is>
+      </c>
+      <c r="F556" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H556" s="18" t="n"/>
-      <c r="I556" s="13" t="n"/>
+      <c r="I556" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J556" s="13" t="n"/>
       <c r="K556" s="19" t="n"/>
-      <c r="L556" s="19" t="n"/>
+      <c r="L556" s="19" t="inlineStr">
+        <is>
+          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
+        </is>
+      </c>
       <c r="M556" s="20" t="n"/>
       <c r="N556" s="20" t="n"/>
       <c r="O556" s="20" t="n"/>
@@ -29332,17 +29349,54 @@
       <c r="Q556" s="20" t="n"/>
     </row>
     <row r="557">
-      <c r="A557" s="18" t="n"/>
-      <c r="B557" s="18" t="n"/>
-      <c r="C557" s="18" t="n"/>
-      <c r="D557" s="18" t="n"/>
-      <c r="E557" s="18" t="n"/>
-      <c r="F557" s="18" t="n"/>
+      <c r="A557" s="18" t="inlineStr">
+        <is>
+          <t>Azure App Service Review</t>
+        </is>
+      </c>
+      <c r="B557" s="18" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C557" s="18" t="inlineStr">
+        <is>
+          <t>App Services</t>
+        </is>
+      </c>
+      <c r="D557" s="18" t="inlineStr">
+        <is>
+          <t>Extracción de contenedores a través de una red virtual</t>
+        </is>
+      </c>
+      <c r="E557" s="18" t="inlineStr">
+        <is>
+          <t>Cuando use imágenes almacenadas en Azure Container Registry, extráigalas a través de una red virtual desde Azure Container Registry mediante su punto de conexión privado y la configuración de la aplicación "WEBSITE_PULL_IMAGE_OVER_VNET".</t>
+        </is>
+      </c>
+      <c r="F557" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G557" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H557" s="18" t="n"/>
-      <c r="I557" s="13" t="n"/>
+      <c r="I557" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J557" s="13" t="n"/>
       <c r="K557" s="19" t="n"/>
-      <c r="L557" s="19" t="n"/>
+      <c r="L557" s="19" t="inlineStr">
+        <is>
+          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
+        </is>
+      </c>
       <c r="M557" s="20" t="n"/>
       <c r="N557" s="20" t="n"/>
       <c r="O557" s="20" t="n"/>
@@ -29350,17 +29404,54 @@
       <c r="Q557" s="20" t="n"/>
     </row>
     <row r="558">
-      <c r="A558" s="18" t="n"/>
-      <c r="B558" s="18" t="n"/>
-      <c r="C558" s="18" t="n"/>
-      <c r="D558" s="18" t="n"/>
-      <c r="E558" s="18" t="n"/>
-      <c r="F558" s="18" t="n"/>
+      <c r="A558" s="18" t="inlineStr">
+        <is>
+          <t>Azure App Service Review</t>
+        </is>
+      </c>
+      <c r="B558" s="18" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C558" s="18" t="inlineStr">
+        <is>
+          <t>App Services</t>
+        </is>
+      </c>
+      <c r="D558" s="18" t="inlineStr">
+        <is>
+          <t>Realizar una prueba de penetración</t>
+        </is>
+      </c>
+      <c r="E558" s="18" t="inlineStr">
+        <is>
+          <t>Realice una prueba de penetración en la aplicación web siguiendo las reglas de participación de las pruebas de penetración.</t>
+        </is>
+      </c>
+      <c r="F558" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G558" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H558" s="18" t="n"/>
-      <c r="I558" s="13" t="n"/>
+      <c r="I558" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J558" s="13" t="n"/>
       <c r="K558" s="19" t="n"/>
-      <c r="L558" s="19" t="n"/>
+      <c r="L558" s="19" t="inlineStr">
+        <is>
+          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
+        </is>
+      </c>
       <c r="M558" s="20" t="n"/>
       <c r="N558" s="20" t="n"/>
       <c r="O558" s="20" t="n"/>
@@ -29368,17 +29459,54 @@
       <c r="Q558" s="20" t="n"/>
     </row>
     <row r="559">
-      <c r="A559" s="18" t="n"/>
-      <c r="B559" s="18" t="n"/>
-      <c r="C559" s="18" t="n"/>
-      <c r="D559" s="18" t="n"/>
-      <c r="E559" s="18" t="n"/>
-      <c r="F559" s="18" t="n"/>
+      <c r="A559" s="18" t="inlineStr">
+        <is>
+          <t>Azure App Service Review</t>
+        </is>
+      </c>
+      <c r="B559" s="18" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C559" s="18" t="inlineStr">
+        <is>
+          <t>App Services</t>
+        </is>
+      </c>
+      <c r="D559" s="18" t="inlineStr">
+        <is>
+          <t>Implementación de código validado</t>
+        </is>
+      </c>
+      <c r="E559" s="18" t="inlineStr">
+        <is>
+          <t>Implemente código de confianza que se haya validado y analizado en busca de vulnerabilidades de acuerdo con las prácticas de DevSecOps.</t>
+        </is>
+      </c>
+      <c r="F559" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H559" s="18" t="n"/>
-      <c r="I559" s="13" t="n"/>
+      <c r="I559" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J559" s="13" t="n"/>
       <c r="K559" s="19" t="n"/>
-      <c r="L559" s="19" t="n"/>
+      <c r="L559" s="19" t="inlineStr">
+        <is>
+          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
+        </is>
+      </c>
       <c r="M559" s="20" t="n"/>
       <c r="N559" s="20" t="n"/>
       <c r="O559" s="20" t="n"/>
@@ -29386,17 +29514,54 @@
       <c r="Q559" s="20" t="n"/>
     </row>
     <row r="560">
-      <c r="A560" s="18" t="n"/>
-      <c r="B560" s="18" t="n"/>
-      <c r="C560" s="18" t="n"/>
-      <c r="D560" s="18" t="n"/>
-      <c r="E560" s="18" t="n"/>
-      <c r="F560" s="18" t="n"/>
+      <c r="A560" s="18" t="inlineStr">
+        <is>
+          <t>Azure App Service Review</t>
+        </is>
+      </c>
+      <c r="B560" s="18" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C560" s="18" t="inlineStr">
+        <is>
+          <t>App Services</t>
+        </is>
+      </c>
+      <c r="D560" s="18" t="inlineStr">
+        <is>
+          <t>Utilizar plataformas, lenguajes, protocolos y marcos actualizados</t>
+        </is>
+      </c>
+      <c r="E560" s="18" t="inlineStr">
+        <is>
+          <t>Utilice las versiones más recientes de plataformas, lenguajes de programación, protocolos y marcos compatibles.</t>
+        </is>
+      </c>
+      <c r="F560" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G560" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H560" s="18" t="n"/>
-      <c r="I560" s="13" t="n"/>
+      <c r="I560" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J560" s="13" t="n"/>
       <c r="K560" s="19" t="n"/>
-      <c r="L560" s="19" t="n"/>
+      <c r="L560" s="19" t="inlineStr">
+        <is>
+          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
+        </is>
+      </c>
       <c r="M560" s="20" t="n"/>
       <c r="N560" s="20" t="n"/>
       <c r="O560" s="20" t="n"/>
@@ -41158,7 +41323,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G556" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G561" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -41613,6 +41778,11 @@
     <hyperlink ref="I553" r:id="rId448"/>
     <hyperlink ref="I554" r:id="rId449"/>
     <hyperlink ref="I555" r:id="rId450"/>
+    <hyperlink ref="I556" r:id="rId451"/>
+    <hyperlink ref="I557" r:id="rId452"/>
+    <hyperlink ref="I558" r:id="rId453"/>
+    <hyperlink ref="I559" r:id="rId454"/>
+    <hyperlink ref="I560" r:id="rId455"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf_checklist.es.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.es.xlsx
@@ -16792,11 +16792,15 @@
       </c>
       <c r="D307" s="18" t="inlineStr">
         <is>
-          <t>Azure Cache for Redis admite configuraciones con redundancia de zona en los niveles Premium y Enterprise. Una caché con redundancia de zona puede colocar sus nodos en diferentes zonas de disponibilidad de Azure en la misma región. Elimina la interrupción del centro de datos o de la zona de disponibilidad como único punto de error y aumenta la disponibilidad general de la memoria caché.</t>
+          <t>Habilite la redundancia de zona para Azure Cache for Redis. Azure Cache for Redis admite configuraciones con redundancia de zona en los niveles Premium y Enterprise. Una caché con redundancia de zona puede colocar sus nodos en diferentes zonas de disponibilidad de Azure en la misma región. Elimina la interrupción del centro de datos o de la zona de disponibilidad como único punto de error y aumenta la disponibilidad general de la memoria caché.</t>
         </is>
       </c>
       <c r="E307" s="18" t="n"/>
-      <c r="F307" s="18" t="n"/>
+      <c r="F307" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
       <c r="G307" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -16839,11 +16843,15 @@
       </c>
       <c r="D308" s="18" t="inlineStr">
         <is>
-          <t>Dado que los datos de caché se almacenan en la memoria, un error poco frecuente y no planeado de varios nodos puede hacer que se eliminen todos los datos. Para evitar la pérdida completa de datos, la persistencia de Redis permite tomar instantáneas periódicas de los datos en memoria y almacenarlas en la cuenta de almacenamiento.</t>
+          <t>Configure la persistencia de datos para una instancia de Azure Cache for Redis. Dado que los datos de caché se almacenan en la memoria, un error poco frecuente y no planeado de varios nodos puede hacer que se eliminen todos los datos. Para evitar la pérdida completa de datos, la persistencia de Redis permite tomar instantáneas periódicas de los datos en memoria y almacenarlas en la cuenta de almacenamiento.</t>
         </is>
       </c>
       <c r="E308" s="18" t="n"/>
-      <c r="F308" s="18" t="n"/>
+      <c r="F308" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="G308" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -16890,7 +16898,11 @@
         </is>
       </c>
       <c r="E309" s="18" t="n"/>
-      <c r="F309" s="18" t="n"/>
+      <c r="F309" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="G309" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -16933,11 +16945,15 @@
       </c>
       <c r="D310" s="18" t="inlineStr">
         <is>
-          <t>La replicación geográfica es un mecanismo para vincular dos o más instancias de Azure Cache for Redis, que normalmente abarcan dos regiones de Azure. La replicación geográfica está diseñada principalmente para la recuperación ante desastres entre regiones. Dos instancias de caché de nivel Premium se conectan a través de la replicación geográfica de una manera que proporciona lecturas y escrituras en la caché principal, y esos datos se replican en la caché secundaria.</t>
+          <t>Configure la replicación geográfica pasiva para instancias de Azure Cache for Redis Premium. La replicación geográfica es un mecanismo para vincular dos o más instancias de Azure Cache for Redis, que normalmente abarcan dos regiones de Azure. La replicación geográfica está diseñada principalmente para la recuperación ante desastres entre regiones. Dos instancias de caché de nivel Premium se conectan a través de la replicación geográfica de una manera que proporciona lecturas y escrituras en la caché principal, y esos datos se replican en la caché secundaria.</t>
         </is>
       </c>
       <c r="E310" s="18" t="n"/>
-      <c r="F310" s="18" t="n"/>
+      <c r="F310" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="G310" t="inlineStr">
         <is>
           <t>No verificado</t>

--- a/spreadsheet/macrofree/waf_checklist.es.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.es.xlsx
@@ -36246,7 +36246,7 @@
     <row r="686">
       <c r="A686" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure Bot Service</t>
         </is>
       </c>
       <c r="B686" s="18" t="inlineStr">
@@ -36256,18 +36256,18 @@
       </c>
       <c r="C686" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>Bot service</t>
         </is>
       </c>
       <c r="D686" s="18" t="inlineStr">
         <is>
-          <t>Habilite la redundancia de zona para Azure Cache for Redis. Azure Cache for Redis admite configuraciones con redundancia de zona en los niveles Premium y Enterprise. Una caché con redundancia de zona puede colocar sus nodos en diferentes zonas de disponibilidad de Azure en la misma región. Elimina la interrupción del centro de datos o de la zona de disponibilidad como único punto de error y aumenta la disponibilidad general de la memoria caché.</t>
+          <t>Siga las recomendaciones de soporte técnico de confiabilidad en Azure Bot Service</t>
         </is>
       </c>
       <c r="E686" s="18" t="n"/>
       <c r="F686" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G686" t="inlineStr">
@@ -36285,7 +36285,7 @@
       <c r="K686" s="19" t="n"/>
       <c r="L686" s="19" t="inlineStr">
         <is>
-          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
+          <t>6ad48408-ee72-4734-a476-ba28fdcf590c</t>
         </is>
       </c>
       <c r="M686" s="20" t="n"/>
@@ -36297,7 +36297,7 @@
     <row r="687">
       <c r="A687" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure Bot Service</t>
         </is>
       </c>
       <c r="B687" s="18" t="inlineStr">
@@ -36307,12 +36307,12 @@
       </c>
       <c r="C687" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>Bot service</t>
         </is>
       </c>
       <c r="D687" s="18" t="inlineStr">
         <is>
-          <t>Configure la persistencia de datos para una instancia de Azure Cache for Redis. Dado que los datos de caché se almacenan en la memoria, un error poco frecuente y no planeado de varios nodos puede hacer que se eliminen todos los datos. Para evitar la pérdida completa de datos, la persistencia de Redis permite tomar instantáneas periódicas de los datos en memoria y almacenarlas en la cuenta de almacenamiento.</t>
+          <t>Implementación de bots con residencia de datos local y cumplimiento regional</t>
         </is>
       </c>
       <c r="E687" s="18" t="n"/>
@@ -36336,7 +36336,7 @@
       <c r="K687" s="19" t="n"/>
       <c r="L687" s="19" t="inlineStr">
         <is>
-          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
+          <t>e65de8e1-3f9c-4cbd-9682-66abca264f9a</t>
         </is>
       </c>
       <c r="M687" s="20" t="n"/>
@@ -36348,7 +36348,7 @@
     <row r="688">
       <c r="A688" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure Bot Service</t>
         </is>
       </c>
       <c r="B688" s="18" t="inlineStr">
@@ -36358,12 +36358,12 @@
       </c>
       <c r="C688" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>Bot service</t>
         </is>
       </c>
       <c r="D688" s="18" t="inlineStr">
         <is>
-          <t>Use una cuenta de almacenamiento con redundancia geográfica para conservar los datos de Azure Cache for Redis o con redundancia zonal donde la redundancia geográfica no esté disponible</t>
+          <t>Azure Bot Service se ejecuta en modo activo-activo para los servicios globales y regionales. Cuando se produce una interrupción, no es necesario detectar errores ni administrar el servicio. Azure Bot Service realiza automáticamente la conmutación por error y la recuperación automáticas en una arquitectura geográfica de varias regiones. En el caso del servicio regional de bots de la UE, Azure Bot Service proporciona dos regiones completas dentro de Europa con replicación activa/activa para garantizar la redundancia. En el caso del servicio de bot global, todas las regiones o zonas geográficas disponibles se pueden servir como superficie global.</t>
         </is>
       </c>
       <c r="E688" s="18" t="n"/>
@@ -36387,7 +36387,7 @@
       <c r="K688" s="19" t="n"/>
       <c r="L688" s="19" t="inlineStr">
         <is>
-          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
+          <t>19bfe9d5-5d04-4c3c-9919-ca1b2d1215ae</t>
         </is>
       </c>
       <c r="M688" s="20" t="n"/>
@@ -36414,13 +36414,13 @@
       </c>
       <c r="D689" s="18" t="inlineStr">
         <is>
-          <t>Configure la replicación geográfica pasiva para instancias de Azure Cache for Redis Premium. La replicación geográfica es un mecanismo para vincular dos o más instancias de Azure Cache for Redis, que normalmente abarcan dos regiones de Azure. La replicación geográfica está diseñada principalmente para la recuperación ante desastres entre regiones. Dos instancias de caché de nivel Premium se conectan a través de la replicación geográfica de una manera que proporciona lecturas y escrituras en la caché principal, y esos datos se replican en la caché secundaria.</t>
+          <t>Habilite la redundancia de zona para Azure Cache for Redis. Azure Cache for Redis admite configuraciones con redundancia de zona en los niveles Premium y Enterprise. Una caché con redundancia de zona puede colocar sus nodos en diferentes zonas de disponibilidad de Azure en la misma región. Elimina la interrupción del centro de datos o de la zona de disponibilidad como único punto de error y aumenta la disponibilidad general de la memoria caché.</t>
         </is>
       </c>
       <c r="E689" s="18" t="n"/>
       <c r="F689" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G689" t="inlineStr">
@@ -36438,7 +36438,7 @@
       <c r="K689" s="19" t="n"/>
       <c r="L689" s="19" t="inlineStr">
         <is>
-          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
+          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
         </is>
       </c>
       <c r="M689" s="20" t="n"/>
@@ -36450,29 +36450,25 @@
     <row r="690">
       <c r="A690" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B690" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C690" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D690" s="18" t="inlineStr">
         <is>
-          <t>Tenga en cuenta la "línea base de seguridad de Azure para el almacenamiento"</t>
-        </is>
-      </c>
-      <c r="E690" s="18" t="inlineStr">
-        <is>
-          <t>Aplicación de las instrucciones de la prueba comparativa de seguridad en la nube de Microsoft relacionadas con el almacenamiento</t>
-        </is>
-      </c>
+          <t>Configure la persistencia de datos para una instancia de Azure Cache for Redis. Dado que los datos de caché se almacenan en la memoria, un error poco frecuente y no planeado de varios nodos puede hacer que se eliminen todos los datos. Para evitar la pérdida completa de datos, la persistencia de Redis permite tomar instantáneas periódicas de los datos en memoria y almacenarlas en la cuenta de almacenamiento.</t>
+        </is>
+      </c>
+      <c r="E690" s="18" t="n"/>
       <c r="F690" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -36493,7 +36489,7 @@
       <c r="K690" s="19" t="n"/>
       <c r="L690" s="19" t="inlineStr">
         <is>
-          <t>d237de14-3b16-4c21-b7aa-9b64604489a8</t>
+          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
         </is>
       </c>
       <c r="M690" s="20" t="n"/>
@@ -36505,32 +36501,28 @@
     <row r="691">
       <c r="A691" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B691" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C691" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D691" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar puntos de conexión privados para Azure Storage</t>
-        </is>
-      </c>
-      <c r="E691" s="18" t="inlineStr">
-        <is>
-          <t>De forma predeterminada, Azure Storage tiene una dirección IP pública y es accesible desde Internet. Los puntos de conexión privados permiten exponer de forma segura Azure Storage solo a los recursos de proceso de Azure que necesitan acceso, lo que elimina la exposición a la Internet pública</t>
-        </is>
-      </c>
+          <t>Use una cuenta de almacenamiento con redundancia geográfica para conservar los datos de Azure Cache for Redis o con redundancia zonal donde la redundancia geográfica no esté disponible</t>
+        </is>
+      </c>
+      <c r="E691" s="18" t="n"/>
       <c r="F691" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G691" t="inlineStr">
@@ -36548,7 +36540,7 @@
       <c r="K691" s="19" t="n"/>
       <c r="L691" s="19" t="inlineStr">
         <is>
-          <t>f42d78e7-9d17-4a73-a22a-5a67e7a8ed4b</t>
+          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
         </is>
       </c>
       <c r="M691" s="20" t="n"/>
@@ -36560,29 +36552,25 @@
     <row r="692">
       <c r="A692" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B692" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C692" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D692" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que las cuentas de almacenamiento más antiguas no usan el "modelo de implementación clásica"</t>
-        </is>
-      </c>
-      <c r="E692" s="18" t="inlineStr">
-        <is>
-          <t>Las cuentas de almacenamiento recién creadas se crean mediante el modelo de implementación de ARM, de modo que RBAC, auditoría, etc. están habilitados. Asegúrese de que no hay cuentas de almacenamiento antiguas con el modelo de implementación clásica en una suscripción</t>
-        </is>
-      </c>
+          <t>Configure la replicación geográfica pasiva para instancias de Azure Cache for Redis Premium. La replicación geográfica es un mecanismo para vincular dos o más instancias de Azure Cache for Redis, que normalmente abarcan dos regiones de Azure. La replicación geográfica está diseñada principalmente para la recuperación ante desastres entre regiones. Dos instancias de caché de nivel Premium se conectan a través de la replicación geográfica de una manera que proporciona lecturas y escrituras en la caché principal, y esos datos se replican en la caché secundaria.</t>
+        </is>
+      </c>
+      <c r="E692" s="18" t="n"/>
       <c r="F692" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -36603,7 +36591,7 @@
       <c r="K692" s="19" t="n"/>
       <c r="L692" s="19" t="inlineStr">
         <is>
-          <t>30e37c3e-2971-41b2-963c-eee079b598de</t>
+          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
         </is>
       </c>
       <c r="M692" s="20" t="n"/>
@@ -36630,17 +36618,17 @@
       </c>
       <c r="D693" s="18" t="inlineStr">
         <is>
-          <t>Habilitación de Microsoft Defender para todas las cuentas de almacenamiento</t>
+          <t>Tenga en cuenta la "línea base de seguridad de Azure para el almacenamiento"</t>
         </is>
       </c>
       <c r="E693" s="18" t="inlineStr">
         <is>
-          <t>Aproveche Microsoft Defender para obtener información sobre la actividad sospechosa y los errores de configuración.</t>
+          <t>Aplicación de las instrucciones de la prueba comparativa de seguridad en la nube de Microsoft relacionadas con el almacenamiento</t>
         </is>
       </c>
       <c r="F693" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G693" t="inlineStr">
@@ -36658,7 +36646,7 @@
       <c r="K693" s="19" t="n"/>
       <c r="L693" s="19" t="inlineStr">
         <is>
-          <t>fc5972cd-4cd2-41b0-a803-7f5e6b4bfd3d</t>
+          <t>d237de14-3b16-4c21-b7aa-9b64604489a8</t>
         </is>
       </c>
       <c r="M693" s="20" t="n"/>
@@ -36685,17 +36673,17 @@
       </c>
       <c r="D694" s="18" t="inlineStr">
         <is>
-          <t>Habilitación de la "eliminación temporal" para blobs</t>
+          <t>Considere la posibilidad de usar puntos de conexión privados para Azure Storage</t>
         </is>
       </c>
       <c r="E694" s="18" t="inlineStr">
         <is>
-          <t>El mecanismo de eliminación temporal permite recuperar blobs eliminados accidentalmente.</t>
+          <t>De forma predeterminada, Azure Storage tiene una dirección IP pública y es accesible desde Internet. Los puntos de conexión privados permiten exponer de forma segura Azure Storage solo a los recursos de proceso de Azure que necesitan acceso, lo que elimina la exposición a la Internet pública</t>
         </is>
       </c>
       <c r="F694" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G694" t="inlineStr">
@@ -36713,7 +36701,7 @@
       <c r="K694" s="19" t="n"/>
       <c r="L694" s="19" t="inlineStr">
         <is>
-          <t>503547c1-447e-4c66-828a-7100f1ce16dd</t>
+          <t>f42d78e7-9d17-4a73-a22a-5a67e7a8ed4b</t>
         </is>
       </c>
       <c r="M694" s="20" t="n"/>
@@ -36740,12 +36728,12 @@
       </c>
       <c r="D695" s="18" t="inlineStr">
         <is>
-          <t>Deshabilitación de la "eliminación temporal" de blobs</t>
+          <t>Asegúrese de que las cuentas de almacenamiento más antiguas no usan el "modelo de implementación clásica"</t>
         </is>
       </c>
       <c r="E695" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere la posibilidad de deshabilitar de forma selectiva la "eliminación temporal" para determinados contenedores de blobs, por ejemplo, si la aplicación debe asegurarse de que la información eliminada se elimina inmediatamente, por ejemplo, por motivos de confidencialidad, privacidad o cumplimiento. </t>
+          <t>Las cuentas de almacenamiento recién creadas se crean mediante el modelo de implementación de ARM, de modo que RBAC, auditoría, etc. están habilitados. Asegúrese de que no hay cuentas de almacenamiento antiguas con el modelo de implementación clásica en una suscripción</t>
         </is>
       </c>
       <c r="F695" s="18" t="inlineStr">
@@ -36768,7 +36756,7 @@
       <c r="K695" s="19" t="n"/>
       <c r="L695" s="19" t="inlineStr">
         <is>
-          <t>3f1d5e87-2e52-4e36-81cc-58b4a4b1510e</t>
+          <t>30e37c3e-2971-41b2-963c-eee079b598de</t>
         </is>
       </c>
       <c r="M695" s="20" t="n"/>
@@ -36795,12 +36783,12 @@
       </c>
       <c r="D696" s="18" t="inlineStr">
         <is>
-          <t>Habilitación de la "eliminación temporal" para los contenedores</t>
+          <t>Habilitación de Microsoft Defender para todas las cuentas de almacenamiento</t>
         </is>
       </c>
       <c r="E696" s="18" t="inlineStr">
         <is>
-          <t>La eliminación temporal de contenedores permite recuperar un contenedor después de que se haya eliminado, por ejemplo, recuperarse de una operación de eliminación accidental.</t>
+          <t>Aproveche Microsoft Defender para obtener información sobre la actividad sospechosa y los errores de configuración.</t>
         </is>
       </c>
       <c r="F696" s="18" t="inlineStr">
@@ -36823,7 +36811,7 @@
       <c r="K696" s="19" t="n"/>
       <c r="L696" s="19" t="inlineStr">
         <is>
-          <t>43a58a9c-2289-4c3d-9b57-d0c655462f2a</t>
+          <t>fc5972cd-4cd2-41b0-a803-7f5e6b4bfd3d</t>
         </is>
       </c>
       <c r="M696" s="20" t="n"/>
@@ -36850,12 +36838,12 @@
       </c>
       <c r="D697" s="18" t="inlineStr">
         <is>
-          <t>Deshabilitación de la "eliminación temporal" para contenedores</t>
+          <t>Habilitación de la "eliminación temporal" para blobs</t>
         </is>
       </c>
       <c r="E697" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere la posibilidad de deshabilitar de forma selectiva la "eliminación temporal" para determinados contenedores de blobs, por ejemplo, si la aplicación debe asegurarse de que la información eliminada se elimina inmediatamente, por ejemplo, por motivos de confidencialidad, privacidad o cumplimiento. </t>
+          <t>El mecanismo de eliminación temporal permite recuperar blobs eliminados accidentalmente.</t>
         </is>
       </c>
       <c r="F697" s="18" t="inlineStr">
@@ -36878,7 +36866,7 @@
       <c r="K697" s="19" t="n"/>
       <c r="L697" s="19" t="inlineStr">
         <is>
-          <t>3e3453a3-c863-4964-ab65-2d6c15f51296</t>
+          <t>503547c1-447e-4c66-828a-7100f1ce16dd</t>
         </is>
       </c>
       <c r="M697" s="20" t="n"/>
@@ -36905,17 +36893,17 @@
       </c>
       <c r="D698" s="18" t="inlineStr">
         <is>
-          <t>Habilitación de bloqueos de recursos en cuentas de almacenamiento</t>
+          <t>Deshabilitación de la "eliminación temporal" de blobs</t>
         </is>
       </c>
       <c r="E698" s="18" t="inlineStr">
         <is>
-          <t>Evita la eliminación accidental de una cuenta de almacenamiento, obligando al usuario a quitar primero el bloqueo de eliminación, antes de la eliminación</t>
+          <t xml:space="preserve">Considere la posibilidad de deshabilitar de forma selectiva la "eliminación temporal" para determinados contenedores de blobs, por ejemplo, si la aplicación debe asegurarse de que la información eliminada se elimina inmediatamente, por ejemplo, por motivos de confidencialidad, privacidad o cumplimiento. </t>
         </is>
       </c>
       <c r="F698" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G698" t="inlineStr">
@@ -36933,7 +36921,7 @@
       <c r="K698" s="19" t="n"/>
       <c r="L698" s="19" t="inlineStr">
         <is>
-          <t>5398e6de-d227-4dd1-92b0-6c21d7999a64</t>
+          <t>3f1d5e87-2e52-4e36-81cc-58b4a4b1510e</t>
         </is>
       </c>
       <c r="M698" s="20" t="n"/>
@@ -36960,12 +36948,12 @@
       </c>
       <c r="D699" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de blobs inmutables</t>
+          <t>Habilitación de la "eliminación temporal" para los contenedores</t>
         </is>
       </c>
       <c r="E699" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de aplicar directivas de "retención legal" o "retención basada en el tiempo" para los blobs, de modo que sea imposible eliminar el blob, el contenedor o la cuenta de almacenamiento. Tenga en cuenta que 'imposible' en realidad significa 'imposible'; una vez que una cuenta de almacenamiento contiene un blob inmutable, la única manera de "deshacerse" de esa cuenta de almacenamiento es cancelando la suscripción de Azure.</t>
+          <t>La eliminación temporal de contenedores permite recuperar un contenedor después de que se haya eliminado, por ejemplo, recuperarse de una operación de eliminación accidental.</t>
         </is>
       </c>
       <c r="F699" s="18" t="inlineStr">
@@ -36988,7 +36976,7 @@
       <c r="K699" s="19" t="n"/>
       <c r="L699" s="19" t="inlineStr">
         <is>
-          <t>6f4389a8-f42c-478e-98c0-6a73a22a4956</t>
+          <t>43a58a9c-2289-4c3d-9b57-d0c655462f2a</t>
         </is>
       </c>
       <c r="M699" s="20" t="n"/>
@@ -37015,17 +37003,17 @@
       </c>
       <c r="D700" s="18" t="inlineStr">
         <is>
-          <t>Requerir HTTPS, es decir, deshabilitar el puerto 80 en la cuenta de almacenamiento</t>
+          <t>Deshabilitación de la "eliminación temporal" para contenedores</t>
         </is>
       </c>
       <c r="E700" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere la posibilidad de deshabilitar el acceso HTTP/80 sin protección a la cuenta de almacenamiento, de modo que todas las transferencias de datos estén cifradas, protegidas por integridad y el servidor esté autenticado. </t>
+          <t xml:space="preserve">Considere la posibilidad de deshabilitar de forma selectiva la "eliminación temporal" para determinados contenedores de blobs, por ejemplo, si la aplicación debe asegurarse de que la información eliminada se elimina inmediatamente, por ejemplo, por motivos de confidencialidad, privacidad o cumplimiento. </t>
         </is>
       </c>
       <c r="F700" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G700" t="inlineStr">
@@ -37043,7 +37031,7 @@
       <c r="K700" s="19" t="n"/>
       <c r="L700" s="19" t="inlineStr">
         <is>
-          <t>e7a8dc4a-20e2-47c3-b297-11b1352beee0</t>
+          <t>3e3453a3-c863-4964-ab65-2d6c15f51296</t>
         </is>
       </c>
       <c r="M700" s="20" t="n"/>
@@ -37070,12 +37058,12 @@
       </c>
       <c r="D701" s="18" t="inlineStr">
         <is>
-          <t>Al aplicar HTTPS (deshabilitar HTTP), compruebe que no usa dominios personalizados (CNAME) para la cuenta de almacenamiento.</t>
+          <t>Habilitación de bloqueos de recursos en cuentas de almacenamiento</t>
         </is>
       </c>
       <c r="E701" s="18" t="inlineStr">
         <is>
-          <t>Al configurar un dominio personalizado (nombre de host) en una cuenta de almacenamiento, compruebe si necesita TLS/HTTPS; si es así, es posible que tenga que colocar Azure CDN delante de la cuenta de almacenamiento.</t>
+          <t>Evita la eliminación accidental de una cuenta de almacenamiento, obligando al usuario a quitar primero el bloqueo de eliminación, antes de la eliminación</t>
         </is>
       </c>
       <c r="F701" s="18" t="inlineStr">
@@ -37098,7 +37086,7 @@
       <c r="K701" s="19" t="n"/>
       <c r="L701" s="19" t="inlineStr">
         <is>
-          <t>79b588de-fc49-472c-b3cd-21bf77036e5e</t>
+          <t>5398e6de-d227-4dd1-92b0-6c21d7999a64</t>
         </is>
       </c>
       <c r="M701" s="20" t="n"/>
@@ -37125,17 +37113,17 @@
       </c>
       <c r="D702" s="18" t="inlineStr">
         <is>
-          <t>Limitar los tokens de firma de acceso compartido (SAS) solo a las conexiones HTTPS</t>
+          <t>Considere la posibilidad de blobs inmutables</t>
         </is>
       </c>
       <c r="E702" s="18" t="inlineStr">
         <is>
-          <t>Requerir HTTPS cuando un cliente usa un token de SAS para acceder a los datos de blobs ayuda a minimizar el riesgo de pérdida de credenciales.</t>
+          <t>Considere la posibilidad de aplicar directivas de "retención legal" o "retención basada en el tiempo" para los blobs, de modo que sea imposible eliminar el blob, el contenedor o la cuenta de almacenamiento. Tenga en cuenta que 'imposible' en realidad significa 'imposible'; una vez que una cuenta de almacenamiento contiene un blob inmutable, la única manera de "deshacerse" de esa cuenta de almacenamiento es cancelando la suscripción de Azure.</t>
         </is>
       </c>
       <c r="F702" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G702" t="inlineStr">
@@ -37153,7 +37141,7 @@
       <c r="K702" s="19" t="n"/>
       <c r="L702" s="19" t="inlineStr">
         <is>
-          <t>6b4bed3d-5035-447c-8347-dc56028a71ff</t>
+          <t>6f4389a8-f42c-478e-98c0-6a73a22a4956</t>
         </is>
       </c>
       <c r="M702" s="20" t="n"/>
@@ -37180,12 +37168,12 @@
       </c>
       <c r="D703" s="18" t="inlineStr">
         <is>
-          <t>Uso de tokens de Azure Active Directory (Azure AD) para el acceso a blobs</t>
+          <t>Requerir HTTPS, es decir, deshabilitar el puerto 80 en la cuenta de almacenamiento</t>
         </is>
       </c>
       <c r="E703" s="18" t="inlineStr">
         <is>
-          <t>Los tokens de AAD deben favorecerse sobre las firmas de acceso compartido, siempre que sea posible</t>
+          <t xml:space="preserve">Considere la posibilidad de deshabilitar el acceso HTTP/80 sin protección a la cuenta de almacenamiento, de modo que todas las transferencias de datos estén cifradas, protegidas por integridad y el servidor esté autenticado. </t>
         </is>
       </c>
       <c r="F703" s="18" t="inlineStr">
@@ -37208,7 +37196,7 @@
       <c r="K703" s="19" t="n"/>
       <c r="L703" s="19" t="inlineStr">
         <is>
-          <t>e1ce15dd-3f0d-45e7-92d4-1e3611cc57b4</t>
+          <t>e7a8dc4a-20e2-47c3-b297-11b1352beee0</t>
         </is>
       </c>
       <c r="M703" s="20" t="n"/>
@@ -37235,17 +37223,17 @@
       </c>
       <c r="D704" s="18" t="inlineStr">
         <is>
-          <t>Privilegios mínimos en los permisos de IaM</t>
+          <t>Al aplicar HTTPS (deshabilitar HTTP), compruebe que no usa dominios personalizados (CNAME) para la cuenta de almacenamiento.</t>
         </is>
       </c>
       <c r="E704" s="18" t="inlineStr">
         <is>
-          <t>Al asignar un rol a un usuario, grupo o aplicación, conceda a esa entidad de seguridad solo los permisos necesarios para que pueda realizar sus tareas. Limitar el acceso a los recursos ayuda a evitar el uso indebido no intencionado y malintencionado de los datos.</t>
+          <t>Al configurar un dominio personalizado (nombre de host) en una cuenta de almacenamiento, compruebe si necesita TLS/HTTPS; si es así, es posible que tenga que colocar Azure CDN delante de la cuenta de almacenamiento.</t>
         </is>
       </c>
       <c r="F704" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G704" t="inlineStr">
@@ -37254,12 +37242,16 @@
         </is>
       </c>
       <c r="H704" s="18" t="n"/>
-      <c r="I704" s="13" t="n"/>
+      <c r="I704" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J704" s="13" t="n"/>
       <c r="K704" s="19" t="n"/>
       <c r="L704" s="19" t="inlineStr">
         <is>
-          <t>a4b1410d-4395-48a8-a228-9b3d6b57cfc6</t>
+          <t>79b588de-fc49-472c-b3cd-21bf77036e5e</t>
         </is>
       </c>
       <c r="M704" s="20" t="n"/>
@@ -37286,17 +37278,17 @@
       </c>
       <c r="D705" s="18" t="inlineStr">
         <is>
-          <t>Al usar SAS, prefiera "SAS de delegación de usuarios" en lugar de SAS basada en claves de cuenta de almacenamiento.</t>
+          <t>Limitar los tokens de firma de acceso compartido (SAS) solo a las conexiones HTTPS</t>
         </is>
       </c>
       <c r="E705" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Una SAS de delegación de usuarios está protegida con credenciales de Azure Active Directory (Azure AD) y también con los permisos especificados para la SAS. Una SAS de delegación de usuarios es análoga a una SAS de servicio en cuanto a su ámbito y función, pero ofrece ventajas de seguridad sobre la SAS de servicio. </t>
+          <t>Requerir HTTPS cuando un cliente usa un token de SAS para acceder a los datos de blobs ayuda a minimizar el riesgo de pérdida de credenciales.</t>
         </is>
       </c>
       <c r="F705" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G705" t="inlineStr">
@@ -37314,7 +37306,7 @@
       <c r="K705" s="19" t="n"/>
       <c r="L705" s="19" t="inlineStr">
         <is>
-          <t>55461e1a-3e34-453a-9c86-39648b652d6c</t>
+          <t>6b4bed3d-5035-447c-8347-dc56028a71ff</t>
         </is>
       </c>
       <c r="M705" s="20" t="n"/>
@@ -37341,12 +37333,12 @@
       </c>
       <c r="D706" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de deshabilitar las claves de la cuenta de almacenamiento, de modo que solo se admita el acceso a AAD (y la SAS de delegación de usuarios).</t>
+          <t>Uso de tokens de Azure Active Directory (Azure AD) para el acceso a blobs</t>
         </is>
       </c>
       <c r="E706" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Las claves de la cuenta de almacenamiento ("claves compartidas") tienen muy pocas funcionalidades de auditoría. Si bien se puede monitorear quién o cuándo obtuvo una copia de las claves, una vez que las claves están en manos de varias personas, es imposible atribuir el uso a un usuario específico. Confiar únicamente en la autenticación de AAD facilita la vinculación del acceso al almacenamiento a un usuario. </t>
+          <t>Los tokens de AAD deben favorecerse sobre las firmas de acceso compartido, siempre que sea posible</t>
         </is>
       </c>
       <c r="F706" s="18" t="inlineStr">
@@ -37369,7 +37361,7 @@
       <c r="K706" s="19" t="n"/>
       <c r="L706" s="19" t="inlineStr">
         <is>
-          <t>15f51296-5398-4e6d-bd22-7dd142b06c21</t>
+          <t>e1ce15dd-3f0d-45e7-92d4-1e3611cc57b4</t>
         </is>
       </c>
       <c r="M706" s="20" t="n"/>
@@ -37396,17 +37388,17 @@
       </c>
       <c r="D707" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar Azure Monitor para auditar las operaciones del plano de control en la cuenta de almacenamiento</t>
+          <t>Privilegios mínimos en los permisos de IaM</t>
         </is>
       </c>
       <c r="E707" s="18" t="inlineStr">
         <is>
-          <t>Use los datos del registro de actividad para identificar "cuándo", "quién", "qué" y "cómo" se está viendo o cambiando la seguridad de la cuenta de almacenamiento (es decir, claves de cuenta de almacenamiento, directivas de acceso, etc.).</t>
+          <t>Al asignar un rol a un usuario, grupo o aplicación, conceda a esa entidad de seguridad solo los permisos necesarios para que pueda realizar sus tareas. Limitar el acceso a los recursos ayuda a evitar el uso indebido no intencionado y malintencionado de los datos.</t>
         </is>
       </c>
       <c r="F707" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G707" t="inlineStr">
@@ -37415,16 +37407,12 @@
         </is>
       </c>
       <c r="H707" s="18" t="n"/>
-      <c r="I707" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I707" s="13" t="n"/>
       <c r="J707" s="13" t="n"/>
       <c r="K707" s="19" t="n"/>
       <c r="L707" s="19" t="inlineStr">
         <is>
-          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
+          <t>a4b1410d-4395-48a8-a228-9b3d6b57cfc6</t>
         </is>
       </c>
       <c r="M707" s="20" t="n"/>
@@ -37451,17 +37439,17 @@
       </c>
       <c r="D708" s="18" t="inlineStr">
         <is>
-          <t>Al usar claves de cuenta de almacenamiento, considere la posibilidad de habilitar una "directiva de expiración de claves"</t>
+          <t>Al usar SAS, prefiera "SAS de delegación de usuarios" en lugar de SAS basada en claves de cuenta de almacenamiento.</t>
         </is>
       </c>
       <c r="E708" s="18" t="inlineStr">
         <is>
-          <t>Una directiva de expiración de claves le permite establecer un recordatorio para la rotación de las claves de acceso a la cuenta. El recordatorio se muestra si ha transcurrido el intervalo especificado y las teclas aún no se han girado.</t>
+          <t xml:space="preserve">Una SAS de delegación de usuarios está protegida con credenciales de Azure Active Directory (Azure AD) y también con los permisos especificados para la SAS. Una SAS de delegación de usuarios es análoga a una SAS de servicio en cuanto a su ámbito y función, pero ofrece ventajas de seguridad sobre la SAS de servicio. </t>
         </is>
       </c>
       <c r="F708" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G708" t="inlineStr">
@@ -37479,7 +37467,7 @@
       <c r="K708" s="19" t="n"/>
       <c r="L708" s="19" t="inlineStr">
         <is>
-          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
+          <t>55461e1a-3e34-453a-9c86-39648b652d6c</t>
         </is>
       </c>
       <c r="M708" s="20" t="n"/>
@@ -37506,17 +37494,17 @@
       </c>
       <c r="D709" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de configurar una directiva de expiración de SAS</t>
+          <t>Considere la posibilidad de deshabilitar las claves de la cuenta de almacenamiento, de modo que solo se admita el acceso a AAD (y la SAS de delegación de usuarios).</t>
         </is>
       </c>
       <c r="E709" s="18" t="inlineStr">
         <is>
-          <t>Una directiva de expiración de SAS especifica un intervalo recomendado durante el cual la SAS es válida. Las directivas de expiración de SAS se aplican a una SAS de servicio o a una SAS de cuenta. Cuando un usuario genera una SAS de servicio o una SAS de cuenta con un intervalo de validez mayor que el intervalo recomendado, verá una advertencia.</t>
+          <t xml:space="preserve">Las claves de la cuenta de almacenamiento ("claves compartidas") tienen muy pocas funcionalidades de auditoría. Si bien se puede monitorear quién o cuándo obtuvo una copia de las claves, una vez que las claves están en manos de varias personas, es imposible atribuir el uso a un usuario específico. Confiar únicamente en la autenticación de AAD facilita la vinculación del acceso al almacenamiento a un usuario. </t>
         </is>
       </c>
       <c r="F709" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G709" t="inlineStr">
@@ -37534,7 +37522,7 @@
       <c r="K709" s="19" t="n"/>
       <c r="L709" s="19" t="inlineStr">
         <is>
-          <t>352beee0-79b5-488d-bfc4-972cd3cd21bf</t>
+          <t>15f51296-5398-4e6d-bd22-7dd142b06c21</t>
         </is>
       </c>
       <c r="M709" s="20" t="n"/>
@@ -37561,17 +37549,17 @@
       </c>
       <c r="D710" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de vincular SAS a una directiva de acceso almacenada</t>
+          <t>Considere la posibilidad de usar Azure Monitor para auditar las operaciones del plano de control en la cuenta de almacenamiento</t>
         </is>
       </c>
       <c r="E710" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Las directivas de acceso almacenadas ofrecen la opción de revocar los permisos de una SAS de servicio sin tener que volver a generar las claves de la cuenta de almacenamiento. </t>
+          <t>Use los datos del registro de actividad para identificar "cuándo", "quién", "qué" y "cómo" se está viendo o cambiando la seguridad de la cuenta de almacenamiento (es decir, claves de cuenta de almacenamiento, directivas de acceso, etc.).</t>
         </is>
       </c>
       <c r="F710" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G710" t="inlineStr">
@@ -37589,7 +37577,7 @@
       <c r="K710" s="19" t="n"/>
       <c r="L710" s="19" t="inlineStr">
         <is>
-          <t>77036e5e-6b4b-4ed3-b503-547c1347dc56</t>
+          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
         </is>
       </c>
       <c r="M710" s="20" t="n"/>
@@ -37616,10 +37604,14 @@
       </c>
       <c r="D711" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de configurar el repositorio de código fuente de la aplicación para detectar cadenas de conexión protegidas y claves de cuenta de almacenamiento.</t>
-        </is>
-      </c>
-      <c r="E711" s="18" t="n"/>
+          <t>Al usar claves de cuenta de almacenamiento, considere la posibilidad de habilitar una "directiva de expiración de claves"</t>
+        </is>
+      </c>
+      <c r="E711" s="18" t="inlineStr">
+        <is>
+          <t>Una directiva de expiración de claves le permite establecer un recordatorio para la rotación de las claves de acceso a la cuenta. El recordatorio se muestra si ha transcurrido el intervalo especificado y las teclas aún no se han girado.</t>
+        </is>
+      </c>
       <c r="F711" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -37640,7 +37632,7 @@
       <c r="K711" s="19" t="n"/>
       <c r="L711" s="19" t="inlineStr">
         <is>
-          <t>028a71ff-e1ce-415d-b3f0-d5e772d41e36</t>
+          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
         </is>
       </c>
       <c r="M711" s="20" t="n"/>
@@ -37667,17 +37659,17 @@
       </c>
       <c r="D712" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de almacenar cadenas de conexión en Azure KeyVault (en escenarios en los que las identidades administradas no son posibles)</t>
+          <t>Considere la posibilidad de configurar una directiva de expiración de SAS</t>
         </is>
       </c>
       <c r="E712" s="18" t="inlineStr">
         <is>
-          <t>Lo ideal es que la aplicación use una identidad administrada para autenticarse en Azure Storage. Si esto no es posible, considere la posibilidad de tener la credencial de almacenamiento (cadena de conexión, clave de cuenta de almacenamiento, SAS, credencial de entidad de servicio) en Azure KeyVault o un servicio equivalente.</t>
+          <t>Una directiva de expiración de SAS especifica un intervalo recomendado durante el cual la SAS es válida. Las directivas de expiración de SAS se aplican a una SAS de servicio o a una SAS de cuenta. Cuando un usuario genera una SAS de servicio o una SAS de cuenta con un intervalo de validez mayor que el intervalo recomendado, verá una advertencia.</t>
         </is>
       </c>
       <c r="F712" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G712" t="inlineStr">
@@ -37695,7 +37687,7 @@
       <c r="K712" s="19" t="n"/>
       <c r="L712" s="19" t="inlineStr">
         <is>
-          <t>11cc57b4-a4b1-4410-b439-58a8c2289b3d</t>
+          <t>352beee0-79b5-488d-bfc4-972cd3cd21bf</t>
         </is>
       </c>
       <c r="M712" s="20" t="n"/>
@@ -37722,17 +37714,17 @@
       </c>
       <c r="D713" s="18" t="inlineStr">
         <is>
-          <t>Esfuércese por obtener períodos de validez cortos para SAS ad-hoc</t>
+          <t>Considere la posibilidad de vincular SAS a una directiva de acceso almacenada</t>
         </is>
       </c>
       <c r="E713" s="18" t="inlineStr">
         <is>
-          <t>Use los tiempos de expiración a corto plazo en una SAS de servicio SAS ad hoc o en una SAS de cuenta. De esta manera, incluso si una SAS se ve comprometida, es válida solo por un corto tiempo. Esta práctica es especialmente importante si no puede hacer referencia a una directiva de acceso almacenada. Los tiempos de expiración a corto plazo también limitan la cantidad de datos que se pueden escribir en un blob al limitar el tiempo disponible para cargarlo.</t>
+          <t xml:space="preserve">Las directivas de acceso almacenadas ofrecen la opción de revocar los permisos de una SAS de servicio sin tener que volver a generar las claves de la cuenta de almacenamiento. </t>
         </is>
       </c>
       <c r="F713" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G713" t="inlineStr">
@@ -37750,7 +37742,7 @@
       <c r="K713" s="19" t="n"/>
       <c r="L713" s="19" t="inlineStr">
         <is>
-          <t>27138b82-1102-4cac-9eae-01e6e842e52f</t>
+          <t>77036e5e-6b4b-4ed3-b503-547c1347dc56</t>
         </is>
       </c>
       <c r="M713" s="20" t="n"/>
@@ -37777,14 +37769,10 @@
       </c>
       <c r="D714" s="18" t="inlineStr">
         <is>
-          <t>Aplicación de un ámbito limitado a una SAS</t>
-        </is>
-      </c>
-      <c r="E714" s="18" t="inlineStr">
-        <is>
-          <t>Al crear una SAS, sea lo más específico y restrictivo posible. Prefiera una SAS para un solo recurso y operación en lugar de una SAS que proporciona un acceso mucho más amplio.</t>
-        </is>
-      </c>
+          <t>Considere la posibilidad de configurar el repositorio de código fuente de la aplicación para detectar cadenas de conexión protegidas y claves de cuenta de almacenamiento.</t>
+        </is>
+      </c>
+      <c r="E714" s="18" t="n"/>
       <c r="F714" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -37805,7 +37793,7 @@
       <c r="K714" s="19" t="n"/>
       <c r="L714" s="19" t="inlineStr">
         <is>
-          <t>4721d928-c1b1-4cd5-81e5-4a29a9de399c</t>
+          <t>028a71ff-e1ce-415d-b3f0-d5e772d41e36</t>
         </is>
       </c>
       <c r="M714" s="20" t="n"/>
@@ -37832,17 +37820,17 @@
       </c>
       <c r="D715" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de definir el ámbito de SAS en una dirección IP de cliente específica, siempre que sea posible</t>
+          <t>Considere la posibilidad de almacenar cadenas de conexión en Azure KeyVault (en escenarios en los que las identidades administradas no son posibles)</t>
         </is>
       </c>
       <c r="E715" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Una SAS puede incluir parámetros en los que las direcciones IP de cliente o los intervalos de direcciones están autorizados a solicitar un recurso mediante la SAS. </t>
+          <t>Lo ideal es que la aplicación use una identidad administrada para autenticarse en Azure Storage. Si esto no es posible, considere la posibilidad de tener la credencial de almacenamiento (cadena de conexión, clave de cuenta de almacenamiento, SAS, credencial de entidad de servicio) en Azure KeyVault o un servicio equivalente.</t>
         </is>
       </c>
       <c r="F715" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G715" t="inlineStr">
@@ -37860,7 +37848,7 @@
       <c r="K715" s="19" t="n"/>
       <c r="L715" s="19" t="inlineStr">
         <is>
-          <t>fd7b28dc-9355-4562-82bf-e4564b0d834a</t>
+          <t>11cc57b4-a4b1-4410-b439-58a8c2289b3d</t>
         </is>
       </c>
       <c r="M715" s="20" t="n"/>
@@ -37887,17 +37875,17 @@
       </c>
       <c r="D716" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere la posibilidad de comprobar los datos cargados, después de que los clientes hayan usado una SAS para cargar un archivo. </t>
+          <t>Esfuércese por obtener períodos de validez cortos para SAS ad-hoc</t>
         </is>
       </c>
       <c r="E716" s="18" t="inlineStr">
         <is>
-          <t>Una SAS no puede restringir la cantidad de datos que carga un cliente; Dado el modelo de precios de la cantidad de almacenamiento a lo largo del tiempo, podría tener sentido validar si los clientes cargaron contenido de gran tamaño malintencionado.</t>
+          <t>Use los tiempos de expiración a corto plazo en una SAS de servicio SAS ad hoc o en una SAS de cuenta. De esta manera, incluso si una SAS se ve comprometida, es válida solo por un corto tiempo. Esta práctica es especialmente importante si no puede hacer referencia a una directiva de acceso almacenada. Los tiempos de expiración a corto plazo también limitan la cantidad de datos que se pueden escribir en un blob al limitar el tiempo disponible para cargarlo.</t>
         </is>
       </c>
       <c r="F716" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G716" t="inlineStr">
@@ -37906,12 +37894,16 @@
         </is>
       </c>
       <c r="H716" s="18" t="n"/>
-      <c r="I716" s="13" t="n"/>
+      <c r="I716" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J716" s="13" t="n"/>
       <c r="K716" s="19" t="n"/>
       <c r="L716" s="19" t="inlineStr">
         <is>
-          <t>348b263e-6dd6-4051-8a36-498f6dbad38e</t>
+          <t>27138b82-1102-4cac-9eae-01e6e842e52f</t>
         </is>
       </c>
       <c r="M716" s="20" t="n"/>
@@ -37938,17 +37930,17 @@
       </c>
       <c r="D717" s="18" t="inlineStr">
         <is>
-          <t>SFTP: Limite la cantidad de "usuarios locales" para el acceso SFTP y audite si el acceso es necesario a lo largo del tiempo.</t>
+          <t>Aplicación de un ámbito limitado a una SAS</t>
         </is>
       </c>
       <c r="E717" s="18" t="inlineStr">
         <is>
-          <t>Al acceder a Blob Storage a través de SFTP mediante una "cuenta de usuario local", no se aplican los controles RBAC "habituales". El acceso a blobs a través de NFS o REST puede ser más restrictivo que el acceso SFTP. Desafortunadamente, a partir de principios de 2023, los usuarios locales son la única forma de administración de identidades que actualmente se admite para el punto de conexión SFTP</t>
+          <t>Al crear una SAS, sea lo más específico y restrictivo posible. Prefiera una SAS para un solo recurso y operación en lugar de una SAS que proporciona un acceso mucho más amplio.</t>
         </is>
       </c>
       <c r="F717" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G717" t="inlineStr">
@@ -37966,7 +37958,7 @@
       <c r="K717" s="19" t="n"/>
       <c r="L717" s="19" t="inlineStr">
         <is>
-          <t>ad53cc7c-e1d7-4aaa-a357-1449ab8053d8</t>
+          <t>4721d928-c1b1-4cd5-81e5-4a29a9de399c</t>
         </is>
       </c>
       <c r="M717" s="20" t="n"/>
@@ -37993,10 +37985,14 @@
       </c>
       <c r="D718" s="18" t="inlineStr">
         <is>
-          <t>SFTP: El punto de conexión SFTP no admite ACL similares a POSIX.</t>
-        </is>
-      </c>
-      <c r="E718" s="18" t="n"/>
+          <t>Considere la posibilidad de definir el ámbito de SAS en una dirección IP de cliente específica, siempre que sea posible</t>
+        </is>
+      </c>
+      <c r="E718" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Una SAS puede incluir parámetros en los que las direcciones IP de cliente o los intervalos de direcciones están autorizados a solicitar un recurso mediante la SAS. </t>
+        </is>
+      </c>
       <c r="F718" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -38017,7 +38013,7 @@
       <c r="K718" s="19" t="n"/>
       <c r="L718" s="19" t="inlineStr">
         <is>
-          <t>9f89dc7b-33be-42a1-a27f-7b9e91be1f38</t>
+          <t>fd7b28dc-9355-4562-82bf-e4564b0d834a</t>
         </is>
       </c>
       <c r="M718" s="20" t="n"/>
@@ -38044,17 +38040,17 @@
       </c>
       <c r="D719" s="18" t="inlineStr">
         <is>
-          <t>Evite las políticas de CORS demasiado amplias</t>
+          <t xml:space="preserve">Considere la posibilidad de comprobar los datos cargados, después de que los clientes hayan usado una SAS para cargar un archivo. </t>
         </is>
       </c>
       <c r="E719" s="18" t="inlineStr">
         <is>
-          <t>El almacenamiento es compatible con CORS (Cross-Origin Resource Sharing), es decir, una función HTTP que permite a las aplicaciones web de un dominio diferente relajar la política del mismo origen. Al habilitar CORS, mantenga CorsRules con el mínimo privilegio.</t>
+          <t>Una SAS no puede restringir la cantidad de datos que carga un cliente; Dado el modelo de precios de la cantidad de almacenamiento a lo largo del tiempo, podría tener sentido validar si los clientes cargaron contenido de gran tamaño malintencionado.</t>
         </is>
       </c>
       <c r="F719" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G719" t="inlineStr">
@@ -38063,16 +38059,12 @@
         </is>
       </c>
       <c r="H719" s="18" t="n"/>
-      <c r="I719" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I719" s="13" t="n"/>
       <c r="J719" s="13" t="n"/>
       <c r="K719" s="19" t="n"/>
       <c r="L719" s="19" t="inlineStr">
         <is>
-          <t>cef39812-bd46-43cb-aac8-ac199ebb91a3</t>
+          <t>348b263e-6dd6-4051-8a36-498f6dbad38e</t>
         </is>
       </c>
       <c r="M719" s="20" t="n"/>
@@ -38099,12 +38091,12 @@
       </c>
       <c r="D720" s="18" t="inlineStr">
         <is>
-          <t>Determine cómo se deben cifrar los datos en reposo. Comprender el modelo de subprocesos para los datos.</t>
+          <t>SFTP: Limite la cantidad de "usuarios locales" para el acceso SFTP y audite si el acceso es necesario a lo largo del tiempo.</t>
         </is>
       </c>
       <c r="E720" s="18" t="inlineStr">
         <is>
-          <t>Los datos en reposo siempre están cifrados en el lado del servidor y, además, también pueden estar cifrados en el lado del cliente. El cifrado del lado del servidor puede realizarse mediante una clave administrada por la plataforma (predeterminada) o una clave administrada por el cliente. El cifrado del lado cliente puede producirse haciendo que el cliente proporcione una clave de cifrado y descifrado por blob a Azure Storage o controlando completamente el cifrado en el lado cliente. por lo tanto, no depende en absoluto de Azure Storage para obtener garantías de confidencialidad.</t>
+          <t>Al acceder a Blob Storage a través de SFTP mediante una "cuenta de usuario local", no se aplican los controles RBAC "habituales". El acceso a blobs a través de NFS o REST puede ser más restrictivo que el acceso SFTP. Desafortunadamente, a partir de principios de 2023, los usuarios locales son la única forma de administración de identidades que actualmente se admite para el punto de conexión SFTP</t>
         </is>
       </c>
       <c r="F720" s="18" t="inlineStr">
@@ -38127,7 +38119,7 @@
       <c r="K720" s="19" t="n"/>
       <c r="L720" s="19" t="inlineStr">
         <is>
-          <t>3d90cae2-cc88-4137-86f7-c0cbafe61464</t>
+          <t>ad53cc7c-e1d7-4aaa-a357-1449ab8053d8</t>
         </is>
       </c>
       <c r="M720" s="20" t="n"/>
@@ -38154,7 +38146,7 @@
       </c>
       <c r="D721" s="18" t="inlineStr">
         <is>
-          <t>Determine qué cifrado de plataforma se debe usar o si se debe usar.</t>
+          <t>SFTP: El punto de conexión SFTP no admite ACL similares a POSIX.</t>
         </is>
       </c>
       <c r="E721" s="18" t="n"/>
@@ -38178,7 +38170,7 @@
       <c r="K721" s="19" t="n"/>
       <c r="L721" s="19" t="inlineStr">
         <is>
-          <t>8dd457e9-2713-48b8-8110-2cac6eae01e6</t>
+          <t>9f89dc7b-33be-42a1-a27f-7b9e91be1f38</t>
         </is>
       </c>
       <c r="M721" s="20" t="n"/>
@@ -38205,13 +38197,17 @@
       </c>
       <c r="D722" s="18" t="inlineStr">
         <is>
-          <t>Determine qué cifrado del lado del cliente se debe usar o si.</t>
-        </is>
-      </c>
-      <c r="E722" s="18" t="n"/>
+          <t>Evite las políticas de CORS demasiado amplias</t>
+        </is>
+      </c>
+      <c r="E722" s="18" t="inlineStr">
+        <is>
+          <t>El almacenamiento es compatible con CORS (Cross-Origin Resource Sharing), es decir, una función HTTP que permite a las aplicaciones web de un dominio diferente relajar la política del mismo origen. Al habilitar CORS, mantenga CorsRules con el mínimo privilegio.</t>
+        </is>
+      </c>
       <c r="F722" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G722" t="inlineStr">
@@ -38229,7 +38225,7 @@
       <c r="K722" s="19" t="n"/>
       <c r="L722" s="19" t="inlineStr">
         <is>
-          <t>e842e52f-4721-4d92-ac1b-1cd521e54a29</t>
+          <t>cef39812-bd46-43cb-aac8-ac199ebb91a3</t>
         </is>
       </c>
       <c r="M722" s="20" t="n"/>
@@ -38256,12 +38252,12 @@
       </c>
       <c r="D723" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere si se necesita acceso público a blobs o si se puede deshabilitar para determinadas cuentas de almacenamiento. </t>
+          <t>Determine cómo se deben cifrar los datos en reposo. Comprender el modelo de subprocesos para los datos.</t>
         </is>
       </c>
       <c r="E723" s="18" t="inlineStr">
         <is>
-          <t>Aproveche el Explorador de Resource Graph (resources | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true) para buscar cuentas de almacenamiento que permitan el acceso anónimo a blobs.</t>
+          <t>Los datos en reposo siempre están cifrados en el lado del servidor y, además, también pueden estar cifrados en el lado del cliente. El cifrado del lado del servidor puede realizarse mediante una clave administrada por la plataforma (predeterminada) o una clave administrada por el cliente. El cifrado del lado cliente puede producirse haciendo que el cliente proporcione una clave de cifrado y descifrado por blob a Azure Storage o controlando completamente el cifrado en el lado cliente. por lo tanto, no depende en absoluto de Azure Storage para obtener garantías de confidencialidad.</t>
         </is>
       </c>
       <c r="F723" s="18" t="inlineStr">
@@ -38284,7 +38280,7 @@
       <c r="K723" s="19" t="n"/>
       <c r="L723" s="19" t="inlineStr">
         <is>
-          <t>659ae558-b937-4d49-a5e1-112dbd7ba012</t>
+          <t>3d90cae2-cc88-4137-86f7-c0cbafe61464</t>
         </is>
       </c>
       <c r="M723" s="20" t="n"/>
@@ -38294,17 +38290,50 @@
       <c r="Q723" s="20" t="n"/>
     </row>
     <row r="724">
-      <c r="A724" s="18" t="n"/>
-      <c r="B724" s="18" t="n"/>
-      <c r="C724" s="18" t="n"/>
-      <c r="D724" s="18" t="n"/>
+      <c r="A724" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B724" s="18" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C724" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D724" s="18" t="inlineStr">
+        <is>
+          <t>Determine qué cifrado de plataforma se debe usar o si se debe usar.</t>
+        </is>
+      </c>
       <c r="E724" s="18" t="n"/>
-      <c r="F724" s="18" t="n"/>
+      <c r="F724" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G724" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H724" s="18" t="n"/>
-      <c r="I724" s="13" t="n"/>
+      <c r="I724" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J724" s="13" t="n"/>
       <c r="K724" s="19" t="n"/>
-      <c r="L724" s="19" t="n"/>
+      <c r="L724" s="19" t="inlineStr">
+        <is>
+          <t>8dd457e9-2713-48b8-8110-2cac6eae01e6</t>
+        </is>
+      </c>
       <c r="M724" s="20" t="n"/>
       <c r="N724" s="20" t="n"/>
       <c r="O724" s="20" t="n"/>
@@ -38312,17 +38341,50 @@
       <c r="Q724" s="20" t="n"/>
     </row>
     <row r="725">
-      <c r="A725" s="18" t="n"/>
-      <c r="B725" s="18" t="n"/>
-      <c r="C725" s="18" t="n"/>
-      <c r="D725" s="18" t="n"/>
+      <c r="A725" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B725" s="18" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C725" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D725" s="18" t="inlineStr">
+        <is>
+          <t>Determine qué cifrado del lado del cliente se debe usar o si.</t>
+        </is>
+      </c>
       <c r="E725" s="18" t="n"/>
-      <c r="F725" s="18" t="n"/>
+      <c r="F725" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G725" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H725" s="18" t="n"/>
-      <c r="I725" s="13" t="n"/>
+      <c r="I725" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J725" s="13" t="n"/>
       <c r="K725" s="19" t="n"/>
-      <c r="L725" s="19" t="n"/>
+      <c r="L725" s="19" t="inlineStr">
+        <is>
+          <t>e842e52f-4721-4d92-ac1b-1cd521e54a29</t>
+        </is>
+      </c>
       <c r="M725" s="20" t="n"/>
       <c r="N725" s="20" t="n"/>
       <c r="O725" s="20" t="n"/>
@@ -38330,17 +38392,54 @@
       <c r="Q725" s="20" t="n"/>
     </row>
     <row r="726">
-      <c r="A726" s="18" t="n"/>
-      <c r="B726" s="18" t="n"/>
-      <c r="C726" s="18" t="n"/>
-      <c r="D726" s="18" t="n"/>
-      <c r="E726" s="18" t="n"/>
-      <c r="F726" s="18" t="n"/>
+      <c r="A726" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B726" s="18" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C726" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D726" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Considere si se necesita acceso público a blobs o si se puede deshabilitar para determinadas cuentas de almacenamiento. </t>
+        </is>
+      </c>
+      <c r="E726" s="18" t="inlineStr">
+        <is>
+          <t>Aproveche el Explorador de Resource Graph (resources | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true) para buscar cuentas de almacenamiento que permitan el acceso anónimo a blobs.</t>
+        </is>
+      </c>
+      <c r="F726" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G726" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H726" s="18" t="n"/>
-      <c r="I726" s="13" t="n"/>
+      <c r="I726" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J726" s="13" t="n"/>
       <c r="K726" s="19" t="n"/>
-      <c r="L726" s="19" t="n"/>
+      <c r="L726" s="19" t="inlineStr">
+        <is>
+          <t>659ae558-b937-4d49-a5e1-112dbd7ba012</t>
+        </is>
+      </c>
       <c r="M726" s="20" t="n"/>
       <c r="N726" s="20" t="n"/>
       <c r="O726" s="20" t="n"/>
@@ -47114,7 +47213,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G724" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G727" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -47713,9 +47812,9 @@
     <hyperlink ref="I701" r:id="rId592"/>
     <hyperlink ref="I702" r:id="rId593"/>
     <hyperlink ref="I703" r:id="rId594"/>
-    <hyperlink ref="I705" r:id="rId595"/>
-    <hyperlink ref="I706" r:id="rId596"/>
-    <hyperlink ref="I707" r:id="rId597"/>
+    <hyperlink ref="I704" r:id="rId595"/>
+    <hyperlink ref="I705" r:id="rId596"/>
+    <hyperlink ref="I706" r:id="rId597"/>
     <hyperlink ref="I708" r:id="rId598"/>
     <hyperlink ref="I709" r:id="rId599"/>
     <hyperlink ref="I710" r:id="rId600"/>
@@ -47724,13 +47823,16 @@
     <hyperlink ref="I713" r:id="rId603"/>
     <hyperlink ref="I714" r:id="rId604"/>
     <hyperlink ref="I715" r:id="rId605"/>
-    <hyperlink ref="I717" r:id="rId606"/>
-    <hyperlink ref="I718" r:id="rId607"/>
-    <hyperlink ref="I719" r:id="rId608"/>
+    <hyperlink ref="I716" r:id="rId606"/>
+    <hyperlink ref="I717" r:id="rId607"/>
+    <hyperlink ref="I718" r:id="rId608"/>
     <hyperlink ref="I720" r:id="rId609"/>
     <hyperlink ref="I721" r:id="rId610"/>
     <hyperlink ref="I722" r:id="rId611"/>
     <hyperlink ref="I723" r:id="rId612"/>
+    <hyperlink ref="I724" r:id="rId613"/>
+    <hyperlink ref="I725" r:id="rId614"/>
+    <hyperlink ref="I726" r:id="rId615"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf_checklist.es.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.es.xlsx
@@ -34258,7 +34258,7 @@
     <row r="650">
       <c r="A650" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure Spring Apps Review</t>
         </is>
       </c>
       <c r="B650" s="18" t="inlineStr">
@@ -34268,18 +34268,18 @@
       </c>
       <c r="C650" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>Spring Apps</t>
         </is>
       </c>
       <c r="D650" s="18" t="inlineStr">
         <is>
-          <t>Si es necesario para las cargas de trabajo de Windows de AKS, se pueden usar contenedores HostProcess</t>
+          <t>Azure Spring Apps permite dos implementaciones para cada aplicación, de las cuales solo una recibe tráfico de producción. Puede lograr cero tiempo de inactividad con estrategias de implementación azul verde. La implementación azul verde solo está disponible en los niveles Estándar y Enterprise. Puede automatizar la implementación mediante CI/CD con acciones de ADO/GitHub</t>
         </is>
       </c>
       <c r="E650" s="18" t="n"/>
       <c r="F650" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G650" t="inlineStr">
@@ -34297,7 +34297,7 @@
       <c r="K650" s="19" t="n"/>
       <c r="L650" s="19" t="inlineStr">
         <is>
-          <t>ab5351f6-383a-45ed-9c5e-b143b16db40a</t>
+          <t>6d8e32a8-3892-479d-a40b-10f6b4f6f298</t>
         </is>
       </c>
       <c r="M650" s="20" t="n"/>
@@ -34309,28 +34309,28 @@
     <row r="651">
       <c r="A651" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure Spring Apps Review</t>
         </is>
       </c>
       <c r="B651" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C651" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>Spring Apps</t>
         </is>
       </c>
       <c r="D651" s="18" t="inlineStr">
         <is>
-          <t>Utilice KEDA si ejecuta cargas de trabajo controladas por eventos</t>
+          <t>Las instancias de Azure Spring Apps se pueden crear en varias regiones para las aplicaciones y el tráfico se puede enrutar mediante Traffic Manager o Front Door.</t>
         </is>
       </c>
       <c r="E651" s="18" t="n"/>
       <c r="F651" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G651" t="inlineStr">
@@ -34348,7 +34348,7 @@
       <c r="K651" s="19" t="n"/>
       <c r="L651" s="19" t="inlineStr">
         <is>
-          <t>a280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
+          <t>fbcb40ac-9480-4a6d-bcf4-8081252a6716</t>
         </is>
       </c>
       <c r="M651" s="20" t="n"/>
@@ -34360,28 +34360,28 @@
     <row r="652">
       <c r="A652" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure Spring Apps Review</t>
         </is>
       </c>
       <c r="B652" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C652" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>Spring Apps</t>
         </is>
       </c>
       <c r="D652" s="18" t="inlineStr">
         <is>
-          <t>Uso de Dapr para facilitar el desarrollo de microservicios</t>
+          <t>En la región admitida, Azure Spring Apps se puede implementar como zona redundante, lo que significa que las instancias se distribuyen automáticamente entre las zonas de disponibilidad. Esta función solo está disponible en los niveles Standard y Enterprise.</t>
         </is>
       </c>
       <c r="E652" s="18" t="n"/>
       <c r="F652" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G652" t="inlineStr">
@@ -34399,7 +34399,7 @@
       <c r="K652" s="19" t="n"/>
       <c r="L652" s="19" t="inlineStr">
         <is>
-          <t>26886d20-b66c-457b-a591-19bf8e8f5c58</t>
+          <t>ff1ae6a7-9301-4feb-9d11-56cd72f1d4ef</t>
         </is>
       </c>
       <c r="M652" s="20" t="n"/>
@@ -34411,7 +34411,7 @@
     <row r="653">
       <c r="A653" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure Spring Apps Review</t>
         </is>
       </c>
       <c r="B653" s="18" t="inlineStr">
@@ -34421,18 +34421,18 @@
       </c>
       <c r="C653" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>Spring Apps</t>
         </is>
       </c>
       <c r="D653" s="18" t="inlineStr">
         <is>
-          <t>Uso de la oferta de AKS respaldada por SLA</t>
+          <t>Usar más de 1 instancia de aplicación para las aplicaciones</t>
         </is>
       </c>
       <c r="E653" s="18" t="n"/>
       <c r="F653" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G653" t="inlineStr">
@@ -34447,14 +34447,10 @@
         </is>
       </c>
       <c r="J653" s="13" t="n"/>
-      <c r="K653" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (sku.tier=='Paid') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K653" s="19" t="n"/>
       <c r="L653" s="19" t="inlineStr">
         <is>
-          <t>71d41e36-10cc-457b-9a4b-1410d4395898</t>
+          <t>ffc735ad-fbb1-4802-b43f-ad6387c4c066</t>
         </is>
       </c>
       <c r="M653" s="20" t="n"/>
@@ -34466,7 +34462,7 @@
     <row r="654">
       <c r="A654" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure Spring Apps Review</t>
         </is>
       </c>
       <c r="B654" s="18" t="inlineStr">
@@ -34476,18 +34472,18 @@
       </c>
       <c r="C654" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>Spring Apps</t>
         </is>
       </c>
       <c r="D654" s="18" t="inlineStr">
         <is>
-          <t>Uso de presupuestos de interrupción en el pod y las definiciones de implementación</t>
+          <t>Supervise Azure Spring Apps con registros, métricas y seguimiento. Integre ASA con la información de las aplicaciones, realice un seguimiento de los errores y cree libros de trabajo.</t>
         </is>
       </c>
       <c r="E654" s="18" t="n"/>
       <c r="F654" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G654" t="inlineStr">
@@ -34505,7 +34501,7 @@
       <c r="K654" s="19" t="n"/>
       <c r="L654" s="19" t="inlineStr">
         <is>
-          <t>c1288b3c-6a57-4cfc-9444-51e1a3d3453a</t>
+          <t>7504c230-6035-4183-95a5-85762acc6075</t>
         </is>
       </c>
       <c r="M654" s="20" t="n"/>
@@ -34517,7 +34513,7 @@
     <row r="655">
       <c r="A655" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure Spring Apps Review</t>
         </is>
       </c>
       <c r="B655" s="18" t="inlineStr">
@@ -34527,18 +34523,18 @@
       </c>
       <c r="C655" s="18" t="inlineStr">
         <is>
-          <t>ACR</t>
+          <t>Spring Apps</t>
         </is>
       </c>
       <c r="D655" s="18" t="inlineStr">
         <is>
-          <t>Si usa un registro privado, configure la replicación de regiones para almacenar imágenes en varias regiones</t>
+          <t>Configuración del escalado automático en Spring Cloud Gateway</t>
         </is>
       </c>
       <c r="E655" s="18" t="n"/>
       <c r="F655" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G655" t="inlineStr">
@@ -34556,7 +34552,7 @@
       <c r="K655" s="19" t="n"/>
       <c r="L655" s="19" t="inlineStr">
         <is>
-          <t>3c763963-7a55-42d5-a15e-401955387e5c</t>
+          <t>1eb48d58-3eec-4ef5-80b0-d2b0dde3f0c6</t>
         </is>
       </c>
       <c r="M655" s="20" t="n"/>
@@ -34568,22 +34564,22 @@
     <row r="656">
       <c r="A656" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure Spring Apps Review</t>
         </is>
       </c>
       <c r="B656" s="18" t="inlineStr">
         <is>
-          <t>Costar</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C656" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>Spring Apps</t>
         </is>
       </c>
       <c r="D656" s="18" t="inlineStr">
         <is>
-          <t>Usar una aplicación externa como kubecost para asignar costos a diferentes usuarios</t>
+          <t>Habilite el escalado automático para las aplicaciones con el consumo estándar y el plan dedicado.</t>
         </is>
       </c>
       <c r="E656" s="18" t="n"/>
@@ -34607,7 +34603,7 @@
       <c r="K656" s="19" t="n"/>
       <c r="L656" s="19" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>97411607-b6fd-4335-99d1-9885faf4e392</t>
         </is>
       </c>
       <c r="M656" s="20" t="n"/>
@@ -34619,28 +34615,28 @@
     <row r="657">
       <c r="A657" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure Spring Apps Review</t>
         </is>
       </c>
       <c r="B657" s="18" t="inlineStr">
         <is>
-          <t>Costar</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C657" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>Spring Apps</t>
         </is>
       </c>
       <c r="D657" s="18" t="inlineStr">
         <is>
-          <t>Usar el modo de reducción vertical para eliminar/desasignar nodos</t>
+          <t>Use el plan Enterprise para obtener soporte comercial de Spring Boot para aplicaciones de misión crítica. Con otros niveles, obtienes soporte OSS.</t>
         </is>
       </c>
       <c r="E657" s="18" t="n"/>
       <c r="F657" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G657" t="inlineStr">
@@ -34658,7 +34654,7 @@
       <c r="K657" s="19" t="n"/>
       <c r="L657" s="19" t="inlineStr">
         <is>
-          <t>4d3dfbab-9924-4831-a68d-fdf0d72f462c</t>
+          <t>dfcaffd1-d27c-4ef2-998d-64c1df3a7ac3</t>
         </is>
       </c>
       <c r="M657" s="20" t="n"/>
@@ -34675,7 +34671,7 @@
       </c>
       <c r="B658" s="18" t="inlineStr">
         <is>
-          <t>Costar</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C658" s="18" t="inlineStr">
@@ -34685,13 +34681,13 @@
       </c>
       <c r="D658" s="18" t="inlineStr">
         <is>
-          <t>Cuando sea necesario, use la GPU de partición de varias instancias en clústeres de AKS</t>
+          <t>Si es necesario para las cargas de trabajo de Windows de AKS, se pueden usar contenedores HostProcess</t>
         </is>
       </c>
       <c r="E658" s="18" t="n"/>
       <c r="F658" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G658" t="inlineStr">
@@ -34709,7 +34705,7 @@
       <c r="K658" s="19" t="n"/>
       <c r="L658" s="19" t="inlineStr">
         <is>
-          <t>87e651ea-bc4a-4a87-a6df-c06a4b570ebc</t>
+          <t>ab5351f6-383a-45ed-9c5e-b143b16db40a</t>
         </is>
       </c>
       <c r="M658" s="20" t="n"/>
@@ -34726,7 +34722,7 @@
       </c>
       <c r="B659" s="18" t="inlineStr">
         <is>
-          <t>Costar</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C659" s="18" t="inlineStr">
@@ -34736,7 +34732,7 @@
       </c>
       <c r="D659" s="18" t="inlineStr">
         <is>
-          <t>Si se ejecuta un clúster de desarrollo y pruebas, use NodePool Start/Stop</t>
+          <t>Utilice KEDA si ejecuta cargas de trabajo controladas por eventos</t>
         </is>
       </c>
       <c r="E659" s="18" t="n"/>
@@ -34760,7 +34756,7 @@
       <c r="K659" s="19" t="n"/>
       <c r="L659" s="19" t="inlineStr">
         <is>
-          <t>2b72a08b-0410-4cd6-9093-e068a5cf27e8</t>
+          <t>a280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
         </is>
       </c>
       <c r="M659" s="20" t="n"/>
@@ -34777,7 +34773,7 @@
       </c>
       <c r="B660" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C660" s="18" t="inlineStr">
@@ -34787,13 +34783,13 @@
       </c>
       <c r="D660" s="18" t="inlineStr">
         <is>
-          <t>Uso de Azure Policy para Kubernetes para garantizar el cumplimiento de clústeres</t>
+          <t>Uso de Dapr para facilitar el desarrollo de microservicios</t>
         </is>
       </c>
       <c r="E660" s="18" t="n"/>
       <c r="F660" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G660" t="inlineStr">
@@ -34808,14 +34804,10 @@
         </is>
       </c>
       <c r="J660" s="13" t="n"/>
-      <c r="K660" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.azurepolicy) and properties.addonProfiles.azurepolicy.enabled==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K660" s="19" t="n"/>
       <c r="L660" s="19" t="inlineStr">
         <is>
-          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
+          <t>26886d20-b66c-457b-a591-19bf8e8f5c58</t>
         </is>
       </c>
       <c r="M660" s="20" t="n"/>
@@ -34832,7 +34824,7 @@
       </c>
       <c r="B661" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C661" s="18" t="inlineStr">
@@ -34842,13 +34834,13 @@
       </c>
       <c r="D661" s="18" t="inlineStr">
         <is>
-          <t>Separe las aplicaciones del plano de control con grupos de nodos de usuario/sistema</t>
+          <t>Uso de la oferta de AKS respaldada por SLA</t>
         </is>
       </c>
       <c r="E661" s="18" t="n"/>
       <c r="F661" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G661" t="inlineStr">
@@ -34865,12 +34857,12 @@
       <c r="J661" s="13" t="n"/>
       <c r="K661" s="19" t="inlineStr">
         <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | project id,resourceGroup,name,pools=properties.agentPoolProfiles | project id,name,resourceGroup,poolcount=array_length(pools) | extend compliant = (poolcount &gt; 1)</t>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (sku.tier=='Paid') | distinct id,compliant</t>
         </is>
       </c>
       <c r="L661" s="19" t="inlineStr">
         <is>
-          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
+          <t>71d41e36-10cc-457b-9a4b-1410d4395898</t>
         </is>
       </c>
       <c r="M661" s="20" t="n"/>
@@ -34887,7 +34879,7 @@
       </c>
       <c r="B662" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C662" s="18" t="inlineStr">
@@ -34897,7 +34889,7 @@
       </c>
       <c r="D662" s="18" t="inlineStr">
         <is>
-          <t>Agregue taint a su grupo de nodos del sistema para que sea dedicado</t>
+          <t>Uso de presupuestos de interrupción en el pod y las definiciones de implementación</t>
         </is>
       </c>
       <c r="E662" s="18" t="n"/>
@@ -34921,7 +34913,7 @@
       <c r="K662" s="19" t="n"/>
       <c r="L662" s="19" t="inlineStr">
         <is>
-          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
+          <t>c1288b3c-6a57-4cfc-9444-51e1a3d3453a</t>
         </is>
       </c>
       <c r="M662" s="20" t="n"/>
@@ -34938,23 +34930,23 @@
       </c>
       <c r="B663" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C663" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>ACR</t>
         </is>
       </c>
       <c r="D663" s="18" t="inlineStr">
         <is>
-          <t>Utilice un registro privado para sus imágenes, como ACR</t>
+          <t>Si usa un registro privado, configure la replicación de regiones para almacenar imágenes en varias regiones</t>
         </is>
       </c>
       <c r="E663" s="18" t="n"/>
       <c r="F663" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G663" t="inlineStr">
@@ -34972,7 +34964,7 @@
       <c r="K663" s="19" t="n"/>
       <c r="L663" s="19" t="inlineStr">
         <is>
-          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
+          <t>3c763963-7a55-42d5-a15e-401955387e5c</t>
         </is>
       </c>
       <c r="M663" s="20" t="n"/>
@@ -34989,23 +34981,23 @@
       </c>
       <c r="B664" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C664" s="18" t="inlineStr">
         <is>
-          <t>ACR</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D664" s="18" t="inlineStr">
         <is>
-          <t>Escanea tus imágenes en busca de vulnerabilidades</t>
+          <t>Usar una aplicación externa como kubecost para asignar costos a diferentes usuarios</t>
         </is>
       </c>
       <c r="E664" s="18" t="n"/>
       <c r="F664" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G664" t="inlineStr">
@@ -35023,7 +35015,7 @@
       <c r="K664" s="19" t="n"/>
       <c r="L664" s="19" t="inlineStr">
         <is>
-          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M664" s="20" t="n"/>
@@ -35040,7 +35032,7 @@
       </c>
       <c r="B665" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C665" s="18" t="inlineStr">
@@ -35050,13 +35042,13 @@
       </c>
       <c r="D665" s="18" t="inlineStr">
         <is>
-          <t>Definición de los requisitos de separación de aplicaciones (espacio de nombres/grupo de nodos/clúster)</t>
+          <t>Usar el modo de reducción vertical para eliminar/desasignar nodos</t>
         </is>
       </c>
       <c r="E665" s="18" t="n"/>
       <c r="F665" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G665" t="inlineStr">
@@ -35074,7 +35066,7 @@
       <c r="K665" s="19" t="n"/>
       <c r="L665" s="19" t="inlineStr">
         <is>
-          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
+          <t>4d3dfbab-9924-4831-a68d-fdf0d72f462c</t>
         </is>
       </c>
       <c r="M665" s="20" t="n"/>
@@ -35091,7 +35083,7 @@
       </c>
       <c r="B666" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C666" s="18" t="inlineStr">
@@ -35101,7 +35093,7 @@
       </c>
       <c r="D666" s="18" t="inlineStr">
         <is>
-          <t>Almacenamiento de los secretos en Azure Key Vault con el controlador del almacén de secretos de CSI</t>
+          <t>Cuando sea necesario, use la GPU de partición de varias instancias en clústeres de AKS</t>
         </is>
       </c>
       <c r="E666" s="18" t="n"/>
@@ -35125,7 +35117,7 @@
       <c r="K666" s="19" t="n"/>
       <c r="L666" s="19" t="inlineStr">
         <is>
-          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
+          <t>87e651ea-bc4a-4a87-a6df-c06a4b570ebc</t>
         </is>
       </c>
       <c r="M666" s="20" t="n"/>
@@ -35142,7 +35134,7 @@
       </c>
       <c r="B667" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C667" s="18" t="inlineStr">
@@ -35152,13 +35144,13 @@
       </c>
       <c r="D667" s="18" t="inlineStr">
         <is>
-          <t>Si usa entidades de servicio para el clúster, actualice las credenciales periódicamente (por ejemplo, trimestralmente)</t>
+          <t>Si se ejecuta un clúster de desarrollo y pruebas, use NodePool Start/Stop</t>
         </is>
       </c>
       <c r="E667" s="18" t="n"/>
       <c r="F667" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G667" t="inlineStr">
@@ -35176,7 +35168,7 @@
       <c r="K667" s="19" t="n"/>
       <c r="L667" s="19" t="inlineStr">
         <is>
-          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
+          <t>2b72a08b-0410-4cd6-9093-e068a5cf27e8</t>
         </is>
       </c>
       <c r="M667" s="20" t="n"/>
@@ -35203,7 +35195,7 @@
       </c>
       <c r="D668" s="18" t="inlineStr">
         <is>
-          <t>Si es necesario, agregue el servicio de administración de claves, etcd, cifrado</t>
+          <t>Uso de Azure Policy para Kubernetes para garantizar el cumplimiento de clústeres</t>
         </is>
       </c>
       <c r="E668" s="18" t="n"/>
@@ -35224,10 +35216,14 @@
         </is>
       </c>
       <c r="J668" s="13" t="n"/>
-      <c r="K668" s="19" t="n"/>
+      <c r="K668" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.azurepolicy) and properties.addonProfiles.azurepolicy.enabled==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L668" s="19" t="inlineStr">
         <is>
-          <t>e7ba73a3-0508-4f80-806f-527db30cee96</t>
+          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
         </is>
       </c>
       <c r="M668" s="20" t="n"/>
@@ -35254,13 +35250,13 @@
       </c>
       <c r="D669" s="18" t="inlineStr">
         <is>
-          <t>Si es necesario, considere la posibilidad de usar Proceso confidencial para AKS</t>
+          <t>Separe las aplicaciones del plano de control con grupos de nodos de usuario/sistema</t>
         </is>
       </c>
       <c r="E669" s="18" t="n"/>
       <c r="F669" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G669" t="inlineStr">
@@ -35275,10 +35271,14 @@
         </is>
       </c>
       <c r="J669" s="13" t="n"/>
-      <c r="K669" s="19" t="n"/>
+      <c r="K669" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | project id,resourceGroup,name,pools=properties.agentPoolProfiles | project id,name,resourceGroup,poolcount=array_length(pools) | extend compliant = (poolcount &gt; 1)</t>
+        </is>
+      </c>
       <c r="L669" s="19" t="inlineStr">
         <is>
-          <t>ec8e4e42-0344-41b0-b865-9123e8956d31</t>
+          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
         </is>
       </c>
       <c r="M669" s="20" t="n"/>
@@ -35305,13 +35305,13 @@
       </c>
       <c r="D670" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar Defender para contenedores</t>
+          <t>Agregue taint a su grupo de nodos del sistema para que sea dedicado</t>
         </is>
       </c>
       <c r="E670" s="18" t="n"/>
       <c r="F670" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G670" t="inlineStr">
@@ -35329,7 +35329,7 @@
       <c r="K670" s="19" t="n"/>
       <c r="L670" s="19" t="inlineStr">
         <is>
-          <t>c9e95ffe-6dd1-4a17-8c5f-110389ca9b21</t>
+          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
         </is>
       </c>
       <c r="M670" s="20" t="n"/>
@@ -35356,13 +35356,13 @@
       </c>
       <c r="D671" s="18" t="inlineStr">
         <is>
-          <t>Uso de identidades administradas en lugar de entidades de servicio</t>
+          <t>Utilice un registro privado para sus imágenes, como ACR</t>
         </is>
       </c>
       <c r="E671" s="18" t="n"/>
       <c r="F671" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G671" t="inlineStr">
@@ -35377,14 +35377,10 @@
         </is>
       </c>
       <c r="J671" s="13" t="n"/>
-      <c r="K671" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.servicePrincipalProfile.clientId=='msi') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K671" s="19" t="n"/>
       <c r="L671" s="19" t="inlineStr">
         <is>
-          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
+          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
         </is>
       </c>
       <c r="M671" s="20" t="n"/>
@@ -35406,12 +35402,12 @@
       </c>
       <c r="C672" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>ACR</t>
         </is>
       </c>
       <c r="D672" s="18" t="inlineStr">
         <is>
-          <t>Integración de la autenticación con AAD (mediante la integración administrada)</t>
+          <t>Escanea tus imágenes en busca de vulnerabilidades</t>
         </is>
       </c>
       <c r="E672" s="18" t="n"/>
@@ -35432,14 +35428,10 @@
         </is>
       </c>
       <c r="J672" s="13" t="n"/>
-      <c r="K672" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = isnotnull(properties.aadProfile) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K672" s="19" t="n"/>
       <c r="L672" s="19" t="inlineStr">
         <is>
-          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
+          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
         </is>
       </c>
       <c r="M672" s="20" t="n"/>
@@ -35466,13 +35458,13 @@
       </c>
       <c r="D673" s="18" t="inlineStr">
         <is>
-          <t>Limitar el acceso a admin kubeconfig (get-credentials --admin)</t>
+          <t>Definición de los requisitos de separación de aplicaciones (espacio de nombres/grupo de nodos/clúster)</t>
         </is>
       </c>
       <c r="E673" s="18" t="n"/>
       <c r="F673" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G673" t="inlineStr">
@@ -35490,7 +35482,7 @@
       <c r="K673" s="19" t="n"/>
       <c r="L673" s="19" t="inlineStr">
         <is>
-          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
+          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
         </is>
       </c>
       <c r="M673" s="20" t="n"/>
@@ -35517,7 +35509,7 @@
       </c>
       <c r="D674" s="18" t="inlineStr">
         <is>
-          <t>Integración de la autorización con RBAC de AAD</t>
+          <t>Almacenamiento de los secretos en Azure Key Vault con el controlador del almacén de secretos de CSI</t>
         </is>
       </c>
       <c r="E674" s="18" t="n"/>
@@ -35541,7 +35533,7 @@
       <c r="K674" s="19" t="n"/>
       <c r="L674" s="19" t="inlineStr">
         <is>
-          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
+          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
         </is>
       </c>
       <c r="M674" s="20" t="n"/>
@@ -35568,7 +35560,7 @@
       </c>
       <c r="D675" s="18" t="inlineStr">
         <is>
-          <t>Uso de espacios de nombres para restringir el privilegio RBAC en Kubernetes</t>
+          <t>Si usa entidades de servicio para el clúster, actualice las credenciales periódicamente (por ejemplo, trimestralmente)</t>
         </is>
       </c>
       <c r="E675" s="18" t="n"/>
@@ -35592,7 +35584,7 @@
       <c r="K675" s="19" t="n"/>
       <c r="L675" s="19" t="inlineStr">
         <is>
-          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
+          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
         </is>
       </c>
       <c r="M675" s="20" t="n"/>
@@ -35619,7 +35611,7 @@
       </c>
       <c r="D676" s="18" t="inlineStr">
         <is>
-          <t>Para la administración de acceso a identidades de pods, use Azure AD Workload Identity (versión preliminar)</t>
+          <t>Si es necesario, agregue el servicio de administración de claves, etcd, cifrado</t>
         </is>
       </c>
       <c r="E676" s="18" t="n"/>
@@ -35643,7 +35635,7 @@
       <c r="K676" s="19" t="n"/>
       <c r="L676" s="19" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>e7ba73a3-0508-4f80-806f-527db30cee96</t>
         </is>
       </c>
       <c r="M676" s="20" t="n"/>
@@ -35670,13 +35662,13 @@
       </c>
       <c r="D677" s="18" t="inlineStr">
         <is>
-          <t>En el caso de los inicios de sesión no interactivos de AKS, use kubelogin (versión preliminar)</t>
+          <t>Si es necesario, considere la posibilidad de usar Proceso confidencial para AKS</t>
         </is>
       </c>
       <c r="E677" s="18" t="n"/>
       <c r="F677" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G677" t="inlineStr">
@@ -35694,7 +35686,7 @@
       <c r="K677" s="19" t="n"/>
       <c r="L677" s="19" t="inlineStr">
         <is>
-          <t>f4dcf690-1b30-407d-abab-6f8aa780d3a3</t>
+          <t>ec8e4e42-0344-41b0-b865-9123e8956d31</t>
         </is>
       </c>
       <c r="M677" s="20" t="n"/>
@@ -35721,7 +35713,7 @@
       </c>
       <c r="D678" s="18" t="inlineStr">
         <is>
-          <t>Deshabilitación de cuentas locales de AKS</t>
+          <t>Considere la posibilidad de usar Defender para contenedores</t>
         </is>
       </c>
       <c r="E678" s="18" t="n"/>
@@ -35742,14 +35734,10 @@
         </is>
       </c>
       <c r="J678" s="13" t="n"/>
-      <c r="K678" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.disableLocalAccounts==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K678" s="19" t="n"/>
       <c r="L678" s="19" t="inlineStr">
         <is>
-          <t>b085b1f2-3119-4771-8c9a-bbf4411810ec</t>
+          <t>c9e95ffe-6dd1-4a17-8c5f-110389ca9b21</t>
         </is>
       </c>
       <c r="M678" s="20" t="n"/>
@@ -35776,13 +35764,13 @@
       </c>
       <c r="D679" s="18" t="inlineStr">
         <is>
-          <t>Configure, si es necesario, el acceso al clúster Just-In-Time</t>
+          <t>Uso de identidades administradas en lugar de entidades de servicio</t>
         </is>
       </c>
       <c r="E679" s="18" t="n"/>
       <c r="F679" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G679" t="inlineStr">
@@ -35797,10 +35785,14 @@
         </is>
       </c>
       <c r="J679" s="13" t="n"/>
-      <c r="K679" s="19" t="n"/>
+      <c r="K679" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.servicePrincipalProfile.clientId=='msi') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L679" s="19" t="inlineStr">
         <is>
-          <t>36abb0db-c118-4f4c-9880-3f30f9a2deb6</t>
+          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
         </is>
       </c>
       <c r="M679" s="20" t="n"/>
@@ -35827,13 +35819,13 @@
       </c>
       <c r="D680" s="18" t="inlineStr">
         <is>
-          <t>Configure si es necesario el acceso condicional de AAD para AKS</t>
+          <t>Integración de la autenticación con AAD (mediante la integración administrada)</t>
         </is>
       </c>
       <c r="E680" s="18" t="n"/>
       <c r="F680" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G680" t="inlineStr">
@@ -35848,10 +35840,14 @@
         </is>
       </c>
       <c r="J680" s="13" t="n"/>
-      <c r="K680" s="19" t="n"/>
+      <c r="K680" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = isnotnull(properties.aadProfile) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L680" s="19" t="inlineStr">
         <is>
-          <t>c4d7f4c6-79bf-45d0-aa05-ce8fc717e150</t>
+          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
         </is>
       </c>
       <c r="M680" s="20" t="n"/>
@@ -35878,13 +35874,13 @@
       </c>
       <c r="D681" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Si es necesario para las cargas de trabajo de Windows AKS, configure gMSA </t>
+          <t>Limitar el acceso a admin kubeconfig (get-credentials --admin)</t>
         </is>
       </c>
       <c r="E681" s="18" t="n"/>
       <c r="F681" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G681" t="inlineStr">
@@ -35902,7 +35898,7 @@
       <c r="K681" s="19" t="n"/>
       <c r="L681" s="19" t="inlineStr">
         <is>
-          <t>e1123a7c-a333-4eb4-a120-4ee3f293c9f3</t>
+          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
         </is>
       </c>
       <c r="M681" s="20" t="n"/>
@@ -35929,7 +35925,7 @@
       </c>
       <c r="D682" s="18" t="inlineStr">
         <is>
-          <t>Para un control más preciso, considere la posibilidad de utilizar una identidad de Kubelet administrada</t>
+          <t>Integración de la autorización con RBAC de AAD</t>
         </is>
       </c>
       <c r="E682" s="18" t="n"/>
@@ -35953,7 +35949,7 @@
       <c r="K682" s="19" t="n"/>
       <c r="L682" s="19" t="inlineStr">
         <is>
-          <t>1f711a74-3672-470b-b8b8-a2148d640d79</t>
+          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
         </is>
       </c>
       <c r="M682" s="20" t="n"/>
@@ -35970,7 +35966,7 @@
       </c>
       <c r="B683" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C683" s="18" t="inlineStr">
@@ -35980,13 +35976,13 @@
       </c>
       <c r="D683" s="18" t="inlineStr">
         <is>
-          <t>Si utiliza AGIC, no comparta un AppGW entre clústeres</t>
+          <t>Uso de espacios de nombres para restringir el privilegio RBAC en Kubernetes</t>
         </is>
       </c>
       <c r="E683" s="18" t="n"/>
       <c r="F683" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G683" t="inlineStr">
@@ -36004,7 +36000,7 @@
       <c r="K683" s="19" t="n"/>
       <c r="L683" s="19" t="inlineStr">
         <is>
-          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
+          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
         </is>
       </c>
       <c r="M683" s="20" t="n"/>
@@ -36021,7 +36017,7 @@
       </c>
       <c r="B684" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C684" s="18" t="inlineStr">
@@ -36031,13 +36027,13 @@
       </c>
       <c r="D684" s="18" t="inlineStr">
         <is>
-          <t>No use el complemento de enrutamiento HTTP de AKS, use en su lugar la entrada NGINX administrada con el complemento de enrutamiento de aplicaciones.</t>
+          <t>Para la administración de acceso a identidades de pods, use Azure AD Workload Identity (versión preliminar)</t>
         </is>
       </c>
       <c r="E684" s="18" t="n"/>
       <c r="F684" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G684" t="inlineStr">
@@ -36052,14 +36048,10 @@
         </is>
       </c>
       <c r="J684" s="13" t="n"/>
-      <c r="K684" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnull(properties.addonProfiles.httpApplicationRouting) or properties.addonProfiles.httpApplicationRouting.enabled==false) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K684" s="19" t="n"/>
       <c r="L684" s="19" t="inlineStr">
         <is>
-          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M684" s="20" t="n"/>
@@ -36076,7 +36068,7 @@
       </c>
       <c r="B685" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C685" s="18" t="inlineStr">
@@ -36086,7 +36078,7 @@
       </c>
       <c r="D685" s="18" t="inlineStr">
         <is>
-          <t>En el caso de las cargas de trabajo de Windows, use las redes aceleradas</t>
+          <t>En el caso de los inicios de sesión no interactivos de AKS, use kubelogin (versión preliminar)</t>
         </is>
       </c>
       <c r="E685" s="18" t="n"/>
@@ -36110,7 +36102,7 @@
       <c r="K685" s="19" t="n"/>
       <c r="L685" s="19" t="inlineStr">
         <is>
-          <t>7bacd7b9-c025-4a9d-a5d2-25d6bc5439d9</t>
+          <t>f4dcf690-1b30-407d-abab-6f8aa780d3a3</t>
         </is>
       </c>
       <c r="M685" s="20" t="n"/>
@@ -36127,7 +36119,7 @@
       </c>
       <c r="B686" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C686" s="18" t="inlineStr">
@@ -36137,13 +36129,13 @@
       </c>
       <c r="D686" s="18" t="inlineStr">
         <is>
-          <t>Utilice el ALB estándar (en lugar del básico)</t>
+          <t>Deshabilitación de cuentas locales de AKS</t>
         </is>
       </c>
       <c r="E686" s="18" t="n"/>
       <c r="F686" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G686" t="inlineStr">
@@ -36160,12 +36152,12 @@
       <c r="J686" s="13" t="n"/>
       <c r="K686" s="19" t="inlineStr">
         <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (tolower(properties.networkProfile.loadBalancerSku)=='standard') | distinct id,compliant</t>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.disableLocalAccounts==true) | distinct id,compliant</t>
         </is>
       </c>
       <c r="L686" s="19" t="inlineStr">
         <is>
-          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
+          <t>b085b1f2-3119-4771-8c9a-bbf4411810ec</t>
         </is>
       </c>
       <c r="M686" s="20" t="n"/>
@@ -36192,13 +36184,13 @@
       </c>
       <c r="D687" s="18" t="inlineStr">
         <is>
-          <t>Si usa Azure CNI, considere la posibilidad de usar diferentes subredes para NodePools</t>
+          <t>Configure, si es necesario, el acceso al clúster Just-In-Time</t>
         </is>
       </c>
       <c r="E687" s="18" t="n"/>
       <c r="F687" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G687" t="inlineStr">
@@ -36216,7 +36208,7 @@
       <c r="K687" s="19" t="n"/>
       <c r="L687" s="19" t="inlineStr">
         <is>
-          <t>22fbe8d6-9b40-47ef-9011-25bb1a555a6b</t>
+          <t>36abb0db-c118-4f4c-9880-3f30f9a2deb6</t>
         </is>
       </c>
       <c r="M687" s="20" t="n"/>
@@ -36243,13 +36235,13 @@
       </c>
       <c r="D688" s="18" t="inlineStr">
         <is>
-          <t>Use puntos de conexión privados (preferidos) o puntos de conexión de servicio de red virtual para acceder a los servicios PaaS desde el clúster</t>
+          <t>Configure si es necesario el acceso condicional de AAD para AKS</t>
         </is>
       </c>
       <c r="E688" s="18" t="n"/>
       <c r="F688" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G688" t="inlineStr">
@@ -36267,7 +36259,7 @@
       <c r="K688" s="19" t="n"/>
       <c r="L688" s="19" t="inlineStr">
         <is>
-          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
+          <t>c4d7f4c6-79bf-45d0-aa05-ce8fc717e150</t>
         </is>
       </c>
       <c r="M688" s="20" t="n"/>
@@ -36284,7 +36276,7 @@
       </c>
       <c r="B689" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C689" s="18" t="inlineStr">
@@ -36294,13 +36286,13 @@
       </c>
       <c r="D689" s="18" t="inlineStr">
         <is>
-          <t>Elija el mejor complemento de red de CNI para sus necesidades (se recomienda Azure CNI)</t>
+          <t xml:space="preserve">Si es necesario para las cargas de trabajo de Windows AKS, configure gMSA </t>
         </is>
       </c>
       <c r="E689" s="18" t="n"/>
       <c r="F689" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G689" t="inlineStr">
@@ -36315,14 +36307,10 @@
         </is>
       </c>
       <c r="J689" s="13" t="n"/>
-      <c r="K689" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.networkProfile.networkPlugin=='azure') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K689" s="19" t="n"/>
       <c r="L689" s="19" t="inlineStr">
         <is>
-          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
+          <t>e1123a7c-a333-4eb4-a120-4ee3f293c9f3</t>
         </is>
       </c>
       <c r="M689" s="20" t="n"/>
@@ -36339,7 +36327,7 @@
       </c>
       <c r="B690" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C690" s="18" t="inlineStr">
@@ -36349,13 +36337,13 @@
       </c>
       <c r="D690" s="18" t="inlineStr">
         <is>
-          <t>Si usa CNI de Azure, ajuste el tamaño de la subred en consecuencia teniendo en cuenta el número máximo de pods por nodo</t>
+          <t>Para un control más preciso, considere la posibilidad de utilizar una identidad de Kubelet administrada</t>
         </is>
       </c>
       <c r="E690" s="18" t="n"/>
       <c r="F690" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G690" t="inlineStr">
@@ -36373,7 +36361,7 @@
       <c r="K690" s="19" t="n"/>
       <c r="L690" s="19" t="inlineStr">
         <is>
-          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
+          <t>1f711a74-3672-470b-b8b8-a2148d640d79</t>
         </is>
       </c>
       <c r="M690" s="20" t="n"/>
@@ -36390,7 +36378,7 @@
       </c>
       <c r="B691" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C691" s="18" t="inlineStr">
@@ -36400,13 +36388,13 @@
       </c>
       <c r="D691" s="18" t="inlineStr">
         <is>
-          <t>Si usa Azure CNI, compruebe el número máximo de pods o nodo (valor predeterminado 30)</t>
+          <t>Si utiliza AGIC, no comparta un AppGW entre clústeres</t>
         </is>
       </c>
       <c r="E691" s="18" t="n"/>
       <c r="F691" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G691" t="inlineStr">
@@ -36424,7 +36412,7 @@
       <c r="K691" s="19" t="n"/>
       <c r="L691" s="19" t="inlineStr">
         <is>
-          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
+          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
         </is>
       </c>
       <c r="M691" s="20" t="n"/>
@@ -36441,7 +36429,7 @@
       </c>
       <c r="B692" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C692" s="18" t="inlineStr">
@@ -36451,17 +36439,13 @@
       </c>
       <c r="D692" s="18" t="inlineStr">
         <is>
-          <t>Si usa servicios de LoadBalancer de dirección IP privada, use una subred dedicada (no la subred de AKS)</t>
-        </is>
-      </c>
-      <c r="E692" s="18" t="inlineStr">
-        <is>
-          <t>En el caso de las aplicaciones internas, las organizaciones suelen abrir toda la subred de AKS en sus firewalls. Esto también abre el acceso de red a los nodos y, potencialmente, también a los pods (si se usa Azure CNI). Si las direcciones IP de LoadBalancer están en una subred diferente, solo esta debe estar disponible para los clientes de la aplicación. Otra razón es que si las direcciones IP de la subred de AKS son un recurso escaso, el consumo de sus direcciones IP para los servicios reducirá la escalabilidad máxima del clúster.</t>
-        </is>
-      </c>
+          <t>No use el complemento de enrutamiento HTTP de AKS, use en su lugar la entrada NGINX administrada con el complemento de enrutamiento de aplicaciones.</t>
+        </is>
+      </c>
+      <c r="E692" s="18" t="n"/>
       <c r="F692" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G692" t="inlineStr">
@@ -36476,10 +36460,14 @@
         </is>
       </c>
       <c r="J692" s="13" t="n"/>
-      <c r="K692" s="19" t="n"/>
+      <c r="K692" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnull(properties.addonProfiles.httpApplicationRouting) or properties.addonProfiles.httpApplicationRouting.enabled==false) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L692" s="19" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
+          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
         </is>
       </c>
       <c r="M692" s="20" t="n"/>
@@ -36496,7 +36484,7 @@
       </c>
       <c r="B693" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C693" s="18" t="inlineStr">
@@ -36506,13 +36494,13 @@
       </c>
       <c r="D693" s="18" t="inlineStr">
         <is>
-          <t>Dimensione el rango de direcciones IP del servicio en consecuencia (limitará la escalabilidad del clúster)</t>
+          <t>En el caso de las cargas de trabajo de Windows, use las redes aceleradas</t>
         </is>
       </c>
       <c r="E693" s="18" t="n"/>
       <c r="F693" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G693" t="inlineStr">
@@ -36530,7 +36518,7 @@
       <c r="K693" s="19" t="n"/>
       <c r="L693" s="19" t="inlineStr">
         <is>
-          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
+          <t>7bacd7b9-c025-4a9d-a5d2-25d6bc5439d9</t>
         </is>
       </c>
       <c r="M693" s="20" t="n"/>
@@ -36547,7 +36535,7 @@
       </c>
       <c r="B694" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C694" s="18" t="inlineStr">
@@ -36557,13 +36545,13 @@
       </c>
       <c r="D694" s="18" t="inlineStr">
         <is>
-          <t>Si es necesario, agregue su propio complemento CNI</t>
+          <t>Utilice el ALB estándar (en lugar del básico)</t>
         </is>
       </c>
       <c r="E694" s="18" t="n"/>
       <c r="F694" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G694" t="inlineStr">
@@ -36578,10 +36566,14 @@
         </is>
       </c>
       <c r="J694" s="13" t="n"/>
-      <c r="K694" s="19" t="n"/>
+      <c r="K694" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (tolower(properties.networkProfile.loadBalancerSku)=='standard') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L694" s="19" t="inlineStr">
         <is>
-          <t>57bf217f-6dc8-481c-81e2-785773e9c00f</t>
+          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
         </is>
       </c>
       <c r="M694" s="20" t="n"/>
@@ -36598,7 +36590,7 @@
       </c>
       <c r="B695" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C695" s="18" t="inlineStr">
@@ -36608,13 +36600,13 @@
       </c>
       <c r="D695" s="18" t="inlineStr">
         <is>
-          <t>Si es necesario, configure la dirección IP pública por nodo en AKS</t>
+          <t>Si usa Azure CNI, considere la posibilidad de usar diferentes subredes para NodePools</t>
         </is>
       </c>
       <c r="E695" s="18" t="n"/>
       <c r="F695" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G695" t="inlineStr">
@@ -36632,7 +36624,7 @@
       <c r="K695" s="19" t="n"/>
       <c r="L695" s="19" t="inlineStr">
         <is>
-          <t>4b3bb365-9458-44d9-9ed1-5c8f52890364</t>
+          <t>22fbe8d6-9b40-47ef-9011-25bb1a555a6b</t>
         </is>
       </c>
       <c r="M695" s="20" t="n"/>
@@ -36649,7 +36641,7 @@
       </c>
       <c r="B696" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C696" s="18" t="inlineStr">
@@ -36659,7 +36651,7 @@
       </c>
       <c r="D696" s="18" t="inlineStr">
         <is>
-          <t>Use un controlador de entrada para exponer aplicaciones basadas en web en lugar de exponerlas con servicios de tipo LoadBalancer</t>
+          <t>Use puntos de conexión privados (preferidos) o puntos de conexión de servicio de red virtual para acceder a los servicios PaaS desde el clúster</t>
         </is>
       </c>
       <c r="E696" s="18" t="n"/>
@@ -36683,7 +36675,7 @@
       <c r="K696" s="19" t="n"/>
       <c r="L696" s="19" t="inlineStr">
         <is>
-          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
+          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
         </is>
       </c>
       <c r="M696" s="20" t="n"/>
@@ -36710,13 +36702,13 @@
       </c>
       <c r="D697" s="18" t="inlineStr">
         <is>
-          <t>Uso de Azure NAT Gateway como outboundType para escalar el tráfico de salida</t>
+          <t>Elija el mejor complemento de red de CNI para sus necesidades (se recomienda Azure CNI)</t>
         </is>
       </c>
       <c r="E697" s="18" t="n"/>
       <c r="F697" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G697" t="inlineStr">
@@ -36731,10 +36723,14 @@
         </is>
       </c>
       <c r="J697" s="13" t="n"/>
-      <c r="K697" s="19" t="n"/>
+      <c r="K697" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.networkProfile.networkPlugin=='azure') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L697" s="19" t="inlineStr">
         <is>
-          <t>ccb534e7-416e-4a1d-8e93-533b53199085</t>
+          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
         </is>
       </c>
       <c r="M697" s="20" t="n"/>
@@ -36751,7 +36747,7 @@
       </c>
       <c r="B698" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C698" s="18" t="inlineStr">
@@ -36761,13 +36757,13 @@
       </c>
       <c r="D698" s="18" t="inlineStr">
         <is>
-          <t>Uso de asignaciones dinámicas de direcciones IP para evitar el agotamiento de direcciones IP de Azure CNI</t>
+          <t>Si usa CNI de Azure, ajuste el tamaño de la subred en consecuencia teniendo en cuenta el número máximo de pods por nodo</t>
         </is>
       </c>
       <c r="E698" s="18" t="n"/>
       <c r="F698" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G698" t="inlineStr">
@@ -36785,7 +36781,7 @@
       <c r="K698" s="19" t="n"/>
       <c r="L698" s="19" t="inlineStr">
         <is>
-          <t>8ee9a69a-1b58-4b1e-9c61-476e110a160b</t>
+          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
         </is>
       </c>
       <c r="M698" s="20" t="n"/>
@@ -36802,7 +36798,7 @@
       </c>
       <c r="B699" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C699" s="18" t="inlineStr">
@@ -36812,7 +36808,7 @@
       </c>
       <c r="D699" s="18" t="inlineStr">
         <is>
-          <t>Filtre el tráfico de salida con AzFW/NVA si sus requisitos de seguridad lo exigen</t>
+          <t>Si usa Azure CNI, compruebe el número máximo de pods o nodo (valor predeterminado 30)</t>
         </is>
       </c>
       <c r="E699" s="18" t="n"/>
@@ -36833,14 +36829,10 @@
         </is>
       </c>
       <c r="J699" s="13" t="n"/>
-      <c r="K699" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.networkProfile.outboundType=='userDefinedRouting') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K699" s="19" t="n"/>
       <c r="L699" s="19" t="inlineStr">
         <is>
-          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
+          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
         </is>
       </c>
       <c r="M699" s="20" t="n"/>
@@ -36867,13 +36859,17 @@
       </c>
       <c r="D700" s="18" t="inlineStr">
         <is>
-          <t>Si utiliza un punto de conexión de API público, restrinja las direcciones IP que pueden acceder a él</t>
-        </is>
-      </c>
-      <c r="E700" s="18" t="n"/>
+          <t>Si usa servicios de LoadBalancer de dirección IP privada, use una subred dedicada (no la subred de AKS)</t>
+        </is>
+      </c>
+      <c r="E700" s="18" t="inlineStr">
+        <is>
+          <t>En el caso de las aplicaciones internas, las organizaciones suelen abrir toda la subred de AKS en sus firewalls. Esto también abre el acceso de red a los nodos y, potencialmente, también a los pods (si se usa Azure CNI). Si las direcciones IP de LoadBalancer están en una subred diferente, solo esta debe estar disponible para los clientes de la aplicación. Otra razón es que si las direcciones IP de la subred de AKS son un recurso escaso, el consumo de sus direcciones IP para los servicios reducirá la escalabilidad máxima del clúster.</t>
+        </is>
+      </c>
       <c r="F700" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G700" t="inlineStr">
@@ -36888,14 +36884,10 @@
         </is>
       </c>
       <c r="J700" s="13" t="n"/>
-      <c r="K700" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = ((isnull(properties.apiServerAccessProfile.enablePrivateCluster) or properties.apiServerAccessProfile.enablePrivateCluster==false) and isnotnull(properties.apiServerAccessProfile.authorizedIPRanges)) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K700" s="19" t="n"/>
       <c r="L700" s="19" t="inlineStr">
         <is>
-          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
+          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
         </is>
       </c>
       <c r="M700" s="20" t="n"/>
@@ -36912,7 +36904,7 @@
       </c>
       <c r="B701" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C701" s="18" t="inlineStr">
@@ -36922,7 +36914,7 @@
       </c>
       <c r="D701" s="18" t="inlineStr">
         <is>
-          <t>Utilice clústeres privados si sus requisitos lo exigen</t>
+          <t>Dimensione el rango de direcciones IP del servicio en consecuencia (limitará la escalabilidad del clúster)</t>
         </is>
       </c>
       <c r="E701" s="18" t="n"/>
@@ -36943,14 +36935,10 @@
         </is>
       </c>
       <c r="J701" s="13" t="n"/>
-      <c r="K701" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | where isnotnull(properties.apiServerAccessProfile.enablePrivateCluster) | extend compliant = (properties.apiServerAccessProfile.enablePrivateCluster==true) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="K701" s="19" t="n"/>
       <c r="L701" s="19" t="inlineStr">
         <is>
-          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
+          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
         </is>
       </c>
       <c r="M701" s="20" t="n"/>
@@ -36977,13 +36965,13 @@
       </c>
       <c r="D702" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para los nodos de AKS de Windows 2019 y 2022, se pueden usar directivas de red de Calico </t>
+          <t>Si es necesario, agregue su propio complemento CNI</t>
         </is>
       </c>
       <c r="E702" s="18" t="n"/>
       <c r="F702" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G702" t="inlineStr">
@@ -36998,14 +36986,10 @@
         </is>
       </c>
       <c r="J702" s="13" t="n"/>
-      <c r="K702" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | where isnotnull(properties.apiServerAccessProfile.enablePrivateCluster) | extend compliant = (properties.apiServerAccessProfile.enablePrivateCluster==true) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="K702" s="19" t="n"/>
       <c r="L702" s="19" t="inlineStr">
         <is>
-          <t>ce7f2a7c-297c-47c6-adea-a6ff838db665</t>
+          <t>57bf217f-6dc8-481c-81e2-785773e9c00f</t>
         </is>
       </c>
       <c r="M702" s="20" t="n"/>
@@ -37022,7 +37006,7 @@
       </c>
       <c r="B703" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C703" s="18" t="inlineStr">
@@ -37032,13 +37016,13 @@
       </c>
       <c r="D703" s="18" t="inlineStr">
         <is>
-          <t>Habilitación de una opción de directiva de red de Kubernetes (Calico/Azure)</t>
+          <t>Si es necesario, configure la dirección IP pública por nodo en AKS</t>
         </is>
       </c>
       <c r="E703" s="18" t="n"/>
       <c r="F703" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G703" t="inlineStr">
@@ -37053,14 +37037,10 @@
         </is>
       </c>
       <c r="J703" s="13" t="n"/>
-      <c r="K703" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = isnotnull(properties.networkProfile.networkPolicy) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K703" s="19" t="n"/>
       <c r="L703" s="19" t="inlineStr">
         <is>
-          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
+          <t>4b3bb365-9458-44d9-9ed1-5c8f52890364</t>
         </is>
       </c>
       <c r="M703" s="20" t="n"/>
@@ -37077,7 +37057,7 @@
       </c>
       <c r="B704" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C704" s="18" t="inlineStr">
@@ -37087,13 +37067,13 @@
       </c>
       <c r="D704" s="18" t="inlineStr">
         <is>
-          <t>Uso de directivas de red de Kubernetes para aumentar la seguridad dentro del clúster</t>
+          <t>Use un controlador de entrada para exponer aplicaciones basadas en web en lugar de exponerlas con servicios de tipo LoadBalancer</t>
         </is>
       </c>
       <c r="E704" s="18" t="n"/>
       <c r="F704" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G704" t="inlineStr">
@@ -37111,7 +37091,7 @@
       <c r="K704" s="19" t="n"/>
       <c r="L704" s="19" t="inlineStr">
         <is>
-          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
+          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
         </is>
       </c>
       <c r="M704" s="20" t="n"/>
@@ -37128,7 +37108,7 @@
       </c>
       <c r="B705" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C705" s="18" t="inlineStr">
@@ -37138,13 +37118,13 @@
       </c>
       <c r="D705" s="18" t="inlineStr">
         <is>
-          <t>Uso de un WAF para cargas de trabajo web (interfaces de usuario o API)</t>
+          <t>Uso de Azure NAT Gateway como outboundType para escalar el tráfico de salida</t>
         </is>
       </c>
       <c r="E705" s="18" t="n"/>
       <c r="F705" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G705" t="inlineStr">
@@ -37162,7 +37142,7 @@
       <c r="K705" s="19" t="n"/>
       <c r="L705" s="19" t="inlineStr">
         <is>
-          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
+          <t>ccb534e7-416e-4a1d-8e93-533b53199085</t>
         </is>
       </c>
       <c r="M705" s="20" t="n"/>
@@ -37179,7 +37159,7 @@
       </c>
       <c r="B706" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C706" s="18" t="inlineStr">
@@ -37189,7 +37169,7 @@
       </c>
       <c r="D706" s="18" t="inlineStr">
         <is>
-          <t>Uso de DDoS Standard en la red virtual de AKS</t>
+          <t>Uso de asignaciones dinámicas de direcciones IP para evitar el agotamiento de direcciones IP de Azure CNI</t>
         </is>
       </c>
       <c r="E706" s="18" t="n"/>
@@ -37210,14 +37190,10 @@
         </is>
       </c>
       <c r="J706" s="13" t="n"/>
-      <c r="K706" s="19" t="inlineStr">
-        <is>
-          <t>Resources | where type=~'microsoft.containerservice/managedclusters' | project resourceGroup,name,pools=properties.agentPoolProfiles | mv-expand pools | project subnetId=tostring(pools.vnetSubnetID) | where isnotempty(subnetId) | join (Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,enableDdosProtection=tostring(properties.enableDdosProtection),subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,enableDdosProtection,subnetId=tostring(subnets.id)) on subnetId | distinct id,resourceGroup,name,enableDdosProtection | extend compliant = (enableDdosProtection == 'true')</t>
-        </is>
-      </c>
+      <c r="K706" s="19" t="n"/>
       <c r="L706" s="19" t="inlineStr">
         <is>
-          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
+          <t>8ee9a69a-1b58-4b1e-9c61-476e110a160b</t>
         </is>
       </c>
       <c r="M706" s="20" t="n"/>
@@ -37244,13 +37220,13 @@
       </c>
       <c r="D707" s="18" t="inlineStr">
         <is>
-          <t>Si es necesario, agregue el proxy HTTP de la empresa</t>
+          <t>Filtre el tráfico de salida con AzFW/NVA si sus requisitos de seguridad lo exigen</t>
         </is>
       </c>
       <c r="E707" s="18" t="n"/>
       <c r="F707" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G707" t="inlineStr">
@@ -37267,12 +37243,12 @@
       <c r="J707" s="13" t="n"/>
       <c r="K707" s="19" t="inlineStr">
         <is>
-          <t>Resources | where type=~'microsoft.containerservice/managedclusters' | project resourceGroup,name,pools=properties.agentPoolProfiles | mv-expand pools | project subnetId=tostring(pools.vnetSubnetID) | where isnotempty(subnetId) | join (Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,enableDdosProtection=tostring(properties.enableDdosProtection),subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,enableDdosProtection,subnetId=tostring(subnets.id)) on subnetId | distinct id,resourceGroup,name,enableDdosProtection | extend compliant = (enableDdosProtection == 'true')</t>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.networkProfile.outboundType=='userDefinedRouting') | distinct id,compliant</t>
         </is>
       </c>
       <c r="L707" s="19" t="inlineStr">
         <is>
-          <t>6c46b91a-1107-4485-ad66-3183e2a8c266</t>
+          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
         </is>
       </c>
       <c r="M707" s="20" t="n"/>
@@ -37299,7 +37275,7 @@
       </c>
       <c r="D708" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar una malla de servicios para la administración avanzada de comunicaciones de microservicios</t>
+          <t>Si utiliza un punto de conexión de API público, restrinja las direcciones IP que pueden acceder a él</t>
         </is>
       </c>
       <c r="E708" s="18" t="n"/>
@@ -37320,10 +37296,14 @@
         </is>
       </c>
       <c r="J708" s="13" t="n"/>
-      <c r="K708" s="19" t="n"/>
+      <c r="K708" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = ((isnull(properties.apiServerAccessProfile.enablePrivateCluster) or properties.apiServerAccessProfile.enablePrivateCluster==false) and isnotnull(properties.apiServerAccessProfile.authorizedIPRanges)) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L708" s="19" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
         </is>
       </c>
       <c r="M708" s="20" t="n"/>
@@ -37340,7 +37320,7 @@
       </c>
       <c r="B709" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C709" s="18" t="inlineStr">
@@ -37350,7 +37330,7 @@
       </c>
       <c r="D709" s="18" t="inlineStr">
         <is>
-          <t>Configurar alertas sobre las métricas más críticas (consulte Container Insights para obtener recomendaciones)</t>
+          <t>Utilice clústeres privados si sus requisitos lo exigen</t>
         </is>
       </c>
       <c r="E709" s="18" t="n"/>
@@ -37371,10 +37351,14 @@
         </is>
       </c>
       <c r="J709" s="13" t="n"/>
-      <c r="K709" s="19" t="n"/>
+      <c r="K709" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | where isnotnull(properties.apiServerAccessProfile.enablePrivateCluster) | extend compliant = (properties.apiServerAccessProfile.enablePrivateCluster==true) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L709" s="19" t="inlineStr">
         <is>
-          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
+          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
         </is>
       </c>
       <c r="M709" s="20" t="n"/>
@@ -37391,7 +37375,7 @@
       </c>
       <c r="B710" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C710" s="18" t="inlineStr">
@@ -37401,13 +37385,13 @@
       </c>
       <c r="D710" s="18" t="inlineStr">
         <is>
-          <t>Consulte periódicamente Azure Advisor para obtener recomendaciones sobre el clúster</t>
+          <t xml:space="preserve">Para los nodos de AKS de Windows 2019 y 2022, se pueden usar directivas de red de Calico </t>
         </is>
       </c>
       <c r="E710" s="18" t="n"/>
       <c r="F710" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G710" t="inlineStr">
@@ -37422,10 +37406,14 @@
         </is>
       </c>
       <c r="J710" s="13" t="n"/>
-      <c r="K710" s="19" t="n"/>
+      <c r="K710" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | where isnotnull(properties.apiServerAccessProfile.enablePrivateCluster) | extend compliant = (properties.apiServerAccessProfile.enablePrivateCluster==true) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L710" s="19" t="inlineStr">
         <is>
-          <t>337453a3-cc63-4963-9a65-22ac19e80696</t>
+          <t>ce7f2a7c-297c-47c6-adea-a6ff838db665</t>
         </is>
       </c>
       <c r="M710" s="20" t="n"/>
@@ -37442,7 +37430,7 @@
       </c>
       <c r="B711" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C711" s="18" t="inlineStr">
@@ -37452,13 +37440,13 @@
       </c>
       <c r="D711" s="18" t="inlineStr">
         <is>
-          <t>Habilitación de la rotación automática de certificados de AKS</t>
+          <t>Habilitación de una opción de directiva de red de Kubernetes (Calico/Azure)</t>
         </is>
       </c>
       <c r="E711" s="18" t="n"/>
       <c r="F711" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G711" t="inlineStr">
@@ -37473,10 +37461,14 @@
         </is>
       </c>
       <c r="J711" s="13" t="n"/>
-      <c r="K711" s="19" t="n"/>
+      <c r="K711" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = isnotnull(properties.networkProfile.networkPolicy) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L711" s="19" t="inlineStr">
         <is>
-          <t>3aa70560-e7e7-4968-be3d-628af35b2ced</t>
+          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
         </is>
       </c>
       <c r="M711" s="20" t="n"/>
@@ -37493,7 +37485,7 @@
       </c>
       <c r="B712" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C712" s="18" t="inlineStr">
@@ -37503,7 +37495,7 @@
       </c>
       <c r="D712" s="18" t="inlineStr">
         <is>
-          <t>Tenga un proceso regular para actualizar la versión de Kubernetes periódicamente (trimestralmente, por ejemplo) o use la característica de actualización automática de AKS</t>
+          <t>Uso de directivas de red de Kubernetes para aumentar la seguridad dentro del clúster</t>
         </is>
       </c>
       <c r="E712" s="18" t="n"/>
@@ -37527,7 +37519,7 @@
       <c r="K712" s="19" t="n"/>
       <c r="L712" s="19" t="inlineStr">
         <is>
-          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
+          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
         </is>
       </c>
       <c r="M712" s="20" t="n"/>
@@ -37544,7 +37536,7 @@
       </c>
       <c r="B713" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C713" s="18" t="inlineStr">
@@ -37554,7 +37546,7 @@
       </c>
       <c r="D713" s="18" t="inlineStr">
         <is>
-          <t>Utilice kured para las actualizaciones de nodos de Linux en caso de que no esté utilizando la actualización de imagen de nodo</t>
+          <t>Uso de un WAF para cargas de trabajo web (interfaces de usuario o API)</t>
         </is>
       </c>
       <c r="E713" s="18" t="n"/>
@@ -37578,7 +37570,7 @@
       <c r="K713" s="19" t="n"/>
       <c r="L713" s="19" t="inlineStr">
         <is>
-          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
+          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
         </is>
       </c>
       <c r="M713" s="20" t="n"/>
@@ -37595,7 +37587,7 @@
       </c>
       <c r="B714" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C714" s="18" t="inlineStr">
@@ -37605,13 +37597,13 @@
       </c>
       <c r="D714" s="18" t="inlineStr">
         <is>
-          <t>Disponer de un proceso regular para actualizar las imágenes de los nodos del clúster periódicamente (semanalmente, por ejemplo)</t>
+          <t>Uso de DDoS Standard en la red virtual de AKS</t>
         </is>
       </c>
       <c r="E714" s="18" t="n"/>
       <c r="F714" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G714" t="inlineStr">
@@ -37626,10 +37618,14 @@
         </is>
       </c>
       <c r="J714" s="13" t="n"/>
-      <c r="K714" s="19" t="n"/>
+      <c r="K714" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type=~'microsoft.containerservice/managedclusters' | project resourceGroup,name,pools=properties.agentPoolProfiles | mv-expand pools | project subnetId=tostring(pools.vnetSubnetID) | where isnotempty(subnetId) | join (Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,enableDdosProtection=tostring(properties.enableDdosProtection),subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,enableDdosProtection,subnetId=tostring(subnets.id)) on subnetId | distinct id,resourceGroup,name,enableDdosProtection | extend compliant = (enableDdosProtection == 'true')</t>
+        </is>
+      </c>
       <c r="L714" s="19" t="inlineStr">
         <is>
-          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
+          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
         </is>
       </c>
       <c r="M714" s="20" t="n"/>
@@ -37646,7 +37642,7 @@
       </c>
       <c r="B715" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C715" s="18" t="inlineStr">
@@ -37656,7 +37652,7 @@
       </c>
       <c r="D715" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de implementar aplicaciones o configuraciones de clústeres en varios clústeres</t>
+          <t>Si es necesario, agregue el proxy HTTP de la empresa</t>
         </is>
       </c>
       <c r="E715" s="18" t="n"/>
@@ -37677,10 +37673,14 @@
         </is>
       </c>
       <c r="J715" s="13" t="n"/>
-      <c r="K715" s="19" t="n"/>
+      <c r="K715" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type=~'microsoft.containerservice/managedclusters' | project resourceGroup,name,pools=properties.agentPoolProfiles | mv-expand pools | project subnetId=tostring(pools.vnetSubnetID) | where isnotempty(subnetId) | join (Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,enableDdosProtection=tostring(properties.enableDdosProtection),subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,enableDdosProtection,subnetId=tostring(subnets.id)) on subnetId | distinct id,resourceGroup,name,enableDdosProtection | extend compliant = (enableDdosProtection == 'true')</t>
+        </is>
+      </c>
       <c r="L715" s="19" t="inlineStr">
         <is>
-          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
+          <t>6c46b91a-1107-4485-ad66-3183e2a8c266</t>
         </is>
       </c>
       <c r="M715" s="20" t="n"/>
@@ -37697,7 +37697,7 @@
       </c>
       <c r="B716" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C716" s="18" t="inlineStr">
@@ -37707,13 +37707,13 @@
       </c>
       <c r="D716" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar la invocación de comandos de AKS en clústeres privados</t>
+          <t>Considere la posibilidad de usar una malla de servicios para la administración avanzada de comunicaciones de microservicios</t>
         </is>
       </c>
       <c r="E716" s="18" t="n"/>
       <c r="F716" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G716" t="inlineStr">
@@ -37731,7 +37731,7 @@
       <c r="K716" s="19" t="n"/>
       <c r="L716" s="19" t="inlineStr">
         <is>
-          <t>d7672c26-7602-4482-85a4-14527fbe855c</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M716" s="20" t="n"/>
@@ -37758,13 +37758,13 @@
       </c>
       <c r="D717" s="18" t="inlineStr">
         <is>
-          <t>En el caso de los eventos planeados, considere la posibilidad de utilizar el drenaje automático de nodos</t>
+          <t>Configurar alertas sobre las métricas más críticas (consulte Container Insights para obtener recomendaciones)</t>
         </is>
       </c>
       <c r="E717" s="18" t="n"/>
       <c r="F717" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G717" t="inlineStr">
@@ -37782,7 +37782,7 @@
       <c r="K717" s="19" t="n"/>
       <c r="L717" s="19" t="inlineStr">
         <is>
-          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
+          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
         </is>
       </c>
       <c r="M717" s="20" t="n"/>
@@ -37809,13 +37809,13 @@
       </c>
       <c r="D718" s="18" t="inlineStr">
         <is>
-          <t>Desarrollar sus propias prácticas de gobernanza para asegurarse de que los operadores no realicen cambios en el nodo RG (también conocido como 'infra RG')</t>
+          <t>Consulte periódicamente Azure Advisor para obtener recomendaciones sobre el clúster</t>
         </is>
       </c>
       <c r="E718" s="18" t="n"/>
       <c r="F718" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G718" t="inlineStr">
@@ -37833,7 +37833,7 @@
       <c r="K718" s="19" t="n"/>
       <c r="L718" s="19" t="inlineStr">
         <is>
-          <t>ed0fda7f-211b-47c7-8b6e-c18873fb473c</t>
+          <t>337453a3-cc63-4963-9a65-22ac19e80696</t>
         </is>
       </c>
       <c r="M718" s="20" t="n"/>
@@ -37860,7 +37860,7 @@
       </c>
       <c r="D719" s="18" t="inlineStr">
         <is>
-          <t>Usar el nombre personalizado de Node RG (también conocido como 'Infra RG')</t>
+          <t>Habilitación de la rotación automática de certificados de AKS</t>
         </is>
       </c>
       <c r="E719" s="18" t="n"/>
@@ -37881,14 +37881,10 @@
         </is>
       </c>
       <c r="J719" s="13" t="n"/>
-      <c r="K719" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.nodeResourceGroup !startswith 'MC_') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K719" s="19" t="n"/>
       <c r="L719" s="19" t="inlineStr">
         <is>
-          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
+          <t>3aa70560-e7e7-4968-be3d-628af35b2ced</t>
         </is>
       </c>
       <c r="M719" s="20" t="n"/>
@@ -37915,13 +37911,13 @@
       </c>
       <c r="D720" s="18" t="inlineStr">
         <is>
-          <t>No use API de Kubernetes obsoletas en los manifiestos de YAML</t>
+          <t>Tenga un proceso regular para actualizar la versión de Kubernetes periódicamente (trimestralmente, por ejemplo) o use la característica de actualización automática de AKS</t>
         </is>
       </c>
       <c r="E720" s="18" t="n"/>
       <c r="F720" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G720" t="inlineStr">
@@ -37939,7 +37935,7 @@
       <c r="K720" s="19" t="n"/>
       <c r="L720" s="19" t="inlineStr">
         <is>
-          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
+          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
         </is>
       </c>
       <c r="M720" s="20" t="n"/>
@@ -37966,13 +37962,13 @@
       </c>
       <c r="D721" s="18" t="inlineStr">
         <is>
-          <t>Nodos de Windows de Taint</t>
+          <t>Utilice kured para las actualizaciones de nodos de Linux en caso de que no esté utilizando la actualización de imagen de nodo</t>
         </is>
       </c>
       <c r="E721" s="18" t="n"/>
       <c r="F721" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G721" t="inlineStr">
@@ -37990,7 +37986,7 @@
       <c r="K721" s="19" t="n"/>
       <c r="L721" s="19" t="inlineStr">
         <is>
-          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
+          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
         </is>
       </c>
       <c r="M721" s="20" t="n"/>
@@ -38017,13 +38013,13 @@
       </c>
       <c r="D722" s="18" t="inlineStr">
         <is>
-          <t>Mantener el nivel de revisión de los contenedores de Windows sincronizado con el nivel de revisión del host</t>
+          <t>Disponer de un proceso regular para actualizar las imágenes de los nodos del clúster periódicamente (semanalmente, por ejemplo)</t>
         </is>
       </c>
       <c r="E722" s="18" t="n"/>
       <c r="F722" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G722" t="inlineStr">
@@ -38041,7 +38037,7 @@
       <c r="K722" s="19" t="n"/>
       <c r="L722" s="19" t="inlineStr">
         <is>
-          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
+          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
         </is>
       </c>
       <c r="M722" s="20" t="n"/>
@@ -38068,14 +38064,10 @@
       </c>
       <c r="D723" s="18" t="inlineStr">
         <is>
-          <t>Envío de registros maestros (también conocidos como registros de API) a Azure Monitor o a la solución de administración de registros que prefiera</t>
-        </is>
-      </c>
-      <c r="E723" s="18" t="inlineStr">
-        <is>
-          <t>A través de la configuración de diagnóstico en el nivel de clúster</t>
-        </is>
-      </c>
+          <t>Considere la posibilidad de implementar aplicaciones o configuraciones de clústeres en varios clústeres</t>
+        </is>
+      </c>
+      <c r="E723" s="18" t="n"/>
       <c r="F723" s="18" t="inlineStr">
         <is>
           <t>Bajo</t>
@@ -38096,7 +38088,7 @@
       <c r="K723" s="19" t="n"/>
       <c r="L723" s="19" t="inlineStr">
         <is>
-          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
+          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
         </is>
       </c>
       <c r="M723" s="20" t="n"/>
@@ -38113,7 +38105,7 @@
       </c>
       <c r="B724" s="18" t="inlineStr">
         <is>
-          <t>Costar</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C724" s="18" t="inlineStr">
@@ -38123,7 +38115,7 @@
       </c>
       <c r="D724" s="18" t="inlineStr">
         <is>
-          <t>Si es necesario, utilice instantáneas de nodePool</t>
+          <t>Considere la posibilidad de usar la invocación de comandos de AKS en clústeres privados</t>
         </is>
       </c>
       <c r="E724" s="18" t="n"/>
@@ -38147,7 +38139,7 @@
       <c r="K724" s="19" t="n"/>
       <c r="L724" s="19" t="inlineStr">
         <is>
-          <t>64d1a846-e28a-4b6b-9a33-22a635c15a21</t>
+          <t>d7672c26-7602-4482-85a4-14527fbe855c</t>
         </is>
       </c>
       <c r="M724" s="20" t="n"/>
@@ -38174,7 +38166,7 @@
       </c>
       <c r="D725" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de crear grupos de nodos de acceso puntual para cargas de trabajo no urgentes</t>
+          <t>En el caso de los eventos planeados, considere la posibilidad de utilizar el drenaje automático de nodos</t>
         </is>
       </c>
       <c r="E725" s="18" t="n"/>
@@ -38198,7 +38190,7 @@
       <c r="K725" s="19" t="n"/>
       <c r="L725" s="19" t="inlineStr">
         <is>
-          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
+          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
         </is>
       </c>
       <c r="M725" s="20" t="n"/>
@@ -38225,13 +38217,13 @@
       </c>
       <c r="D726" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de utilizar el nodo virtual de AKS para una ráfaga rápida</t>
+          <t>Desarrollar sus propias prácticas de gobernanza para asegurarse de que los operadores no realicen cambios en el nodo RG (también conocido como 'infra RG')</t>
         </is>
       </c>
       <c r="E726" s="18" t="n"/>
       <c r="F726" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G726" t="inlineStr">
@@ -38246,14 +38238,10 @@
         </is>
       </c>
       <c r="J726" s="13" t="n"/>
-      <c r="K726" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.aciConnectorLinux) and properties.addonProfiles.aciConnectorLinux.enabled==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K726" s="19" t="n"/>
       <c r="L726" s="19" t="inlineStr">
         <is>
-          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
+          <t>ed0fda7f-211b-47c7-8b6e-c18873fb473c</t>
         </is>
       </c>
       <c r="M726" s="20" t="n"/>
@@ -38280,13 +38268,13 @@
       </c>
       <c r="D727" s="18" t="inlineStr">
         <is>
-          <t>Supervise las métricas de clúster con Container Insights (u otras herramientas como Prometheus)</t>
+          <t>Usar el nombre personalizado de Node RG (también conocido como 'Infra RG')</t>
         </is>
       </c>
       <c r="E727" s="18" t="n"/>
       <c r="F727" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G727" t="inlineStr">
@@ -38301,10 +38289,14 @@
         </is>
       </c>
       <c r="J727" s="13" t="n"/>
-      <c r="K727" s="19" t="n"/>
+      <c r="K727" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.nodeResourceGroup !startswith 'MC_') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L727" s="19" t="inlineStr">
         <is>
-          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
+          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
         </is>
       </c>
       <c r="M727" s="20" t="n"/>
@@ -38331,13 +38323,13 @@
       </c>
       <c r="D728" s="18" t="inlineStr">
         <is>
-          <t>Almacene y analice los registros del clúster con Container Insights (u otras herramientas como Telegraf/ElasticSearch)</t>
+          <t>No use API de Kubernetes obsoletas en los manifiestos de YAML</t>
         </is>
       </c>
       <c r="E728" s="18" t="n"/>
       <c r="F728" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G728" t="inlineStr">
@@ -38352,14 +38344,10 @@
         </is>
       </c>
       <c r="J728" s="13" t="n"/>
-      <c r="K728" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.omsagent) and properties.addonProfiles.omsagent.enabled==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K728" s="19" t="n"/>
       <c r="L728" s="19" t="inlineStr">
         <is>
-          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
+          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
         </is>
       </c>
       <c r="M728" s="20" t="n"/>
@@ -38386,13 +38374,13 @@
       </c>
       <c r="D729" s="18" t="inlineStr">
         <is>
-          <t>Supervisar el uso de la CPU y la memoria de los nodos</t>
+          <t>Nodos de Windows de Taint</t>
         </is>
       </c>
       <c r="E729" s="18" t="n"/>
       <c r="F729" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G729" t="inlineStr">
@@ -38410,7 +38398,7 @@
       <c r="K729" s="19" t="n"/>
       <c r="L729" s="19" t="inlineStr">
         <is>
-          <t>4621dd68-c5a5-4be2-bdb1-1726769ef669</t>
+          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
         </is>
       </c>
       <c r="M729" s="20" t="n"/>
@@ -38437,13 +38425,13 @@
       </c>
       <c r="D730" s="18" t="inlineStr">
         <is>
-          <t>Si usa Azure CNI, supervise el porcentaje de direcciones IP de pod consumidas por nodo</t>
+          <t>Mantener el nivel de revisión de los contenedores de Windows sincronizado con el nivel de revisión del host</t>
         </is>
       </c>
       <c r="E730" s="18" t="n"/>
       <c r="F730" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G730" t="inlineStr">
@@ -38461,7 +38449,7 @@
       <c r="K730" s="19" t="n"/>
       <c r="L730" s="19" t="inlineStr">
         <is>
-          <t>1a4835ac-9422-423e-ae80-b123081a5417</t>
+          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
         </is>
       </c>
       <c r="M730" s="20" t="n"/>
@@ -38488,17 +38476,17 @@
       </c>
       <c r="D731" s="18" t="inlineStr">
         <is>
-          <t>Supervisión de la profundidad de la cola de disco del sistema operativo en los nodos</t>
+          <t>Envío de registros maestros (también conocidos como registros de API) a Azure Monitor o a la solución de administración de registros que prefiera</t>
         </is>
       </c>
       <c r="E731" s="18" t="inlineStr">
         <is>
-          <t>La E/S en el disco del sistema operativo es un recurso crítico. Si el sistema operativo de los nodos se limita en la E/S, esto podría dar lugar a un comportamiento impredecible, que normalmente terminaría en que el nodo se declarara NotReady</t>
+          <t>A través de la configuración de diagnóstico en el nivel de clúster</t>
         </is>
       </c>
       <c r="F731" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G731" t="inlineStr">
@@ -38516,7 +38504,7 @@
       <c r="K731" s="19" t="n"/>
       <c r="L731" s="19" t="inlineStr">
         <is>
-          <t>415833ea-3ad3-4c2d-b733-165c3acbe04b</t>
+          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
         </is>
       </c>
       <c r="M731" s="20" t="n"/>
@@ -38533,7 +38521,7 @@
       </c>
       <c r="B732" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C732" s="18" t="inlineStr">
@@ -38543,13 +38531,13 @@
       </c>
       <c r="D732" s="18" t="inlineStr">
         <is>
-          <t>Si no usa el filtrado de salida con AzFW/NVA, supervise los puertos SNAT asignados por ALB estándar</t>
+          <t>Si es necesario, utilice instantáneas de nodePool</t>
         </is>
       </c>
       <c r="E732" s="18" t="n"/>
       <c r="F732" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G732" t="inlineStr">
@@ -38567,7 +38555,7 @@
       <c r="K732" s="19" t="n"/>
       <c r="L732" s="19" t="inlineStr">
         <is>
-          <t>be209d39-fda4-4777-a424-d116785c2fa5</t>
+          <t>64d1a846-e28a-4b6b-9a33-22a635c15a21</t>
         </is>
       </c>
       <c r="M732" s="20" t="n"/>
@@ -38594,13 +38582,13 @@
       </c>
       <c r="D733" s="18" t="inlineStr">
         <is>
-          <t>Suscríbase a las notificaciones de estado de los recursos para el clúster de AKS</t>
+          <t>Considere la posibilidad de crear grupos de nodos de acceso puntual para cargas de trabajo no urgentes</t>
         </is>
       </c>
       <c r="E733" s="18" t="n"/>
       <c r="F733" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G733" t="inlineStr">
@@ -38618,7 +38606,7 @@
       <c r="K733" s="19" t="n"/>
       <c r="L733" s="19" t="inlineStr">
         <is>
-          <t>74c2ee76-569b-4a79-a57e-dedf91b022c9</t>
+          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
         </is>
       </c>
       <c r="M733" s="20" t="n"/>
@@ -38645,13 +38633,13 @@
       </c>
       <c r="D734" s="18" t="inlineStr">
         <is>
-          <t>Configurar solicitudes y límites en las especificaciones del pod</t>
+          <t>Considere la posibilidad de utilizar el nodo virtual de AKS para una ráfaga rápida</t>
         </is>
       </c>
       <c r="E734" s="18" t="n"/>
       <c r="F734" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G734" t="inlineStr">
@@ -38666,10 +38654,14 @@
         </is>
       </c>
       <c r="J734" s="13" t="n"/>
-      <c r="K734" s="19" t="n"/>
+      <c r="K734" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.aciConnectorLinux) and properties.addonProfiles.aciConnectorLinux.enabled==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L734" s="19" t="inlineStr">
         <is>
-          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
+          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
         </is>
       </c>
       <c r="M734" s="20" t="n"/>
@@ -38696,13 +38688,13 @@
       </c>
       <c r="D735" s="18" t="inlineStr">
         <is>
-          <t>Aplicación de cuotas de recursos para espacios de nombres</t>
+          <t>Supervise las métricas de clúster con Container Insights (u otras herramientas como Prometheus)</t>
         </is>
       </c>
       <c r="E735" s="18" t="n"/>
       <c r="F735" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G735" t="inlineStr">
@@ -38720,7 +38712,7 @@
       <c r="K735" s="19" t="n"/>
       <c r="L735" s="19" t="inlineStr">
         <is>
-          <t>769ef669-1a48-435a-a942-223ece80b123</t>
+          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
         </is>
       </c>
       <c r="M735" s="20" t="n"/>
@@ -38747,7 +38739,7 @@
       </c>
       <c r="D736" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que la suscripción tiene suficiente cuota para escalar horizontalmente los grupos de nodos</t>
+          <t>Almacene y analice los registros del clúster con Container Insights (u otras herramientas como Telegraf/ElasticSearch)</t>
         </is>
       </c>
       <c r="E736" s="18" t="n"/>
@@ -38768,10 +38760,14 @@
         </is>
       </c>
       <c r="J736" s="13" t="n"/>
-      <c r="K736" s="19" t="n"/>
+      <c r="K736" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.omsagent) and properties.addonProfiles.omsagent.enabled==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L736" s="19" t="inlineStr">
         <is>
-          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
+          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
         </is>
       </c>
       <c r="M736" s="20" t="n"/>
@@ -38788,7 +38784,7 @@
       </c>
       <c r="B737" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C737" s="18" t="inlineStr">
@@ -38798,7 +38794,7 @@
       </c>
       <c r="D737" s="18" t="inlineStr">
         <is>
-          <t>Uso del escalador automático de clústeres</t>
+          <t>Supervisar el uso de la CPU y la memoria de los nodos</t>
         </is>
       </c>
       <c r="E737" s="18" t="n"/>
@@ -38819,14 +38815,10 @@
         </is>
       </c>
       <c r="J737" s="13" t="n"/>
-      <c r="K737" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.autoScalerProfile)) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K737" s="19" t="n"/>
       <c r="L737" s="19" t="inlineStr">
         <is>
-          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
+          <t>4621dd68-c5a5-4be2-bdb1-1726769ef669</t>
         </is>
       </c>
       <c r="M737" s="20" t="n"/>
@@ -38843,7 +38835,7 @@
       </c>
       <c r="B738" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C738" s="18" t="inlineStr">
@@ -38853,13 +38845,13 @@
       </c>
       <c r="D738" s="18" t="inlineStr">
         <is>
-          <t>Personalización de la configuración de nodos para grupos de nodos de AKS</t>
+          <t>Si usa Azure CNI, supervise el porcentaje de direcciones IP de pod consumidas por nodo</t>
         </is>
       </c>
       <c r="E738" s="18" t="n"/>
       <c r="F738" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G738" t="inlineStr">
@@ -38874,14 +38866,10 @@
         </is>
       </c>
       <c r="J738" s="13" t="n"/>
-      <c r="K738" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.austoscalerProfile)) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K738" s="19" t="n"/>
       <c r="L738" s="19" t="inlineStr">
         <is>
-          <t>831c2872-c693-4b39-a887-a561bada49bc</t>
+          <t>1a4835ac-9422-423e-ae80-b123081a5417</t>
         </is>
       </c>
       <c r="M738" s="20" t="n"/>
@@ -38898,7 +38886,7 @@
       </c>
       <c r="B739" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C739" s="18" t="inlineStr">
@@ -38908,10 +38896,14 @@
       </c>
       <c r="D739" s="18" t="inlineStr">
         <is>
-          <t>Usar el escalador automático horizontal de pods cuando sea necesario</t>
-        </is>
-      </c>
-      <c r="E739" s="18" t="n"/>
+          <t>Supervisión de la profundidad de la cola de disco del sistema operativo en los nodos</t>
+        </is>
+      </c>
+      <c r="E739" s="18" t="inlineStr">
+        <is>
+          <t>La E/S en el disco del sistema operativo es un recurso crítico. Si el sistema operativo de los nodos se limita en la E/S, esto podría dar lugar a un comportamiento impredecible, que normalmente terminaría en que el nodo se declarara NotReady</t>
+        </is>
+      </c>
       <c r="F739" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -38932,7 +38924,7 @@
       <c r="K739" s="19" t="n"/>
       <c r="L739" s="19" t="inlineStr">
         <is>
-          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
+          <t>415833ea-3ad3-4c2d-b733-165c3acbe04b</t>
         </is>
       </c>
       <c r="M739" s="20" t="n"/>
@@ -38949,7 +38941,7 @@
       </c>
       <c r="B740" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C740" s="18" t="inlineStr">
@@ -38959,17 +38951,13 @@
       </c>
       <c r="D740" s="18" t="inlineStr">
         <is>
-          <t>Considere un tamaño de nodo adecuado, ni demasiado grande ni demasiado pequeño</t>
-        </is>
-      </c>
-      <c r="E740" s="18" t="inlineStr">
-        <is>
-          <t>Los nodos más grandes aportarán un mayor rendimiento y características como discos efímeros y redes aceleradas, pero aumentarán el radio de explosión y disminuirán la granularidad de escalado</t>
-        </is>
-      </c>
+          <t>Si no usa el filtrado de salida con AzFW/NVA, supervise los puertos SNAT asignados por ALB estándar</t>
+        </is>
+      </c>
+      <c r="E740" s="18" t="n"/>
       <c r="F740" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G740" t="inlineStr">
@@ -38987,7 +38975,7 @@
       <c r="K740" s="19" t="n"/>
       <c r="L740" s="19" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>be209d39-fda4-4777-a424-d116785c2fa5</t>
         </is>
       </c>
       <c r="M740" s="20" t="n"/>
@@ -39004,7 +38992,7 @@
       </c>
       <c r="B741" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C741" s="18" t="inlineStr">
@@ -39014,13 +39002,13 @@
       </c>
       <c r="D741" s="18" t="inlineStr">
         <is>
-          <t>Si se requieren más de 5000 nodos para la escalabilidad, considere la posibilidad de usar un clúster de AKS adicional</t>
+          <t>Suscríbase a las notificaciones de estado de los recursos para el clúster de AKS</t>
         </is>
       </c>
       <c r="E741" s="18" t="n"/>
       <c r="F741" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G741" t="inlineStr">
@@ -39038,7 +39026,7 @@
       <c r="K741" s="19" t="n"/>
       <c r="L741" s="19" t="inlineStr">
         <is>
-          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
+          <t>74c2ee76-569b-4a79-a57e-dedf91b022c9</t>
         </is>
       </c>
       <c r="M741" s="20" t="n"/>
@@ -39055,7 +39043,7 @@
       </c>
       <c r="B742" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C742" s="18" t="inlineStr">
@@ -39065,13 +39053,13 @@
       </c>
       <c r="D742" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de suscribirse a eventos de EventGrid para la automatización de AKS</t>
+          <t>Configurar solicitudes y límites en las especificaciones del pod</t>
         </is>
       </c>
       <c r="E742" s="18" t="n"/>
       <c r="F742" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G742" t="inlineStr">
@@ -39089,7 +39077,7 @@
       <c r="K742" s="19" t="n"/>
       <c r="L742" s="19" t="inlineStr">
         <is>
-          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
+          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
         </is>
       </c>
       <c r="M742" s="20" t="n"/>
@@ -39106,7 +39094,7 @@
       </c>
       <c r="B743" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C743" s="18" t="inlineStr">
@@ -39116,13 +39104,13 @@
       </c>
       <c r="D743" s="18" t="inlineStr">
         <is>
-          <t>Para una operación de ejecución prolongada en un clúster de AKS, considere la finalización de eventos</t>
+          <t>Aplicación de cuotas de recursos para espacios de nombres</t>
         </is>
       </c>
       <c r="E743" s="18" t="n"/>
       <c r="F743" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G743" t="inlineStr">
@@ -39140,7 +39128,7 @@
       <c r="K743" s="19" t="n"/>
       <c r="L743" s="19" t="inlineStr">
         <is>
-          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
+          <t>769ef669-1a48-435a-a942-223ece80b123</t>
         </is>
       </c>
       <c r="M743" s="20" t="n"/>
@@ -39157,7 +39145,7 @@
       </c>
       <c r="B744" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C744" s="18" t="inlineStr">
@@ -39167,13 +39155,13 @@
       </c>
       <c r="D744" s="18" t="inlineStr">
         <is>
-          <t>Si es necesario, considere la posibilidad de usar Azure Dedicated Hosts para nodos de AKS</t>
+          <t>Asegúrese de que la suscripción tiene suficiente cuota para escalar horizontalmente los grupos de nodos</t>
         </is>
       </c>
       <c r="E744" s="18" t="n"/>
       <c r="F744" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G744" t="inlineStr">
@@ -39191,7 +39179,7 @@
       <c r="K744" s="19" t="n"/>
       <c r="L744" s="19" t="inlineStr">
         <is>
-          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
+          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
         </is>
       </c>
       <c r="M744" s="20" t="n"/>
@@ -39218,13 +39206,13 @@
       </c>
       <c r="D745" s="18" t="inlineStr">
         <is>
-          <t>Usar discos de sistema operativo efímeros</t>
+          <t>Uso del escalador automático de clústeres</t>
         </is>
       </c>
       <c r="E745" s="18" t="n"/>
       <c r="F745" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G745" t="inlineStr">
@@ -39241,12 +39229,12 @@
       <c r="J745" s="13" t="n"/>
       <c r="K745" s="19" t="inlineStr">
         <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | project id,resourceGroup,name,pools=properties.agentPoolProfiles | mvexpand pools | extend compliant = (pools.osDiskType=='Ephemeral') | project id,name=strcat(name,'-',pools.name), resourceGroup, compliant</t>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.autoScalerProfile)) | distinct id,compliant</t>
         </is>
       </c>
       <c r="L745" s="19" t="inlineStr">
         <is>
-          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
+          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
         </is>
       </c>
       <c r="M745" s="20" t="n"/>
@@ -39273,13 +39261,13 @@
       </c>
       <c r="D746" s="18" t="inlineStr">
         <is>
-          <t>En el caso de los discos no efímeros, use IOPS altas y discos de sistema operativo más grandes para los nodos cuando ejecute muchos pods o nodos, ya que requiere un alto rendimiento para ejecutar varios pods y generará registros enormes con umbrales de rotación de registros de AKS predeterminados</t>
+          <t>Personalización de la configuración de nodos para grupos de nodos de AKS</t>
         </is>
       </c>
       <c r="E746" s="18" t="n"/>
       <c r="F746" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G746" t="inlineStr">
@@ -39294,10 +39282,14 @@
         </is>
       </c>
       <c r="J746" s="13" t="n"/>
-      <c r="K746" s="19" t="n"/>
+      <c r="K746" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.austoscalerProfile)) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L746" s="19" t="inlineStr">
         <is>
-          <t>f0ce315f-1120-4166-8206-94f2cf3a4d07</t>
+          <t>831c2872-c693-4b39-a887-a561bada49bc</t>
         </is>
       </c>
       <c r="M746" s="20" t="n"/>
@@ -39324,13 +39316,13 @@
       </c>
       <c r="D747" s="18" t="inlineStr">
         <is>
-          <t>Para la opción de almacenamiento de hiperrendimiento, use discos Ultra en AKS</t>
+          <t>Usar el escalador automático horizontal de pods cuando sea necesario</t>
         </is>
       </c>
       <c r="E747" s="18" t="n"/>
       <c r="F747" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G747" t="inlineStr">
@@ -39348,7 +39340,7 @@
       <c r="K747" s="19" t="n"/>
       <c r="L747" s="19" t="inlineStr">
         <is>
-          <t>39c486ce-d5af-4062-89d5-18bb5fd795db</t>
+          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
         </is>
       </c>
       <c r="M747" s="20" t="n"/>
@@ -39375,13 +39367,17 @@
       </c>
       <c r="D748" s="18" t="inlineStr">
         <is>
-          <t>Evite mantener el estado en el clúster y almacene los datos fuera (AzStorage, AzSQL, Cosmos, etc.)</t>
-        </is>
-      </c>
-      <c r="E748" s="18" t="n"/>
+          <t>Considere un tamaño de nodo adecuado, ni demasiado grande ni demasiado pequeño</t>
+        </is>
+      </c>
+      <c r="E748" s="18" t="inlineStr">
+        <is>
+          <t>Los nodos más grandes aportarán un mayor rendimiento y características como discos efímeros y redes aceleradas, pero aumentarán el radio de explosión y disminuirán la granularidad de escalado</t>
+        </is>
+      </c>
       <c r="F748" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G748" t="inlineStr">
@@ -39399,7 +39395,7 @@
       <c r="K748" s="19" t="n"/>
       <c r="L748" s="19" t="inlineStr">
         <is>
-          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M748" s="20" t="n"/>
@@ -39426,13 +39422,13 @@
       </c>
       <c r="D749" s="18" t="inlineStr">
         <is>
-          <t>Si usa AzFiles Standard, considere AzFiles Premium o ANF por motivos de rendimiento</t>
+          <t>Si se requieren más de 5000 nodos para la escalabilidad, considere la posibilidad de usar un clúster de AKS adicional</t>
         </is>
       </c>
       <c r="E749" s="18" t="n"/>
       <c r="F749" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G749" t="inlineStr">
@@ -39450,7 +39446,7 @@
       <c r="K749" s="19" t="n"/>
       <c r="L749" s="19" t="inlineStr">
         <is>
-          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
+          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
         </is>
       </c>
       <c r="M749" s="20" t="n"/>
@@ -39477,13 +39473,13 @@
       </c>
       <c r="D750" s="18" t="inlineStr">
         <is>
-          <t>Si usa Azure Disks y AZ, considere la posibilidad de tener grupos de nodos dentro de una zona para el disco LRS con VolumeBindingMode:WaitForFirstConsumer para aprovisionar el almacenamiento en la zona correcta o use el disco ZRS para los grupos de nodos que abarquen varias zonas</t>
+          <t>Considere la posibilidad de suscribirse a eventos de EventGrid para la automatización de AKS</t>
         </is>
       </c>
       <c r="E750" s="18" t="n"/>
       <c r="F750" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G750" t="inlineStr">
@@ -39501,7 +39497,7 @@
       <c r="K750" s="19" t="n"/>
       <c r="L750" s="19" t="inlineStr">
         <is>
-          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
+          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
         </is>
       </c>
       <c r="M750" s="20" t="n"/>
@@ -39513,28 +39509,28 @@
     <row r="751">
       <c r="A751" s="18" t="inlineStr">
         <is>
-          <t>Azure Bot Service</t>
+          <t>Azure AKS Review</t>
         </is>
       </c>
       <c r="B751" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C751" s="18" t="inlineStr">
         <is>
-          <t>Bot service</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D751" s="18" t="inlineStr">
         <is>
-          <t>Siga las recomendaciones de soporte técnico de confiabilidad en Azure Bot Service</t>
+          <t>Para una operación de ejecución prolongada en un clúster de AKS, considere la finalización de eventos</t>
         </is>
       </c>
       <c r="E751" s="18" t="n"/>
       <c r="F751" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G751" t="inlineStr">
@@ -39552,7 +39548,7 @@
       <c r="K751" s="19" t="n"/>
       <c r="L751" s="19" t="inlineStr">
         <is>
-          <t>6ad48408-ee72-4734-a476-ba28fdcf590c</t>
+          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
         </is>
       </c>
       <c r="M751" s="20" t="n"/>
@@ -39564,28 +39560,28 @@
     <row r="752">
       <c r="A752" s="18" t="inlineStr">
         <is>
-          <t>Azure Bot Service</t>
+          <t>Azure AKS Review</t>
         </is>
       </c>
       <c r="B752" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C752" s="18" t="inlineStr">
         <is>
-          <t>Bot service</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D752" s="18" t="inlineStr">
         <is>
-          <t>Implementación de bots con residencia de datos local y cumplimiento regional</t>
+          <t>Si es necesario, considere la posibilidad de usar Azure Dedicated Hosts para nodos de AKS</t>
         </is>
       </c>
       <c r="E752" s="18" t="n"/>
       <c r="F752" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G752" t="inlineStr">
@@ -39603,7 +39599,7 @@
       <c r="K752" s="19" t="n"/>
       <c r="L752" s="19" t="inlineStr">
         <is>
-          <t>e65de8e1-3f9c-4cbd-9682-66abca264f9a</t>
+          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
         </is>
       </c>
       <c r="M752" s="20" t="n"/>
@@ -39615,28 +39611,28 @@
     <row r="753">
       <c r="A753" s="18" t="inlineStr">
         <is>
-          <t>Azure Bot Service</t>
+          <t>Azure AKS Review</t>
         </is>
       </c>
       <c r="B753" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C753" s="18" t="inlineStr">
         <is>
-          <t>Bot service</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D753" s="18" t="inlineStr">
         <is>
-          <t>Azure Bot Service se ejecuta en modo activo-activo para los servicios globales y regionales. Cuando se produce una interrupción, no es necesario detectar errores ni administrar el servicio. Azure Bot Service realiza automáticamente la conmutación por error y la recuperación automáticas en una arquitectura geográfica de varias regiones. En el caso del servicio regional de bots de la UE, Azure Bot Service proporciona dos regiones completas dentro de Europa con replicación activa/activa para garantizar la redundancia. En el caso del servicio de bot global, todas las regiones o zonas geográficas disponibles se pueden servir como superficie global.</t>
+          <t>Usar discos de sistema operativo efímeros</t>
         </is>
       </c>
       <c r="E753" s="18" t="n"/>
       <c r="F753" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G753" t="inlineStr">
@@ -39651,10 +39647,14 @@
         </is>
       </c>
       <c r="J753" s="13" t="n"/>
-      <c r="K753" s="19" t="n"/>
+      <c r="K753" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | project id,resourceGroup,name,pools=properties.agentPoolProfiles | mvexpand pools | extend compliant = (pools.osDiskType=='Ephemeral') | project id,name=strcat(name,'-',pools.name), resourceGroup, compliant</t>
+        </is>
+      </c>
       <c r="L753" s="19" t="inlineStr">
         <is>
-          <t>19bfe9d5-5d04-4c3c-9919-ca1b2d1215ae</t>
+          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
         </is>
       </c>
       <c r="M753" s="20" t="n"/>
@@ -39666,22 +39666,22 @@
     <row r="754">
       <c r="A754" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure AKS Review</t>
         </is>
       </c>
       <c r="B754" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C754" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D754" s="18" t="inlineStr">
         <is>
-          <t>Habilite la redundancia de zona para Azure Cache for Redis. Azure Cache for Redis admite configuraciones con redundancia de zona en los niveles Premium y Enterprise. Una caché con redundancia de zona puede colocar sus nodos en diferentes zonas de disponibilidad de Azure en la misma región. Elimina la interrupción del centro de datos o de la zona de disponibilidad como único punto de error y aumenta la disponibilidad general de la memoria caché.</t>
+          <t>En el caso de los discos no efímeros, use IOPS altas y discos de sistema operativo más grandes para los nodos cuando ejecute muchos pods o nodos, ya que requiere un alto rendimiento para ejecutar varios pods y generará registros enormes con umbrales de rotación de registros de AKS predeterminados</t>
         </is>
       </c>
       <c r="E754" s="18" t="n"/>
@@ -39705,7 +39705,7 @@
       <c r="K754" s="19" t="n"/>
       <c r="L754" s="19" t="inlineStr">
         <is>
-          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
+          <t>f0ce315f-1120-4166-8206-94f2cf3a4d07</t>
         </is>
       </c>
       <c r="M754" s="20" t="n"/>
@@ -39717,28 +39717,28 @@
     <row r="755">
       <c r="A755" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure AKS Review</t>
         </is>
       </c>
       <c r="B755" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C755" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D755" s="18" t="inlineStr">
         <is>
-          <t>Configure la persistencia de datos para una instancia de Azure Cache for Redis. Dado que los datos de caché se almacenan en la memoria, un error poco frecuente y no planeado de varios nodos puede hacer que se eliminen todos los datos. Para evitar la pérdida completa de datos, la persistencia de Redis permite tomar instantáneas periódicas de los datos en memoria y almacenarlas en la cuenta de almacenamiento.</t>
+          <t>Para la opción de almacenamiento de hiperrendimiento, use discos Ultra en AKS</t>
         </is>
       </c>
       <c r="E755" s="18" t="n"/>
       <c r="F755" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G755" t="inlineStr">
@@ -39756,7 +39756,7 @@
       <c r="K755" s="19" t="n"/>
       <c r="L755" s="19" t="inlineStr">
         <is>
-          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
+          <t>39c486ce-d5af-4062-89d5-18bb5fd795db</t>
         </is>
       </c>
       <c r="M755" s="20" t="n"/>
@@ -39768,22 +39768,22 @@
     <row r="756">
       <c r="A756" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure AKS Review</t>
         </is>
       </c>
       <c r="B756" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C756" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D756" s="18" t="inlineStr">
         <is>
-          <t>Use una cuenta de almacenamiento con redundancia geográfica para conservar los datos de Azure Cache for Redis o con redundancia zonal donde la redundancia geográfica no esté disponible</t>
+          <t>Evite mantener el estado en el clúster y almacene los datos fuera (AzStorage, AzSQL, Cosmos, etc.)</t>
         </is>
       </c>
       <c r="E756" s="18" t="n"/>
@@ -39807,7 +39807,7 @@
       <c r="K756" s="19" t="n"/>
       <c r="L756" s="19" t="inlineStr">
         <is>
-          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
+          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
         </is>
       </c>
       <c r="M756" s="20" t="n"/>
@@ -39819,22 +39819,22 @@
     <row r="757">
       <c r="A757" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure AKS Review</t>
         </is>
       </c>
       <c r="B757" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C757" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D757" s="18" t="inlineStr">
         <is>
-          <t>Configure la replicación geográfica pasiva para instancias de Azure Cache for Redis Premium. La replicación geográfica es un mecanismo para vincular dos o más instancias de Azure Cache for Redis, que normalmente abarcan dos regiones de Azure. La replicación geográfica está diseñada principalmente para la recuperación ante desastres entre regiones. Dos instancias de caché de nivel Premium se conectan a través de la replicación geográfica de una manera que proporciona lecturas y escrituras en la caché principal, y esos datos se replican en la caché secundaria.</t>
+          <t>Si usa AzFiles Standard, considere AzFiles Premium o ANF por motivos de rendimiento</t>
         </is>
       </c>
       <c r="E757" s="18" t="n"/>
@@ -39858,7 +39858,7 @@
       <c r="K757" s="19" t="n"/>
       <c r="L757" s="19" t="inlineStr">
         <is>
-          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
+          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
         </is>
       </c>
       <c r="M757" s="20" t="n"/>
@@ -39870,29 +39870,25 @@
     <row r="758">
       <c r="A758" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure AKS Review</t>
         </is>
       </c>
       <c r="B758" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C758" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D758" s="18" t="inlineStr">
         <is>
-          <t>Tenga en cuenta la "línea base de seguridad de Azure para el almacenamiento"</t>
-        </is>
-      </c>
-      <c r="E758" s="18" t="inlineStr">
-        <is>
-          <t>Aplicación de las instrucciones de la prueba comparativa de seguridad en la nube de Microsoft relacionadas con el almacenamiento</t>
-        </is>
-      </c>
+          <t>Si usa Azure Disks y AZ, considere la posibilidad de tener grupos de nodos dentro de una zona para el disco LRS con VolumeBindingMode:WaitForFirstConsumer para aprovisionar el almacenamiento en la zona correcta o use el disco ZRS para los grupos de nodos que abarquen varias zonas</t>
+        </is>
+      </c>
+      <c r="E758" s="18" t="n"/>
       <c r="F758" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -39913,7 +39909,7 @@
       <c r="K758" s="19" t="n"/>
       <c r="L758" s="19" t="inlineStr">
         <is>
-          <t>d237de14-3b16-4c21-b7aa-9b64604489a8</t>
+          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
         </is>
       </c>
       <c r="M758" s="20" t="n"/>
@@ -39925,32 +39921,28 @@
     <row r="759">
       <c r="A759" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Bot Service</t>
         </is>
       </c>
       <c r="B759" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C759" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Bot service</t>
         </is>
       </c>
       <c r="D759" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar puntos de conexión privados para Azure Storage</t>
-        </is>
-      </c>
-      <c r="E759" s="18" t="inlineStr">
-        <is>
-          <t>De forma predeterminada, Azure Storage tiene una dirección IP pública y es accesible desde Internet. Los puntos de conexión privados permiten exponer de forma segura Azure Storage solo a los recursos de proceso de Azure que necesitan acceso, lo que elimina la exposición a la Internet pública</t>
-        </is>
-      </c>
+          <t>Siga las recomendaciones de soporte técnico de confiabilidad en Azure Bot Service</t>
+        </is>
+      </c>
+      <c r="E759" s="18" t="n"/>
       <c r="F759" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G759" t="inlineStr">
@@ -39968,7 +39960,7 @@
       <c r="K759" s="19" t="n"/>
       <c r="L759" s="19" t="inlineStr">
         <is>
-          <t>f42d78e7-9d17-4a73-a22a-5a67e7a8ed4b</t>
+          <t>6ad48408-ee72-4734-a476-ba28fdcf590c</t>
         </is>
       </c>
       <c r="M759" s="20" t="n"/>
@@ -39980,29 +39972,25 @@
     <row r="760">
       <c r="A760" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Bot Service</t>
         </is>
       </c>
       <c r="B760" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C760" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Bot service</t>
         </is>
       </c>
       <c r="D760" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que las cuentas de almacenamiento más antiguas no usan el "modelo de implementación clásica"</t>
-        </is>
-      </c>
-      <c r="E760" s="18" t="inlineStr">
-        <is>
-          <t>Las cuentas de almacenamiento recién creadas se crean mediante el modelo de implementación de ARM, de modo que RBAC, auditoría, etc. están habilitados. Asegúrese de que no hay cuentas de almacenamiento antiguas con el modelo de implementación clásica en una suscripción</t>
-        </is>
-      </c>
+          <t>Implementación de bots con residencia de datos local y cumplimiento regional</t>
+        </is>
+      </c>
+      <c r="E760" s="18" t="n"/>
       <c r="F760" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -40023,7 +40011,7 @@
       <c r="K760" s="19" t="n"/>
       <c r="L760" s="19" t="inlineStr">
         <is>
-          <t>30e37c3e-2971-41b2-963c-eee079b598de</t>
+          <t>e65de8e1-3f9c-4cbd-9682-66abca264f9a</t>
         </is>
       </c>
       <c r="M760" s="20" t="n"/>
@@ -40035,32 +40023,28 @@
     <row r="761">
       <c r="A761" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Bot Service</t>
         </is>
       </c>
       <c r="B761" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C761" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Bot service</t>
         </is>
       </c>
       <c r="D761" s="18" t="inlineStr">
         <is>
-          <t>Habilitación de Microsoft Defender para todas las cuentas de almacenamiento</t>
-        </is>
-      </c>
-      <c r="E761" s="18" t="inlineStr">
-        <is>
-          <t>Aproveche Microsoft Defender para obtener información sobre la actividad sospechosa y los errores de configuración.</t>
-        </is>
-      </c>
+          <t>Azure Bot Service se ejecuta en modo activo-activo para los servicios globales y regionales. Cuando se produce una interrupción, no es necesario detectar errores ni administrar el servicio. Azure Bot Service realiza automáticamente la conmutación por error y la recuperación automáticas en una arquitectura geográfica de varias regiones. En el caso del servicio regional de bots de la UE, Azure Bot Service proporciona dos regiones completas dentro de Europa con replicación activa/activa para garantizar la redundancia. En el caso del servicio de bot global, todas las regiones o zonas geográficas disponibles se pueden servir como superficie global.</t>
+        </is>
+      </c>
+      <c r="E761" s="18" t="n"/>
       <c r="F761" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G761" t="inlineStr">
@@ -40078,7 +40062,7 @@
       <c r="K761" s="19" t="n"/>
       <c r="L761" s="19" t="inlineStr">
         <is>
-          <t>fc5972cd-4cd2-41b0-a803-7f5e6b4bfd3d</t>
+          <t>19bfe9d5-5d04-4c3c-9919-ca1b2d1215ae</t>
         </is>
       </c>
       <c r="M761" s="20" t="n"/>
@@ -40090,32 +40074,28 @@
     <row r="762">
       <c r="A762" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B762" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C762" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D762" s="18" t="inlineStr">
         <is>
-          <t>Habilitación de la "eliminación temporal" para blobs</t>
-        </is>
-      </c>
-      <c r="E762" s="18" t="inlineStr">
-        <is>
-          <t>El mecanismo de eliminación temporal permite recuperar blobs eliminados accidentalmente.</t>
-        </is>
-      </c>
+          <t>Habilite la redundancia de zona para Azure Cache for Redis. Azure Cache for Redis admite configuraciones con redundancia de zona en los niveles Premium y Enterprise. Una caché con redundancia de zona puede colocar sus nodos en diferentes zonas de disponibilidad de Azure en la misma región. Elimina la interrupción del centro de datos o de la zona de disponibilidad como único punto de error y aumenta la disponibilidad general de la memoria caché.</t>
+        </is>
+      </c>
+      <c r="E762" s="18" t="n"/>
       <c r="F762" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G762" t="inlineStr">
@@ -40133,7 +40113,7 @@
       <c r="K762" s="19" t="n"/>
       <c r="L762" s="19" t="inlineStr">
         <is>
-          <t>503547c1-447e-4c66-828a-7100f1ce16dd</t>
+          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
         </is>
       </c>
       <c r="M762" s="20" t="n"/>
@@ -40145,29 +40125,25 @@
     <row r="763">
       <c r="A763" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B763" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C763" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D763" s="18" t="inlineStr">
         <is>
-          <t>Deshabilitación de la "eliminación temporal" de blobs</t>
-        </is>
-      </c>
-      <c r="E763" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Considere la posibilidad de deshabilitar de forma selectiva la "eliminación temporal" para determinados contenedores de blobs, por ejemplo, si la aplicación debe asegurarse de que la información eliminada se elimina inmediatamente, por ejemplo, por motivos de confidencialidad, privacidad o cumplimiento. </t>
-        </is>
-      </c>
+          <t>Configure la persistencia de datos para una instancia de Azure Cache for Redis. Dado que los datos de caché se almacenan en la memoria, un error poco frecuente y no planeado de varios nodos puede hacer que se eliminen todos los datos. Para evitar la pérdida completa de datos, la persistencia de Redis permite tomar instantáneas periódicas de los datos en memoria y almacenarlas en la cuenta de almacenamiento.</t>
+        </is>
+      </c>
+      <c r="E763" s="18" t="n"/>
       <c r="F763" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -40188,7 +40164,7 @@
       <c r="K763" s="19" t="n"/>
       <c r="L763" s="19" t="inlineStr">
         <is>
-          <t>3f1d5e87-2e52-4e36-81cc-58b4a4b1510e</t>
+          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
         </is>
       </c>
       <c r="M763" s="20" t="n"/>
@@ -40200,32 +40176,28 @@
     <row r="764">
       <c r="A764" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B764" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C764" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D764" s="18" t="inlineStr">
         <is>
-          <t>Habilitación de la "eliminación temporal" para los contenedores</t>
-        </is>
-      </c>
-      <c r="E764" s="18" t="inlineStr">
-        <is>
-          <t>La eliminación temporal de contenedores permite recuperar un contenedor después de que se haya eliminado, por ejemplo, recuperarse de una operación de eliminación accidental.</t>
-        </is>
-      </c>
+          <t>Use una cuenta de almacenamiento con redundancia geográfica para conservar los datos de Azure Cache for Redis o con redundancia zonal donde la redundancia geográfica no esté disponible</t>
+        </is>
+      </c>
+      <c r="E764" s="18" t="n"/>
       <c r="F764" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G764" t="inlineStr">
@@ -40243,7 +40215,7 @@
       <c r="K764" s="19" t="n"/>
       <c r="L764" s="19" t="inlineStr">
         <is>
-          <t>43a58a9c-2289-4c3d-9b57-d0c655462f2a</t>
+          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
         </is>
       </c>
       <c r="M764" s="20" t="n"/>
@@ -40255,29 +40227,25 @@
     <row r="765">
       <c r="A765" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B765" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C765" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D765" s="18" t="inlineStr">
         <is>
-          <t>Deshabilitación de la "eliminación temporal" para contenedores</t>
-        </is>
-      </c>
-      <c r="E765" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Considere la posibilidad de deshabilitar de forma selectiva la "eliminación temporal" para determinados contenedores de blobs, por ejemplo, si la aplicación debe asegurarse de que la información eliminada se elimina inmediatamente, por ejemplo, por motivos de confidencialidad, privacidad o cumplimiento. </t>
-        </is>
-      </c>
+          <t>Configure la replicación geográfica pasiva para instancias de Azure Cache for Redis Premium. La replicación geográfica es un mecanismo para vincular dos o más instancias de Azure Cache for Redis, que normalmente abarcan dos regiones de Azure. La replicación geográfica está diseñada principalmente para la recuperación ante desastres entre regiones. Dos instancias de caché de nivel Premium se conectan a través de la replicación geográfica de una manera que proporciona lecturas y escrituras en la caché principal, y esos datos se replican en la caché secundaria.</t>
+        </is>
+      </c>
+      <c r="E765" s="18" t="n"/>
       <c r="F765" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -40298,7 +40266,7 @@
       <c r="K765" s="19" t="n"/>
       <c r="L765" s="19" t="inlineStr">
         <is>
-          <t>3e3453a3-c863-4964-ab65-2d6c15f51296</t>
+          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
         </is>
       </c>
       <c r="M765" s="20" t="n"/>
@@ -40325,17 +40293,17 @@
       </c>
       <c r="D766" s="18" t="inlineStr">
         <is>
-          <t>Habilitación de bloqueos de recursos en cuentas de almacenamiento</t>
+          <t>Tenga en cuenta la "línea base de seguridad de Azure para el almacenamiento"</t>
         </is>
       </c>
       <c r="E766" s="18" t="inlineStr">
         <is>
-          <t>Evita la eliminación accidental de una cuenta de almacenamiento, obligando al usuario a quitar primero el bloqueo de eliminación, antes de la eliminación</t>
+          <t>Aplicación de las instrucciones de la prueba comparativa de seguridad en la nube de Microsoft relacionadas con el almacenamiento</t>
         </is>
       </c>
       <c r="F766" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G766" t="inlineStr">
@@ -40353,7 +40321,7 @@
       <c r="K766" s="19" t="n"/>
       <c r="L766" s="19" t="inlineStr">
         <is>
-          <t>5398e6de-d227-4dd1-92b0-6c21d7999a64</t>
+          <t>d237de14-3b16-4c21-b7aa-9b64604489a8</t>
         </is>
       </c>
       <c r="M766" s="20" t="n"/>
@@ -40380,12 +40348,12 @@
       </c>
       <c r="D767" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de blobs inmutables</t>
+          <t>Considere la posibilidad de usar puntos de conexión privados para Azure Storage</t>
         </is>
       </c>
       <c r="E767" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de aplicar directivas de "retención legal" o "retención basada en el tiempo" para los blobs, de modo que sea imposible eliminar el blob, el contenedor o la cuenta de almacenamiento. Tenga en cuenta que 'imposible' en realidad significa 'imposible'; una vez que una cuenta de almacenamiento contiene un blob inmutable, la única manera de "deshacerse" de esa cuenta de almacenamiento es cancelando la suscripción de Azure.</t>
+          <t>De forma predeterminada, Azure Storage tiene una dirección IP pública y es accesible desde Internet. Los puntos de conexión privados permiten exponer de forma segura Azure Storage solo a los recursos de proceso de Azure que necesitan acceso, lo que elimina la exposición a la Internet pública</t>
         </is>
       </c>
       <c r="F767" s="18" t="inlineStr">
@@ -40408,7 +40376,7 @@
       <c r="K767" s="19" t="n"/>
       <c r="L767" s="19" t="inlineStr">
         <is>
-          <t>6f4389a8-f42c-478e-98c0-6a73a22a4956</t>
+          <t>f42d78e7-9d17-4a73-a22a-5a67e7a8ed4b</t>
         </is>
       </c>
       <c r="M767" s="20" t="n"/>
@@ -40435,17 +40403,17 @@
       </c>
       <c r="D768" s="18" t="inlineStr">
         <is>
-          <t>Requerir HTTPS, es decir, deshabilitar el puerto 80 en la cuenta de almacenamiento</t>
+          <t>Asegúrese de que las cuentas de almacenamiento más antiguas no usan el "modelo de implementación clásica"</t>
         </is>
       </c>
       <c r="E768" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere la posibilidad de deshabilitar el acceso HTTP/80 sin protección a la cuenta de almacenamiento, de modo que todas las transferencias de datos estén cifradas, protegidas por integridad y el servidor esté autenticado. </t>
+          <t>Las cuentas de almacenamiento recién creadas se crean mediante el modelo de implementación de ARM, de modo que RBAC, auditoría, etc. están habilitados. Asegúrese de que no hay cuentas de almacenamiento antiguas con el modelo de implementación clásica en una suscripción</t>
         </is>
       </c>
       <c r="F768" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G768" t="inlineStr">
@@ -40463,7 +40431,7 @@
       <c r="K768" s="19" t="n"/>
       <c r="L768" s="19" t="inlineStr">
         <is>
-          <t>e7a8dc4a-20e2-47c3-b297-11b1352beee0</t>
+          <t>30e37c3e-2971-41b2-963c-eee079b598de</t>
         </is>
       </c>
       <c r="M768" s="20" t="n"/>
@@ -40490,12 +40458,12 @@
       </c>
       <c r="D769" s="18" t="inlineStr">
         <is>
-          <t>Al aplicar HTTPS (deshabilitar HTTP), compruebe que no usa dominios personalizados (CNAME) para la cuenta de almacenamiento.</t>
+          <t>Habilitación de Microsoft Defender para todas las cuentas de almacenamiento</t>
         </is>
       </c>
       <c r="E769" s="18" t="inlineStr">
         <is>
-          <t>Al configurar un dominio personalizado (nombre de host) en una cuenta de almacenamiento, compruebe si necesita TLS/HTTPS; si es así, es posible que tenga que colocar Azure CDN delante de la cuenta de almacenamiento.</t>
+          <t>Aproveche Microsoft Defender para obtener información sobre la actividad sospechosa y los errores de configuración.</t>
         </is>
       </c>
       <c r="F769" s="18" t="inlineStr">
@@ -40518,7 +40486,7 @@
       <c r="K769" s="19" t="n"/>
       <c r="L769" s="19" t="inlineStr">
         <is>
-          <t>79b588de-fc49-472c-b3cd-21bf77036e5e</t>
+          <t>fc5972cd-4cd2-41b0-a803-7f5e6b4bfd3d</t>
         </is>
       </c>
       <c r="M769" s="20" t="n"/>
@@ -40545,12 +40513,12 @@
       </c>
       <c r="D770" s="18" t="inlineStr">
         <is>
-          <t>Limitar los tokens de firma de acceso compartido (SAS) solo a las conexiones HTTPS</t>
+          <t>Habilitación de la "eliminación temporal" para blobs</t>
         </is>
       </c>
       <c r="E770" s="18" t="inlineStr">
         <is>
-          <t>Requerir HTTPS cuando un cliente usa un token de SAS para acceder a los datos de blobs ayuda a minimizar el riesgo de pérdida de credenciales.</t>
+          <t>El mecanismo de eliminación temporal permite recuperar blobs eliminados accidentalmente.</t>
         </is>
       </c>
       <c r="F770" s="18" t="inlineStr">
@@ -40573,7 +40541,7 @@
       <c r="K770" s="19" t="n"/>
       <c r="L770" s="19" t="inlineStr">
         <is>
-          <t>6b4bed3d-5035-447c-8347-dc56028a71ff</t>
+          <t>503547c1-447e-4c66-828a-7100f1ce16dd</t>
         </is>
       </c>
       <c r="M770" s="20" t="n"/>
@@ -40600,17 +40568,17 @@
       </c>
       <c r="D771" s="18" t="inlineStr">
         <is>
-          <t>Uso de tokens de Azure Active Directory (Azure AD) para el acceso a blobs</t>
+          <t>Deshabilitación de la "eliminación temporal" de blobs</t>
         </is>
       </c>
       <c r="E771" s="18" t="inlineStr">
         <is>
-          <t>Los tokens de AAD deben favorecerse sobre las firmas de acceso compartido, siempre que sea posible</t>
+          <t xml:space="preserve">Considere la posibilidad de deshabilitar de forma selectiva la "eliminación temporal" para determinados contenedores de blobs, por ejemplo, si la aplicación debe asegurarse de que la información eliminada se elimina inmediatamente, por ejemplo, por motivos de confidencialidad, privacidad o cumplimiento. </t>
         </is>
       </c>
       <c r="F771" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G771" t="inlineStr">
@@ -40628,7 +40596,7 @@
       <c r="K771" s="19" t="n"/>
       <c r="L771" s="19" t="inlineStr">
         <is>
-          <t>e1ce15dd-3f0d-45e7-92d4-1e3611cc57b4</t>
+          <t>3f1d5e87-2e52-4e36-81cc-58b4a4b1510e</t>
         </is>
       </c>
       <c r="M771" s="20" t="n"/>
@@ -40655,17 +40623,17 @@
       </c>
       <c r="D772" s="18" t="inlineStr">
         <is>
-          <t>Privilegios mínimos en los permisos de IaM</t>
+          <t>Habilitación de la "eliminación temporal" para los contenedores</t>
         </is>
       </c>
       <c r="E772" s="18" t="inlineStr">
         <is>
-          <t>Al asignar un rol a un usuario, grupo o aplicación, conceda a esa entidad de seguridad solo los permisos necesarios para que pueda realizar sus tareas. Limitar el acceso a los recursos ayuda a evitar el uso indebido no intencionado y malintencionado de los datos.</t>
+          <t>La eliminación temporal de contenedores permite recuperar un contenedor después de que se haya eliminado, por ejemplo, recuperarse de una operación de eliminación accidental.</t>
         </is>
       </c>
       <c r="F772" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G772" t="inlineStr">
@@ -40674,12 +40642,16 @@
         </is>
       </c>
       <c r="H772" s="18" t="n"/>
-      <c r="I772" s="13" t="n"/>
+      <c r="I772" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J772" s="13" t="n"/>
       <c r="K772" s="19" t="n"/>
       <c r="L772" s="19" t="inlineStr">
         <is>
-          <t>a4b1410d-4395-48a8-a228-9b3d6b57cfc6</t>
+          <t>43a58a9c-2289-4c3d-9b57-d0c655462f2a</t>
         </is>
       </c>
       <c r="M772" s="20" t="n"/>
@@ -40706,17 +40678,17 @@
       </c>
       <c r="D773" s="18" t="inlineStr">
         <is>
-          <t>Al usar SAS, prefiera "SAS de delegación de usuarios" en lugar de SAS basada en claves de cuenta de almacenamiento.</t>
+          <t>Deshabilitación de la "eliminación temporal" para contenedores</t>
         </is>
       </c>
       <c r="E773" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Una SAS de delegación de usuarios está protegida con credenciales de Azure Active Directory (Azure AD) y también con los permisos especificados para la SAS. Una SAS de delegación de usuarios es análoga a una SAS de servicio en cuanto a su ámbito y función, pero ofrece ventajas de seguridad sobre la SAS de servicio. </t>
+          <t xml:space="preserve">Considere la posibilidad de deshabilitar de forma selectiva la "eliminación temporal" para determinados contenedores de blobs, por ejemplo, si la aplicación debe asegurarse de que la información eliminada se elimina inmediatamente, por ejemplo, por motivos de confidencialidad, privacidad o cumplimiento. </t>
         </is>
       </c>
       <c r="F773" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G773" t="inlineStr">
@@ -40734,7 +40706,7 @@
       <c r="K773" s="19" t="n"/>
       <c r="L773" s="19" t="inlineStr">
         <is>
-          <t>55461e1a-3e34-453a-9c86-39648b652d6c</t>
+          <t>3e3453a3-c863-4964-ab65-2d6c15f51296</t>
         </is>
       </c>
       <c r="M773" s="20" t="n"/>
@@ -40761,12 +40733,12 @@
       </c>
       <c r="D774" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de deshabilitar las claves de la cuenta de almacenamiento, de modo que solo se admita el acceso a AAD (y la SAS de delegación de usuarios).</t>
+          <t>Habilitación de bloqueos de recursos en cuentas de almacenamiento</t>
         </is>
       </c>
       <c r="E774" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Las claves de la cuenta de almacenamiento ("claves compartidas") tienen muy pocas funcionalidades de auditoría. Si bien se puede monitorear quién o cuándo obtuvo una copia de las claves, una vez que las claves están en manos de varias personas, es imposible atribuir el uso a un usuario específico. Confiar únicamente en la autenticación de AAD facilita la vinculación del acceso al almacenamiento a un usuario. </t>
+          <t>Evita la eliminación accidental de una cuenta de almacenamiento, obligando al usuario a quitar primero el bloqueo de eliminación, antes de la eliminación</t>
         </is>
       </c>
       <c r="F774" s="18" t="inlineStr">
@@ -40789,7 +40761,7 @@
       <c r="K774" s="19" t="n"/>
       <c r="L774" s="19" t="inlineStr">
         <is>
-          <t>15f51296-5398-4e6d-bd22-7dd142b06c21</t>
+          <t>5398e6de-d227-4dd1-92b0-6c21d7999a64</t>
         </is>
       </c>
       <c r="M774" s="20" t="n"/>
@@ -40816,12 +40788,12 @@
       </c>
       <c r="D775" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar Azure Monitor para auditar las operaciones del plano de control en la cuenta de almacenamiento</t>
+          <t>Considere la posibilidad de blobs inmutables</t>
         </is>
       </c>
       <c r="E775" s="18" t="inlineStr">
         <is>
-          <t>Use los datos del registro de actividad para identificar "cuándo", "quién", "qué" y "cómo" se está viendo o cambiando la seguridad de la cuenta de almacenamiento (es decir, claves de cuenta de almacenamiento, directivas de acceso, etc.).</t>
+          <t>Considere la posibilidad de aplicar directivas de "retención legal" o "retención basada en el tiempo" para los blobs, de modo que sea imposible eliminar el blob, el contenedor o la cuenta de almacenamiento. Tenga en cuenta que 'imposible' en realidad significa 'imposible'; una vez que una cuenta de almacenamiento contiene un blob inmutable, la única manera de "deshacerse" de esa cuenta de almacenamiento es cancelando la suscripción de Azure.</t>
         </is>
       </c>
       <c r="F775" s="18" t="inlineStr">
@@ -40844,7 +40816,7 @@
       <c r="K775" s="19" t="n"/>
       <c r="L775" s="19" t="inlineStr">
         <is>
-          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
+          <t>6f4389a8-f42c-478e-98c0-6a73a22a4956</t>
         </is>
       </c>
       <c r="M775" s="20" t="n"/>
@@ -40871,17 +40843,17 @@
       </c>
       <c r="D776" s="18" t="inlineStr">
         <is>
-          <t>Al usar claves de cuenta de almacenamiento, considere la posibilidad de habilitar una "directiva de expiración de claves"</t>
+          <t>Requerir HTTPS, es decir, deshabilitar el puerto 80 en la cuenta de almacenamiento</t>
         </is>
       </c>
       <c r="E776" s="18" t="inlineStr">
         <is>
-          <t>Una directiva de expiración de claves le permite establecer un recordatorio para la rotación de las claves de acceso a la cuenta. El recordatorio se muestra si ha transcurrido el intervalo especificado y las teclas aún no se han girado.</t>
+          <t xml:space="preserve">Considere la posibilidad de deshabilitar el acceso HTTP/80 sin protección a la cuenta de almacenamiento, de modo que todas las transferencias de datos estén cifradas, protegidas por integridad y el servidor esté autenticado. </t>
         </is>
       </c>
       <c r="F776" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G776" t="inlineStr">
@@ -40899,7 +40871,7 @@
       <c r="K776" s="19" t="n"/>
       <c r="L776" s="19" t="inlineStr">
         <is>
-          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
+          <t>e7a8dc4a-20e2-47c3-b297-11b1352beee0</t>
         </is>
       </c>
       <c r="M776" s="20" t="n"/>
@@ -40926,17 +40898,17 @@
       </c>
       <c r="D777" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de configurar una directiva de expiración de SAS</t>
+          <t>Al aplicar HTTPS (deshabilitar HTTP), compruebe que no usa dominios personalizados (CNAME) para la cuenta de almacenamiento.</t>
         </is>
       </c>
       <c r="E777" s="18" t="inlineStr">
         <is>
-          <t>Una directiva de expiración de SAS especifica un intervalo recomendado durante el cual la SAS es válida. Las directivas de expiración de SAS se aplican a una SAS de servicio o a una SAS de cuenta. Cuando un usuario genera una SAS de servicio o una SAS de cuenta con un intervalo de validez mayor que el intervalo recomendado, verá una advertencia.</t>
+          <t>Al configurar un dominio personalizado (nombre de host) en una cuenta de almacenamiento, compruebe si necesita TLS/HTTPS; si es así, es posible que tenga que colocar Azure CDN delante de la cuenta de almacenamiento.</t>
         </is>
       </c>
       <c r="F777" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G777" t="inlineStr">
@@ -40954,7 +40926,7 @@
       <c r="K777" s="19" t="n"/>
       <c r="L777" s="19" t="inlineStr">
         <is>
-          <t>352beee0-79b5-488d-bfc4-972cd3cd21bf</t>
+          <t>79b588de-fc49-472c-b3cd-21bf77036e5e</t>
         </is>
       </c>
       <c r="M777" s="20" t="n"/>
@@ -40981,12 +40953,12 @@
       </c>
       <c r="D778" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de vincular SAS a una directiva de acceso almacenada</t>
+          <t>Limitar los tokens de firma de acceso compartido (SAS) solo a las conexiones HTTPS</t>
         </is>
       </c>
       <c r="E778" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Las directivas de acceso almacenadas ofrecen la opción de revocar los permisos de una SAS de servicio sin tener que volver a generar las claves de la cuenta de almacenamiento. </t>
+          <t>Requerir HTTPS cuando un cliente usa un token de SAS para acceder a los datos de blobs ayuda a minimizar el riesgo de pérdida de credenciales.</t>
         </is>
       </c>
       <c r="F778" s="18" t="inlineStr">
@@ -41009,7 +40981,7 @@
       <c r="K778" s="19" t="n"/>
       <c r="L778" s="19" t="inlineStr">
         <is>
-          <t>77036e5e-6b4b-4ed3-b503-547c1347dc56</t>
+          <t>6b4bed3d-5035-447c-8347-dc56028a71ff</t>
         </is>
       </c>
       <c r="M778" s="20" t="n"/>
@@ -41036,13 +41008,17 @@
       </c>
       <c r="D779" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de configurar el repositorio de código fuente de la aplicación para detectar cadenas de conexión protegidas y claves de cuenta de almacenamiento.</t>
-        </is>
-      </c>
-      <c r="E779" s="18" t="n"/>
+          <t>Uso de tokens de Azure Active Directory (Azure AD) para el acceso a blobs</t>
+        </is>
+      </c>
+      <c r="E779" s="18" t="inlineStr">
+        <is>
+          <t>Los tokens de AAD deben favorecerse sobre las firmas de acceso compartido, siempre que sea posible</t>
+        </is>
+      </c>
       <c r="F779" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G779" t="inlineStr">
@@ -41060,7 +41036,7 @@
       <c r="K779" s="19" t="n"/>
       <c r="L779" s="19" t="inlineStr">
         <is>
-          <t>028a71ff-e1ce-415d-b3f0-d5e772d41e36</t>
+          <t>e1ce15dd-3f0d-45e7-92d4-1e3611cc57b4</t>
         </is>
       </c>
       <c r="M779" s="20" t="n"/>
@@ -41087,17 +41063,17 @@
       </c>
       <c r="D780" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de almacenar cadenas de conexión en Azure KeyVault (en escenarios en los que las identidades administradas no son posibles)</t>
+          <t>Privilegios mínimos en los permisos de IaM</t>
         </is>
       </c>
       <c r="E780" s="18" t="inlineStr">
         <is>
-          <t>Lo ideal es que la aplicación use una identidad administrada para autenticarse en Azure Storage. Si esto no es posible, considere la posibilidad de tener la credencial de almacenamiento (cadena de conexión, clave de cuenta de almacenamiento, SAS, credencial de entidad de servicio) en Azure KeyVault o un servicio equivalente.</t>
+          <t>Al asignar un rol a un usuario, grupo o aplicación, conceda a esa entidad de seguridad solo los permisos necesarios para que pueda realizar sus tareas. Limitar el acceso a los recursos ayuda a evitar el uso indebido no intencionado y malintencionado de los datos.</t>
         </is>
       </c>
       <c r="F780" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G780" t="inlineStr">
@@ -41106,16 +41082,12 @@
         </is>
       </c>
       <c r="H780" s="18" t="n"/>
-      <c r="I780" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I780" s="13" t="n"/>
       <c r="J780" s="13" t="n"/>
       <c r="K780" s="19" t="n"/>
       <c r="L780" s="19" t="inlineStr">
         <is>
-          <t>11cc57b4-a4b1-4410-b439-58a8c2289b3d</t>
+          <t>a4b1410d-4395-48a8-a228-9b3d6b57cfc6</t>
         </is>
       </c>
       <c r="M780" s="20" t="n"/>
@@ -41142,12 +41114,12 @@
       </c>
       <c r="D781" s="18" t="inlineStr">
         <is>
-          <t>Esfuércese por obtener períodos de validez cortos para SAS ad-hoc</t>
+          <t>Al usar SAS, prefiera "SAS de delegación de usuarios" en lugar de SAS basada en claves de cuenta de almacenamiento.</t>
         </is>
       </c>
       <c r="E781" s="18" t="inlineStr">
         <is>
-          <t>Use los tiempos de expiración a corto plazo en una SAS de servicio SAS ad hoc o en una SAS de cuenta. De esta manera, incluso si una SAS se ve comprometida, es válida solo por un corto tiempo. Esta práctica es especialmente importante si no puede hacer referencia a una directiva de acceso almacenada. Los tiempos de expiración a corto plazo también limitan la cantidad de datos que se pueden escribir en un blob al limitar el tiempo disponible para cargarlo.</t>
+          <t xml:space="preserve">Una SAS de delegación de usuarios está protegida con credenciales de Azure Active Directory (Azure AD) y también con los permisos especificados para la SAS. Una SAS de delegación de usuarios es análoga a una SAS de servicio en cuanto a su ámbito y función, pero ofrece ventajas de seguridad sobre la SAS de servicio. </t>
         </is>
       </c>
       <c r="F781" s="18" t="inlineStr">
@@ -41170,7 +41142,7 @@
       <c r="K781" s="19" t="n"/>
       <c r="L781" s="19" t="inlineStr">
         <is>
-          <t>27138b82-1102-4cac-9eae-01e6e842e52f</t>
+          <t>55461e1a-3e34-453a-9c86-39648b652d6c</t>
         </is>
       </c>
       <c r="M781" s="20" t="n"/>
@@ -41197,17 +41169,17 @@
       </c>
       <c r="D782" s="18" t="inlineStr">
         <is>
-          <t>Aplicación de un ámbito limitado a una SAS</t>
+          <t>Considere la posibilidad de deshabilitar las claves de la cuenta de almacenamiento, de modo que solo se admita el acceso a AAD (y la SAS de delegación de usuarios).</t>
         </is>
       </c>
       <c r="E782" s="18" t="inlineStr">
         <is>
-          <t>Al crear una SAS, sea lo más específico y restrictivo posible. Prefiera una SAS para un solo recurso y operación en lugar de una SAS que proporciona un acceso mucho más amplio.</t>
+          <t xml:space="preserve">Las claves de la cuenta de almacenamiento ("claves compartidas") tienen muy pocas funcionalidades de auditoría. Si bien se puede monitorear quién o cuándo obtuvo una copia de las claves, una vez que las claves están en manos de varias personas, es imposible atribuir el uso a un usuario específico. Confiar únicamente en la autenticación de AAD facilita la vinculación del acceso al almacenamiento a un usuario. </t>
         </is>
       </c>
       <c r="F782" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G782" t="inlineStr">
@@ -41225,7 +41197,7 @@
       <c r="K782" s="19" t="n"/>
       <c r="L782" s="19" t="inlineStr">
         <is>
-          <t>4721d928-c1b1-4cd5-81e5-4a29a9de399c</t>
+          <t>15f51296-5398-4e6d-bd22-7dd142b06c21</t>
         </is>
       </c>
       <c r="M782" s="20" t="n"/>
@@ -41252,17 +41224,17 @@
       </c>
       <c r="D783" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de definir el ámbito de SAS en una dirección IP de cliente específica, siempre que sea posible</t>
+          <t>Considere la posibilidad de usar Azure Monitor para auditar las operaciones del plano de control en la cuenta de almacenamiento</t>
         </is>
       </c>
       <c r="E783" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Una SAS puede incluir parámetros en los que las direcciones IP de cliente o los intervalos de direcciones están autorizados a solicitar un recurso mediante la SAS. </t>
+          <t>Use los datos del registro de actividad para identificar "cuándo", "quién", "qué" y "cómo" se está viendo o cambiando la seguridad de la cuenta de almacenamiento (es decir, claves de cuenta de almacenamiento, directivas de acceso, etc.).</t>
         </is>
       </c>
       <c r="F783" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G783" t="inlineStr">
@@ -41280,7 +41252,7 @@
       <c r="K783" s="19" t="n"/>
       <c r="L783" s="19" t="inlineStr">
         <is>
-          <t>fd7b28dc-9355-4562-82bf-e4564b0d834a</t>
+          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
         </is>
       </c>
       <c r="M783" s="20" t="n"/>
@@ -41307,17 +41279,17 @@
       </c>
       <c r="D784" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere la posibilidad de comprobar los datos cargados, después de que los clientes hayan usado una SAS para cargar un archivo. </t>
+          <t>Al usar claves de cuenta de almacenamiento, considere la posibilidad de habilitar una "directiva de expiración de claves"</t>
         </is>
       </c>
       <c r="E784" s="18" t="inlineStr">
         <is>
-          <t>Una SAS no puede restringir la cantidad de datos que carga un cliente; Dado el modelo de precios de la cantidad de almacenamiento a lo largo del tiempo, podría tener sentido validar si los clientes cargaron contenido de gran tamaño malintencionado.</t>
+          <t>Una directiva de expiración de claves le permite establecer un recordatorio para la rotación de las claves de acceso a la cuenta. El recordatorio se muestra si ha transcurrido el intervalo especificado y las teclas aún no se han girado.</t>
         </is>
       </c>
       <c r="F784" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G784" t="inlineStr">
@@ -41326,12 +41298,16 @@
         </is>
       </c>
       <c r="H784" s="18" t="n"/>
-      <c r="I784" s="13" t="n"/>
+      <c r="I784" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J784" s="13" t="n"/>
       <c r="K784" s="19" t="n"/>
       <c r="L784" s="19" t="inlineStr">
         <is>
-          <t>348b263e-6dd6-4051-8a36-498f6dbad38e</t>
+          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
         </is>
       </c>
       <c r="M784" s="20" t="n"/>
@@ -41358,17 +41334,17 @@
       </c>
       <c r="D785" s="18" t="inlineStr">
         <is>
-          <t>SFTP: Limite la cantidad de "usuarios locales" para el acceso SFTP y audite si el acceso es necesario a lo largo del tiempo.</t>
+          <t>Considere la posibilidad de configurar una directiva de expiración de SAS</t>
         </is>
       </c>
       <c r="E785" s="18" t="inlineStr">
         <is>
-          <t>Al acceder a Blob Storage a través de SFTP mediante una "cuenta de usuario local", no se aplican los controles RBAC "habituales". El acceso a blobs a través de NFS o REST puede ser más restrictivo que el acceso SFTP. Desafortunadamente, a partir de principios de 2023, los usuarios locales son la única forma de administración de identidades que actualmente se admite para el punto de conexión SFTP</t>
+          <t>Una directiva de expiración de SAS especifica un intervalo recomendado durante el cual la SAS es válida. Las directivas de expiración de SAS se aplican a una SAS de servicio o a una SAS de cuenta. Cuando un usuario genera una SAS de servicio o una SAS de cuenta con un intervalo de validez mayor que el intervalo recomendado, verá una advertencia.</t>
         </is>
       </c>
       <c r="F785" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G785" t="inlineStr">
@@ -41386,7 +41362,7 @@
       <c r="K785" s="19" t="n"/>
       <c r="L785" s="19" t="inlineStr">
         <is>
-          <t>ad53cc7c-e1d7-4aaa-a357-1449ab8053d8</t>
+          <t>352beee0-79b5-488d-bfc4-972cd3cd21bf</t>
         </is>
       </c>
       <c r="M785" s="20" t="n"/>
@@ -41413,10 +41389,14 @@
       </c>
       <c r="D786" s="18" t="inlineStr">
         <is>
-          <t>SFTP: El punto de conexión SFTP no admite ACL similares a POSIX.</t>
-        </is>
-      </c>
-      <c r="E786" s="18" t="n"/>
+          <t>Considere la posibilidad de vincular SAS a una directiva de acceso almacenada</t>
+        </is>
+      </c>
+      <c r="E786" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Las directivas de acceso almacenadas ofrecen la opción de revocar los permisos de una SAS de servicio sin tener que volver a generar las claves de la cuenta de almacenamiento. </t>
+        </is>
+      </c>
       <c r="F786" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -41437,7 +41417,7 @@
       <c r="K786" s="19" t="n"/>
       <c r="L786" s="19" t="inlineStr">
         <is>
-          <t>9f89dc7b-33be-42a1-a27f-7b9e91be1f38</t>
+          <t>77036e5e-6b4b-4ed3-b503-547c1347dc56</t>
         </is>
       </c>
       <c r="M786" s="20" t="n"/>
@@ -41464,17 +41444,13 @@
       </c>
       <c r="D787" s="18" t="inlineStr">
         <is>
-          <t>Evite las políticas de CORS demasiado amplias</t>
-        </is>
-      </c>
-      <c r="E787" s="18" t="inlineStr">
-        <is>
-          <t>El almacenamiento es compatible con CORS (Cross-Origin Resource Sharing), es decir, una función HTTP que permite a las aplicaciones web de un dominio diferente relajar la política del mismo origen. Al habilitar CORS, mantenga CorsRules con el mínimo privilegio.</t>
-        </is>
-      </c>
+          <t>Considere la posibilidad de configurar el repositorio de código fuente de la aplicación para detectar cadenas de conexión protegidas y claves de cuenta de almacenamiento.</t>
+        </is>
+      </c>
+      <c r="E787" s="18" t="n"/>
       <c r="F787" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G787" t="inlineStr">
@@ -41492,7 +41468,7 @@
       <c r="K787" s="19" t="n"/>
       <c r="L787" s="19" t="inlineStr">
         <is>
-          <t>cef39812-bd46-43cb-aac8-ac199ebb91a3</t>
+          <t>028a71ff-e1ce-415d-b3f0-d5e772d41e36</t>
         </is>
       </c>
       <c r="M787" s="20" t="n"/>
@@ -41519,12 +41495,12 @@
       </c>
       <c r="D788" s="18" t="inlineStr">
         <is>
-          <t>Determine cómo se deben cifrar los datos en reposo. Comprender el modelo de subprocesos para los datos.</t>
+          <t>Considere la posibilidad de almacenar cadenas de conexión en Azure KeyVault (en escenarios en los que las identidades administradas no son posibles)</t>
         </is>
       </c>
       <c r="E788" s="18" t="inlineStr">
         <is>
-          <t>Los datos en reposo siempre están cifrados en el lado del servidor y, además, también pueden estar cifrados en el lado del cliente. El cifrado del lado del servidor puede realizarse mediante una clave administrada por la plataforma (predeterminada) o una clave administrada por el cliente. El cifrado del lado cliente puede producirse haciendo que el cliente proporcione una clave de cifrado y descifrado por blob a Azure Storage o controlando completamente el cifrado en el lado cliente. por lo tanto, no depende en absoluto de Azure Storage para obtener garantías de confidencialidad.</t>
+          <t>Lo ideal es que la aplicación use una identidad administrada para autenticarse en Azure Storage. Si esto no es posible, considere la posibilidad de tener la credencial de almacenamiento (cadena de conexión, clave de cuenta de almacenamiento, SAS, credencial de entidad de servicio) en Azure KeyVault o un servicio equivalente.</t>
         </is>
       </c>
       <c r="F788" s="18" t="inlineStr">
@@ -41547,7 +41523,7 @@
       <c r="K788" s="19" t="n"/>
       <c r="L788" s="19" t="inlineStr">
         <is>
-          <t>3d90cae2-cc88-4137-86f7-c0cbafe61464</t>
+          <t>11cc57b4-a4b1-4410-b439-58a8c2289b3d</t>
         </is>
       </c>
       <c r="M788" s="20" t="n"/>
@@ -41574,13 +41550,17 @@
       </c>
       <c r="D789" s="18" t="inlineStr">
         <is>
-          <t>Determine qué cifrado de plataforma se debe usar o si se debe usar.</t>
-        </is>
-      </c>
-      <c r="E789" s="18" t="n"/>
+          <t>Esfuércese por obtener períodos de validez cortos para SAS ad-hoc</t>
+        </is>
+      </c>
+      <c r="E789" s="18" t="inlineStr">
+        <is>
+          <t>Use los tiempos de expiración a corto plazo en una SAS de servicio SAS ad hoc o en una SAS de cuenta. De esta manera, incluso si una SAS se ve comprometida, es válida solo por un corto tiempo. Esta práctica es especialmente importante si no puede hacer referencia a una directiva de acceso almacenada. Los tiempos de expiración a corto plazo también limitan la cantidad de datos que se pueden escribir en un blob al limitar el tiempo disponible para cargarlo.</t>
+        </is>
+      </c>
       <c r="F789" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G789" t="inlineStr">
@@ -41598,7 +41578,7 @@
       <c r="K789" s="19" t="n"/>
       <c r="L789" s="19" t="inlineStr">
         <is>
-          <t>8dd457e9-2713-48b8-8110-2cac6eae01e6</t>
+          <t>27138b82-1102-4cac-9eae-01e6e842e52f</t>
         </is>
       </c>
       <c r="M789" s="20" t="n"/>
@@ -41625,10 +41605,14 @@
       </c>
       <c r="D790" s="18" t="inlineStr">
         <is>
-          <t>Determine qué cifrado del lado del cliente se debe usar o si.</t>
-        </is>
-      </c>
-      <c r="E790" s="18" t="n"/>
+          <t>Aplicación de un ámbito limitado a una SAS</t>
+        </is>
+      </c>
+      <c r="E790" s="18" t="inlineStr">
+        <is>
+          <t>Al crear una SAS, sea lo más específico y restrictivo posible. Prefiera una SAS para un solo recurso y operación en lugar de una SAS que proporciona un acceso mucho más amplio.</t>
+        </is>
+      </c>
       <c r="F790" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -41649,7 +41633,7 @@
       <c r="K790" s="19" t="n"/>
       <c r="L790" s="19" t="inlineStr">
         <is>
-          <t>e842e52f-4721-4d92-ac1b-1cd521e54a29</t>
+          <t>4721d928-c1b1-4cd5-81e5-4a29a9de399c</t>
         </is>
       </c>
       <c r="M790" s="20" t="n"/>
@@ -41676,17 +41660,17 @@
       </c>
       <c r="D791" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere si se necesita acceso público a blobs o si se puede deshabilitar para determinadas cuentas de almacenamiento. </t>
+          <t>Considere la posibilidad de definir el ámbito de SAS en una dirección IP de cliente específica, siempre que sea posible</t>
         </is>
       </c>
       <c r="E791" s="18" t="inlineStr">
         <is>
-          <t>Aproveche el Explorador de Resource Graph (resources | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true) para buscar cuentas de almacenamiento que permitan el acceso anónimo a blobs.</t>
+          <t xml:space="preserve">Una SAS puede incluir parámetros en los que las direcciones IP de cliente o los intervalos de direcciones están autorizados a solicitar un recurso mediante la SAS. </t>
         </is>
       </c>
       <c r="F791" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G791" t="inlineStr">
@@ -41704,7 +41688,7 @@
       <c r="K791" s="19" t="n"/>
       <c r="L791" s="19" t="inlineStr">
         <is>
-          <t>659ae558-b937-4d49-a5e1-112dbd7ba012</t>
+          <t>fd7b28dc-9355-4562-82bf-e4564b0d834a</t>
         </is>
       </c>
       <c r="M791" s="20" t="n"/>
@@ -41714,17 +41698,50 @@
       <c r="Q791" s="20" t="n"/>
     </row>
     <row r="792">
-      <c r="A792" s="18" t="n"/>
-      <c r="B792" s="18" t="n"/>
-      <c r="C792" s="18" t="n"/>
-      <c r="D792" s="18" t="n"/>
-      <c r="E792" s="18" t="n"/>
-      <c r="F792" s="18" t="n"/>
+      <c r="A792" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B792" s="18" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C792" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D792" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Considere la posibilidad de comprobar los datos cargados, después de que los clientes hayan usado una SAS para cargar un archivo. </t>
+        </is>
+      </c>
+      <c r="E792" s="18" t="inlineStr">
+        <is>
+          <t>Una SAS no puede restringir la cantidad de datos que carga un cliente; Dado el modelo de precios de la cantidad de almacenamiento a lo largo del tiempo, podría tener sentido validar si los clientes cargaron contenido de gran tamaño malintencionado.</t>
+        </is>
+      </c>
+      <c r="F792" s="18" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="G792" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H792" s="18" t="n"/>
       <c r="I792" s="13" t="n"/>
       <c r="J792" s="13" t="n"/>
       <c r="K792" s="19" t="n"/>
-      <c r="L792" s="19" t="n"/>
+      <c r="L792" s="19" t="inlineStr">
+        <is>
+          <t>348b263e-6dd6-4051-8a36-498f6dbad38e</t>
+        </is>
+      </c>
       <c r="M792" s="20" t="n"/>
       <c r="N792" s="20" t="n"/>
       <c r="O792" s="20" t="n"/>
@@ -41732,17 +41749,54 @@
       <c r="Q792" s="20" t="n"/>
     </row>
     <row r="793">
-      <c r="A793" s="18" t="n"/>
-      <c r="B793" s="18" t="n"/>
-      <c r="C793" s="18" t="n"/>
-      <c r="D793" s="18" t="n"/>
-      <c r="E793" s="18" t="n"/>
-      <c r="F793" s="18" t="n"/>
+      <c r="A793" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B793" s="18" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C793" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D793" s="18" t="inlineStr">
+        <is>
+          <t>SFTP: Limite la cantidad de "usuarios locales" para el acceso SFTP y audite si el acceso es necesario a lo largo del tiempo.</t>
+        </is>
+      </c>
+      <c r="E793" s="18" t="inlineStr">
+        <is>
+          <t>Al acceder a Blob Storage a través de SFTP mediante una "cuenta de usuario local", no se aplican los controles RBAC "habituales". El acceso a blobs a través de NFS o REST puede ser más restrictivo que el acceso SFTP. Desafortunadamente, a partir de principios de 2023, los usuarios locales son la única forma de administración de identidades que actualmente se admite para el punto de conexión SFTP</t>
+        </is>
+      </c>
+      <c r="F793" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G793" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H793" s="18" t="n"/>
-      <c r="I793" s="13" t="n"/>
+      <c r="I793" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J793" s="13" t="n"/>
       <c r="K793" s="19" t="n"/>
-      <c r="L793" s="19" t="n"/>
+      <c r="L793" s="19" t="inlineStr">
+        <is>
+          <t>ad53cc7c-e1d7-4aaa-a357-1449ab8053d8</t>
+        </is>
+      </c>
       <c r="M793" s="20" t="n"/>
       <c r="N793" s="20" t="n"/>
       <c r="O793" s="20" t="n"/>
@@ -41750,17 +41804,50 @@
       <c r="Q793" s="20" t="n"/>
     </row>
     <row r="794">
-      <c r="A794" s="18" t="n"/>
-      <c r="B794" s="18" t="n"/>
-      <c r="C794" s="18" t="n"/>
-      <c r="D794" s="18" t="n"/>
+      <c r="A794" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B794" s="18" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C794" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D794" s="18" t="inlineStr">
+        <is>
+          <t>SFTP: El punto de conexión SFTP no admite ACL similares a POSIX.</t>
+        </is>
+      </c>
       <c r="E794" s="18" t="n"/>
-      <c r="F794" s="18" t="n"/>
+      <c r="F794" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G794" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H794" s="18" t="n"/>
-      <c r="I794" s="13" t="n"/>
+      <c r="I794" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J794" s="13" t="n"/>
       <c r="K794" s="19" t="n"/>
-      <c r="L794" s="19" t="n"/>
+      <c r="L794" s="19" t="inlineStr">
+        <is>
+          <t>9f89dc7b-33be-42a1-a27f-7b9e91be1f38</t>
+        </is>
+      </c>
       <c r="M794" s="20" t="n"/>
       <c r="N794" s="20" t="n"/>
       <c r="O794" s="20" t="n"/>
@@ -41768,17 +41855,54 @@
       <c r="Q794" s="20" t="n"/>
     </row>
     <row r="795">
-      <c r="A795" s="18" t="n"/>
-      <c r="B795" s="18" t="n"/>
-      <c r="C795" s="18" t="n"/>
-      <c r="D795" s="18" t="n"/>
-      <c r="E795" s="18" t="n"/>
-      <c r="F795" s="18" t="n"/>
+      <c r="A795" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B795" s="18" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C795" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D795" s="18" t="inlineStr">
+        <is>
+          <t>Evite las políticas de CORS demasiado amplias</t>
+        </is>
+      </c>
+      <c r="E795" s="18" t="inlineStr">
+        <is>
+          <t>El almacenamiento es compatible con CORS (Cross-Origin Resource Sharing), es decir, una función HTTP que permite a las aplicaciones web de un dominio diferente relajar la política del mismo origen. Al habilitar CORS, mantenga CorsRules con el mínimo privilegio.</t>
+        </is>
+      </c>
+      <c r="F795" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G795" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H795" s="18" t="n"/>
-      <c r="I795" s="13" t="n"/>
+      <c r="I795" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J795" s="13" t="n"/>
       <c r="K795" s="19" t="n"/>
-      <c r="L795" s="19" t="n"/>
+      <c r="L795" s="19" t="inlineStr">
+        <is>
+          <t>cef39812-bd46-43cb-aac8-ac199ebb91a3</t>
+        </is>
+      </c>
       <c r="M795" s="20" t="n"/>
       <c r="N795" s="20" t="n"/>
       <c r="O795" s="20" t="n"/>
@@ -41786,17 +41910,54 @@
       <c r="Q795" s="20" t="n"/>
     </row>
     <row r="796">
-      <c r="A796" s="18" t="n"/>
-      <c r="B796" s="18" t="n"/>
-      <c r="C796" s="18" t="n"/>
-      <c r="D796" s="18" t="n"/>
-      <c r="E796" s="18" t="n"/>
-      <c r="F796" s="18" t="n"/>
+      <c r="A796" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B796" s="18" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C796" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D796" s="18" t="inlineStr">
+        <is>
+          <t>Determine cómo se deben cifrar los datos en reposo. Comprender el modelo de subprocesos para los datos.</t>
+        </is>
+      </c>
+      <c r="E796" s="18" t="inlineStr">
+        <is>
+          <t>Los datos en reposo siempre están cifrados en el lado del servidor y, además, también pueden estar cifrados en el lado del cliente. El cifrado del lado del servidor puede realizarse mediante una clave administrada por la plataforma (predeterminada) o una clave administrada por el cliente. El cifrado del lado cliente puede producirse haciendo que el cliente proporcione una clave de cifrado y descifrado por blob a Azure Storage o controlando completamente el cifrado en el lado cliente. por lo tanto, no depende en absoluto de Azure Storage para obtener garantías de confidencialidad.</t>
+        </is>
+      </c>
+      <c r="F796" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G796" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H796" s="18" t="n"/>
-      <c r="I796" s="13" t="n"/>
+      <c r="I796" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J796" s="13" t="n"/>
       <c r="K796" s="19" t="n"/>
-      <c r="L796" s="19" t="n"/>
+      <c r="L796" s="19" t="inlineStr">
+        <is>
+          <t>3d90cae2-cc88-4137-86f7-c0cbafe61464</t>
+        </is>
+      </c>
       <c r="M796" s="20" t="n"/>
       <c r="N796" s="20" t="n"/>
       <c r="O796" s="20" t="n"/>
@@ -41804,17 +41965,50 @@
       <c r="Q796" s="20" t="n"/>
     </row>
     <row r="797">
-      <c r="A797" s="18" t="n"/>
-      <c r="B797" s="18" t="n"/>
-      <c r="C797" s="18" t="n"/>
-      <c r="D797" s="18" t="n"/>
+      <c r="A797" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B797" s="18" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C797" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D797" s="18" t="inlineStr">
+        <is>
+          <t>Determine qué cifrado de plataforma se debe usar o si se debe usar.</t>
+        </is>
+      </c>
       <c r="E797" s="18" t="n"/>
-      <c r="F797" s="18" t="n"/>
+      <c r="F797" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G797" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H797" s="18" t="n"/>
-      <c r="I797" s="13" t="n"/>
+      <c r="I797" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J797" s="13" t="n"/>
       <c r="K797" s="19" t="n"/>
-      <c r="L797" s="19" t="n"/>
+      <c r="L797" s="19" t="inlineStr">
+        <is>
+          <t>8dd457e9-2713-48b8-8110-2cac6eae01e6</t>
+        </is>
+      </c>
       <c r="M797" s="20" t="n"/>
       <c r="N797" s="20" t="n"/>
       <c r="O797" s="20" t="n"/>
@@ -41822,17 +42016,50 @@
       <c r="Q797" s="20" t="n"/>
     </row>
     <row r="798">
-      <c r="A798" s="18" t="n"/>
-      <c r="B798" s="18" t="n"/>
-      <c r="C798" s="18" t="n"/>
-      <c r="D798" s="18" t="n"/>
+      <c r="A798" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B798" s="18" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C798" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D798" s="18" t="inlineStr">
+        <is>
+          <t>Determine qué cifrado del lado del cliente se debe usar o si.</t>
+        </is>
+      </c>
       <c r="E798" s="18" t="n"/>
-      <c r="F798" s="18" t="n"/>
+      <c r="F798" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G798" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H798" s="18" t="n"/>
-      <c r="I798" s="13" t="n"/>
+      <c r="I798" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J798" s="13" t="n"/>
       <c r="K798" s="19" t="n"/>
-      <c r="L798" s="19" t="n"/>
+      <c r="L798" s="19" t="inlineStr">
+        <is>
+          <t>e842e52f-4721-4d92-ac1b-1cd521e54a29</t>
+        </is>
+      </c>
       <c r="M798" s="20" t="n"/>
       <c r="N798" s="20" t="n"/>
       <c r="O798" s="20" t="n"/>
@@ -41840,17 +42067,54 @@
       <c r="Q798" s="20" t="n"/>
     </row>
     <row r="799">
-      <c r="A799" s="18" t="n"/>
-      <c r="B799" s="18" t="n"/>
-      <c r="C799" s="18" t="n"/>
-      <c r="D799" s="18" t="n"/>
-      <c r="E799" s="18" t="n"/>
-      <c r="F799" s="18" t="n"/>
+      <c r="A799" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B799" s="18" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C799" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D799" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Considere si se necesita acceso público a blobs o si se puede deshabilitar para determinadas cuentas de almacenamiento. </t>
+        </is>
+      </c>
+      <c r="E799" s="18" t="inlineStr">
+        <is>
+          <t>Aproveche el Explorador de Resource Graph (resources | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true) para buscar cuentas de almacenamiento que permitan el acceso anónimo a blobs.</t>
+        </is>
+      </c>
+      <c r="F799" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G799" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H799" s="18" t="n"/>
-      <c r="I799" s="13" t="n"/>
+      <c r="I799" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J799" s="13" t="n"/>
       <c r="K799" s="19" t="n"/>
-      <c r="L799" s="19" t="n"/>
+      <c r="L799" s="19" t="inlineStr">
+        <is>
+          <t>659ae558-b937-4d49-a5e1-112dbd7ba012</t>
+        </is>
+      </c>
       <c r="M799" s="20" t="n"/>
       <c r="N799" s="20" t="n"/>
       <c r="O799" s="20" t="n"/>
@@ -49310,7 +49574,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G792" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G800" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -49977,24 +50241,32 @@
     <hyperlink ref="I769" r:id="rId660"/>
     <hyperlink ref="I770" r:id="rId661"/>
     <hyperlink ref="I771" r:id="rId662"/>
-    <hyperlink ref="I773" r:id="rId663"/>
-    <hyperlink ref="I774" r:id="rId664"/>
-    <hyperlink ref="I775" r:id="rId665"/>
-    <hyperlink ref="I776" r:id="rId666"/>
-    <hyperlink ref="I777" r:id="rId667"/>
-    <hyperlink ref="I778" r:id="rId668"/>
-    <hyperlink ref="I779" r:id="rId669"/>
-    <hyperlink ref="I780" r:id="rId670"/>
+    <hyperlink ref="I772" r:id="rId663"/>
+    <hyperlink ref="I773" r:id="rId664"/>
+    <hyperlink ref="I774" r:id="rId665"/>
+    <hyperlink ref="I775" r:id="rId666"/>
+    <hyperlink ref="I776" r:id="rId667"/>
+    <hyperlink ref="I777" r:id="rId668"/>
+    <hyperlink ref="I778" r:id="rId669"/>
+    <hyperlink ref="I779" r:id="rId670"/>
     <hyperlink ref="I781" r:id="rId671"/>
     <hyperlink ref="I782" r:id="rId672"/>
     <hyperlink ref="I783" r:id="rId673"/>
-    <hyperlink ref="I785" r:id="rId674"/>
-    <hyperlink ref="I786" r:id="rId675"/>
-    <hyperlink ref="I787" r:id="rId676"/>
-    <hyperlink ref="I788" r:id="rId677"/>
-    <hyperlink ref="I789" r:id="rId678"/>
-    <hyperlink ref="I790" r:id="rId679"/>
-    <hyperlink ref="I791" r:id="rId680"/>
+    <hyperlink ref="I784" r:id="rId674"/>
+    <hyperlink ref="I785" r:id="rId675"/>
+    <hyperlink ref="I786" r:id="rId676"/>
+    <hyperlink ref="I787" r:id="rId677"/>
+    <hyperlink ref="I788" r:id="rId678"/>
+    <hyperlink ref="I789" r:id="rId679"/>
+    <hyperlink ref="I790" r:id="rId680"/>
+    <hyperlink ref="I791" r:id="rId681"/>
+    <hyperlink ref="I793" r:id="rId682"/>
+    <hyperlink ref="I794" r:id="rId683"/>
+    <hyperlink ref="I795" r:id="rId684"/>
+    <hyperlink ref="I796" r:id="rId685"/>
+    <hyperlink ref="I797" r:id="rId686"/>
+    <hyperlink ref="I798" r:id="rId687"/>
+    <hyperlink ref="I799" r:id="rId688"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf_checklist.es.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.es.xlsx
@@ -19692,7 +19692,7 @@
       </c>
       <c r="J357" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="K357" s="19" t="inlineStr">

--- a/spreadsheet/macrofree/waf_checklist.es.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.es.xlsx
@@ -21027,7 +21027,7 @@
       <c r="K400" s="19" t="n"/>
       <c r="L400" s="19" t="inlineStr">
         <is>
-          <t>cb26b2ba-a9db-45d1-8260-d9c6ec1447d9</t>
+          <t>3b7a56de-5020-4642-b3cb-c976e80b6d6d</t>
         </is>
       </c>
       <c r="M400" s="20" t="n"/>
@@ -21078,7 +21078,7 @@
       <c r="K401" s="19" t="n"/>
       <c r="L401" s="19" t="inlineStr">
         <is>
-          <t>f6dd7977-1123-4f39-b488-f91415a8430a</t>
+          <t>3d7008bd-6bc1-4b03-8aa8-ec2a3b55786a</t>
         </is>
       </c>
       <c r="M401" s="20" t="n"/>
@@ -21129,7 +21129,7 @@
       <c r="K402" s="19" t="n"/>
       <c r="L402" s="19" t="inlineStr">
         <is>
-          <t>8aed4fbf-0830-4883-899d-222a154af478</t>
+          <t>1cda768f-a206-445d-8234-56f6a6e7286e</t>
         </is>
       </c>
       <c r="M402" s="20" t="n"/>
@@ -21180,7 +21180,7 @@
       <c r="K403" s="19" t="n"/>
       <c r="L403" s="19" t="inlineStr">
         <is>
-          <t>da0f033e-d180-4f36-9aa4-c468dba14203</t>
+          <t>82118ec5-ed6f-4c68-9471-eb0da98a1b34</t>
         </is>
       </c>
       <c r="M403" s="20" t="n"/>
@@ -21231,7 +21231,7 @@
       <c r="K404" s="19" t="n"/>
       <c r="L404" s="19" t="inlineStr">
         <is>
-          <t>62711604-c9d1-4b0a-bdb7-5fda54a4f6c1</t>
+          <t>74275fa5-9e08-4c7e-b096-13b538fe1501</t>
         </is>
       </c>
       <c r="M404" s="20" t="n"/>

--- a/spreadsheet/macrofree/waf_checklist.es.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.es.xlsx
@@ -38285,7 +38285,7 @@
       </c>
       <c r="B728" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C728" s="18" t="inlineStr">
@@ -38336,7 +38336,7 @@
       </c>
       <c r="B729" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C729" s="18" t="inlineStr">

--- a/spreadsheet/macrofree/waf_checklist.es.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.es.xlsx
@@ -33778,7 +33778,7 @@
       </c>
       <c r="D645" s="18" t="inlineStr">
         <is>
-          <t>Implemente un acceso de emergencia o cuentas de emergencia para evitar el bloqueo de cuentas en todo el inquilino</t>
+          <t>Aplique un modelo RBAC que se alinee con su modelo operativo en la nube. Ámbito y asignación entre grupos de administración y suscripciones.</t>
         </is>
       </c>
       <c r="E645" s="18" t="n"/>
@@ -33800,13 +33800,13 @@
       </c>
       <c r="J645" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="K645" s="19" t="n"/>
       <c r="L645" s="19" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M645" s="20" t="n"/>
@@ -33833,13 +33833,13 @@
       </c>
       <c r="D646" s="18" t="inlineStr">
         <is>
-          <t>Integre los registros de identificador de Microsoft Entra con Azure Monitor central de la plataforma. Azure Monitor permite una única fuente de información en torno a los datos de registro y supervisión en Azure, lo que ofrece a las organizaciones opciones nativas en la nube para cumplir los requisitos relacionados con la recopilación y retención de registros.</t>
+          <t>Utilice solo el tipo de autenticación Cuenta profesional o educativa para todos los tipos de cuenta. Evite usar la cuenta de Microsoft</t>
         </is>
       </c>
       <c r="E646" s="18" t="n"/>
       <c r="F646" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G646" t="inlineStr">
@@ -33853,11 +33853,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J646" s="13" t="n"/>
+      <c r="J646" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+        </is>
+      </c>
       <c r="K646" s="19" t="n"/>
       <c r="L646" s="19" t="inlineStr">
         <is>
-          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M646" s="20" t="n"/>
@@ -33884,13 +33888,13 @@
       </c>
       <c r="D647" s="18" t="inlineStr">
         <is>
-          <t>Aplique un modelo RBAC que se alinee con su modelo operativo en la nube. Ámbito y asignación entre grupos de administración y suscripciones.</t>
+          <t>Utilice solo grupos para asignar permisos. Agregue grupos locales al grupo solo de ID de Entra si ya existe un sistema de administración de grupos.</t>
         </is>
       </c>
       <c r="E647" s="18" t="n"/>
       <c r="F647" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G647" t="inlineStr">
@@ -33906,13 +33910,13 @@
       </c>
       <c r="J647" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="K647" s="19" t="n"/>
       <c r="L647" s="19" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M647" s="20" t="n"/>
@@ -34104,13 +34108,13 @@
       </c>
       <c r="D651" s="18" t="inlineStr">
         <is>
-          <t>Utilice solo el tipo de autenticación Cuenta profesional o educativa para todos los tipos de cuenta. Evite usar la cuenta de Microsoft</t>
+          <t>Si planea cambiar de servicios de dominio de Active Directory a servicios de dominio de Entra, evalúe la compatibilidad de todas las cargas de trabajo</t>
         </is>
       </c>
       <c r="E651" s="18" t="n"/>
       <c r="F651" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G651" t="inlineStr">
@@ -34126,13 +34130,13 @@
       </c>
       <c r="J651" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="K651" s="19" t="n"/>
       <c r="L651" s="19" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M651" s="20" t="n"/>
@@ -34159,7 +34163,7 @@
       </c>
       <c r="D652" s="18" t="inlineStr">
         <is>
-          <t>Utilice solo grupos para asignar permisos. Agregue grupos locales al grupo solo de ID de Entra si ya existe un sistema de administración de grupos.</t>
+          <t>Integre los registros de identificador de Microsoft Entra con Azure Monitor central de la plataforma. Azure Monitor permite una única fuente de información en torno a los datos de registro y supervisión en Azure, lo que ofrece a las organizaciones opciones nativas en la nube para cumplir los requisitos relacionados con la recopilación y retención de registros.</t>
         </is>
       </c>
       <c r="E652" s="18" t="n"/>
@@ -34179,15 +34183,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J652" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
-        </is>
-      </c>
+      <c r="J652" s="13" t="n"/>
       <c r="K652" s="19" t="n"/>
       <c r="L652" s="19" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
         </is>
       </c>
       <c r="M652" s="20" t="n"/>
@@ -34214,13 +34214,13 @@
       </c>
       <c r="D653" s="18" t="inlineStr">
         <is>
-          <t>Si planea cambiar de servicios de dominio de Active Directory a servicios de dominio de Entra, evalúe la compatibilidad de todas las cargas de trabajo</t>
+          <t>Implemente un acceso de emergencia o cuentas de emergencia para evitar el bloqueo de cuentas en todo el inquilino</t>
         </is>
       </c>
       <c r="E653" s="18" t="n"/>
       <c r="F653" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G653" t="inlineStr">
@@ -34236,13 +34236,13 @@
       </c>
       <c r="J653" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="K653" s="19" t="n"/>
       <c r="L653" s="19" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M653" s="20" t="n"/>
@@ -34269,7 +34269,7 @@
       </c>
       <c r="D654" s="18" t="inlineStr">
         <is>
-          <t>Cuando sea necesario, use Microsoft Entra ID Application Proxy para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas (hospedadas en la nube o en el entorno local).</t>
+          <t>Evite el uso de cuentas sincronizadas locales para las asignaciones de roles de identificador de Microsoft Entra.</t>
         </is>
       </c>
       <c r="E654" s="18" t="n"/>
@@ -34291,13 +34291,13 @@
       </c>
       <c r="J654" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="K654" s="19" t="n"/>
       <c r="L654" s="19" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M654" s="20" t="n"/>
@@ -34324,7 +34324,7 @@
       </c>
       <c r="D655" s="18" t="inlineStr">
         <is>
-          <t>Evite el uso de cuentas sincronizadas locales para las asignaciones de roles de identificador de Microsoft Entra.</t>
+          <t>Cuando sea necesario, use Microsoft Entra ID Application Proxy para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas (hospedadas en la nube o en el entorno local).</t>
         </is>
       </c>
       <c r="E655" s="18" t="n"/>
@@ -34346,13 +34346,13 @@
       </c>
       <c r="J655" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="K655" s="19" t="n"/>
       <c r="L655" s="19" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M655" s="20" t="n"/>
@@ -34379,7 +34379,7 @@
       </c>
       <c r="D656" s="18" t="inlineStr">
         <is>
-          <t>Use una red DDoS o planes de protección IP para todas las direcciones IP públicas en las zonas de aterrizaje de la aplicación.</t>
+          <t>Aproveche un diseño de red basado en la topología de red radial tradicional para escenarios de red que requieren la máxima flexibilidad.</t>
         </is>
       </c>
       <c r="E656" s="18" t="n"/>
@@ -34401,13 +34401,13 @@
       </c>
       <c r="J656" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="K656" s="19" t="n"/>
       <c r="L656" s="19" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M656" s="20" t="n"/>
@@ -34424,23 +34424,23 @@
       </c>
       <c r="B657" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C657" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D657" s="18" t="inlineStr">
         <is>
-          <t>Cuando use ExpressRoute Direct, configure MACsec para cifrar el tráfico en el nivel de capa dos entre los enrutadores de la organización y MSEE. El diagrama muestra este cifrado en el flujo.</t>
+          <t>Asegúrese de que los servicios de redes compartidas, incluidas las puertas de enlace de ExpressRoute, las puertas de enlace de VPN y Azure Firewall o las aplicaciones virtuales de red de asociados en la red virtual del centro central. Si es necesario, implemente también servidores DNS.</t>
         </is>
       </c>
       <c r="E657" s="18" t="n"/>
       <c r="F657" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G657" t="inlineStr">
@@ -34458,7 +34458,7 @@
       <c r="K657" s="19" t="n"/>
       <c r="L657" s="19" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M657" s="20" t="n"/>
@@ -34480,18 +34480,18 @@
       </c>
       <c r="C658" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D658" s="18" t="inlineStr">
         <is>
-          <t>En escenarios en los que MACsec no es una opción (por ejemplo, no usar ExpressRoute Direct), use una puerta de enlace de VPN para establecer túneles IPsec a través del emparejamiento privado de ExpressRoute.</t>
+          <t>Use una red DDoS o planes de protección IP para todas las direcciones IP públicas en las zonas de aterrizaje de la aplicación.</t>
         </is>
       </c>
       <c r="E658" s="18" t="n"/>
       <c r="F658" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G658" t="inlineStr">
@@ -34507,13 +34507,13 @@
       </c>
       <c r="J658" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="K658" s="19" t="n"/>
       <c r="L658" s="19" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M658" s="20" t="n"/>
@@ -34530,17 +34530,17 @@
       </c>
       <c r="B659" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C659" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>NVA</t>
         </is>
       </c>
       <c r="D659" s="18" t="inlineStr">
         <is>
-          <t>Aproveche un diseño de red basado en la topología de red radial tradicional para escenarios de red que requieren la máxima flexibilidad.</t>
+          <t>Al implementar tecnologías de redes de asociados o aplicaciones virtuales de red, siga las instrucciones del proveedor de asociados</t>
         </is>
       </c>
       <c r="E659" s="18" t="n"/>
@@ -34560,15 +34560,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J659" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+      <c r="J659" s="13" t="n"/>
       <c r="K659" s="19" t="n"/>
       <c r="L659" s="19" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M659" s="20" t="n"/>
@@ -34585,23 +34581,23 @@
       </c>
       <c r="B660" s="18" t="inlineStr">
         <is>
-          <t>Costar</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C660" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D660" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios de redes compartidas, incluidas las puertas de enlace de ExpressRoute, las puertas de enlace de VPN y Azure Firewall o las aplicaciones virtuales de red de asociados en la red virtual del centro central. Si es necesario, implemente también servidores DNS.</t>
+          <t>Si necesita el tránsito entre ExpressRoute y las puertas de enlace de VPN en escenarios radiales, use Azure Route Server.</t>
         </is>
       </c>
       <c r="E660" s="18" t="n"/>
       <c r="F660" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G660" t="inlineStr">
@@ -34619,7 +34615,7 @@
       <c r="K660" s="19" t="n"/>
       <c r="L660" s="19" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M660" s="20" t="n"/>
@@ -34636,23 +34632,23 @@
       </c>
       <c r="B661" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C661" s="18" t="inlineStr">
         <is>
-          <t>NVA</t>
+          <t>ARS</t>
         </is>
       </c>
       <c r="D661" s="18" t="inlineStr">
         <is>
-          <t>Al implementar tecnologías de redes de asociados o aplicaciones virtuales de red, siga las instrucciones del proveedor de asociados</t>
+          <t>Si utiliza el servidor de rutas, utilice un prefijo /27 para la subred del servidor de rutas.</t>
         </is>
       </c>
       <c r="E661" s="18" t="n"/>
       <c r="F661" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G661" t="inlineStr">
@@ -34667,10 +34663,14 @@
         </is>
       </c>
       <c r="J661" s="13" t="n"/>
-      <c r="K661" s="19" t="n"/>
+      <c r="K661" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'RouteServerSubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L661" s="19" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M661" s="20" t="n"/>
@@ -34687,23 +34687,23 @@
       </c>
       <c r="B662" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C662" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D662" s="18" t="inlineStr">
         <is>
-          <t>Si necesita el tránsito entre ExpressRoute y las puertas de enlace de VPN en escenarios radiales, use Azure Route Server.</t>
+          <t>En el caso de las arquitecturas de red con varias topologías en estrella tipo hub-and-spoke en las regiones de Azure, use emparejamientos de red virtual global entre las redes virtuales del centro para conectar las regiones entre sí.</t>
         </is>
       </c>
       <c r="E662" s="18" t="n"/>
       <c r="F662" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G662" t="inlineStr">
@@ -34717,11 +34717,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J662" s="13" t="n"/>
+      <c r="J662" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="K662" s="19" t="n"/>
       <c r="L662" s="19" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M662" s="20" t="n"/>
@@ -34738,23 +34742,23 @@
       </c>
       <c r="B663" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C663" s="18" t="inlineStr">
         <is>
-          <t>ARS</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D663" s="18" t="inlineStr">
         <is>
-          <t>Si utiliza el servidor de rutas, utilice un prefijo /27 para la subred del servidor de rutas.</t>
+          <t>Use Azure Monitor para redes para supervisar el estado de un extremo a otro de las redes en Azure.</t>
         </is>
       </c>
       <c r="E663" s="18" t="n"/>
       <c r="F663" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G663" t="inlineStr">
@@ -34768,15 +34772,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J663" s="13" t="n"/>
-      <c r="K663" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'RouteServerSubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="J663" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
+      <c r="K663" s="19" t="n"/>
       <c r="L663" s="19" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M663" s="20" t="n"/>
@@ -34793,7 +34797,7 @@
       </c>
       <c r="B664" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C664" s="18" t="inlineStr">
@@ -34803,7 +34807,7 @@
       </c>
       <c r="D664" s="18" t="inlineStr">
         <is>
-          <t>En el caso de las arquitecturas de red con varias topologías en estrella tipo hub-and-spoke en las regiones de Azure, use emparejamientos de red virtual global entre las redes virtuales del centro para conectar las regiones entre sí.</t>
+          <t>Al conectar redes virtuales de radio a la red virtual del centro central, tenga en cuenta los límites de emparejamiento de red virtual (500), el número máximo de prefijos que se pueden anunciar a través de ExpressRoute (1000)</t>
         </is>
       </c>
       <c r="E664" s="18" t="n"/>
@@ -34823,15 +34827,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J664" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
-      <c r="K664" s="19" t="n"/>
+      <c r="J664" s="13" t="n"/>
+      <c r="K664" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | summarize peeringcount = count() by id | extend compliant = (peeringcount &lt; 450) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L664" s="19" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M664" s="20" t="n"/>
@@ -34848,7 +34852,7 @@
       </c>
       <c r="B665" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C665" s="18" t="inlineStr">
@@ -34858,7 +34862,7 @@
       </c>
       <c r="D665" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Monitor para redes para supervisar el estado de un extremo a otro de las redes en Azure.</t>
+          <t>Tenga en cuenta el límite de rutas por tabla de rutas (400).</t>
         </is>
       </c>
       <c r="E665" s="18" t="n"/>
@@ -34878,15 +34882,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J665" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
-      <c r="K665" s="19" t="n"/>
+      <c r="J665" s="13" t="n"/>
+      <c r="K665" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/routetables' | mvexpand properties.routes | summarize routeCount = count() by id | extend compliant = (routeCount &lt; 360) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L665" s="19" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M665" s="20" t="n"/>
@@ -34913,13 +34917,13 @@
       </c>
       <c r="D666" s="18" t="inlineStr">
         <is>
-          <t>Al conectar redes virtuales de radio a la red virtual del centro central, tenga en cuenta los límites de emparejamiento de red virtual (500), el número máximo de prefijos que se pueden anunciar a través de ExpressRoute (1000)</t>
+          <t>Use la opción "Permitir tráfico a la red virtual remota" al configurar emparejamientos de red virtual</t>
         </is>
       </c>
       <c r="E666" s="18" t="n"/>
       <c r="F666" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G666" t="inlineStr">
@@ -34936,12 +34940,12 @@
       <c r="J666" s="13" t="n"/>
       <c r="K666" s="19" t="inlineStr">
         <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | summarize peeringcount = count() by id | extend compliant = (peeringcount &lt; 450) | distinct id,compliant</t>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | project id, peeringName=properties_virtualNetworkPeerings.name, compliant = (properties_virtualNetworkPeerings.properties.allowVirtualNetworkAccess == True)</t>
         </is>
       </c>
       <c r="L666" s="19" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M666" s="20" t="n"/>
@@ -34958,17 +34962,17 @@
       </c>
       <c r="B667" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C667" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D667" s="18" t="inlineStr">
         <is>
-          <t>Tenga en cuenta el límite de rutas por tabla de rutas (400).</t>
+          <t>Cuando use ExpressRoute Direct, configure MACsec para cifrar el tráfico en el nivel de capa dos entre los enrutadores de la organización y MSEE. El diagrama muestra este cifrado en el flujo.</t>
         </is>
       </c>
       <c r="E667" s="18" t="n"/>
@@ -34989,14 +34993,10 @@
         </is>
       </c>
       <c r="J667" s="13" t="n"/>
-      <c r="K667" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/routetables' | mvexpand properties.routes | summarize routeCount = count() by id | extend compliant = (routeCount &lt; 360) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K667" s="19" t="n"/>
       <c r="L667" s="19" t="inlineStr">
         <is>
-          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M667" s="20" t="n"/>
@@ -35013,23 +35013,23 @@
       </c>
       <c r="B668" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C668" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D668" s="18" t="inlineStr">
         <is>
-          <t>Use la opción "Permitir tráfico a la red virtual remota" al configurar emparejamientos de red virtual</t>
+          <t>En escenarios en los que MACsec no es una opción (por ejemplo, no usar ExpressRoute Direct), use una puerta de enlace de VPN para establecer túneles IPsec a través del emparejamiento privado de ExpressRoute.</t>
         </is>
       </c>
       <c r="E668" s="18" t="n"/>
       <c r="F668" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G668" t="inlineStr">
@@ -35043,15 +35043,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J668" s="13" t="n"/>
-      <c r="K668" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | project id, peeringName=properties_virtualNetworkPeerings.name, compliant = (properties_virtualNetworkPeerings.properties.allowVirtualNetworkAccess == True)</t>
-        </is>
-      </c>
+      <c r="J668" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
+      <c r="K668" s="19" t="n"/>
       <c r="L668" s="19" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M668" s="20" t="n"/>
@@ -35068,7 +35068,7 @@
       </c>
       <c r="B669" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C669" s="18" t="inlineStr">
@@ -35078,13 +35078,13 @@
       </c>
       <c r="D669" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que ha investigado la posibilidad de usar ExpressRoute como conexión principal a Azure.</t>
+          <t>Asegúrese de que no se usan espacios de direcciones IP superpuestos en las regiones de Azure y las ubicaciones locales</t>
         </is>
       </c>
       <c r="E669" s="18" t="n"/>
       <c r="F669" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G669" t="inlineStr">
@@ -35100,13 +35100,13 @@
       </c>
       <c r="J669" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="K669" s="19" t="n"/>
       <c r="L669" s="19" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M669" s="20" t="n"/>
@@ -35123,27 +35123,23 @@
       </c>
       <c r="B670" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C670" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D670" s="18" t="inlineStr">
         <is>
-          <t>Cuando use varios circuitos ExpressRoute o varias ubicaciones locales, asegúrese de optimizar el enrutamiento con atributos BGP, si se prefieren determinadas rutas de acceso.</t>
-        </is>
-      </c>
-      <c r="E670" s="18" t="inlineStr">
-        <is>
-          <t>Puede usar la anteposición de AS y los pesos de conexión para influir en el tráfico de Azure al entorno local, y la gama completa de atributos de BGP en sus propios enrutadores para influir en el tráfico del entorno local a Azure.</t>
-        </is>
-      </c>
+          <t>Utilice direcciones IP de los rangos de asignación de direcciones para Internet privadas (RFC 1918).</t>
+        </is>
+      </c>
+      <c r="E670" s="18" t="n"/>
       <c r="F670" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G670" t="inlineStr">
@@ -35159,13 +35155,17 @@
       </c>
       <c r="J670" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K670" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K670" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | project name, id, location, resourceGroup, subscriptionId, cidr = addressPrefix | extend compliant = (cidr matches regex @'^(10\\.|172\\.(1[6-9]|2[0-9]|3[01])\\.|192\\.168\\.)')  | project id, compliant, cidr</t>
+        </is>
+      </c>
       <c r="L670" s="19" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M670" s="20" t="n"/>
@@ -35187,18 +35187,18 @@
       </c>
       <c r="C671" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D671" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que usa la SKU correcta para las puertas de enlace de ExpressRoute/VPN en función de los requisitos de ancho de banda y rendimiento.</t>
+          <t>Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16)</t>
         </is>
       </c>
       <c r="E671" s="18" t="n"/>
       <c r="F671" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G671" t="inlineStr">
@@ -35214,17 +35214,17 @@
       </c>
       <c r="J671" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="K671" s="19" t="inlineStr">
         <is>
-          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier !in ('Basic', 'Standard')| project name, id, subscriptionId, resourceGroup, compliant</t>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | extend addressMask = split(addressPrefix,'/')[1] | extend compliant = addressMask &gt; 16 | project name, id, subscriptionId, resourceGroup, addressPrefix, compliant</t>
         </is>
       </c>
       <c r="L671" s="19" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M671" s="20" t="n"/>
@@ -35241,17 +35241,17 @@
       </c>
       <c r="B672" s="18" t="inlineStr">
         <is>
-          <t>Costar</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C672" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D672" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que usa circuitos ExpressRoute de datos ilimitados solo si alcanza el ancho de banda que justifica su costo.</t>
+          <t>Evite el uso de intervalos de direcciones IP superpuestos para los sitios de producción y recuperación ante desastres.</t>
         </is>
       </c>
       <c r="E672" s="18" t="n"/>
@@ -35271,15 +35271,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J672" s="13" t="n"/>
-      <c r="K672" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/expressroutecircuits' | extend compliant = (tolower(sku.family) == 'metereddata' or tolower(sku.tier) == 'local') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="J672" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
+      <c r="K672" s="19" t="n"/>
       <c r="L672" s="19" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M672" s="20" t="n"/>
@@ -35296,23 +35296,23 @@
       </c>
       <c r="B673" s="18" t="inlineStr">
         <is>
-          <t>Costar</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C673" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D673" s="18" t="inlineStr">
         <is>
-          <t>Aproveche la SKU local de ExpressRoute para reducir el costo de los circuitos, si la ubicación de emparejamiento de los circuitos admite las regiones de Azure para la SKU local.</t>
+          <t>En entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución con una zona delegada para la resolución de nombres (como "azure.contoso.com").</t>
         </is>
       </c>
       <c r="E673" s="18" t="n"/>
       <c r="F673" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G673" t="inlineStr">
@@ -35326,15 +35326,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J673" s="13" t="n"/>
-      <c r="K673" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project id, gwid=tostring(properties.virtualNetworkGateway1.id), circuitid=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitid=tostring(id), circuitsku=sku.tier) on circuitid | project id=gwid, compliant = (circuitsku == 'Local') | summarize compliant=max(compliant) by id</t>
-        </is>
-      </c>
+      <c r="J673" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
+      <c r="K673" s="19" t="n"/>
       <c r="L673" s="19" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M673" s="20" t="n"/>
@@ -35351,17 +35351,17 @@
       </c>
       <c r="B674" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C674" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D674" s="18" t="inlineStr">
         <is>
-          <t>Implemente una puerta de enlace de ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
+          <t>En el caso de los entornos en los que se requiere la resolución de nombres en Azure y en el entorno local, considere la posibilidad de usar Azure DNS Private Resolver.</t>
         </is>
       </c>
       <c r="E674" s="18" t="n"/>
@@ -35383,17 +35383,13 @@
       </c>
       <c r="J674" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K674" s="19" t="inlineStr">
-        <is>
-          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier contains 'AZ'| project name, id, subscriptionId, resourceGroup, Type, compliant</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+        </is>
+      </c>
+      <c r="K674" s="19" t="n"/>
       <c r="L674" s="19" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M674" s="20" t="n"/>
@@ -35410,23 +35406,23 @@
       </c>
       <c r="B675" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C675" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D675" s="18" t="inlineStr">
         <is>
-          <t>En escenarios que requieren un ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, use ExpressRoute Direct.</t>
+          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben utilizar su solución DNS preferida.</t>
         </is>
       </c>
       <c r="E675" s="18" t="n"/>
       <c r="F675" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G675" t="inlineStr">
@@ -35440,15 +35436,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J675" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+      <c r="J675" s="13" t="n"/>
       <c r="K675" s="19" t="n"/>
       <c r="L675" s="19" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M675" s="20" t="n"/>
@@ -35465,23 +35457,23 @@
       </c>
       <c r="B676" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C676" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D676" s="18" t="inlineStr">
         <is>
-          <t>Cuando se requiera una latencia baja o el rendimiento del entorno local a Azure sea superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de acceso de datos.</t>
+          <t>Habilite el registro automático de Azure DNS para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
         </is>
       </c>
       <c r="E676" s="18" t="n"/>
       <c r="F676" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G676" t="inlineStr">
@@ -35497,13 +35489,13 @@
       </c>
       <c r="J676" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="K676" s="19" t="n"/>
       <c r="L676" s="19" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M676" s="20" t="n"/>
@@ -35520,17 +35512,17 @@
       </c>
       <c r="B677" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C677" s="18" t="inlineStr">
         <is>
-          <t>VPN</t>
+          <t>Bastion</t>
         </is>
       </c>
       <c r="D677" s="18" t="inlineStr">
         <is>
-          <t>Use puertas de enlace de VPN con redundancia de zona para conectar sucursales o ubicaciones remotas a Azure (donde estén disponibles).</t>
+          <t>Considere la posibilidad de usar Azure Bastion para conectarse de forma segura a la red.</t>
         </is>
       </c>
       <c r="E677" s="18" t="n"/>
@@ -35550,19 +35542,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J677" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
-        </is>
-      </c>
-      <c r="K677" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworkgateways' | where properties.gatewayType == 'Vpn' | extend compliant = (tolower(properties.sku.name) contains 'az') | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="J677" s="13" t="n"/>
+      <c r="K677" s="19" t="n"/>
       <c r="L677" s="19" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M677" s="20" t="n"/>
@@ -35579,17 +35563,17 @@
       </c>
       <c r="B678" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C678" s="18" t="inlineStr">
         <is>
-          <t>VPN</t>
+          <t>Bastion</t>
         </is>
       </c>
       <c r="D678" s="18" t="inlineStr">
         <is>
-          <t>Use dispositivos VPN redundantes en las instalaciones (activo/activo o activo/pasivo).</t>
+          <t>Use Azure Bastion en una subred /26 o superior.</t>
         </is>
       </c>
       <c r="E678" s="18" t="n"/>
@@ -35609,15 +35593,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J678" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
-        </is>
-      </c>
-      <c r="K678" s="19" t="n"/>
+      <c r="J678" s="13" t="n"/>
+      <c r="K678" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureBastionSubnet' | extend compliant = (subnetPrefixLength &lt;= 26) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L678" s="19" t="inlineStr">
         <is>
-          <t>45866df8-cf85-4ca9-bbe2-65ec1478919e</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M678" s="20" t="n"/>
@@ -35634,23 +35618,23 @@
       </c>
       <c r="B679" s="18" t="inlineStr">
         <is>
-          <t>Costar</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C679" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D679" s="18" t="inlineStr">
         <is>
-          <t>Si usa ExpressRoute Direct, considere la posibilidad de usar circuitos locales de ExpressRoute a las regiones locales de Azure para ahorrar costos</t>
+          <t>Use directivas de Azure Front Door y WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
         </is>
       </c>
       <c r="E679" s="18" t="n"/>
       <c r="F679" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G679" t="inlineStr">
@@ -35666,13 +35650,13 @@
       </c>
       <c r="J679" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="K679" s="19" t="n"/>
       <c r="L679" s="19" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M679" s="20" t="n"/>
@@ -35694,18 +35678,18 @@
       </c>
       <c r="C680" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D680" s="18" t="inlineStr">
         <is>
-          <t>Cuando se requiere aislamiento de tráfico o ancho de banda dedicado, por ejemplo, para separar entornos de producción y no de producción, use circuitos ExpressRoute diferentes. Le ayudará a garantizar dominios de enrutamiento aislados y a aliviar los riesgos de vecinos ruidosos.</t>
+          <t>Al usar Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas de WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
         </is>
       </c>
       <c r="E680" s="18" t="n"/>
       <c r="F680" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G680" t="inlineStr">
@@ -35721,13 +35705,13 @@
       </c>
       <c r="J680" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="K680" s="19" t="n"/>
       <c r="L680" s="19" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M680" s="20" t="n"/>
@@ -35744,23 +35728,23 @@
       </c>
       <c r="B681" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C681" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D681" s="18" t="inlineStr">
         <is>
-          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante Express Route Insights integrado.</t>
+          <t>La implementación de WAF y otros servidores proxy inversos son necesarios para las conexiones HTTP/S entrantes, impleméntelos dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que protegen y exponen a Internet.</t>
         </is>
       </c>
       <c r="E681" s="18" t="n"/>
       <c r="F681" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G681" t="inlineStr">
@@ -35776,13 +35760,13 @@
       </c>
       <c r="J681" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="K681" s="19" t="n"/>
       <c r="L681" s="19" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M681" s="20" t="n"/>
@@ -35799,23 +35783,23 @@
       </c>
       <c r="B682" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C682" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D682" s="18" t="inlineStr">
         <is>
-          <t>Use el Monitor de conexión para la supervisión de la conectividad en toda la red, especialmente entre el entorno local y Azure.</t>
+          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
         </is>
       </c>
       <c r="E682" s="18" t="n"/>
       <c r="F682" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G682" t="inlineStr">
@@ -35831,13 +35815,13 @@
       </c>
       <c r="J682" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="K682" s="19" t="n"/>
       <c r="L682" s="19" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M682" s="20" t="n"/>
@@ -35859,18 +35843,18 @@
       </c>
       <c r="C683" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D683" s="18" t="inlineStr">
         <is>
-          <t>Use circuitos ExpressRoute de diferentes ubicaciones de emparejamiento para obtener redundancia.</t>
+          <t>Evalúe y revise la configuración y la estrategia del tráfico saliente de la red antes del próximo cambio importante. El 30 de septiembre de 2025, se retirará el acceso saliente predeterminado para las nuevas implementaciones y solo se permitirán las configuraciones de acceso explícitas</t>
         </is>
       </c>
       <c r="E683" s="18" t="n"/>
       <c r="F683" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G683" t="inlineStr">
@@ -35884,19 +35868,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J683" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K683" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project cxId=id, gwId=tostring(properties.virtualNetworkGateway1.id), circuitId=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitId=tostring(id), circuitLocation=tostring(properties.serviceProviderProperties.peeringLocation)) on circuitId | distinct gwId, circuitLocation | summarize countErLocations=count() by id=gwId | extend compliant = (countErLocations &gt;= 2)</t>
-        </is>
-      </c>
+      <c r="J683" s="13" t="n"/>
+      <c r="K683" s="19" t="n"/>
       <c r="L683" s="19" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M683" s="20" t="n"/>
@@ -35913,23 +35889,23 @@
       </c>
       <c r="B684" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C684" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D684" s="18" t="inlineStr">
         <is>
-          <t>Use VPN de sitio a sitio como conmutación por error de ExpressRoute, especialmente si solo usa un único circuito ExpressRoute.</t>
+          <t>Agregue configuraciones de diagnóstico para guardar registros relacionados con DDoS para todas las direcciones IP públicas protegidas (DDoS IP o Protección de red).</t>
         </is>
       </c>
       <c r="E684" s="18" t="n"/>
       <c r="F684" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G684" t="inlineStr">
@@ -35943,11 +35919,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J684" s="13" t="n"/>
+      <c r="J684" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K684" s="19" t="n"/>
       <c r="L684" s="19" t="inlineStr">
         <is>
-          <t>cf3fe65c-fec0-495a-8edc-9675200f2add</t>
+          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
         </is>
       </c>
       <c r="M684" s="20" t="n"/>
@@ -35964,7 +35944,7 @@
       </c>
       <c r="B685" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C685" s="18" t="inlineStr">
@@ -35974,13 +35954,13 @@
       </c>
       <c r="D685" s="18" t="inlineStr">
         <is>
-          <t>Si utiliza una tabla de rutas en GatewaySubnet, asegúrese de que las rutas de puerta de enlace se propagan.</t>
+          <t>Asegúrese de que ha investigado la posibilidad de usar ExpressRoute como conexión principal a Azure.</t>
         </is>
       </c>
       <c r="E685" s="18" t="n"/>
       <c r="F685" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G685" t="inlineStr">
@@ -35994,15 +35974,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J685" s="13" t="n"/>
-      <c r="K685" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,subnetName=tostring(subnets.name),routeTableId=tostring(subnets.properties.routeTable.id) | where subnetName == 'GatewaySubnet' | join kind=leftouter (Resources | where type == 'microsoft.network/routetables' | project routeTableName=name,routeTableId=id, disableBgpRoutePropagation=properties.disableBgpRoutePropagation) on routeTableId | project id,compliant = (disableBgpRoutePropagation == False or isnull(disableBgpRoutePropagation))</t>
-        </is>
-      </c>
+      <c r="J685" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
+      <c r="K685" s="19" t="n"/>
       <c r="L685" s="19" t="inlineStr">
         <is>
-          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M685" s="20" t="n"/>
@@ -36029,13 +36009,17 @@
       </c>
       <c r="D686" s="18" t="inlineStr">
         <is>
-          <t>Si usa ExpressRoute, el enrutamiento local debe ser dinámico: en caso de que se produzca un error de conexión, debe converger a la conexión restante del circuito. La carga debe compartirse entre ambas conexiones, idealmente como activa/activa, aunque también se admite activa/pasiva.</t>
-        </is>
-      </c>
-      <c r="E686" s="18" t="n"/>
+          <t>Cuando use varios circuitos ExpressRoute o varias ubicaciones locales, asegúrese de optimizar el enrutamiento con atributos BGP, si se prefieren determinadas rutas de acceso.</t>
+        </is>
+      </c>
+      <c r="E686" s="18" t="inlineStr">
+        <is>
+          <t>Puede usar la anteposición de AS y los pesos de conexión para influir en el tráfico de Azure al entorno local, y la gama completa de atributos de BGP en sus propios enrutadores para influir en el tráfico del entorno local a Azure.</t>
+        </is>
+      </c>
       <c r="F686" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G686" t="inlineStr">
@@ -36049,11 +36033,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J686" s="13" t="n"/>
+      <c r="J686" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K686" s="19" t="n"/>
       <c r="L686" s="19" t="inlineStr">
         <is>
-          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M686" s="20" t="n"/>
@@ -36070,7 +36058,7 @@
       </c>
       <c r="B687" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C687" s="18" t="inlineStr">
@@ -36080,7 +36068,7 @@
       </c>
       <c r="D687" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que los dos vínculos físicos del circuito ExpressRoute están conectados a dos dispositivos perimetrales distintos de la red.</t>
+          <t>Asegúrese de que usa la SKU correcta para las puertas de enlace de ExpressRoute/VPN en función de los requisitos de ancho de banda y rendimiento.</t>
         </is>
       </c>
       <c r="E687" s="18" t="n"/>
@@ -36105,10 +36093,14 @@
           <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
-      <c r="K687" s="19" t="n"/>
+      <c r="K687" s="19" t="inlineStr">
+        <is>
+          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier !in ('Basic', 'Standard')| project name, id, subscriptionId, resourceGroup, compliant</t>
+        </is>
+      </c>
       <c r="L687" s="19" t="inlineStr">
         <is>
-          <t>b258f058-b9f6-46cd-b28d-990106f0c3f8</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M687" s="20" t="n"/>
@@ -36125,7 +36117,7 @@
       </c>
       <c r="B688" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C688" s="18" t="inlineStr">
@@ -36135,13 +36127,13 @@
       </c>
       <c r="D688" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que la detección de reenvío bidireccional (BFD) esté habilitada y configurada en los dispositivos de enrutamiento perimetral del cliente o proveedor.</t>
+          <t>Asegúrese de que usa circuitos ExpressRoute de datos ilimitados solo si alcanza el ancho de banda que justifica su costo.</t>
         </is>
       </c>
       <c r="E688" s="18" t="n"/>
       <c r="F688" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G688" t="inlineStr">
@@ -36155,15 +36147,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J688" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K688" s="19" t="n"/>
+      <c r="J688" s="13" t="n"/>
+      <c r="K688" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/expressroutecircuits' | extend compliant = (tolower(sku.family) == 'metereddata' or tolower(sku.tier) == 'local') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L688" s="19" t="inlineStr">
         <is>
-          <t>fe2a1b53-6fbd-4c67-b58a-85d7c7a0afcb</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M688" s="20" t="n"/>
@@ -36180,7 +36172,7 @@
       </c>
       <c r="B689" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C689" s="18" t="inlineStr">
@@ -36190,7 +36182,7 @@
       </c>
       <c r="D689" s="18" t="inlineStr">
         <is>
-          <t>Conecte la puerta de enlace de ExpressRoute a dos o más circuitos de diferentes ubicaciones de emparejamiento para una mayor resistencia.</t>
+          <t>Aproveche la SKU local de ExpressRoute para reducir el costo de los circuitos, si la ubicación de emparejamiento de los circuitos admite las regiones de Azure para la SKU local.</t>
         </is>
       </c>
       <c r="E689" s="18" t="n"/>
@@ -36210,15 +36202,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J689" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K689" s="19" t="n"/>
+      <c r="J689" s="13" t="n"/>
+      <c r="K689" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project id, gwid=tostring(properties.virtualNetworkGateway1.id), circuitid=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitid=tostring(id), circuitsku=sku.tier) on circuitid | project id=gwid, compliant = (circuitsku == 'Local') | summarize compliant=max(compliant) by id</t>
+        </is>
+      </c>
       <c r="L689" s="19" t="inlineStr">
         <is>
-          <t>669b215a-ce43-4371-8f6f-11047f6490f1</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M689" s="20" t="n"/>
@@ -36235,7 +36227,7 @@
       </c>
       <c r="B690" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C690" s="18" t="inlineStr">
@@ -36245,7 +36237,7 @@
       </c>
       <c r="D690" s="18" t="inlineStr">
         <is>
-          <t>Configure registros de diagnóstico y alertas para la puerta de enlace de red virtual de ExpressRoute.</t>
+          <t>Implemente una puerta de enlace de ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
         </is>
       </c>
       <c r="E690" s="18" t="n"/>
@@ -36270,10 +36262,14 @@
           <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
-      <c r="K690" s="19" t="n"/>
+      <c r="K690" s="19" t="inlineStr">
+        <is>
+          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier contains 'AZ'| project name, id, subscriptionId, resourceGroup, Type, compliant</t>
+        </is>
+      </c>
       <c r="L690" s="19" t="inlineStr">
         <is>
-          <t>3f79ed00-203b-4c95-9efd-691505f5a1f9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M690" s="20" t="n"/>
@@ -36300,7 +36296,7 @@
       </c>
       <c r="D691" s="18" t="inlineStr">
         <is>
-          <t>Evite el uso de circuitos ExpressRoute para la comunicación de red virtual a red virtual.</t>
+          <t>En escenarios que requieren un ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, use ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="E691" s="18" t="n"/>
@@ -36328,7 +36324,7 @@
       <c r="K691" s="19" t="n"/>
       <c r="L691" s="19" t="inlineStr">
         <is>
-          <t>5234c93f-b651-41dd-80c1-234177b91ced</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M691" s="20" t="n"/>
@@ -36345,7 +36341,7 @@
       </c>
       <c r="B692" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C692" s="18" t="inlineStr">
@@ -36355,13 +36351,13 @@
       </c>
       <c r="D692" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que no se usan espacios de direcciones IP superpuestos en las regiones de Azure y las ubicaciones locales</t>
+          <t>Cuando se requiera una latencia baja o el rendimiento del entorno local a Azure sea superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de acceso de datos.</t>
         </is>
       </c>
       <c r="E692" s="18" t="n"/>
       <c r="F692" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G692" t="inlineStr">
@@ -36377,13 +36373,13 @@
       </c>
       <c r="J692" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K692" s="19" t="n"/>
       <c r="L692" s="19" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M692" s="20" t="n"/>
@@ -36400,23 +36396,23 @@
       </c>
       <c r="B693" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C693" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>VPN</t>
         </is>
       </c>
       <c r="D693" s="18" t="inlineStr">
         <is>
-          <t>Utilice direcciones IP de los rangos de asignación de direcciones para Internet privadas (RFC 1918).</t>
+          <t>Use puertas de enlace de VPN con redundancia de zona para conectar sucursales o ubicaciones remotas a Azure (donde estén disponibles).</t>
         </is>
       </c>
       <c r="E693" s="18" t="n"/>
       <c r="F693" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G693" t="inlineStr">
@@ -36432,17 +36428,17 @@
       </c>
       <c r="J693" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="K693" s="19" t="inlineStr">
         <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | project name, id, location, resourceGroup, subscriptionId, cidr = addressPrefix | extend compliant = (cidr matches regex @'^(10\\.|172\\.(1[6-9]|2[0-9]|3[01])\\.|192\\.168\\.)')  | project id, compliant, cidr</t>
+          <t>resources | where type=='microsoft.network/virtualnetworkgateways' | where properties.gatewayType == 'Vpn' | extend compliant = (tolower(properties.sku.name) contains 'az') | distinct id, compliant</t>
         </is>
       </c>
       <c r="L693" s="19" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M693" s="20" t="n"/>
@@ -36459,23 +36455,23 @@
       </c>
       <c r="B694" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C694" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>VPN</t>
         </is>
       </c>
       <c r="D694" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16)</t>
+          <t>Use dispositivos VPN redundantes en las instalaciones (activo/activo o activo/pasivo).</t>
         </is>
       </c>
       <c r="E694" s="18" t="n"/>
       <c r="F694" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G694" t="inlineStr">
@@ -36491,17 +36487,13 @@
       </c>
       <c r="J694" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K694" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | extend addressMask = split(addressPrefix,'/')[1] | extend compliant = addressMask &gt; 16 | project name, id, subscriptionId, resourceGroup, addressPrefix, compliant</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+        </is>
+      </c>
+      <c r="K694" s="19" t="n"/>
       <c r="L694" s="19" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>45866df8-cf85-4ca9-bbe2-65ec1478919e</t>
         </is>
       </c>
       <c r="M694" s="20" t="n"/>
@@ -36518,17 +36510,17 @@
       </c>
       <c r="B695" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C695" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D695" s="18" t="inlineStr">
         <is>
-          <t>Evite el uso de intervalos de direcciones IP superpuestos para los sitios de producción y recuperación ante desastres.</t>
+          <t>Si usa ExpressRoute Direct, considere la posibilidad de usar circuitos locales de ExpressRoute a las regiones locales de Azure para ahorrar costos</t>
         </is>
       </c>
       <c r="E695" s="18" t="n"/>
@@ -36550,13 +36542,13 @@
       </c>
       <c r="J695" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K695" s="19" t="n"/>
       <c r="L695" s="19" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M695" s="20" t="n"/>
@@ -36573,17 +36565,17 @@
       </c>
       <c r="B696" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C696" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D696" s="18" t="inlineStr">
         <is>
-          <t>En entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución con una zona delegada para la resolución de nombres (como "azure.contoso.com").</t>
+          <t>Cuando se requiere aislamiento de tráfico o ancho de banda dedicado, por ejemplo, para separar entornos de producción y no de producción, use circuitos ExpressRoute diferentes. Le ayudará a garantizar dominios de enrutamiento aislados y a aliviar los riesgos de vecinos ruidosos.</t>
         </is>
       </c>
       <c r="E696" s="18" t="n"/>
@@ -36605,13 +36597,13 @@
       </c>
       <c r="J696" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K696" s="19" t="n"/>
       <c r="L696" s="19" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M696" s="20" t="n"/>
@@ -36628,17 +36620,17 @@
       </c>
       <c r="B697" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C697" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D697" s="18" t="inlineStr">
         <is>
-          <t>En el caso de los entornos en los que se requiere la resolución de nombres en Azure y en el entorno local, considere la posibilidad de usar Azure DNS Private Resolver.</t>
+          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante Express Route Insights integrado.</t>
         </is>
       </c>
       <c r="E697" s="18" t="n"/>
@@ -36660,13 +36652,13 @@
       </c>
       <c r="J697" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K697" s="19" t="n"/>
       <c r="L697" s="19" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M697" s="20" t="n"/>
@@ -36688,18 +36680,18 @@
       </c>
       <c r="C698" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D698" s="18" t="inlineStr">
         <is>
-          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben utilizar su solución DNS preferida.</t>
+          <t>Use el Monitor de conexión para la supervisión de la conectividad en toda la red, especialmente entre el entorno local y Azure.</t>
         </is>
       </c>
       <c r="E698" s="18" t="n"/>
       <c r="F698" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G698" t="inlineStr">
@@ -36713,11 +36705,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J698" s="13" t="n"/>
+      <c r="J698" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K698" s="19" t="n"/>
       <c r="L698" s="19" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M698" s="20" t="n"/>
@@ -36734,23 +36730,23 @@
       </c>
       <c r="B699" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C699" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D699" s="18" t="inlineStr">
         <is>
-          <t>Habilite el registro automático de Azure DNS para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
+          <t>Use circuitos ExpressRoute de diferentes ubicaciones de emparejamiento para obtener redundancia.</t>
         </is>
       </c>
       <c r="E699" s="18" t="n"/>
       <c r="F699" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G699" t="inlineStr">
@@ -36766,13 +36762,17 @@
       </c>
       <c r="J699" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
-      <c r="K699" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
+      <c r="K699" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project cxId=id, gwId=tostring(properties.virtualNetworkGateway1.id), circuitId=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitId=tostring(id), circuitLocation=tostring(properties.serviceProviderProperties.peeringLocation)) on circuitId | distinct gwId, circuitLocation | summarize countErLocations=count() by id=gwId | extend compliant = (countErLocations &gt;= 2)</t>
+        </is>
+      </c>
       <c r="L699" s="19" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M699" s="20" t="n"/>
@@ -36789,17 +36789,17 @@
       </c>
       <c r="B700" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C700" s="18" t="inlineStr">
         <is>
-          <t>Bastion</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D700" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar Azure Bastion para conectarse de forma segura a la red.</t>
+          <t>Use VPN de sitio a sitio como conmutación por error de ExpressRoute, especialmente si solo usa un único circuito ExpressRoute.</t>
         </is>
       </c>
       <c r="E700" s="18" t="n"/>
@@ -36823,7 +36823,7 @@
       <c r="K700" s="19" t="n"/>
       <c r="L700" s="19" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>cf3fe65c-fec0-495a-8edc-9675200f2add</t>
         </is>
       </c>
       <c r="M700" s="20" t="n"/>
@@ -36840,23 +36840,23 @@
       </c>
       <c r="B701" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C701" s="18" t="inlineStr">
         <is>
-          <t>Bastion</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D701" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Bastion en una subred /26 o superior.</t>
+          <t>Si utiliza una tabla de rutas en GatewaySubnet, asegúrese de que las rutas de puerta de enlace se propagan.</t>
         </is>
       </c>
       <c r="E701" s="18" t="n"/>
       <c r="F701" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G701" t="inlineStr">
@@ -36873,12 +36873,12 @@
       <c r="J701" s="13" t="n"/>
       <c r="K701" s="19" t="inlineStr">
         <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureBastionSubnet' | extend compliant = (subnetPrefixLength &lt;= 26) | distinct id, compliant</t>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,subnetName=tostring(subnets.name),routeTableId=tostring(subnets.properties.routeTable.id) | where subnetName == 'GatewaySubnet' | join kind=leftouter (Resources | where type == 'microsoft.network/routetables' | project routeTableName=name,routeTableId=id, disableBgpRoutePropagation=properties.disableBgpRoutePropagation) on routeTableId | project id,compliant = (disableBgpRoutePropagation == False or isnull(disableBgpRoutePropagation))</t>
         </is>
       </c>
       <c r="L701" s="19" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
         </is>
       </c>
       <c r="M701" s="20" t="n"/>
@@ -36895,23 +36895,23 @@
       </c>
       <c r="B702" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C702" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D702" s="18" t="inlineStr">
         <is>
-          <t>Use directivas de Azure Front Door y WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
+          <t>Si usa ExpressRoute, el enrutamiento local debe ser dinámico: en caso de que se produzca un error de conexión, debe converger a la conexión restante del circuito. La carga debe compartirse entre ambas conexiones, idealmente como activa/activa, aunque también se admite activa/pasiva.</t>
         </is>
       </c>
       <c r="E702" s="18" t="n"/>
       <c r="F702" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G702" t="inlineStr">
@@ -36925,15 +36925,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J702" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+      <c r="J702" s="13" t="n"/>
       <c r="K702" s="19" t="n"/>
       <c r="L702" s="19" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
         </is>
       </c>
       <c r="M702" s="20" t="n"/>
@@ -36950,23 +36946,23 @@
       </c>
       <c r="B703" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C703" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D703" s="18" t="inlineStr">
         <is>
-          <t>Al usar Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas de WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
+          <t>Asegúrese de que los dos vínculos físicos del circuito ExpressRoute están conectados a dos dispositivos perimetrales distintos de la red.</t>
         </is>
       </c>
       <c r="E703" s="18" t="n"/>
       <c r="F703" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G703" t="inlineStr">
@@ -36982,13 +36978,13 @@
       </c>
       <c r="J703" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K703" s="19" t="n"/>
       <c r="L703" s="19" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>b258f058-b9f6-46cd-b28d-990106f0c3f8</t>
         </is>
       </c>
       <c r="M703" s="20" t="n"/>
@@ -37005,23 +37001,23 @@
       </c>
       <c r="B704" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C704" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D704" s="18" t="inlineStr">
         <is>
-          <t>La implementación de WAF y otros servidores proxy inversos son necesarios para las conexiones HTTP/S entrantes, impleméntelos dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que protegen y exponen a Internet.</t>
+          <t>Asegúrese de que la detección de reenvío bidireccional (BFD) esté habilitada y configurada en los dispositivos de enrutamiento perimetral del cliente o proveedor.</t>
         </is>
       </c>
       <c r="E704" s="18" t="n"/>
       <c r="F704" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G704" t="inlineStr">
@@ -37037,13 +37033,13 @@
       </c>
       <c r="J704" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K704" s="19" t="n"/>
       <c r="L704" s="19" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>fe2a1b53-6fbd-4c67-b58a-85d7c7a0afcb</t>
         </is>
       </c>
       <c r="M704" s="20" t="n"/>
@@ -37060,17 +37056,17 @@
       </c>
       <c r="B705" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C705" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D705" s="18" t="inlineStr">
         <is>
-          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
+          <t>Conecte la puerta de enlace de ExpressRoute a dos o más circuitos de diferentes ubicaciones de emparejamiento para una mayor resistencia.</t>
         </is>
       </c>
       <c r="E705" s="18" t="n"/>
@@ -37092,13 +37088,13 @@
       </c>
       <c r="J705" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K705" s="19" t="n"/>
       <c r="L705" s="19" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>669b215a-ce43-4371-8f6f-11047f6490f1</t>
         </is>
       </c>
       <c r="M705" s="20" t="n"/>
@@ -37115,23 +37111,23 @@
       </c>
       <c r="B706" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C706" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D706" s="18" t="inlineStr">
         <is>
-          <t>Evalúe y revise la configuración y la estrategia del tráfico saliente de la red antes del próximo cambio importante. El 30 de septiembre de 2025, se retirará el acceso saliente predeterminado para las nuevas implementaciones y solo se permitirán las configuraciones de acceso explícitas</t>
+          <t>Configure registros de diagnóstico y alertas para la puerta de enlace de red virtual de ExpressRoute.</t>
         </is>
       </c>
       <c r="E706" s="18" t="n"/>
       <c r="F706" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G706" t="inlineStr">
@@ -37145,11 +37141,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J706" s="13" t="n"/>
+      <c r="J706" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K706" s="19" t="n"/>
       <c r="L706" s="19" t="inlineStr">
         <is>
-          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
+          <t>3f79ed00-203b-4c95-9efd-691505f5a1f9</t>
         </is>
       </c>
       <c r="M706" s="20" t="n"/>
@@ -37166,23 +37166,23 @@
       </c>
       <c r="B707" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C707" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D707" s="18" t="inlineStr">
         <is>
-          <t>Agregue configuraciones de diagnóstico para guardar registros relacionados con DDoS para todas las direcciones IP públicas protegidas (DDoS IP o Protección de red).</t>
+          <t>Evite el uso de circuitos ExpressRoute para la comunicación de red virtual a red virtual.</t>
         </is>
       </c>
       <c r="E707" s="18" t="n"/>
       <c r="F707" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G707" t="inlineStr">
@@ -37198,13 +37198,13 @@
       </c>
       <c r="J707" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K707" s="19" t="n"/>
       <c r="L707" s="19" t="inlineStr">
         <is>
-          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
+          <t>5234c93f-b651-41dd-80c1-234177b91ced</t>
         </is>
       </c>
       <c r="M707" s="20" t="n"/>
@@ -40143,18 +40143,18 @@
       </c>
       <c r="C763" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D763" s="18" t="inlineStr">
         <is>
-          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de los servicios de entrega de aplicaciones, como Azure Front Door y Azure Application Gateway. Revise periódicamente los registros para comprobar si hay ataques y detecciones de falsos positivos.</t>
+          <t>Use un área de trabajo de registros de un único monitor para administrar las plataformas de forma centralizada, excepto cuando el control de acceso basado en rol de Azure (Azure RBAC), los requisitos de soberanía de datos o las directivas de retención de datos exijan áreas de trabajo independientes.</t>
         </is>
       </c>
       <c r="E763" s="18" t="n"/>
       <c r="F763" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G763" t="inlineStr">
@@ -40168,11 +40168,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J763" s="13" t="n"/>
+      <c r="J763" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="K763" s="19" t="n"/>
       <c r="L763" s="19" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M763" s="20" t="n"/>
@@ -40194,12 +40198,12 @@
       </c>
       <c r="C764" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D764" s="18" t="inlineStr">
         <is>
-          <t>Envíe registros de WAF desde los servicios de entrega de aplicaciones, como Azure Front Door y Azure Application Gateway, a Microsoft Sentinel. Detecte ataques e integre la telemetría de WAF en su entorno general de Azure.</t>
+          <t>Exporte los registros a Azure Storage si los requisitos de retención de registros superan los doce años. Use el almacenamiento inmutable con una directiva de escritura única y lectura múltiple para que los datos no se puedan borrar ni modificar durante un intervalo especificado por el usuario.</t>
         </is>
       </c>
       <c r="E764" s="18" t="n"/>
@@ -40219,11 +40223,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J764" s="13" t="n"/>
+      <c r="J764" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="K764" s="19" t="n"/>
       <c r="L764" s="19" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M764" s="20" t="n"/>
@@ -40240,17 +40248,17 @@
       </c>
       <c r="B765" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C765" s="18" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D765" s="18" t="inlineStr">
         <is>
-          <t>Al usar Azure Backup, tenga en cuenta los diferentes tipos de copia de seguridad (GRS, ZRS Y LRS), ya que la configuración predeterminada es GRS</t>
+          <t>Supervise el desfase de configuración de la máquina virtual (VM) a nivel de sistema operativo mediante Azure Policy. La habilitación de las funcionalidades de auditoría de Azure Automanage Machine Configuration a través de la directiva ayuda a las cargas de trabajo del equipo de aplicaciones a consumir inmediatamente las funcionalidades de características con poco esfuerzo.</t>
         </is>
       </c>
       <c r="E765" s="18" t="n"/>
@@ -40270,11 +40278,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J765" s="13" t="n"/>
+      <c r="J765" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="K765" s="19" t="n"/>
       <c r="L765" s="19" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M765" s="20" t="n"/>
@@ -40296,12 +40308,12 @@
       </c>
       <c r="C766" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D766" s="18" t="inlineStr">
         <is>
-          <t>Use un área de trabajo de registros de un único monitor para administrar las plataformas de forma centralizada, excepto cuando el control de acceso basado en rol de Azure (Azure RBAC), los requisitos de soberanía de datos o las directivas de retención de datos exijan áreas de trabajo independientes.</t>
+          <t>Use Azure Update Manager como mecanismo de aplicación de revisiones para máquinas virtuales Windows y Linux en Azure.</t>
         </is>
       </c>
       <c r="E766" s="18" t="n"/>
@@ -40323,13 +40335,13 @@
       </c>
       <c r="J766" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="K766" s="19" t="n"/>
       <c r="L766" s="19" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M766" s="20" t="n"/>
@@ -40351,12 +40363,12 @@
       </c>
       <c r="C767" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D767" s="18" t="inlineStr">
         <is>
-          <t>Exporte los registros a Azure Storage si los requisitos de retención de registros superan los doce años. Use el almacenamiento inmutable con una directiva de escritura única y lectura múltiple para que los datos no se puedan borrar ni modificar durante un intervalo especificado por el usuario.</t>
+          <t>Use Azure Update Manager como mecanismo de aplicación de revisiones para máquinas virtuales Windows y Linux fuera de Azure mediante Azure Arc.</t>
         </is>
       </c>
       <c r="E767" s="18" t="n"/>
@@ -40378,13 +40390,13 @@
       </c>
       <c r="J767" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="K767" s="19" t="n"/>
       <c r="L767" s="19" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
         </is>
       </c>
       <c r="M767" s="20" t="n"/>
@@ -40406,12 +40418,12 @@
       </c>
       <c r="C768" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Network Watcher</t>
         </is>
       </c>
       <c r="D768" s="18" t="inlineStr">
         <is>
-          <t>Supervise el desfase de configuración de la máquina virtual (VM) a nivel de sistema operativo mediante Azure Policy. La habilitación de las funcionalidades de auditoría de Azure Automanage Machine Configuration a través de la directiva ayuda a las cargas de trabajo del equipo de aplicaciones a consumir inmediatamente las funcionalidades de características con poco esfuerzo.</t>
+          <t>Utilice Network Watcher para supervisar de forma proactiva los flujos de tráfico</t>
         </is>
       </c>
       <c r="E768" s="18" t="n"/>
@@ -40433,13 +40445,13 @@
       </c>
       <c r="J768" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="K768" s="19" t="n"/>
       <c r="L768" s="19" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M768" s="20" t="n"/>
@@ -40461,12 +40473,12 @@
       </c>
       <c r="C769" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D769" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Update Manager como mecanismo de aplicación de revisiones para máquinas virtuales Windows y Linux en Azure.</t>
+          <t>Use los registros de Azure Monitor para obtener información e informes.</t>
         </is>
       </c>
       <c r="E769" s="18" t="n"/>
@@ -40486,15 +40498,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J769" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
-        </is>
-      </c>
+      <c r="J769" s="13" t="n"/>
       <c r="K769" s="19" t="n"/>
       <c r="L769" s="19" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M769" s="20" t="n"/>
@@ -40516,12 +40524,12 @@
       </c>
       <c r="C770" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D770" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Update Manager como mecanismo de aplicación de revisiones para máquinas virtuales Windows y Linux fuera de Azure mediante Azure Arc.</t>
+          <t>Use alertas de Azure Monitor para la generación de alertas operativas.</t>
         </is>
       </c>
       <c r="E770" s="18" t="n"/>
@@ -40541,15 +40549,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J770" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
-        </is>
-      </c>
+      <c r="J770" s="13" t="n"/>
       <c r="K770" s="19" t="n"/>
       <c r="L770" s="19" t="inlineStr">
         <is>
-          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M770" s="20" t="n"/>
@@ -40571,12 +40575,12 @@
       </c>
       <c r="C771" s="18" t="inlineStr">
         <is>
-          <t>Network Watcher</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D771" s="18" t="inlineStr">
         <is>
-          <t>Utilice Network Watcher para supervisar de forma proactiva los flujos de tráfico</t>
+          <t>Al usar el seguimiento de cambios e inventario a través de cuentas de Azure Automation, asegúrese de que ha seleccionado las regiones admitidas para vincular el área de trabajo de Log Analytics y las cuentas de automatización.</t>
         </is>
       </c>
       <c r="E771" s="18" t="n"/>
@@ -40596,15 +40600,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J771" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
-        </is>
-      </c>
+      <c r="J771" s="13" t="n"/>
       <c r="K771" s="19" t="n"/>
       <c r="L771" s="19" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M771" s="20" t="n"/>
@@ -40621,17 +40621,17 @@
       </c>
       <c r="B772" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C772" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="D772" s="18" t="inlineStr">
         <is>
-          <t>Use los registros de Azure Monitor para obtener información e informes.</t>
+          <t>Al usar Azure Backup, tenga en cuenta los diferentes tipos de copia de seguridad (GRS, ZRS Y LRS), ya que la configuración predeterminada es GRS</t>
         </is>
       </c>
       <c r="E772" s="18" t="n"/>
@@ -40655,7 +40655,7 @@
       <c r="K772" s="19" t="n"/>
       <c r="L772" s="19" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M772" s="20" t="n"/>
@@ -40672,17 +40672,17 @@
       </c>
       <c r="B773" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C773" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D773" s="18" t="inlineStr">
         <is>
-          <t>Use alertas de Azure Monitor para la generación de alertas operativas.</t>
+          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
         </is>
       </c>
       <c r="E773" s="18" t="n"/>
@@ -40706,7 +40706,7 @@
       <c r="K773" s="19" t="n"/>
       <c r="L773" s="19" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M773" s="20" t="n"/>
@@ -40723,20 +40723,24 @@
       </c>
       <c r="B774" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C774" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D774" s="18" t="inlineStr">
         <is>
-          <t>Al usar el seguimiento de cambios e inventario a través de cuentas de Azure Automation, asegúrese de que ha seleccionado las regiones admitidas para vincular el área de trabajo de Log Analytics y las cuentas de automatización.</t>
-        </is>
-      </c>
-      <c r="E774" s="18" t="n"/>
+          <t>Supervise el desfase de la configuración de seguridad de la máquina virtual a través de Azure Policy.</t>
+        </is>
+      </c>
+      <c r="E774" s="18" t="inlineStr">
+        <is>
+          <t>Las características de configuración de invitado de Azure Policy pueden auditar y corregir la configuración de la máquina (por ejemplo, el sistema operativo, la aplicación, el entorno) para asegurarse de que los recursos se alinean con las configuraciones esperadas, y Update Management puede aplicar la administración de revisiones para las máquinas virtuales.</t>
+        </is>
+      </c>
       <c r="F774" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -40757,7 +40761,7 @@
       <c r="K774" s="19" t="n"/>
       <c r="L774" s="19" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M774" s="20" t="n"/>
@@ -40774,7 +40778,7 @@
       </c>
       <c r="B775" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C775" s="18" t="inlineStr">
@@ -40784,7 +40788,7 @@
       </c>
       <c r="D775" s="18" t="inlineStr">
         <is>
-          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
+          <t>Use Azure Site Recovery para escenarios de recuperación ante desastres de Azure a Azure Virtual Machines. Esto le permite replicar cargas de trabajo en todas las regiones.</t>
         </is>
       </c>
       <c r="E775" s="18" t="n"/>
@@ -40808,7 +40812,7 @@
       <c r="K775" s="19" t="n"/>
       <c r="L775" s="19" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M775" s="20" t="n"/>
@@ -40825,24 +40829,20 @@
       </c>
       <c r="B776" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C776" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="D776" s="18" t="inlineStr">
         <is>
-          <t>Supervise el desfase de la configuración de seguridad de la máquina virtual a través de Azure Policy.</t>
-        </is>
-      </c>
-      <c r="E776" s="18" t="inlineStr">
-        <is>
-          <t>Las características de configuración de invitado de Azure Policy pueden auditar y corregir la configuración de la máquina (por ejemplo, el sistema operativo, la aplicación, el entorno) para asegurarse de que los recursos se alinean con las configuraciones esperadas, y Update Management puede aplicar la administración de revisiones para las máquinas virtuales.</t>
-        </is>
-      </c>
+          <t>Use funcionalidades de copia de seguridad nativas de Azure o una solución de copia de seguridad de terceros compatible con Azure.</t>
+        </is>
+      </c>
+      <c r="E776" s="18" t="n"/>
       <c r="F776" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -40863,7 +40863,7 @@
       <c r="K776" s="19" t="n"/>
       <c r="L776" s="19" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M776" s="20" t="n"/>
@@ -40880,7 +40880,7 @@
       </c>
       <c r="B777" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C777" s="18" t="inlineStr">
@@ -40890,13 +40890,13 @@
       </c>
       <c r="D777" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery para escenarios de recuperación ante desastres de Azure a Azure Virtual Machines. Esto le permite replicar cargas de trabajo en todas las regiones.</t>
+          <t>Aproveche las zonas de disponibilidad para las máquinas virtuales en las regiones en las que se admiten.</t>
         </is>
       </c>
       <c r="E777" s="18" t="n"/>
       <c r="F777" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G777" t="inlineStr">
@@ -40914,7 +40914,7 @@
       <c r="K777" s="19" t="n"/>
       <c r="L777" s="19" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M777" s="20" t="n"/>
@@ -40931,23 +40931,23 @@
       </c>
       <c r="B778" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C778" s="18" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D778" s="18" t="inlineStr">
         <is>
-          <t>Use funcionalidades de copia de seguridad nativas de Azure o una solución de copia de seguridad de terceros compatible con Azure.</t>
+          <t>Evite ejecutar una carga de trabajo de producción en una sola máquina virtual.</t>
         </is>
       </c>
       <c r="E778" s="18" t="n"/>
       <c r="F778" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G778" t="inlineStr">
@@ -40965,7 +40965,7 @@
       <c r="K778" s="19" t="n"/>
       <c r="L778" s="19" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M778" s="20" t="n"/>
@@ -40992,13 +40992,13 @@
       </c>
       <c r="D779" s="18" t="inlineStr">
         <is>
-          <t>Aproveche las zonas de disponibilidad para las máquinas virtuales en las regiones en las que se admiten.</t>
+          <t>Azure Load Balancer y Application Gateway distribuyen el tráfico de red entrante entre varios recursos.</t>
         </is>
       </c>
       <c r="E779" s="18" t="n"/>
       <c r="F779" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G779" t="inlineStr">
@@ -41016,7 +41016,7 @@
       <c r="K779" s="19" t="n"/>
       <c r="L779" s="19" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M779" s="20" t="n"/>
@@ -41033,17 +41033,17 @@
       </c>
       <c r="B780" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C780" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D780" s="18" t="inlineStr">
         <is>
-          <t>Evite ejecutar una carga de trabajo de producción en una sola máquina virtual.</t>
+          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de los servicios de entrega de aplicaciones, como Azure Front Door y Azure Application Gateway. Revise periódicamente los registros para comprobar si hay ataques y detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="E780" s="18" t="n"/>
@@ -41067,7 +41067,7 @@
       <c r="K780" s="19" t="n"/>
       <c r="L780" s="19" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M780" s="20" t="n"/>
@@ -41084,17 +41084,17 @@
       </c>
       <c r="B781" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C781" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D781" s="18" t="inlineStr">
         <is>
-          <t>Azure Load Balancer y Application Gateway distribuyen el tráfico de red entrante entre varios recursos.</t>
+          <t>Envíe registros de WAF desde los servicios de entrega de aplicaciones, como Azure Front Door y Azure Application Gateway, a Microsoft Sentinel. Detecte ataques e integre la telemetría de WAF en su entorno general de Azure.</t>
         </is>
       </c>
       <c r="E781" s="18" t="n"/>
@@ -41118,7 +41118,7 @@
       <c r="K781" s="19" t="n"/>
       <c r="L781" s="19" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M781" s="20" t="n"/>

--- a/spreadsheet/macrofree/waf_checklist.es.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.es.xlsx
@@ -31006,7 +31006,7 @@
       </c>
       <c r="D593" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que las implementaciones internas de Azure Load Balancer están configuradas para usar Direct Server Return (DSR). Esta configuración reducirá la latencia cuando se utilicen configuraciones internas del equilibrador de carga para configuraciones de alta disponibilidad en la capa DBMS.</t>
+          <t>Asegúrese de que las implementaciones internas de Azure Load Balancer están configuradas para usar Direct Server Return (DSR). Esta configuración (Habilitación de IP flotante) reducirá la latencia cuando se utilicen configuraciones internas del equilibrador de carga para configuraciones de alta disponibilidad en la capa DBMS.</t>
         </is>
       </c>
       <c r="E593" s="18" t="n"/>

--- a/spreadsheet/macrofree/waf_checklist.es.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.es.xlsx
@@ -281,7 +281,7 @@
     <xf numFmtId="49" fontId="9" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -28028,7 +28028,7 @@
       </c>
       <c r="D531" s="18" t="inlineStr">
         <is>
-          <t>Uso de Azure AD para autenticar usuarios en el Portal de desarrollador</t>
+          <t>Usar el identificador de Microsoft Entra para autenticar a los usuarios en el Portal para desarrolladores</t>
         </is>
       </c>
       <c r="E531" s="18" t="n"/>
@@ -28181,7 +28181,7 @@
       </c>
       <c r="D534" s="18" t="inlineStr">
         <is>
-          <t>Usar valores con nombre para almacenar valores comunes que se pueden usar en políticas</t>
+          <t>Usar valores con nombre para almacenar valores comunes que se pueden usar en directivas</t>
         </is>
       </c>
       <c r="E534" s="18" t="n"/>
@@ -28232,7 +28232,7 @@
       </c>
       <c r="D535" s="18" t="inlineStr">
         <is>
-          <t>Implementación en varias regiones de Azure</t>
+          <t>En el caso de la recuperación ante desastres, aproveche el nivel premium con implementaciones escaladas en dos o más regiones para un acuerdo de nivel de servicio del 99,99 %</t>
         </is>
       </c>
       <c r="E535" s="18" t="n"/>
@@ -28283,7 +28283,7 @@
       </c>
       <c r="D536" s="18" t="inlineStr">
         <is>
-          <t>Implemente al menos dos unidades de escalado distribuidas en dos zonas de disponibilidad por región para obtener la mejor disponibilidad y rendimiento</t>
+          <t>Implemente al menos una unidad en dos o más zonas de disponibilidad para obtener un SLA aumentado del 99,99 %</t>
         </is>
       </c>
       <c r="E536" s="18" t="n"/>
@@ -28375,7 +28375,7 @@
       </c>
       <c r="B538" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C538" s="18" t="inlineStr">
@@ -28385,13 +28385,13 @@
       </c>
       <c r="D538" s="18" t="inlineStr">
         <is>
-          <t>Si necesita iniciar sesión en niveles de alto rendimiento, tenga en cuenta la directiva de Event Hubs</t>
+          <t>Use directivas para agregar una dirección URL de back-end de conmutación por error y el almacenamiento en caché para reducir las llamadas con errores.</t>
         </is>
       </c>
       <c r="E538" s="18" t="n"/>
       <c r="F538" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G538" t="inlineStr">
@@ -28409,7 +28409,7 @@
       <c r="K538" s="19" t="n"/>
       <c r="L538" s="19" t="inlineStr">
         <is>
-          <t>8210699f-8d43-45c2-8f19-57e54134bd8f</t>
+          <t>43e60b94-7bca-43a2-aadf-efb04d63a485</t>
         </is>
       </c>
       <c r="M538" s="20" t="n"/>
@@ -28426,7 +28426,7 @@
       </c>
       <c r="B539" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C539" s="18" t="inlineStr">
@@ -28436,13 +28436,13 @@
       </c>
       <c r="D539" s="18" t="inlineStr">
         <is>
-          <t>Aplicación de directivas de limitación para controlar el número de solicitudes por segundo</t>
+          <t>Si necesita iniciar sesión en niveles de alto rendimiento, tenga en cuenta la directiva de Event Hubs</t>
         </is>
       </c>
       <c r="E539" s="18" t="n"/>
       <c r="F539" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G539" t="inlineStr">
@@ -28456,15 +28456,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J539" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/protect-apis-on-api-management/</t>
-        </is>
-      </c>
+      <c r="J539" s="13" t="n"/>
       <c r="K539" s="19" t="n"/>
       <c r="L539" s="19" t="inlineStr">
         <is>
-          <t>121bfc39-fa7b-4096-b93b-ab56c1bc0bed</t>
+          <t>8210699f-8d43-45c2-8f19-57e54134bd8f</t>
         </is>
       </c>
       <c r="M539" s="20" t="n"/>
@@ -28491,7 +28487,7 @@
       </c>
       <c r="D540" s="18" t="inlineStr">
         <is>
-          <t>Configurar el escalado automático para escalar horizontalmente el número de instancias cuando aumenta la carga</t>
+          <t>Aplicación de directivas de limitación para controlar el número de solicitudes por segundo</t>
         </is>
       </c>
       <c r="E540" s="18" t="n"/>
@@ -28511,11 +28507,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J540" s="13" t="n"/>
+      <c r="J540" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/protect-apis-on-api-management/</t>
+        </is>
+      </c>
       <c r="K540" s="19" t="n"/>
       <c r="L540" s="19" t="inlineStr">
         <is>
-          <t>bb5f356b-3daf-47a2-a9ee-867a8100bbd5</t>
+          <t>121bfc39-fa7b-4096-b93b-ab56c1bc0bed</t>
         </is>
       </c>
       <c r="M540" s="20" t="n"/>
@@ -28542,7 +28542,7 @@
       </c>
       <c r="D541" s="18" t="inlineStr">
         <is>
-          <t>Implemente puertas de enlace autohospedadas en las que Azure no tenga una región cercana a las API de back-end.</t>
+          <t>Configurar el escalado automático para escalar horizontalmente el número de instancias cuando aumenta la carga</t>
         </is>
       </c>
       <c r="E541" s="18" t="n"/>
@@ -28566,7 +28566,7 @@
       <c r="K541" s="19" t="n"/>
       <c r="L541" s="19" t="inlineStr">
         <is>
-          <t>84b94abb-59b6-4b9d-8587-3413669468e8</t>
+          <t>bb5f356b-3daf-47a2-a9ee-867a8100bbd5</t>
         </is>
       </c>
       <c r="M541" s="20" t="n"/>
@@ -28593,7 +28593,7 @@
       </c>
       <c r="D542" s="18" t="inlineStr">
         <is>
-          <t>Uso de Azure Front Door delante de APIM para la implementación en varias regiones</t>
+          <t>Implemente puertas de enlace autohospedadas en las que Azure no tenga una región cercana a las API de back-end.</t>
         </is>
       </c>
       <c r="E542" s="18" t="n"/>
@@ -28617,7 +28617,7 @@
       <c r="K542" s="19" t="n"/>
       <c r="L542" s="19" t="inlineStr">
         <is>
-          <t>7519e385-a88b-4d34-966b-6269d686e890</t>
+          <t>84b94abb-59b6-4b9d-8587-3413669468e8</t>
         </is>
       </c>
       <c r="M542" s="20" t="n"/>
@@ -28634,7 +28634,7 @@
       </c>
       <c r="B543" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C543" s="18" t="inlineStr">
@@ -28644,7 +28644,7 @@
       </c>
       <c r="D543" s="18" t="inlineStr">
         <is>
-          <t>Implementación del servicio dentro de una red virtual (VNet)</t>
+          <t>Use el nivel premium para las cargas de trabajo de producción.</t>
         </is>
       </c>
       <c r="E543" s="18" t="n"/>
@@ -28668,7 +28668,7 @@
       <c r="K543" s="19" t="n"/>
       <c r="L543" s="19" t="inlineStr">
         <is>
-          <t>cd45c90e-7690-4753-930b-bf290c69c074</t>
+          <t>1fe8db45-a017-4888-8c4d-4422583cfae0</t>
         </is>
       </c>
       <c r="M543" s="20" t="n"/>
@@ -28685,7 +28685,7 @@
       </c>
       <c r="B544" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C544" s="18" t="inlineStr">
@@ -28695,7 +28695,7 @@
       </c>
       <c r="D544" s="18" t="inlineStr">
         <is>
-          <t>Implemente grupos de seguridad de red (NSG) en las subredes para restringir o supervisar el tráfico hacia/desde APIM.</t>
+          <t>En el modelo de varias regiones, use directivas para enrutar las solicitudes a los back-ends regionales en función de la disponibilidad o la latencia.</t>
         </is>
       </c>
       <c r="E544" s="18" t="n"/>
@@ -28719,7 +28719,7 @@
       <c r="K544" s="19" t="n"/>
       <c r="L544" s="19" t="inlineStr">
         <is>
-          <t>02661582-b3d1-48d1-9d7b-c6a918a0ca33</t>
+          <t>1b8d68a4-66cd-44d5-ba94-3ee94440e8d6</t>
         </is>
       </c>
       <c r="M544" s="20" t="n"/>
@@ -28736,7 +28736,7 @@
       </c>
       <c r="B545" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C545" s="18" t="inlineStr">
@@ -28746,13 +28746,13 @@
       </c>
       <c r="D545" s="18" t="inlineStr">
         <is>
-          <t>Implemente puntos de conexión privados para filtrar el tráfico entrante cuando APIM no se implemente en una red virtual.</t>
+          <t>Tenga en cuenta los límites de APIM</t>
         </is>
       </c>
       <c r="E545" s="18" t="n"/>
       <c r="F545" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G545" t="inlineStr">
@@ -28770,7 +28770,7 @@
       <c r="K545" s="19" t="n"/>
       <c r="L545" s="19" t="inlineStr">
         <is>
-          <t>67437a28-2721-4a2c-becd-caa54c8237a5</t>
+          <t>46f07d33-ef9a-44e8-8f98-67c097c5d8cd</t>
         </is>
       </c>
       <c r="M545" s="20" t="n"/>
@@ -28787,7 +28787,7 @@
       </c>
       <c r="B546" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C546" s="18" t="inlineStr">
@@ -28797,7 +28797,7 @@
       </c>
       <c r="D546" s="18" t="inlineStr">
         <is>
-          <t>Deshabilitar el acceso a la red pública</t>
+          <t>Asegúrese de que las implementaciones de puerta de enlace autohospedadas sean resistentes.</t>
         </is>
       </c>
       <c r="E546" s="18" t="n"/>
@@ -28821,7 +28821,7 @@
       <c r="K546" s="19" t="n"/>
       <c r="L546" s="19" t="inlineStr">
         <is>
-          <t>d698adbd-3288-44cb-b10a-9b572da395ae</t>
+          <t>10f58602-f0f9-4d77-972a-956f6e0f2600</t>
         </is>
       </c>
       <c r="M546" s="20" t="n"/>
@@ -28838,7 +28838,7 @@
       </c>
       <c r="B547" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C547" s="18" t="inlineStr">
@@ -28848,7 +28848,7 @@
       </c>
       <c r="D547" s="18" t="inlineStr">
         <is>
-          <t>Simplifique la administración con scripts de automatización de PowerShell</t>
+          <t>Uso de Azure Front Door delante de APIM para la implementación en varias regiones</t>
         </is>
       </c>
       <c r="E547" s="18" t="n"/>
@@ -28872,7 +28872,7 @@
       <c r="K547" s="19" t="n"/>
       <c r="L547" s="19" t="inlineStr">
         <is>
-          <t>0674d750-0c6f-4ac0-8717-ceec04d0bdbd</t>
+          <t>7519e385-a88b-4d34-966b-6269d686e890</t>
         </is>
       </c>
       <c r="M547" s="20" t="n"/>
@@ -28889,7 +28889,7 @@
       </c>
       <c r="B548" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C548" s="18" t="inlineStr">
@@ -28899,7 +28899,7 @@
       </c>
       <c r="D548" s="18" t="inlineStr">
         <is>
-          <t>Revise las prácticas recomendadas de DevOps desde el acelerador de zonas de aterrizaje de API de Cloud Adaption Framework</t>
+          <t>Implementación del servicio dentro de una red virtual (VNet)</t>
         </is>
       </c>
       <c r="E548" s="18" t="n"/>
@@ -28923,7 +28923,7 @@
       <c r="K548" s="19" t="n"/>
       <c r="L548" s="19" t="inlineStr">
         <is>
-          <t>c385bfcd-49fd-4786-81ba-cedbb4c57345</t>
+          <t>cd45c90e-7690-4753-930b-bf290c69c074</t>
         </is>
       </c>
       <c r="M548" s="20" t="n"/>
@@ -28940,7 +28940,7 @@
       </c>
       <c r="B549" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C549" s="18" t="inlineStr">
@@ -28950,7 +28950,7 @@
       </c>
       <c r="D549" s="18" t="inlineStr">
         <is>
-          <t>Promover el uso de la extensión APIM de Visual Studio Code para un desarrollo de API más rápido</t>
+          <t>Implemente grupos de seguridad de red (NSG) en las subredes para restringir o supervisar el tráfico hacia/desde APIM.</t>
         </is>
       </c>
       <c r="E549" s="18" t="n"/>
@@ -28974,7 +28974,7 @@
       <c r="K549" s="19" t="n"/>
       <c r="L549" s="19" t="inlineStr">
         <is>
-          <t>6c3a27c0-197f-426c-9ffa-86fed51d9ab6</t>
+          <t>02661582-b3d1-48d1-9d7b-c6a918a0ca33</t>
         </is>
       </c>
       <c r="M549" s="20" t="n"/>
@@ -28991,7 +28991,7 @@
       </c>
       <c r="B550" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C550" s="18" t="inlineStr">
@@ -29001,7 +29001,7 @@
       </c>
       <c r="D550" s="18" t="inlineStr">
         <is>
-          <t>Implemente DevOps y CI/CD en su flujo de trabajo</t>
+          <t>Implemente puntos de conexión privados para filtrar el tráfico entrante cuando APIM no se implemente en una red virtual.</t>
         </is>
       </c>
       <c r="E550" s="18" t="n"/>
@@ -29025,7 +29025,7 @@
       <c r="K550" s="19" t="n"/>
       <c r="L550" s="19" t="inlineStr">
         <is>
-          <t>354f1c03-8112-4965-85ad-c0074bddf231</t>
+          <t>67437a28-2721-4a2c-becd-caa54c8237a5</t>
         </is>
       </c>
       <c r="M550" s="20" t="n"/>
@@ -29052,13 +29052,13 @@
       </c>
       <c r="D551" s="18" t="inlineStr">
         <is>
-          <t>API seguras mediante la autenticación de certificados de cliente</t>
+          <t>Deshabilitar el acceso a la red pública</t>
         </is>
       </c>
       <c r="E551" s="18" t="n"/>
       <c r="F551" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G551" t="inlineStr">
@@ -29076,7 +29076,7 @@
       <c r="K551" s="19" t="n"/>
       <c r="L551" s="19" t="inlineStr">
         <is>
-          <t>b6439493-426a-45f3-9697-cf65baee208d</t>
+          <t>d698adbd-3288-44cb-b10a-9b572da395ae</t>
         </is>
       </c>
       <c r="M551" s="20" t="n"/>
@@ -29093,7 +29093,7 @@
       </c>
       <c r="B552" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C552" s="18" t="inlineStr">
@@ -29103,7 +29103,7 @@
       </c>
       <c r="D552" s="18" t="inlineStr">
         <is>
-          <t>Servicios de back-end seguros mediante la autenticación de certificados de cliente</t>
+          <t>Simplifique la administración con scripts de automatización de PowerShell</t>
         </is>
       </c>
       <c r="E552" s="18" t="n"/>
@@ -29127,7 +29127,7 @@
       <c r="K552" s="19" t="n"/>
       <c r="L552" s="19" t="inlineStr">
         <is>
-          <t>2a67d143-1033-4c0a-8732-680896478f08</t>
+          <t>0674d750-0c6f-4ac0-8717-ceec04d0bdbd</t>
         </is>
       </c>
       <c r="M552" s="20" t="n"/>
@@ -29144,7 +29144,7 @@
       </c>
       <c r="B553" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C553" s="18" t="inlineStr">
@@ -29154,7 +29154,7 @@
       </c>
       <c r="D553" s="18" t="inlineStr">
         <is>
-          <t>Revise el artículo "Recomendaciones para mitigar las 10 principales amenazas de seguridad de la API de OWASP" y compruebe qué es aplicable a sus API</t>
+          <t>Configure APIM a través de la infraestructura como código. Revise las prácticas recomendadas de DevOps desde el acelerador de zonas de aterrizaje de API de Cloud Adaption Framework</t>
         </is>
       </c>
       <c r="E553" s="18" t="n"/>
@@ -29178,7 +29178,7 @@
       <c r="K553" s="19" t="n"/>
       <c r="L553" s="19" t="inlineStr">
         <is>
-          <t>074435f5-4a46-41ac-b521-d6114cb5d845</t>
+          <t>c385bfcd-49fd-4786-81ba-cedbb4c57345</t>
         </is>
       </c>
       <c r="M553" s="20" t="n"/>
@@ -29195,7 +29195,7 @@
       </c>
       <c r="B554" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C554" s="18" t="inlineStr">
@@ -29205,7 +29205,7 @@
       </c>
       <c r="D554" s="18" t="inlineStr">
         <is>
-          <t>Utilice la función Autorizaciones para simplificar la administración del token de OAuth 2.0 para las API de back-end</t>
+          <t>Promover el uso de la extensión APIM de Visual Studio Code para un desarrollo de API más rápido</t>
         </is>
       </c>
       <c r="E554" s="18" t="n"/>
@@ -29229,7 +29229,7 @@
       <c r="K554" s="19" t="n"/>
       <c r="L554" s="19" t="inlineStr">
         <is>
-          <t>5507c4b8-a7f8-41d6-9661-418c987100c9</t>
+          <t>6c3a27c0-197f-426c-9ffa-86fed51d9ab6</t>
         </is>
       </c>
       <c r="M554" s="20" t="n"/>
@@ -29246,7 +29246,7 @@
       </c>
       <c r="B555" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C555" s="18" t="inlineStr">
@@ -29256,13 +29256,13 @@
       </c>
       <c r="D555" s="18" t="inlineStr">
         <is>
-          <t>Utilice la versión más reciente de TLS al cifrar la información en tránsito. Deshabilite los protocolos y cifrados obsoletos e innecesarios cuando sea posible.</t>
+          <t>Implemente DevOps y CI/CD en su flujo de trabajo</t>
         </is>
       </c>
       <c r="E555" s="18" t="n"/>
       <c r="F555" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G555" t="inlineStr">
@@ -29280,7 +29280,7 @@
       <c r="K555" s="19" t="n"/>
       <c r="L555" s="19" t="inlineStr">
         <is>
-          <t>2deee033-b906-4bc2-9f26-c8d3699fe091</t>
+          <t>354f1c03-8112-4965-85ad-c0074bddf231</t>
         </is>
       </c>
       <c r="M555" s="20" t="n"/>
@@ -29307,13 +29307,13 @@
       </c>
       <c r="D556" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que los secretos (valores con nombre) se almacenan en Azure Key Vault para que se pueda acceder a ellos y actualizarlos de forma segura</t>
+          <t>API seguras mediante la autenticación de certificados de cliente</t>
         </is>
       </c>
       <c r="E556" s="18" t="n"/>
       <c r="F556" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G556" t="inlineStr">
@@ -29331,7 +29331,7 @@
       <c r="K556" s="19" t="n"/>
       <c r="L556" s="19" t="inlineStr">
         <is>
-          <t>f8af3d94-1d2b-4070-846f-849197524258</t>
+          <t>b6439493-426a-45f3-9697-cf65baee208d</t>
         </is>
       </c>
       <c r="M556" s="20" t="n"/>
@@ -29358,7 +29358,7 @@
       </c>
       <c r="D557" s="18" t="inlineStr">
         <is>
-          <t>Uso de identidades administradas para autenticarse en otros recursos de Azure siempre que sea posible</t>
+          <t>Servicios de back-end seguros mediante la autenticación de certificados de cliente</t>
         </is>
       </c>
       <c r="E557" s="18" t="n"/>
@@ -29382,7 +29382,7 @@
       <c r="K557" s="19" t="n"/>
       <c r="L557" s="19" t="inlineStr">
         <is>
-          <t>791abd8b-7706-4e31-9569-afefde724be3</t>
+          <t>2a67d143-1033-4c0a-8732-680896478f08</t>
         </is>
       </c>
       <c r="M557" s="20" t="n"/>
@@ -29409,13 +29409,13 @@
       </c>
       <c r="D558" s="18" t="inlineStr">
         <is>
-          <t>Uso del firewall de aplicaciones web (WAF) mediante la implementación de Application Gateway delante de APIM</t>
+          <t>Revise el artículo "Recomendaciones para mitigar las 10 principales amenazas de seguridad de la API de OWASP" y compruebe qué se aplica a sus API</t>
         </is>
       </c>
       <c r="E558" s="18" t="n"/>
       <c r="F558" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G558" t="inlineStr">
@@ -29433,7 +29433,7 @@
       <c r="K558" s="19" t="n"/>
       <c r="L558" s="19" t="inlineStr">
         <is>
-          <t>220c4ca6-6688-476b-b2b5-425a78e6fb87</t>
+          <t>074435f5-4a46-41ac-b521-d6114cb5d845</t>
         </is>
       </c>
       <c r="M558" s="20" t="n"/>
@@ -29445,22 +29445,22 @@
     <row r="559">
       <c r="A559" s="18" t="inlineStr">
         <is>
-          <t>Azure Bot Service</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B559" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C559" s="18" t="inlineStr">
         <is>
-          <t>Bot service</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D559" s="18" t="inlineStr">
         <is>
-          <t>Siga las recomendaciones de soporte técnico de confiabilidad en Azure Bot Service</t>
+          <t>Utilice la función Autorizaciones para simplificar la administración del token de OAuth 2.0 para las API de back-end</t>
         </is>
       </c>
       <c r="E559" s="18" t="n"/>
@@ -29484,7 +29484,7 @@
       <c r="K559" s="19" t="n"/>
       <c r="L559" s="19" t="inlineStr">
         <is>
-          <t>6ad48408-ee72-4734-a476-ba28fdcf590c</t>
+          <t>5507c4b8-a7f8-41d6-9661-418c987100c9</t>
         </is>
       </c>
       <c r="M559" s="20" t="n"/>
@@ -29496,28 +29496,28 @@
     <row r="560">
       <c r="A560" s="18" t="inlineStr">
         <is>
-          <t>Azure Bot Service</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B560" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C560" s="18" t="inlineStr">
         <is>
-          <t>Bot service</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D560" s="18" t="inlineStr">
         <is>
-          <t>Implementación de bots con residencia de datos local y cumplimiento regional</t>
+          <t>Utilice la versión más reciente de TLS al cifrar la información en tránsito. Deshabilite los protocolos y cifrados obsoletos e innecesarios cuando sea posible.</t>
         </is>
       </c>
       <c r="E560" s="18" t="n"/>
       <c r="F560" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G560" t="inlineStr">
@@ -29535,7 +29535,7 @@
       <c r="K560" s="19" t="n"/>
       <c r="L560" s="19" t="inlineStr">
         <is>
-          <t>e65de8e1-3f9c-4cbd-9682-66abca264f9a</t>
+          <t>2deee033-b906-4bc2-9f26-c8d3699fe091</t>
         </is>
       </c>
       <c r="M560" s="20" t="n"/>
@@ -29547,28 +29547,28 @@
     <row r="561">
       <c r="A561" s="18" t="inlineStr">
         <is>
-          <t>Azure Bot Service</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B561" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C561" s="18" t="inlineStr">
         <is>
-          <t>Bot service</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D561" s="18" t="inlineStr">
         <is>
-          <t>Azure Bot Service se ejecuta en modo activo-activo para los servicios globales y regionales. Cuando se produce una interrupción, no es necesario detectar errores ni administrar el servicio. Azure Bot Service realiza automáticamente la conmutación por error y la recuperación automáticas en una arquitectura geográfica de varias regiones. En el caso del servicio regional de bots de la UE, Azure Bot Service proporciona dos regiones completas dentro de Europa con replicación activa/activa para garantizar la redundancia. En el caso del servicio de bot global, todas las regiones o zonas geográficas disponibles se pueden servir como superficie global.</t>
+          <t>Asegúrese de que los secretos (valores con nombre) se almacenan en Azure Key Vault para que se pueda acceder a ellos y actualizarlos de forma segura</t>
         </is>
       </c>
       <c r="E561" s="18" t="n"/>
       <c r="F561" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G561" t="inlineStr">
@@ -29586,7 +29586,7 @@
       <c r="K561" s="19" t="n"/>
       <c r="L561" s="19" t="inlineStr">
         <is>
-          <t>19bfe9d5-5d04-4c3c-9919-ca1b2d1215ae</t>
+          <t>f8af3d94-1d2b-4070-846f-849197524258</t>
         </is>
       </c>
       <c r="M561" s="20" t="n"/>
@@ -29598,28 +29598,28 @@
     <row r="562">
       <c r="A562" s="18" t="inlineStr">
         <is>
-          <t>Device Provisioning Service Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B562" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C562" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub DPS</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D562" s="18" t="inlineStr">
         <is>
-          <t>Seleccione el plan de hospedaje de aplicaciones lógicas adecuado en función de los requisitos empresariales y de SLO</t>
+          <t>Uso de identidades administradas para autenticarse en otros recursos de Azure siempre que sea posible</t>
         </is>
       </c>
       <c r="E562" s="18" t="n"/>
       <c r="F562" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G562" t="inlineStr">
@@ -29637,7 +29637,7 @@
       <c r="K562" s="19" t="n"/>
       <c r="L562" s="19" t="inlineStr">
         <is>
-          <t>cb26b2ba-a9db-45d1-8260-d9c6ec1447d9</t>
+          <t>791abd8b-7706-4e31-9569-afefde724be3</t>
         </is>
       </c>
       <c r="M562" s="20" t="n"/>
@@ -29649,22 +29649,22 @@
     <row r="563">
       <c r="A563" s="18" t="inlineStr">
         <is>
-          <t>Device Provisioning Service Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B563" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C563" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub DPS</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D563" s="18" t="inlineStr">
         <is>
-          <t>Proteja las aplicaciones lógicas de errores de región con redundancia de zona y zonas de disponibilidad</t>
+          <t>Uso del firewall de aplicaciones web (WAF) mediante la implementación de Application Gateway delante de APIM</t>
         </is>
       </c>
       <c r="E563" s="18" t="n"/>
@@ -29688,7 +29688,7 @@
       <c r="K563" s="19" t="n"/>
       <c r="L563" s="19" t="inlineStr">
         <is>
-          <t>f6dd7977-1123-4f39-b488-f91415a8430a</t>
+          <t>220c4ca6-6688-476b-b2b5-425a78e6fb87</t>
         </is>
       </c>
       <c r="M563" s="20" t="n"/>
@@ -29700,7 +29700,7 @@
     <row r="564">
       <c r="A564" s="18" t="inlineStr">
         <is>
-          <t>Device Provisioning Service Review</t>
+          <t>Azure Bot Service</t>
         </is>
       </c>
       <c r="B564" s="18" t="inlineStr">
@@ -29710,18 +29710,18 @@
       </c>
       <c r="C564" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub DPS</t>
+          <t>Bot service</t>
         </is>
       </c>
       <c r="D564" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de una estrategia de recuperación ante desastres entre regiones para cargas de trabajo críticas</t>
+          <t>Siga las recomendaciones de soporte técnico de confiabilidad en Azure Bot Service</t>
         </is>
       </c>
       <c r="E564" s="18" t="n"/>
       <c r="F564" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G564" t="inlineStr">
@@ -29739,7 +29739,7 @@
       <c r="K564" s="19" t="n"/>
       <c r="L564" s="19" t="inlineStr">
         <is>
-          <t>8aed4fbf-0830-4883-899d-222a154af478</t>
+          <t>6ad48408-ee72-4734-a476-ba28fdcf590c</t>
         </is>
       </c>
       <c r="M564" s="20" t="n"/>
@@ -29751,7 +29751,7 @@
     <row r="565">
       <c r="A565" s="18" t="inlineStr">
         <is>
-          <t>Device Provisioning Service Review</t>
+          <t>Azure Bot Service</t>
         </is>
       </c>
       <c r="B565" s="18" t="inlineStr">
@@ -29761,18 +29761,18 @@
       </c>
       <c r="C565" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub DPS</t>
+          <t>Bot service</t>
         </is>
       </c>
       <c r="D565" s="18" t="inlineStr">
         <is>
-          <t>Si se implementa en un entorno aislado, use o migre a App Service Environment (ASE) v3</t>
+          <t>Implementación de bots con residencia de datos local y cumplimiento regional</t>
         </is>
       </c>
       <c r="E565" s="18" t="n"/>
       <c r="F565" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G565" t="inlineStr">
@@ -29790,7 +29790,7 @@
       <c r="K565" s="19" t="n"/>
       <c r="L565" s="19" t="inlineStr">
         <is>
-          <t>da0f033e-d180-4f36-9aa4-c468dba14203</t>
+          <t>e65de8e1-3f9c-4cbd-9682-66abca264f9a</t>
         </is>
       </c>
       <c r="M565" s="20" t="n"/>
@@ -29802,22 +29802,22 @@
     <row r="566">
       <c r="A566" s="18" t="inlineStr">
         <is>
-          <t>Device Provisioning Service Review</t>
+          <t>Azure Bot Service</t>
         </is>
       </c>
       <c r="B566" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C566" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub DPS</t>
+          <t>Bot service</t>
         </is>
       </c>
       <c r="D566" s="18" t="inlineStr">
         <is>
-          <t>Aproveche Azure DevOps o GitHub para simplificar la CI/CD y proteger el código de la aplicación lógica</t>
+          <t>Azure Bot Service se ejecuta en modo activo-activo para los servicios globales y regionales. Cuando se produce una interrupción, no es necesario detectar errores ni administrar el servicio. Azure Bot Service realiza automáticamente la conmutación por error y la recuperación automáticas en una arquitectura geográfica de varias regiones. En el caso del servicio regional de bots de la UE, Azure Bot Service proporciona dos regiones completas dentro de Europa con replicación activa/activa para garantizar la redundancia. En el caso del servicio de bot global, todas las regiones o zonas geográficas disponibles se pueden servir como superficie global.</t>
         </is>
       </c>
       <c r="E566" s="18" t="n"/>
@@ -29841,7 +29841,7 @@
       <c r="K566" s="19" t="n"/>
       <c r="L566" s="19" t="inlineStr">
         <is>
-          <t>62711604-c9d1-4b0a-bdb7-5fda54a4f6c1</t>
+          <t>19bfe9d5-5d04-4c3c-9919-ca1b2d1215ae</t>
         </is>
       </c>
       <c r="M566" s="20" t="n"/>
@@ -29853,7 +29853,7 @@
     <row r="567">
       <c r="A567" s="18" t="inlineStr">
         <is>
-          <t>Azure Function Review</t>
+          <t>Device Provisioning Service Review</t>
         </is>
       </c>
       <c r="B567" s="18" t="inlineStr">
@@ -29863,12 +29863,12 @@
       </c>
       <c r="C567" s="18" t="inlineStr">
         <is>
-          <t>Azure Functions</t>
+          <t>IoT Hub DPS</t>
         </is>
       </c>
       <c r="D567" s="18" t="inlineStr">
         <is>
-          <t>Seleccione el plan de hospedaje de funciones adecuado en función de los requisitos de su empresa y SLO</t>
+          <t>Seleccione el plan de hospedaje de aplicaciones lógicas adecuado en función de los requisitos empresariales y de SLO</t>
         </is>
       </c>
       <c r="E567" s="18" t="n"/>
@@ -29892,7 +29892,7 @@
       <c r="K567" s="19" t="n"/>
       <c r="L567" s="19" t="inlineStr">
         <is>
-          <t>4238f409-2ea0-43be-a06b-2a993c98aa7b</t>
+          <t>cb26b2ba-a9db-45d1-8260-d9c6ec1447d9</t>
         </is>
       </c>
       <c r="M567" s="20" t="n"/>
@@ -29904,7 +29904,7 @@
     <row r="568">
       <c r="A568" s="18" t="inlineStr">
         <is>
-          <t>Azure Function Review</t>
+          <t>Device Provisioning Service Review</t>
         </is>
       </c>
       <c r="B568" s="18" t="inlineStr">
@@ -29914,12 +29914,12 @@
       </c>
       <c r="C568" s="18" t="inlineStr">
         <is>
-          <t>Azure Functions</t>
+          <t>IoT Hub DPS</t>
         </is>
       </c>
       <c r="D568" s="18" t="inlineStr">
         <is>
-          <t>Aproveche las zonas de disponibilidad cuando corresponda regionalmente (no disponible para el nivel de consumo)</t>
+          <t>Proteja las aplicaciones lógicas de errores de región con redundancia de zona y zonas de disponibilidad</t>
         </is>
       </c>
       <c r="E568" s="18" t="n"/>
@@ -29943,7 +29943,7 @@
       <c r="K568" s="19" t="n"/>
       <c r="L568" s="19" t="inlineStr">
         <is>
-          <t>a9808100-d640-4f77-ac56-1ec0600f6752</t>
+          <t>f6dd7977-1123-4f39-b488-f91415a8430a</t>
         </is>
       </c>
       <c r="M568" s="20" t="n"/>
@@ -29955,7 +29955,7 @@
     <row r="569">
       <c r="A569" s="18" t="inlineStr">
         <is>
-          <t>Azure Function Review</t>
+          <t>Device Provisioning Service Review</t>
         </is>
       </c>
       <c r="B569" s="18" t="inlineStr">
@@ -29965,7 +29965,7 @@
       </c>
       <c r="C569" s="18" t="inlineStr">
         <is>
-          <t>Azure Functions</t>
+          <t>IoT Hub DPS</t>
         </is>
       </c>
       <c r="D569" s="18" t="inlineStr">
@@ -29976,7 +29976,7 @@
       <c r="E569" s="18" t="n"/>
       <c r="F569" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G569" t="inlineStr">
@@ -29994,7 +29994,7 @@
       <c r="K569" s="19" t="n"/>
       <c r="L569" s="19" t="inlineStr">
         <is>
-          <t>5969d03e-eacf-4042-b127-73c55e3575fa</t>
+          <t>8aed4fbf-0830-4883-899d-222a154af478</t>
         </is>
       </c>
       <c r="M569" s="20" t="n"/>
@@ -30006,7 +30006,7 @@
     <row r="570">
       <c r="A570" s="18" t="inlineStr">
         <is>
-          <t>Azure Function Review</t>
+          <t>Device Provisioning Service Review</t>
         </is>
       </c>
       <c r="B570" s="18" t="inlineStr">
@@ -30016,7 +30016,7 @@
       </c>
       <c r="C570" s="18" t="inlineStr">
         <is>
-          <t>Azure Functions</t>
+          <t>IoT Hub DPS</t>
         </is>
       </c>
       <c r="D570" s="18" t="inlineStr">
@@ -30045,7 +30045,7 @@
       <c r="K570" s="19" t="n"/>
       <c r="L570" s="19" t="inlineStr">
         <is>
-          <t>47a0aae0-d8a0-43b1-9791-e934dee3754c</t>
+          <t>da0f033e-d180-4f36-9aa4-c468dba14203</t>
         </is>
       </c>
       <c r="M570" s="20" t="n"/>
@@ -30057,28 +30057,28 @@
     <row r="571">
       <c r="A571" s="18" t="inlineStr">
         <is>
-          <t>Azure Function Review</t>
+          <t>Device Provisioning Service Review</t>
         </is>
       </c>
       <c r="B571" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C571" s="18" t="inlineStr">
         <is>
-          <t>Azure Functions</t>
+          <t>IoT Hub DPS</t>
         </is>
       </c>
       <c r="D571" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que "Siempre activado" esté habilitado para todas las aplicaciones de funciones que se ejecutan en el plan de App Service</t>
+          <t>Aproveche Azure DevOps o GitHub para simplificar la CI/CD y proteger el código de la aplicación lógica</t>
         </is>
       </c>
       <c r="E571" s="18" t="n"/>
       <c r="F571" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G571" t="inlineStr">
@@ -30096,7 +30096,7 @@
       <c r="K571" s="19" t="n"/>
       <c r="L571" s="19" t="inlineStr">
         <is>
-          <t>17232891-f89f-4eaa-90f1-3b34bf798ed5</t>
+          <t>62711604-c9d1-4b0a-bdb7-5fda54a4f6c1</t>
         </is>
       </c>
       <c r="M571" s="20" t="n"/>
@@ -30123,13 +30123,13 @@
       </c>
       <c r="D572" s="18" t="inlineStr">
         <is>
-          <t>Empareje una aplicación de funciones con su propia cuenta de almacenamiento. Intente no volver a usar las cuentas de almacenamiento para las aplicaciones de funciones a menos que estén estrechamente acopladas</t>
+          <t>Seleccione el plan de hospedaje de funciones adecuado en función de los requisitos de su empresa y SLO</t>
         </is>
       </c>
       <c r="E572" s="18" t="n"/>
       <c r="F572" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G572" t="inlineStr">
@@ -30147,7 +30147,7 @@
       <c r="K572" s="19" t="n"/>
       <c r="L572" s="19" t="inlineStr">
         <is>
-          <t>40a325c2-7c0e-49e6-86d8-c273b4dc21ba</t>
+          <t>4238f409-2ea0-43be-a06b-2a993c98aa7b</t>
         </is>
       </c>
       <c r="M572" s="20" t="n"/>
@@ -30164,7 +30164,7 @@
       </c>
       <c r="B573" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C573" s="18" t="inlineStr">
@@ -30174,13 +30174,13 @@
       </c>
       <c r="D573" s="18" t="inlineStr">
         <is>
-          <t>Aproveche Azure DevOps o GitHub para optimizar la CI/CD y proteger el código de la aplicación de funciones</t>
+          <t>Aproveche las zonas de disponibilidad cuando corresponda regionalmente (no disponible para el nivel de consumo)</t>
         </is>
       </c>
       <c r="E573" s="18" t="n"/>
       <c r="F573" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G573" t="inlineStr">
@@ -30198,7 +30198,7 @@
       <c r="K573" s="19" t="n"/>
       <c r="L573" s="19" t="inlineStr">
         <is>
-          <t>bb42650c-257d-4cb0-822a-131138b8e6f0</t>
+          <t>a9808100-d640-4f77-ac56-1ec0600f6752</t>
         </is>
       </c>
       <c r="M573" s="20" t="n"/>
@@ -30210,7 +30210,7 @@
     <row r="574">
       <c r="A574" s="18" t="inlineStr">
         <is>
-          <t>Identity Review Checklist</t>
+          <t>Azure Function Review</t>
         </is>
       </c>
       <c r="B574" s="18" t="inlineStr">
@@ -30220,12 +30220,12 @@
       </c>
       <c r="C574" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Azure Functions</t>
         </is>
       </c>
       <c r="D574" s="18" t="inlineStr">
         <is>
-          <t>Use el token revocable de larga duración, almacene en caché el token y adquiera el token de forma silenciosa mediante la biblioteca de identidades de Microsoft</t>
+          <t>Considere la posibilidad de una estrategia de recuperación ante desastres entre regiones para cargas de trabajo críticas</t>
         </is>
       </c>
       <c r="E574" s="18" t="n"/>
@@ -30249,7 +30249,7 @@
       <c r="K574" s="19" t="n"/>
       <c r="L574" s="19" t="inlineStr">
         <is>
-          <t>bb235c70-5e17-496f-bedf-a8a4c8cdec4c</t>
+          <t>5969d03e-eacf-4042-b127-73c55e3575fa</t>
         </is>
       </c>
       <c r="M574" s="20" t="n"/>
@@ -30261,7 +30261,7 @@
     <row r="575">
       <c r="A575" s="18" t="inlineStr">
         <is>
-          <t>Identity Review Checklist</t>
+          <t>Azure Function Review</t>
         </is>
       </c>
       <c r="B575" s="18" t="inlineStr">
@@ -30271,18 +30271,18 @@
       </c>
       <c r="C575" s="18" t="inlineStr">
         <is>
-          <t>AAD B2C</t>
+          <t>Azure Functions</t>
         </is>
       </c>
       <c r="D575" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que los flujos de usuario de inicio de sesión estén respaldados y sean resistentes. Asegúrese de que se ha realizado una copia de seguridad del código que usa para iniciar sesión en los usuarios y se puede recuperar. Interfaces resilientes con procesos externos</t>
+          <t>Si se implementa en un entorno aislado, use o migre a App Service Environment (ASE) v3</t>
         </is>
       </c>
       <c r="E575" s="18" t="n"/>
       <c r="F575" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G575" t="inlineStr">
@@ -30300,7 +30300,7 @@
       <c r="K575" s="19" t="n"/>
       <c r="L575" s="19" t="inlineStr">
         <is>
-          <t>503547c1-447e-4c66-828a-71f0f1ce16dd</t>
+          <t>47a0aae0-d8a0-43b1-9791-e934dee3754c</t>
         </is>
       </c>
       <c r="M575" s="20" t="n"/>
@@ -30312,28 +30312,28 @@
     <row r="576">
       <c r="A576" s="18" t="inlineStr">
         <is>
-          <t>Identity Review Checklist</t>
+          <t>Azure Function Review</t>
         </is>
       </c>
       <c r="B576" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C576" s="18" t="inlineStr">
         <is>
-          <t>AAD B2C</t>
+          <t>Azure Functions</t>
         </is>
       </c>
       <c r="D576" s="18" t="inlineStr">
         <is>
-          <t>Los activos de marca personalizados deben estar alojados en una CDN</t>
+          <t>Asegúrese de que "Siempre activado" esté habilitado para todas las aplicaciones de funciones que se ejecutan en el plan de App Service</t>
         </is>
       </c>
       <c r="E576" s="18" t="n"/>
       <c r="F576" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G576" t="inlineStr">
@@ -30351,7 +30351,7 @@
       <c r="K576" s="19" t="n"/>
       <c r="L576" s="19" t="inlineStr">
         <is>
-          <t>3e3553a4-c873-4964-ab66-2d6c15f51296</t>
+          <t>17232891-f89f-4eaa-90f1-3b34bf798ed5</t>
         </is>
       </c>
       <c r="M576" s="20" t="n"/>
@@ -30363,7 +30363,7 @@
     <row r="577">
       <c r="A577" s="18" t="inlineStr">
         <is>
-          <t>Identity Review Checklist</t>
+          <t>Azure Function Review</t>
         </is>
       </c>
       <c r="B577" s="18" t="inlineStr">
@@ -30373,18 +30373,18 @@
       </c>
       <c r="C577" s="18" t="inlineStr">
         <is>
-          <t>AAD B2C</t>
+          <t>Azure Functions</t>
         </is>
       </c>
       <c r="D577" s="18" t="inlineStr">
         <is>
-          <t>Tener varios proveedores de identidad (es decir, iniciar sesión con sus cuentas de Microsoft, Google, Facebook)</t>
+          <t>Empareje una aplicación de funciones con su propia cuenta de almacenamiento. Intente no volver a usar las cuentas de almacenamiento para las aplicaciones de funciones a menos que estén estrechamente acopladas</t>
         </is>
       </c>
       <c r="E577" s="18" t="n"/>
       <c r="F577" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G577" t="inlineStr">
@@ -30402,7 +30402,7 @@
       <c r="K577" s="19" t="n"/>
       <c r="L577" s="19" t="inlineStr">
         <is>
-          <t>5398e6df-d237-4de1-93b1-6c21d79a9b64</t>
+          <t>40a325c2-7c0e-49e6-86d8-c273b4dc21ba</t>
         </is>
       </c>
       <c r="M577" s="20" t="n"/>
@@ -30414,22 +30414,22 @@
     <row r="578">
       <c r="A578" s="18" t="inlineStr">
         <is>
-          <t>Identity Review Checklist</t>
+          <t>Azure Function Review</t>
         </is>
       </c>
       <c r="B578" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C578" s="18" t="inlineStr">
         <is>
-          <t>Windows AD</t>
+          <t>Azure Functions</t>
         </is>
       </c>
       <c r="D578" s="18" t="inlineStr">
         <is>
-          <t>Siga las reglas de la máquina virtual para la alta disponibilidad en el nivel de máquina virtual (discos premium, dos o más en una región, en diferentes zonas de disponibilidad)</t>
+          <t>Aproveche Azure DevOps o GitHub para optimizar la CI/CD y proteger el código de la aplicación de funciones</t>
         </is>
       </c>
       <c r="E578" s="18" t="n"/>
@@ -30453,7 +30453,7 @@
       <c r="K578" s="19" t="n"/>
       <c r="L578" s="19" t="inlineStr">
         <is>
-          <t>604489a8-f42d-478e-98c0-7a73b22a4a57</t>
+          <t>bb42650c-257d-4cb0-822a-131138b8e6f0</t>
         </is>
       </c>
       <c r="M578" s="20" t="n"/>
@@ -30475,12 +30475,12 @@
       </c>
       <c r="C579" s="18" t="inlineStr">
         <is>
-          <t>Windows AD</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D579" s="18" t="inlineStr">
         <is>
-          <t>¡No repliques! La replicación puede crear problemas con la sincronización de directorios</t>
+          <t>Use el token revocable de larga duración, almacene en caché el token y adquiera el token de forma silenciosa mediante la biblioteca de identidades de Microsoft</t>
         </is>
       </c>
       <c r="E579" s="18" t="n"/>
@@ -30504,7 +30504,7 @@
       <c r="K579" s="19" t="n"/>
       <c r="L579" s="19" t="inlineStr">
         <is>
-          <t>e7a8dd4a-30e3-47c3-b297-11b2362ceee0</t>
+          <t>bb235c70-5e17-496f-bedf-a8a4c8cdec4c</t>
         </is>
       </c>
       <c r="M579" s="20" t="n"/>
@@ -30526,12 +30526,12 @@
       </c>
       <c r="C580" s="18" t="inlineStr">
         <is>
-          <t>Windows AD</t>
+          <t>AAD B2C</t>
         </is>
       </c>
       <c r="D580" s="18" t="inlineStr">
         <is>
-          <t>Tener activo-activo para varias regiones</t>
+          <t>Asegúrese de que los flujos de usuario de inicio de sesión estén respaldados y sean resistentes. Asegúrese de que se ha realizado una copia de seguridad del código que usa para iniciar sesión en los usuarios y se puede recuperar. Interfaces resilientes con procesos externos</t>
         </is>
       </c>
       <c r="E580" s="18" t="n"/>
@@ -30555,7 +30555,7 @@
       <c r="K580" s="19" t="n"/>
       <c r="L580" s="19" t="inlineStr">
         <is>
-          <t>79b598de-fc59-472c-b4cd-21b078036f5e</t>
+          <t>503547c1-447e-4c66-828a-71f0f1ce16dd</t>
         </is>
       </c>
       <c r="M580" s="20" t="n"/>
@@ -30572,17 +30572,17 @@
       </c>
       <c r="B581" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C581" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>AAD B2C</t>
         </is>
       </c>
       <c r="D581" s="18" t="inlineStr">
         <is>
-          <t>Adición de stamps de servicio de dominio de Azure AD a regiones y ubicaciones adicionales</t>
+          <t>Los activos de marca personalizados deben estar alojados en una CDN</t>
         </is>
       </c>
       <c r="E581" s="18" t="n"/>
@@ -30606,7 +30606,7 @@
       <c r="K581" s="19" t="n"/>
       <c r="L581" s="19" t="inlineStr">
         <is>
-          <t>6b4bfd3d-5035-447c-8447-ec66128a71f0</t>
+          <t>3e3553a4-c873-4964-ab66-2d6c15f51296</t>
         </is>
       </c>
       <c r="M581" s="20" t="n"/>
@@ -30628,18 +30628,18 @@
       </c>
       <c r="C582" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>AAD B2C</t>
         </is>
       </c>
       <c r="D582" s="18" t="inlineStr">
         <is>
-          <t>Uso de conjuntos de réplicas para recuperación ante desastres</t>
+          <t>Tener varios proveedores de identidad (es decir, iniciar sesión con sus cuentas de Microsoft, Google, Facebook)</t>
         </is>
       </c>
       <c r="E582" s="18" t="n"/>
       <c r="F582" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G582" t="inlineStr">
@@ -30657,7 +30657,7 @@
       <c r="K582" s="19" t="n"/>
       <c r="L582" s="19" t="inlineStr">
         <is>
-          <t>f1ce16dd-3f1d-45e8-92e4-2e3611cc58b4</t>
+          <t>5398e6df-d237-4de1-93b1-6c21d79a9b64</t>
         </is>
       </c>
       <c r="M582" s="20" t="n"/>
@@ -30669,7 +30669,7 @@
     <row r="583">
       <c r="A583" s="18" t="inlineStr">
         <is>
-          <t>MySQL Review Checklist</t>
+          <t>Identity Review Checklist</t>
         </is>
       </c>
       <c r="B583" s="18" t="inlineStr">
@@ -30679,12 +30679,12 @@
       </c>
       <c r="C583" s="18" t="inlineStr">
         <is>
-          <t>Azure MySQL</t>
+          <t>Windows AD</t>
         </is>
       </c>
       <c r="D583" s="18" t="inlineStr">
         <is>
-          <t>Aproveche el servidor flexible</t>
+          <t>Siga las reglas de la máquina virtual para la alta disponibilidad en el nivel de máquina virtual (discos premium, dos o más en una región, en diferentes zonas de disponibilidad)</t>
         </is>
       </c>
       <c r="E583" s="18" t="n"/>
@@ -30708,7 +30708,7 @@
       <c r="K583" s="19" t="n"/>
       <c r="L583" s="19" t="inlineStr">
         <is>
-          <t>388c3e25-e800-4ad2-9df3-f3d6ae1050b7</t>
+          <t>604489a8-f42d-478e-98c0-7a73b22a4a57</t>
         </is>
       </c>
       <c r="M583" s="20" t="n"/>
@@ -30720,7 +30720,7 @@
     <row r="584">
       <c r="A584" s="18" t="inlineStr">
         <is>
-          <t>MySQL Review Checklist</t>
+          <t>Identity Review Checklist</t>
         </is>
       </c>
       <c r="B584" s="18" t="inlineStr">
@@ -30730,18 +30730,18 @@
       </c>
       <c r="C584" s="18" t="inlineStr">
         <is>
-          <t>Azure MySQL</t>
+          <t>Windows AD</t>
         </is>
       </c>
       <c r="D584" s="18" t="inlineStr">
         <is>
-          <t>Aproveche las zonas de disponibilidad cuando corresponda regionalmente</t>
+          <t>¡No repliques! La replicación puede crear problemas con la sincronización de directorios</t>
         </is>
       </c>
       <c r="E584" s="18" t="n"/>
       <c r="F584" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G584" t="inlineStr">
@@ -30759,7 +30759,7 @@
       <c r="K584" s="19" t="n"/>
       <c r="L584" s="19" t="inlineStr">
         <is>
-          <t>de3aad1e-8c38-4ec9-9666-7313c005674b</t>
+          <t>e7a8dd4a-30e3-47c3-b297-11b2362ceee0</t>
         </is>
       </c>
       <c r="M584" s="20" t="n"/>
@@ -30771,7 +30771,7 @@
     <row r="585">
       <c r="A585" s="18" t="inlineStr">
         <is>
-          <t>MySQL Review Checklist</t>
+          <t>Identity Review Checklist</t>
         </is>
       </c>
       <c r="B585" s="18" t="inlineStr">
@@ -30781,12 +30781,12 @@
       </c>
       <c r="C585" s="18" t="inlineStr">
         <is>
-          <t>Azure MySQL</t>
+          <t>Windows AD</t>
         </is>
       </c>
       <c r="D585" s="18" t="inlineStr">
         <is>
-          <t>Aproveche la replicación de entrada de datos para escenarios de recuperación ante desastres entre regiones</t>
+          <t>Tener activo-activo para varias regiones</t>
         </is>
       </c>
       <c r="E585" s="18" t="n"/>
@@ -30810,7 +30810,7 @@
       <c r="K585" s="19" t="n"/>
       <c r="L585" s="19" t="inlineStr">
         <is>
-          <t>1e944a45-9c37-43e7-bd61-623b365a917e</t>
+          <t>79b598de-fc59-472c-b4cd-21b078036f5e</t>
         </is>
       </c>
       <c r="M585" s="20" t="n"/>
@@ -30822,7 +30822,7 @@
     <row r="586">
       <c r="A586" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory Review Checklist</t>
+          <t>Identity Review Checklist</t>
         </is>
       </c>
       <c r="B586" s="18" t="inlineStr">
@@ -30832,12 +30832,12 @@
       </c>
       <c r="C586" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D586" s="18" t="inlineStr">
         <is>
-          <t>Aproveche el cuaderno de estrategias de resistencia de FTA para Azure Data Factory</t>
+          <t>Adición de stamps de servicio de dominio de Azure AD a regiones y ubicaciones adicionales</t>
         </is>
       </c>
       <c r="E586" s="18" t="n"/>
@@ -30861,7 +30861,7 @@
       <c r="K586" s="19" t="n"/>
       <c r="L586" s="19" t="inlineStr">
         <is>
-          <t>ab91932c-9fc9-4d1b-a881-37f5e6c0cb9e</t>
+          <t>6b4bfd3d-5035-447c-8447-ec66128a71f0</t>
         </is>
       </c>
       <c r="M586" s="20" t="n"/>
@@ -30873,7 +30873,7 @@
     <row r="587">
       <c r="A587" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory Review Checklist</t>
+          <t>Identity Review Checklist</t>
         </is>
       </c>
       <c r="B587" s="18" t="inlineStr">
@@ -30883,18 +30883,18 @@
       </c>
       <c r="C587" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D587" s="18" t="inlineStr">
         <is>
-          <t>Uso de canalizaciones con redundancia de zona en regiones que admiten zonas de disponibilidad</t>
+          <t>Uso de conjuntos de réplicas para recuperación ante desastres</t>
         </is>
       </c>
       <c r="E587" s="18" t="n"/>
       <c r="F587" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G587" t="inlineStr">
@@ -30912,7 +30912,7 @@
       <c r="K587" s="19" t="n"/>
       <c r="L587" s="19" t="inlineStr">
         <is>
-          <t>e503547c-d447-4e82-9138-a7200f1cac6d</t>
+          <t>f1ce16dd-3f1d-45e8-92e4-2e3611cc58b4</t>
         </is>
       </c>
       <c r="M587" s="20" t="n"/>
@@ -30924,7 +30924,7 @@
     <row r="588">
       <c r="A588" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory Review Checklist</t>
+          <t>MySQL Review Checklist</t>
         </is>
       </c>
       <c r="B588" s="18" t="inlineStr">
@@ -30934,12 +30934,12 @@
       </c>
       <c r="C588" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Azure MySQL</t>
         </is>
       </c>
       <c r="D588" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Uso de DevOps para realizar copias de seguridad de las plantillas de ARM con la integración de Github/Azure DevOps </t>
+          <t>Aproveche el servidor flexible</t>
         </is>
       </c>
       <c r="E588" s="18" t="n"/>
@@ -30963,7 +30963,7 @@
       <c r="K588" s="19" t="n"/>
       <c r="L588" s="19" t="inlineStr">
         <is>
-          <t>9ef1d6e8-32e5-42e3-911c-818b1a0bc511</t>
+          <t>388c3e25-e800-4ad2-9df3-f3d6ae1050b7</t>
         </is>
       </c>
       <c r="M588" s="20" t="n"/>
@@ -30975,7 +30975,7 @@
     <row r="589">
       <c r="A589" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory Review Checklist</t>
+          <t>MySQL Review Checklist</t>
         </is>
       </c>
       <c r="B589" s="18" t="inlineStr">
@@ -30985,18 +30985,18 @@
       </c>
       <c r="C589" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Azure MySQL</t>
         </is>
       </c>
       <c r="D589" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de replicar las máquinas virtuales de Integration Runtime autohospedadas en otra región </t>
+          <t>Aproveche las zonas de disponibilidad cuando corresponda regionalmente</t>
         </is>
       </c>
       <c r="E589" s="18" t="n"/>
       <c r="F589" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G589" t="inlineStr">
@@ -31014,7 +31014,7 @@
       <c r="K589" s="19" t="n"/>
       <c r="L589" s="19" t="inlineStr">
         <is>
-          <t>e43a18a9-cd29-49cf-b7b1-7db8255562f2</t>
+          <t>de3aad1e-8c38-4ec9-9666-7313c005674b</t>
         </is>
       </c>
       <c r="M589" s="20" t="n"/>
@@ -31026,7 +31026,7 @@
     <row r="590">
       <c r="A590" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory Review Checklist</t>
+          <t>MySQL Review Checklist</t>
         </is>
       </c>
       <c r="B590" s="18" t="inlineStr">
@@ -31036,12 +31036,12 @@
       </c>
       <c r="C590" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Azure MySQL</t>
         </is>
       </c>
       <c r="D590" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de replicar o duplicar la red en la región hermana. Tiene que hacer una copia de la red virtual en otra región</t>
+          <t>Aproveche la replicación de entrada de datos para escenarios de recuperación ante desastres entre regiones</t>
         </is>
       </c>
       <c r="E590" s="18" t="n"/>
@@ -31065,7 +31065,7 @@
       <c r="K590" s="19" t="n"/>
       <c r="L590" s="19" t="inlineStr">
         <is>
-          <t>aee4563a-fd83-4393-98b2-62d6dc5f512a</t>
+          <t>1e944a45-9c37-43e7-bd61-623b365a917e</t>
         </is>
       </c>
       <c r="M590" s="20" t="n"/>
@@ -31092,17 +31092,13 @@
       </c>
       <c r="D591" s="18" t="inlineStr">
         <is>
-          <t>Si utiliza la integración de Keyvault, utilice el Acuerdo de Nivel de Servicio de Keyvault para comprender su disponibilidad</t>
-        </is>
-      </c>
-      <c r="E591" s="18" t="inlineStr">
-        <is>
-          <t>Si las canalizaciones de ADF usan Key Vault, no tiene que hacer nada para replicar Key Vault. Key Vault es un servicio administrado y Microsoft se encarga de ello por ti</t>
-        </is>
-      </c>
+          <t>Aproveche el cuaderno de estrategias de resistencia de FTA para Azure Data Factory</t>
+        </is>
+      </c>
+      <c r="E591" s="18" t="n"/>
       <c r="F591" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G591" t="inlineStr">
@@ -31120,7 +31116,7 @@
       <c r="K591" s="19" t="n"/>
       <c r="L591" s="19" t="inlineStr">
         <is>
-          <t>25498f6d-bad3-47da-a43b-c6ce1d7aa9b2</t>
+          <t>ab91932c-9fc9-4d1b-a881-37f5e6c0cb9e</t>
         </is>
       </c>
       <c r="M591" s="20" t="n"/>
@@ -31132,7 +31128,7 @@
     <row r="592">
       <c r="A592" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure Data Factory Review Checklist</t>
         </is>
       </c>
       <c r="B592" s="18" t="inlineStr">
@@ -31142,12 +31138,12 @@
       </c>
       <c r="C592" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>Azure Data Factory</t>
         </is>
       </c>
       <c r="D592" s="18" t="inlineStr">
         <is>
-          <t>Habilite la redundancia de zona para Azure Cache for Redis. Azure Cache for Redis admite configuraciones con redundancia de zona en los niveles Premium y Enterprise. Una caché con redundancia de zona puede colocar sus nodos en diferentes zonas de disponibilidad de Azure en la misma región. Elimina la interrupción del centro de datos o de la zona de disponibilidad como único punto de error y aumenta la disponibilidad general de la memoria caché.</t>
+          <t>Uso de canalizaciones con redundancia de zona en regiones que admiten zonas de disponibilidad</t>
         </is>
       </c>
       <c r="E592" s="18" t="n"/>
@@ -31171,7 +31167,7 @@
       <c r="K592" s="19" t="n"/>
       <c r="L592" s="19" t="inlineStr">
         <is>
-          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
+          <t>e503547c-d447-4e82-9138-a7200f1cac6d</t>
         </is>
       </c>
       <c r="M592" s="20" t="n"/>
@@ -31183,7 +31179,7 @@
     <row r="593">
       <c r="A593" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure Data Factory Review Checklist</t>
         </is>
       </c>
       <c r="B593" s="18" t="inlineStr">
@@ -31193,12 +31189,12 @@
       </c>
       <c r="C593" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>Azure Data Factory</t>
         </is>
       </c>
       <c r="D593" s="18" t="inlineStr">
         <is>
-          <t>Configure la persistencia de datos para una instancia de Azure Cache for Redis. Dado que los datos de caché se almacenan en la memoria, un error poco frecuente y no planeado de varios nodos puede hacer que se eliminen todos los datos. Para evitar la pérdida completa de datos, la persistencia de Redis permite tomar instantáneas periódicas de los datos en memoria y almacenarlas en la cuenta de almacenamiento.</t>
+          <t xml:space="preserve">Uso de DevOps para realizar copias de seguridad de las plantillas de ARM con la integración de Github/Azure DevOps </t>
         </is>
       </c>
       <c r="E593" s="18" t="n"/>
@@ -31222,7 +31218,7 @@
       <c r="K593" s="19" t="n"/>
       <c r="L593" s="19" t="inlineStr">
         <is>
-          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
+          <t>9ef1d6e8-32e5-42e3-911c-818b1a0bc511</t>
         </is>
       </c>
       <c r="M593" s="20" t="n"/>
@@ -31234,7 +31230,7 @@
     <row r="594">
       <c r="A594" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure Data Factory Review Checklist</t>
         </is>
       </c>
       <c r="B594" s="18" t="inlineStr">
@@ -31244,12 +31240,12 @@
       </c>
       <c r="C594" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>Azure Data Factory</t>
         </is>
       </c>
       <c r="D594" s="18" t="inlineStr">
         <is>
-          <t>Use una cuenta de almacenamiento con redundancia geográfica para conservar los datos de Azure Cache for Redis o con redundancia zonal donde la redundancia geográfica no esté disponible</t>
+          <t xml:space="preserve">Asegúrese de replicar las máquinas virtuales de Integration Runtime autohospedadas en otra región </t>
         </is>
       </c>
       <c r="E594" s="18" t="n"/>
@@ -31273,7 +31269,7 @@
       <c r="K594" s="19" t="n"/>
       <c r="L594" s="19" t="inlineStr">
         <is>
-          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
+          <t>e43a18a9-cd29-49cf-b7b1-7db8255562f2</t>
         </is>
       </c>
       <c r="M594" s="20" t="n"/>
@@ -31285,7 +31281,7 @@
     <row r="595">
       <c r="A595" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure Data Factory Review Checklist</t>
         </is>
       </c>
       <c r="B595" s="18" t="inlineStr">
@@ -31295,12 +31291,12 @@
       </c>
       <c r="C595" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>Azure Data Factory</t>
         </is>
       </c>
       <c r="D595" s="18" t="inlineStr">
         <is>
-          <t>Configure la replicación geográfica pasiva para instancias de Azure Cache for Redis Premium. La replicación geográfica es un mecanismo para vincular dos o más instancias de Azure Cache for Redis, que normalmente abarcan dos regiones de Azure. La replicación geográfica está diseñada principalmente para la recuperación ante desastres entre regiones. Dos instancias de caché de nivel Premium se conectan a través de la replicación geográfica de una manera que proporciona lecturas y escrituras en la caché principal, y esos datos se replican en la caché secundaria.</t>
+          <t>Asegúrese de replicar o duplicar la red en la región hermana. Tiene que hacer una copia de la red virtual en otra región</t>
         </is>
       </c>
       <c r="E595" s="18" t="n"/>
@@ -31324,7 +31320,7 @@
       <c r="K595" s="19" t="n"/>
       <c r="L595" s="19" t="inlineStr">
         <is>
-          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
+          <t>aee4563a-fd83-4393-98b2-62d6dc5f512a</t>
         </is>
       </c>
       <c r="M595" s="20" t="n"/>
@@ -31336,7 +31332,7 @@
     <row r="596">
       <c r="A596" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub Review</t>
+          <t>Azure Data Factory Review Checklist</t>
         </is>
       </c>
       <c r="B596" s="18" t="inlineStr">
@@ -31346,18 +31342,22 @@
       </c>
       <c r="C596" s="18" t="inlineStr">
         <is>
-          <t>IoT</t>
+          <t>Azure Data Factory</t>
         </is>
       </c>
       <c r="D596" s="18" t="inlineStr">
         <is>
-          <t>Aproveche las zonas de disponibilidad si corresponden regionalmente (esto se habilita automáticamente)</t>
-        </is>
-      </c>
-      <c r="E596" s="18" t="n"/>
+          <t>Si utiliza la integración de Keyvault, utilice el Acuerdo de Nivel de Servicio de Keyvault para comprender su disponibilidad</t>
+        </is>
+      </c>
+      <c r="E596" s="18" t="inlineStr">
+        <is>
+          <t>Si las canalizaciones de ADF usan Key Vault, no tiene que hacer nada para replicar Key Vault. Key Vault es un servicio administrado y Microsoft se encarga de ello por ti</t>
+        </is>
+      </c>
       <c r="F596" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G596" t="inlineStr">
@@ -31375,7 +31375,7 @@
       <c r="K596" s="19" t="n"/>
       <c r="L596" s="19" t="inlineStr">
         <is>
-          <t>ac1d6380-f866-4bbd-a9b4-b1ee5d7908b8</t>
+          <t>25498f6d-bad3-47da-a43b-c6ce1d7aa9b2</t>
         </is>
       </c>
       <c r="M596" s="20" t="n"/>
@@ -31387,7 +31387,7 @@
     <row r="597">
       <c r="A597" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B597" s="18" t="inlineStr">
@@ -31397,18 +31397,18 @@
       </c>
       <c r="C597" s="18" t="inlineStr">
         <is>
-          <t>IoT</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D597" s="18" t="inlineStr">
         <is>
-          <t>Tenga en cuenta las conmutaciones por error iniciadas por Microsoft. Microsoft los ejerce en situaciones excepcionales para conmutar por error todos los centros de IoT de una región afectada a la región emparejada geográficamente correspondiente.</t>
+          <t>Habilite la redundancia de zona para Azure Cache for Redis. Azure Cache for Redis admite configuraciones con redundancia de zona en los niveles Premium y Enterprise. Una caché con redundancia de zona puede colocar sus nodos en diferentes zonas de disponibilidad de Azure en la misma región. Elimina la interrupción del centro de datos o de la zona de disponibilidad como único punto de error y aumenta la disponibilidad general de la memoria caché.</t>
         </is>
       </c>
       <c r="E597" s="18" t="n"/>
       <c r="F597" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G597" t="inlineStr">
@@ -31426,7 +31426,7 @@
       <c r="K597" s="19" t="n"/>
       <c r="L597" s="19" t="inlineStr">
         <is>
-          <t>35f651e8-0124-4ef7-8c57-658e38609e6e</t>
+          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
         </is>
       </c>
       <c r="M597" s="20" t="n"/>
@@ -31438,7 +31438,7 @@
     <row r="598">
       <c r="A598" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B598" s="18" t="inlineStr">
@@ -31448,18 +31448,18 @@
       </c>
       <c r="C598" s="18" t="inlineStr">
         <is>
-          <t>IoT</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D598" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de una estrategia de recuperación ante desastres entre regiones para cargas de trabajo críticas</t>
+          <t>Configure la persistencia de datos para una instancia de Azure Cache for Redis. Dado que los datos de caché se almacenan en la memoria, un error poco frecuente y no planeado de varios nodos puede hacer que se eliminen todos los datos. Para evitar la pérdida completa de datos, la persistencia de Redis permite tomar instantáneas periódicas de los datos en memoria y almacenarlas en la cuenta de almacenamiento.</t>
         </is>
       </c>
       <c r="E598" s="18" t="n"/>
       <c r="F598" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G598" t="inlineStr">
@@ -31477,7 +31477,7 @@
       <c r="K598" s="19" t="n"/>
       <c r="L598" s="19" t="inlineStr">
         <is>
-          <t>4ed3e490-dc06-4a1e-b467-5d0239d85540</t>
+          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
         </is>
       </c>
       <c r="M598" s="20" t="n"/>
@@ -31489,7 +31489,7 @@
     <row r="599">
       <c r="A599" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B599" s="18" t="inlineStr">
@@ -31499,18 +31499,18 @@
       </c>
       <c r="C599" s="18" t="inlineStr">
         <is>
-          <t>IoT</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D599" s="18" t="inlineStr">
         <is>
-          <t>Obtenga información sobre cómo desencadenar una conmutación por error manual.</t>
+          <t>Use una cuenta de almacenamiento con redundancia geográfica para conservar los datos de Azure Cache for Redis o con redundancia zonal donde la redundancia geográfica no esté disponible</t>
         </is>
       </c>
       <c r="E599" s="18" t="n"/>
       <c r="F599" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G599" t="inlineStr">
@@ -31528,7 +31528,7 @@
       <c r="K599" s="19" t="n"/>
       <c r="L599" s="19" t="inlineStr">
         <is>
-          <t>a11ecab0-db47-46f7-9aa7-17764e7e45a1</t>
+          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
         </is>
       </c>
       <c r="M599" s="20" t="n"/>
@@ -31540,7 +31540,7 @@
     <row r="600">
       <c r="A600" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B600" s="18" t="inlineStr">
@@ -31550,18 +31550,18 @@
       </c>
       <c r="C600" s="18" t="inlineStr">
         <is>
-          <t>IoT</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D600" s="18" t="inlineStr">
         <is>
-          <t>Obtenga información sobre cómo conmutar por recuperación después de una conmutación por error.</t>
+          <t>Configure la replicación geográfica pasiva para instancias de Azure Cache for Redis Premium. La replicación geográfica es un mecanismo para vincular dos o más instancias de Azure Cache for Redis, que normalmente abarcan dos regiones de Azure. La replicación geográfica está diseñada principalmente para la recuperación ante desastres entre regiones. Dos instancias de caché de nivel Premium se conectan a través de la replicación geográfica de una manera que proporciona lecturas y escrituras en la caché principal, y esos datos se replican en la caché secundaria.</t>
         </is>
       </c>
       <c r="E600" s="18" t="n"/>
       <c r="F600" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G600" t="inlineStr">
@@ -31579,7 +31579,7 @@
       <c r="K600" s="19" t="n"/>
       <c r="L600" s="19" t="inlineStr">
         <is>
-          <t>f9db8dfb-1194-460b-aedd-34dd6a69db22</t>
+          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
         </is>
       </c>
       <c r="M600" s="20" t="n"/>
@@ -31591,7 +31591,7 @@
     <row r="601">
       <c r="A601" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps Review</t>
+          <t>IoT Hub Review</t>
         </is>
       </c>
       <c r="B601" s="18" t="inlineStr">
@@ -31601,18 +31601,18 @@
       </c>
       <c r="C601" s="18" t="inlineStr">
         <is>
-          <t>Spring Apps</t>
+          <t>IoT</t>
         </is>
       </c>
       <c r="D601" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps permite dos implementaciones para cada aplicación, de las cuales solo una recibe tráfico de producción. Puede lograr cero tiempo de inactividad con estrategias de implementación azul verde. La implementación azul verde solo está disponible en los niveles Estándar y Enterprise. Puede automatizar la implementación mediante CI/CD con acciones de ADO/GitHub</t>
+          <t>Aproveche las zonas de disponibilidad si corresponden regionalmente (esto se habilita automáticamente)</t>
         </is>
       </c>
       <c r="E601" s="18" t="n"/>
       <c r="F601" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G601" t="inlineStr">
@@ -31630,7 +31630,7 @@
       <c r="K601" s="19" t="n"/>
       <c r="L601" s="19" t="inlineStr">
         <is>
-          <t>6d8e32a8-3892-479d-a40b-10f6b4f6f298</t>
+          <t>ac1d6380-f866-4bbd-a9b4-b1ee5d7908b8</t>
         </is>
       </c>
       <c r="M601" s="20" t="n"/>
@@ -31642,7 +31642,7 @@
     <row r="602">
       <c r="A602" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps Review</t>
+          <t>IoT Hub Review</t>
         </is>
       </c>
       <c r="B602" s="18" t="inlineStr">
@@ -31652,12 +31652,12 @@
       </c>
       <c r="C602" s="18" t="inlineStr">
         <is>
-          <t>Spring Apps</t>
+          <t>IoT</t>
         </is>
       </c>
       <c r="D602" s="18" t="inlineStr">
         <is>
-          <t>Las instancias de Azure Spring Apps se pueden crear en varias regiones para las aplicaciones y el tráfico se puede enrutar mediante Traffic Manager o Front Door.</t>
+          <t>Tenga en cuenta las conmutaciones por error iniciadas por Microsoft. Microsoft los ejerce en situaciones excepcionales para conmutar por error todos los centros de IoT de una región afectada a la región emparejada geográficamente correspondiente.</t>
         </is>
       </c>
       <c r="E602" s="18" t="n"/>
@@ -31681,7 +31681,7 @@
       <c r="K602" s="19" t="n"/>
       <c r="L602" s="19" t="inlineStr">
         <is>
-          <t>fbcb40ac-9480-4a6d-bcf4-8081252a6716</t>
+          <t>35f651e8-0124-4ef7-8c57-658e38609e6e</t>
         </is>
       </c>
       <c r="M602" s="20" t="n"/>
@@ -31693,7 +31693,7 @@
     <row r="603">
       <c r="A603" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps Review</t>
+          <t>IoT Hub Review</t>
         </is>
       </c>
       <c r="B603" s="18" t="inlineStr">
@@ -31703,18 +31703,18 @@
       </c>
       <c r="C603" s="18" t="inlineStr">
         <is>
-          <t>Spring Apps</t>
+          <t>IoT</t>
         </is>
       </c>
       <c r="D603" s="18" t="inlineStr">
         <is>
-          <t>En la región admitida, Azure Spring Apps se puede implementar como zona redundante, lo que significa que las instancias se distribuyen automáticamente entre las zonas de disponibilidad. Esta función solo está disponible en los niveles Standard y Enterprise.</t>
+          <t>Considere la posibilidad de una estrategia de recuperación ante desastres entre regiones para cargas de trabajo críticas</t>
         </is>
       </c>
       <c r="E603" s="18" t="n"/>
       <c r="F603" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G603" t="inlineStr">
@@ -31732,7 +31732,7 @@
       <c r="K603" s="19" t="n"/>
       <c r="L603" s="19" t="inlineStr">
         <is>
-          <t>ff1ae6a7-9301-4feb-9d11-56cd72f1d4ef</t>
+          <t>4ed3e490-dc06-4a1e-b467-5d0239d85540</t>
         </is>
       </c>
       <c r="M603" s="20" t="n"/>
@@ -31744,7 +31744,7 @@
     <row r="604">
       <c r="A604" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps Review</t>
+          <t>IoT Hub Review</t>
         </is>
       </c>
       <c r="B604" s="18" t="inlineStr">
@@ -31754,18 +31754,18 @@
       </c>
       <c r="C604" s="18" t="inlineStr">
         <is>
-          <t>Spring Apps</t>
+          <t>IoT</t>
         </is>
       </c>
       <c r="D604" s="18" t="inlineStr">
         <is>
-          <t>Usar más de 1 instancia de aplicación para las aplicaciones</t>
+          <t>Obtenga información sobre cómo desencadenar una conmutación por error manual.</t>
         </is>
       </c>
       <c r="E604" s="18" t="n"/>
       <c r="F604" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G604" t="inlineStr">
@@ -31783,7 +31783,7 @@
       <c r="K604" s="19" t="n"/>
       <c r="L604" s="19" t="inlineStr">
         <is>
-          <t>ffc735ad-fbb1-4802-b43f-ad6387c4c066</t>
+          <t>a11ecab0-db47-46f7-9aa7-17764e7e45a1</t>
         </is>
       </c>
       <c r="M604" s="20" t="n"/>
@@ -31795,7 +31795,7 @@
     <row r="605">
       <c r="A605" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps Review</t>
+          <t>IoT Hub Review</t>
         </is>
       </c>
       <c r="B605" s="18" t="inlineStr">
@@ -31805,18 +31805,18 @@
       </c>
       <c r="C605" s="18" t="inlineStr">
         <is>
-          <t>Spring Apps</t>
+          <t>IoT</t>
         </is>
       </c>
       <c r="D605" s="18" t="inlineStr">
         <is>
-          <t>Supervise Azure Spring Apps con registros, métricas y seguimiento. Integre ASA con la información de las aplicaciones, realice un seguimiento de los errores y cree libros de trabajo.</t>
+          <t>Obtenga información sobre cómo conmutar por recuperación después de una conmutación por error.</t>
         </is>
       </c>
       <c r="E605" s="18" t="n"/>
       <c r="F605" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G605" t="inlineStr">
@@ -31834,7 +31834,7 @@
       <c r="K605" s="19" t="n"/>
       <c r="L605" s="19" t="inlineStr">
         <is>
-          <t>7504c230-6035-4183-95a5-85762acc6075</t>
+          <t>f9db8dfb-1194-460b-aedd-34dd6a69db22</t>
         </is>
       </c>
       <c r="M605" s="20" t="n"/>
@@ -31861,7 +31861,7 @@
       </c>
       <c r="D606" s="18" t="inlineStr">
         <is>
-          <t>Configuración del escalado automático en Spring Cloud Gateway</t>
+          <t>Azure Spring Apps permite dos implementaciones para cada aplicación, de las cuales solo una recibe tráfico de producción. Puede lograr cero tiempo de inactividad con estrategias de implementación azul verde. La implementación azul verde solo está disponible en los niveles Estándar y Enterprise. Puede automatizar la implementación mediante CI/CD con acciones de ADO/GitHub</t>
         </is>
       </c>
       <c r="E606" s="18" t="n"/>
@@ -31885,7 +31885,7 @@
       <c r="K606" s="19" t="n"/>
       <c r="L606" s="19" t="inlineStr">
         <is>
-          <t>1eb48d58-3eec-4ef5-80b0-d2b0dde3f0c6</t>
+          <t>6d8e32a8-3892-479d-a40b-10f6b4f6f298</t>
         </is>
       </c>
       <c r="M606" s="20" t="n"/>
@@ -31912,13 +31912,13 @@
       </c>
       <c r="D607" s="18" t="inlineStr">
         <is>
-          <t>Habilite el escalado automático para las aplicaciones con el consumo estándar y el plan dedicado.</t>
+          <t>Las instancias de Azure Spring Apps se pueden crear en varias regiones para las aplicaciones y el tráfico se puede enrutar mediante Traffic Manager o Front Door.</t>
         </is>
       </c>
       <c r="E607" s="18" t="n"/>
       <c r="F607" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G607" t="inlineStr">
@@ -31936,7 +31936,7 @@
       <c r="K607" s="19" t="n"/>
       <c r="L607" s="19" t="inlineStr">
         <is>
-          <t>97411607-b6fd-4335-99d1-9885faf4e392</t>
+          <t>fbcb40ac-9480-4a6d-bcf4-8081252a6716</t>
         </is>
       </c>
       <c r="M607" s="20" t="n"/>
@@ -31963,7 +31963,7 @@
       </c>
       <c r="D608" s="18" t="inlineStr">
         <is>
-          <t>Use el plan Enterprise para obtener soporte comercial de Spring Boot para aplicaciones de misión crítica. Con otros niveles, obtienes soporte OSS.</t>
+          <t>En la región admitida, Azure Spring Apps se puede implementar como zona redundante, lo que significa que las instancias se distribuyen automáticamente entre las zonas de disponibilidad. Esta función solo está disponible en los niveles Standard y Enterprise.</t>
         </is>
       </c>
       <c r="E608" s="18" t="n"/>
@@ -31987,7 +31987,7 @@
       <c r="K608" s="19" t="n"/>
       <c r="L608" s="19" t="inlineStr">
         <is>
-          <t>dfcaffd1-d27c-4ef2-998d-64c1df3a7ac3</t>
+          <t>ff1ae6a7-9301-4feb-9d11-56cd72f1d4ef</t>
         </is>
       </c>
       <c r="M608" s="20" t="n"/>
@@ -31999,29 +31999,25 @@
     <row r="609">
       <c r="A609" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Spring Apps Review</t>
         </is>
       </c>
       <c r="B609" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C609" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Spring Apps</t>
         </is>
       </c>
       <c r="D609" s="18" t="inlineStr">
         <is>
-          <t>Tenga en cuenta la "línea base de seguridad de Azure para el almacenamiento"</t>
-        </is>
-      </c>
-      <c r="E609" s="18" t="inlineStr">
-        <is>
-          <t>Aplicación de las instrucciones de la prueba comparativa de seguridad en la nube de Microsoft relacionadas con el almacenamiento</t>
-        </is>
-      </c>
+          <t>Usar más de 1 instancia de aplicación para las aplicaciones</t>
+        </is>
+      </c>
+      <c r="E609" s="18" t="n"/>
       <c r="F609" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -32042,7 +32038,7 @@
       <c r="K609" s="19" t="n"/>
       <c r="L609" s="19" t="inlineStr">
         <is>
-          <t>d237de14-3b16-4c21-b7aa-9b64604489a8</t>
+          <t>ffc735ad-fbb1-4802-b43f-ad6387c4c066</t>
         </is>
       </c>
       <c r="M609" s="20" t="n"/>
@@ -32054,32 +32050,28 @@
     <row r="610">
       <c r="A610" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Spring Apps Review</t>
         </is>
       </c>
       <c r="B610" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C610" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Spring Apps</t>
         </is>
       </c>
       <c r="D610" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar puntos de conexión privados para Azure Storage</t>
-        </is>
-      </c>
-      <c r="E610" s="18" t="inlineStr">
-        <is>
-          <t>De forma predeterminada, Azure Storage tiene una dirección IP pública y es accesible desde Internet. Los puntos de conexión privados permiten exponer de forma segura Azure Storage solo a los recursos de proceso de Azure que necesitan acceso, lo que elimina la exposición a la Internet pública</t>
-        </is>
-      </c>
+          <t>Supervise Azure Spring Apps con registros, métricas y seguimiento. Integre ASA con la información de las aplicaciones, realice un seguimiento de los errores y cree libros de trabajo.</t>
+        </is>
+      </c>
+      <c r="E610" s="18" t="n"/>
       <c r="F610" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G610" t="inlineStr">
@@ -32097,7 +32089,7 @@
       <c r="K610" s="19" t="n"/>
       <c r="L610" s="19" t="inlineStr">
         <is>
-          <t>f42d78e7-9d17-4a73-a22a-5a67e7a8ed4b</t>
+          <t>7504c230-6035-4183-95a5-85762acc6075</t>
         </is>
       </c>
       <c r="M610" s="20" t="n"/>
@@ -32109,29 +32101,25 @@
     <row r="611">
       <c r="A611" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Spring Apps Review</t>
         </is>
       </c>
       <c r="B611" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C611" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Spring Apps</t>
         </is>
       </c>
       <c r="D611" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que las cuentas de almacenamiento más antiguas no usan el "modelo de implementación clásica"</t>
-        </is>
-      </c>
-      <c r="E611" s="18" t="inlineStr">
-        <is>
-          <t>Las cuentas de almacenamiento recién creadas se crean mediante el modelo de implementación de ARM, de modo que RBAC, auditoría, etc. están habilitados. Asegúrese de que no hay cuentas de almacenamiento antiguas con el modelo de implementación clásica en una suscripción</t>
-        </is>
-      </c>
+          <t>Configuración del escalado automático en Spring Cloud Gateway</t>
+        </is>
+      </c>
+      <c r="E611" s="18" t="n"/>
       <c r="F611" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -32152,7 +32140,7 @@
       <c r="K611" s="19" t="n"/>
       <c r="L611" s="19" t="inlineStr">
         <is>
-          <t>30e37c3e-2971-41b2-963c-eee079b598de</t>
+          <t>1eb48d58-3eec-4ef5-80b0-d2b0dde3f0c6</t>
         </is>
       </c>
       <c r="M611" s="20" t="n"/>
@@ -32164,32 +32152,28 @@
     <row r="612">
       <c r="A612" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Spring Apps Review</t>
         </is>
       </c>
       <c r="B612" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C612" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Spring Apps</t>
         </is>
       </c>
       <c r="D612" s="18" t="inlineStr">
         <is>
-          <t>Habilitación de Microsoft Defender para todas las cuentas de almacenamiento</t>
-        </is>
-      </c>
-      <c r="E612" s="18" t="inlineStr">
-        <is>
-          <t>Aproveche Microsoft Defender para obtener información sobre la actividad sospechosa y los errores de configuración.</t>
-        </is>
-      </c>
+          <t>Habilite el escalado automático para las aplicaciones con el consumo estándar y el plan dedicado.</t>
+        </is>
+      </c>
+      <c r="E612" s="18" t="n"/>
       <c r="F612" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G612" t="inlineStr">
@@ -32207,7 +32191,7 @@
       <c r="K612" s="19" t="n"/>
       <c r="L612" s="19" t="inlineStr">
         <is>
-          <t>fc5972cd-4cd2-41b0-a803-7f5e6b4bfd3d</t>
+          <t>97411607-b6fd-4335-99d1-9885faf4e392</t>
         </is>
       </c>
       <c r="M612" s="20" t="n"/>
@@ -32219,29 +32203,25 @@
     <row r="613">
       <c r="A613" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Spring Apps Review</t>
         </is>
       </c>
       <c r="B613" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C613" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Spring Apps</t>
         </is>
       </c>
       <c r="D613" s="18" t="inlineStr">
         <is>
-          <t>Habilitación de la "eliminación temporal" para blobs</t>
-        </is>
-      </c>
-      <c r="E613" s="18" t="inlineStr">
-        <is>
-          <t>El mecanismo de eliminación temporal permite recuperar blobs eliminados accidentalmente.</t>
-        </is>
-      </c>
+          <t>Use el plan Enterprise para obtener soporte comercial de Spring Boot para aplicaciones de misión crítica. Con otros niveles, obtienes soporte OSS.</t>
+        </is>
+      </c>
+      <c r="E613" s="18" t="n"/>
       <c r="F613" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -32262,7 +32242,7 @@
       <c r="K613" s="19" t="n"/>
       <c r="L613" s="19" t="inlineStr">
         <is>
-          <t>503547c1-447e-4c66-828a-7100f1ce16dd</t>
+          <t>dfcaffd1-d27c-4ef2-998d-64c1df3a7ac3</t>
         </is>
       </c>
       <c r="M613" s="20" t="n"/>
@@ -32289,12 +32269,12 @@
       </c>
       <c r="D614" s="18" t="inlineStr">
         <is>
-          <t>Deshabilitación de la "eliminación temporal" de blobs</t>
+          <t>Tenga en cuenta la "línea base de seguridad de Azure para el almacenamiento"</t>
         </is>
       </c>
       <c r="E614" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere la posibilidad de deshabilitar de forma selectiva la "eliminación temporal" para determinados contenedores de blobs, por ejemplo, si la aplicación debe asegurarse de que la información eliminada se elimina inmediatamente, por ejemplo, por motivos de confidencialidad, privacidad o cumplimiento. </t>
+          <t>Aplicación de las instrucciones de la prueba comparativa de seguridad en la nube de Microsoft relacionadas con el almacenamiento</t>
         </is>
       </c>
       <c r="F614" s="18" t="inlineStr">
@@ -32317,7 +32297,7 @@
       <c r="K614" s="19" t="n"/>
       <c r="L614" s="19" t="inlineStr">
         <is>
-          <t>3f1d5e87-2e52-4e36-81cc-58b4a4b1510e</t>
+          <t>d237de14-3b16-4c21-b7aa-9b64604489a8</t>
         </is>
       </c>
       <c r="M614" s="20" t="n"/>
@@ -32344,12 +32324,12 @@
       </c>
       <c r="D615" s="18" t="inlineStr">
         <is>
-          <t>Habilitación de la "eliminación temporal" para los contenedores</t>
+          <t>Considere la posibilidad de usar puntos de conexión privados para Azure Storage</t>
         </is>
       </c>
       <c r="E615" s="18" t="inlineStr">
         <is>
-          <t>La eliminación temporal de contenedores permite recuperar un contenedor después de que se haya eliminado, por ejemplo, recuperarse de una operación de eliminación accidental.</t>
+          <t>De forma predeterminada, Azure Storage tiene una dirección IP pública y es accesible desde Internet. Los puntos de conexión privados permiten exponer de forma segura Azure Storage solo a los recursos de proceso de Azure que necesitan acceso, lo que elimina la exposición a la Internet pública</t>
         </is>
       </c>
       <c r="F615" s="18" t="inlineStr">
@@ -32372,7 +32352,7 @@
       <c r="K615" s="19" t="n"/>
       <c r="L615" s="19" t="inlineStr">
         <is>
-          <t>43a58a9c-2289-4c3d-9b57-d0c655462f2a</t>
+          <t>f42d78e7-9d17-4a73-a22a-5a67e7a8ed4b</t>
         </is>
       </c>
       <c r="M615" s="20" t="n"/>
@@ -32399,12 +32379,12 @@
       </c>
       <c r="D616" s="18" t="inlineStr">
         <is>
-          <t>Deshabilitación de la "eliminación temporal" para contenedores</t>
+          <t>Asegúrese de que las cuentas de almacenamiento más antiguas no usan el "modelo de implementación clásica"</t>
         </is>
       </c>
       <c r="E616" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere la posibilidad de deshabilitar de forma selectiva la "eliminación temporal" para determinados contenedores de blobs, por ejemplo, si la aplicación debe asegurarse de que la información eliminada se elimina inmediatamente, por ejemplo, por motivos de confidencialidad, privacidad o cumplimiento. </t>
+          <t>Las cuentas de almacenamiento recién creadas se crean mediante el modelo de implementación de ARM, de modo que RBAC, auditoría, etc. están habilitados. Asegúrese de que no hay cuentas de almacenamiento antiguas con el modelo de implementación clásica en una suscripción</t>
         </is>
       </c>
       <c r="F616" s="18" t="inlineStr">
@@ -32427,7 +32407,7 @@
       <c r="K616" s="19" t="n"/>
       <c r="L616" s="19" t="inlineStr">
         <is>
-          <t>3e3453a3-c863-4964-ab65-2d6c15f51296</t>
+          <t>30e37c3e-2971-41b2-963c-eee079b598de</t>
         </is>
       </c>
       <c r="M616" s="20" t="n"/>
@@ -32454,12 +32434,12 @@
       </c>
       <c r="D617" s="18" t="inlineStr">
         <is>
-          <t>Habilitación de bloqueos de recursos en cuentas de almacenamiento</t>
+          <t>Habilitación de Microsoft Defender para todas las cuentas de almacenamiento</t>
         </is>
       </c>
       <c r="E617" s="18" t="inlineStr">
         <is>
-          <t>Evita la eliminación accidental de una cuenta de almacenamiento, obligando al usuario a quitar primero el bloqueo de eliminación, antes de la eliminación</t>
+          <t>Aproveche Microsoft Defender para obtener información sobre la actividad sospechosa y los errores de configuración.</t>
         </is>
       </c>
       <c r="F617" s="18" t="inlineStr">
@@ -32482,7 +32462,7 @@
       <c r="K617" s="19" t="n"/>
       <c r="L617" s="19" t="inlineStr">
         <is>
-          <t>5398e6de-d227-4dd1-92b0-6c21d7999a64</t>
+          <t>fc5972cd-4cd2-41b0-a803-7f5e6b4bfd3d</t>
         </is>
       </c>
       <c r="M617" s="20" t="n"/>
@@ -32509,17 +32489,17 @@
       </c>
       <c r="D618" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de blobs inmutables</t>
+          <t>Habilitación de la "eliminación temporal" para blobs</t>
         </is>
       </c>
       <c r="E618" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de aplicar directivas de "retención legal" o "retención basada en el tiempo" para los blobs, de modo que sea imposible eliminar el blob, el contenedor o la cuenta de almacenamiento. Tenga en cuenta que 'imposible' en realidad significa 'imposible'; una vez que una cuenta de almacenamiento contiene un blob inmutable, la única manera de "deshacerse" de esa cuenta de almacenamiento es cancelando la suscripción de Azure.</t>
+          <t>El mecanismo de eliminación temporal permite recuperar blobs eliminados accidentalmente.</t>
         </is>
       </c>
       <c r="F618" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G618" t="inlineStr">
@@ -32537,7 +32517,7 @@
       <c r="K618" s="19" t="n"/>
       <c r="L618" s="19" t="inlineStr">
         <is>
-          <t>6f4389a8-f42c-478e-98c0-6a73a22a4956</t>
+          <t>503547c1-447e-4c66-828a-7100f1ce16dd</t>
         </is>
       </c>
       <c r="M618" s="20" t="n"/>
@@ -32564,17 +32544,17 @@
       </c>
       <c r="D619" s="18" t="inlineStr">
         <is>
-          <t>Requerir HTTPS, es decir, deshabilitar el puerto 80 en la cuenta de almacenamiento</t>
+          <t>Deshabilitación de la "eliminación temporal" de blobs</t>
         </is>
       </c>
       <c r="E619" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere la posibilidad de deshabilitar el acceso HTTP/80 sin protección a la cuenta de almacenamiento, de modo que todas las transferencias de datos estén cifradas, protegidas por integridad y el servidor esté autenticado. </t>
+          <t xml:space="preserve">Considere la posibilidad de deshabilitar de forma selectiva la "eliminación temporal" para determinados contenedores de blobs, por ejemplo, si la aplicación debe asegurarse de que la información eliminada se elimina inmediatamente, por ejemplo, por motivos de confidencialidad, privacidad o cumplimiento. </t>
         </is>
       </c>
       <c r="F619" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G619" t="inlineStr">
@@ -32592,7 +32572,7 @@
       <c r="K619" s="19" t="n"/>
       <c r="L619" s="19" t="inlineStr">
         <is>
-          <t>e7a8dc4a-20e2-47c3-b297-11b1352beee0</t>
+          <t>3f1d5e87-2e52-4e36-81cc-58b4a4b1510e</t>
         </is>
       </c>
       <c r="M619" s="20" t="n"/>
@@ -32619,12 +32599,12 @@
       </c>
       <c r="D620" s="18" t="inlineStr">
         <is>
-          <t>Al aplicar HTTPS (deshabilitar HTTP), compruebe que no usa dominios personalizados (CNAME) para la cuenta de almacenamiento.</t>
+          <t>Habilitación de la "eliminación temporal" para los contenedores</t>
         </is>
       </c>
       <c r="E620" s="18" t="inlineStr">
         <is>
-          <t>Al configurar un dominio personalizado (nombre de host) en una cuenta de almacenamiento, compruebe si necesita TLS/HTTPS; si es así, es posible que tenga que colocar Azure CDN delante de la cuenta de almacenamiento.</t>
+          <t>La eliminación temporal de contenedores permite recuperar un contenedor después de que se haya eliminado, por ejemplo, recuperarse de una operación de eliminación accidental.</t>
         </is>
       </c>
       <c r="F620" s="18" t="inlineStr">
@@ -32647,7 +32627,7 @@
       <c r="K620" s="19" t="n"/>
       <c r="L620" s="19" t="inlineStr">
         <is>
-          <t>79b588de-fc49-472c-b3cd-21bf77036e5e</t>
+          <t>43a58a9c-2289-4c3d-9b57-d0c655462f2a</t>
         </is>
       </c>
       <c r="M620" s="20" t="n"/>
@@ -32674,12 +32654,12 @@
       </c>
       <c r="D621" s="18" t="inlineStr">
         <is>
-          <t>Limitar los tokens de firma de acceso compartido (SAS) solo a las conexiones HTTPS</t>
+          <t>Deshabilitación de la "eliminación temporal" para contenedores</t>
         </is>
       </c>
       <c r="E621" s="18" t="inlineStr">
         <is>
-          <t>Requerir HTTPS cuando un cliente usa un token de SAS para acceder a los datos de blobs ayuda a minimizar el riesgo de pérdida de credenciales.</t>
+          <t xml:space="preserve">Considere la posibilidad de deshabilitar de forma selectiva la "eliminación temporal" para determinados contenedores de blobs, por ejemplo, si la aplicación debe asegurarse de que la información eliminada se elimina inmediatamente, por ejemplo, por motivos de confidencialidad, privacidad o cumplimiento. </t>
         </is>
       </c>
       <c r="F621" s="18" t="inlineStr">
@@ -32702,7 +32682,7 @@
       <c r="K621" s="19" t="n"/>
       <c r="L621" s="19" t="inlineStr">
         <is>
-          <t>6b4bed3d-5035-447c-8347-dc56028a71ff</t>
+          <t>3e3453a3-c863-4964-ab65-2d6c15f51296</t>
         </is>
       </c>
       <c r="M621" s="20" t="n"/>
@@ -32729,12 +32709,12 @@
       </c>
       <c r="D622" s="18" t="inlineStr">
         <is>
-          <t>Uso de tokens de Azure Active Directory (Azure AD) para el acceso a blobs</t>
+          <t>Habilitación de bloqueos de recursos en cuentas de almacenamiento</t>
         </is>
       </c>
       <c r="E622" s="18" t="inlineStr">
         <is>
-          <t>Los tokens de AAD deben favorecerse sobre las firmas de acceso compartido, siempre que sea posible</t>
+          <t>Evita la eliminación accidental de una cuenta de almacenamiento, obligando al usuario a quitar primero el bloqueo de eliminación, antes de la eliminación</t>
         </is>
       </c>
       <c r="F622" s="18" t="inlineStr">
@@ -32757,7 +32737,7 @@
       <c r="K622" s="19" t="n"/>
       <c r="L622" s="19" t="inlineStr">
         <is>
-          <t>e1ce15dd-3f0d-45e7-92d4-1e3611cc57b4</t>
+          <t>5398e6de-d227-4dd1-92b0-6c21d7999a64</t>
         </is>
       </c>
       <c r="M622" s="20" t="n"/>
@@ -32784,17 +32764,17 @@
       </c>
       <c r="D623" s="18" t="inlineStr">
         <is>
-          <t>Privilegios mínimos en los permisos de IaM</t>
+          <t>Considere la posibilidad de blobs inmutables</t>
         </is>
       </c>
       <c r="E623" s="18" t="inlineStr">
         <is>
-          <t>Al asignar un rol a un usuario, grupo o aplicación, conceda a esa entidad de seguridad solo los permisos necesarios para que pueda realizar sus tareas. Limitar el acceso a los recursos ayuda a evitar el uso indebido no intencionado y malintencionado de los datos.</t>
+          <t>Considere la posibilidad de aplicar directivas de "retención legal" o "retención basada en el tiempo" para los blobs, de modo que sea imposible eliminar el blob, el contenedor o la cuenta de almacenamiento. Tenga en cuenta que 'imposible' en realidad significa 'imposible'; una vez que una cuenta de almacenamiento contiene un blob inmutable, la única manera de "deshacerse" de esa cuenta de almacenamiento es cancelando la suscripción de Azure.</t>
         </is>
       </c>
       <c r="F623" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G623" t="inlineStr">
@@ -32803,12 +32783,16 @@
         </is>
       </c>
       <c r="H623" s="18" t="n"/>
-      <c r="I623" s="13" t="n"/>
+      <c r="I623" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J623" s="13" t="n"/>
       <c r="K623" s="19" t="n"/>
       <c r="L623" s="19" t="inlineStr">
         <is>
-          <t>a4b1410d-4395-48a8-a228-9b3d6b57cfc6</t>
+          <t>6f4389a8-f42c-478e-98c0-6a73a22a4956</t>
         </is>
       </c>
       <c r="M623" s="20" t="n"/>
@@ -32835,12 +32819,12 @@
       </c>
       <c r="D624" s="18" t="inlineStr">
         <is>
-          <t>Al usar SAS, prefiera "SAS de delegación de usuarios" en lugar de SAS basada en claves de cuenta de almacenamiento.</t>
+          <t>Requerir HTTPS, es decir, deshabilitar el puerto 80 en la cuenta de almacenamiento</t>
         </is>
       </c>
       <c r="E624" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Una SAS de delegación de usuarios está protegida con credenciales de Azure Active Directory (Azure AD) y también con los permisos especificados para la SAS. Una SAS de delegación de usuarios es análoga a una SAS de servicio en cuanto a su ámbito y función, pero ofrece ventajas de seguridad sobre la SAS de servicio. </t>
+          <t xml:space="preserve">Considere la posibilidad de deshabilitar el acceso HTTP/80 sin protección a la cuenta de almacenamiento, de modo que todas las transferencias de datos estén cifradas, protegidas por integridad y el servidor esté autenticado. </t>
         </is>
       </c>
       <c r="F624" s="18" t="inlineStr">
@@ -32863,7 +32847,7 @@
       <c r="K624" s="19" t="n"/>
       <c r="L624" s="19" t="inlineStr">
         <is>
-          <t>55461e1a-3e34-453a-9c86-39648b652d6c</t>
+          <t>e7a8dc4a-20e2-47c3-b297-11b1352beee0</t>
         </is>
       </c>
       <c r="M624" s="20" t="n"/>
@@ -32890,12 +32874,12 @@
       </c>
       <c r="D625" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de deshabilitar las claves de la cuenta de almacenamiento, de modo que solo se admita el acceso a AAD (y la SAS de delegación de usuarios).</t>
+          <t>Al aplicar HTTPS (deshabilitar HTTP), compruebe que no usa dominios personalizados (CNAME) para la cuenta de almacenamiento.</t>
         </is>
       </c>
       <c r="E625" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Las claves de la cuenta de almacenamiento ("claves compartidas") tienen muy pocas funcionalidades de auditoría. Si bien se puede monitorear quién o cuándo obtuvo una copia de las claves, una vez que las claves están en manos de varias personas, es imposible atribuir el uso a un usuario específico. Confiar únicamente en la autenticación de AAD facilita la vinculación del acceso al almacenamiento a un usuario. </t>
+          <t>Al configurar un dominio personalizado (nombre de host) en una cuenta de almacenamiento, compruebe si necesita TLS/HTTPS; si es así, es posible que tenga que colocar Azure CDN delante de la cuenta de almacenamiento.</t>
         </is>
       </c>
       <c r="F625" s="18" t="inlineStr">
@@ -32918,7 +32902,7 @@
       <c r="K625" s="19" t="n"/>
       <c r="L625" s="19" t="inlineStr">
         <is>
-          <t>15f51296-5398-4e6d-bd22-7dd142b06c21</t>
+          <t>79b588de-fc49-472c-b3cd-21bf77036e5e</t>
         </is>
       </c>
       <c r="M625" s="20" t="n"/>
@@ -32945,17 +32929,17 @@
       </c>
       <c r="D626" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar Azure Monitor para auditar las operaciones del plano de control en la cuenta de almacenamiento</t>
+          <t>Limitar los tokens de firma de acceso compartido (SAS) solo a las conexiones HTTPS</t>
         </is>
       </c>
       <c r="E626" s="18" t="inlineStr">
         <is>
-          <t>Use los datos del registro de actividad para identificar "cuándo", "quién", "qué" y "cómo" se está viendo o cambiando la seguridad de la cuenta de almacenamiento (es decir, claves de cuenta de almacenamiento, directivas de acceso, etc.).</t>
+          <t>Requerir HTTPS cuando un cliente usa un token de SAS para acceder a los datos de blobs ayuda a minimizar el riesgo de pérdida de credenciales.</t>
         </is>
       </c>
       <c r="F626" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G626" t="inlineStr">
@@ -32973,7 +32957,7 @@
       <c r="K626" s="19" t="n"/>
       <c r="L626" s="19" t="inlineStr">
         <is>
-          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
+          <t>6b4bed3d-5035-447c-8347-dc56028a71ff</t>
         </is>
       </c>
       <c r="M626" s="20" t="n"/>
@@ -33000,17 +32984,17 @@
       </c>
       <c r="D627" s="18" t="inlineStr">
         <is>
-          <t>Al usar claves de cuenta de almacenamiento, considere la posibilidad de habilitar una "directiva de expiración de claves"</t>
+          <t>Uso de tokens de Azure Active Directory (Azure AD) para el acceso a blobs</t>
         </is>
       </c>
       <c r="E627" s="18" t="inlineStr">
         <is>
-          <t>Una directiva de expiración de claves le permite establecer un recordatorio para la rotación de las claves de acceso a la cuenta. El recordatorio se muestra si ha transcurrido el intervalo especificado y las teclas aún no se han girado.</t>
+          <t>Los tokens de AAD deben favorecerse sobre las firmas de acceso compartido, siempre que sea posible</t>
         </is>
       </c>
       <c r="F627" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G627" t="inlineStr">
@@ -33028,7 +33012,7 @@
       <c r="K627" s="19" t="n"/>
       <c r="L627" s="19" t="inlineStr">
         <is>
-          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
+          <t>e1ce15dd-3f0d-45e7-92d4-1e3611cc57b4</t>
         </is>
       </c>
       <c r="M627" s="20" t="n"/>
@@ -33055,12 +33039,12 @@
       </c>
       <c r="D628" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de configurar una directiva de expiración de SAS</t>
+          <t>Privilegios mínimos en los permisos de IaM</t>
         </is>
       </c>
       <c r="E628" s="18" t="inlineStr">
         <is>
-          <t>Una directiva de expiración de SAS especifica un intervalo recomendado durante el cual la SAS es válida. Las directivas de expiración de SAS se aplican a una SAS de servicio o a una SAS de cuenta. Cuando un usuario genera una SAS de servicio o una SAS de cuenta con un intervalo de validez mayor que el intervalo recomendado, verá una advertencia.</t>
+          <t>Al asignar un rol a un usuario, grupo o aplicación, conceda a esa entidad de seguridad solo los permisos necesarios para que pueda realizar sus tareas. Limitar el acceso a los recursos ayuda a evitar el uso indebido no intencionado y malintencionado de los datos.</t>
         </is>
       </c>
       <c r="F628" s="18" t="inlineStr">
@@ -33074,16 +33058,12 @@
         </is>
       </c>
       <c r="H628" s="18" t="n"/>
-      <c r="I628" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I628" s="13" t="n"/>
       <c r="J628" s="13" t="n"/>
       <c r="K628" s="19" t="n"/>
       <c r="L628" s="19" t="inlineStr">
         <is>
-          <t>352beee0-79b5-488d-bfc4-972cd3cd21bf</t>
+          <t>a4b1410d-4395-48a8-a228-9b3d6b57cfc6</t>
         </is>
       </c>
       <c r="M628" s="20" t="n"/>
@@ -33110,17 +33090,17 @@
       </c>
       <c r="D629" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de vincular SAS a una directiva de acceso almacenada</t>
+          <t>Al usar SAS, prefiera "SAS de delegación de usuarios" en lugar de SAS basada en claves de cuenta de almacenamiento.</t>
         </is>
       </c>
       <c r="E629" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Las directivas de acceso almacenadas ofrecen la opción de revocar los permisos de una SAS de servicio sin tener que volver a generar las claves de la cuenta de almacenamiento. </t>
+          <t xml:space="preserve">Una SAS de delegación de usuarios está protegida con credenciales de Azure Active Directory (Azure AD) y también con los permisos especificados para la SAS. Una SAS de delegación de usuarios es análoga a una SAS de servicio en cuanto a su ámbito y función, pero ofrece ventajas de seguridad sobre la SAS de servicio. </t>
         </is>
       </c>
       <c r="F629" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G629" t="inlineStr">
@@ -33138,7 +33118,7 @@
       <c r="K629" s="19" t="n"/>
       <c r="L629" s="19" t="inlineStr">
         <is>
-          <t>77036e5e-6b4b-4ed3-b503-547c1347dc56</t>
+          <t>55461e1a-3e34-453a-9c86-39648b652d6c</t>
         </is>
       </c>
       <c r="M629" s="20" t="n"/>
@@ -33165,13 +33145,17 @@
       </c>
       <c r="D630" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de configurar el repositorio de código fuente de la aplicación para detectar cadenas de conexión protegidas y claves de cuenta de almacenamiento.</t>
-        </is>
-      </c>
-      <c r="E630" s="18" t="n"/>
+          <t>Considere la posibilidad de deshabilitar las claves de la cuenta de almacenamiento, de modo que solo se admita el acceso a AAD (y la SAS de delegación de usuarios).</t>
+        </is>
+      </c>
+      <c r="E630" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Las claves de la cuenta de almacenamiento ("claves compartidas") tienen muy pocas funcionalidades de auditoría. Si bien se puede monitorear quién o cuándo obtuvo una copia de las claves, una vez que las claves están en manos de varias personas, es imposible atribuir el uso a un usuario específico. Confiar únicamente en la autenticación de AAD facilita la vinculación del acceso al almacenamiento a un usuario. </t>
+        </is>
+      </c>
       <c r="F630" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G630" t="inlineStr">
@@ -33189,7 +33173,7 @@
       <c r="K630" s="19" t="n"/>
       <c r="L630" s="19" t="inlineStr">
         <is>
-          <t>028a71ff-e1ce-415d-b3f0-d5e772d41e36</t>
+          <t>15f51296-5398-4e6d-bd22-7dd142b06c21</t>
         </is>
       </c>
       <c r="M630" s="20" t="n"/>
@@ -33216,12 +33200,12 @@
       </c>
       <c r="D631" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de almacenar cadenas de conexión en Azure KeyVault (en escenarios en los que las identidades administradas no son posibles)</t>
+          <t>Considere la posibilidad de usar Azure Monitor para auditar las operaciones del plano de control en la cuenta de almacenamiento</t>
         </is>
       </c>
       <c r="E631" s="18" t="inlineStr">
         <is>
-          <t>Lo ideal es que la aplicación use una identidad administrada para autenticarse en Azure Storage. Si esto no es posible, considere la posibilidad de tener la credencial de almacenamiento (cadena de conexión, clave de cuenta de almacenamiento, SAS, credencial de entidad de servicio) en Azure KeyVault o un servicio equivalente.</t>
+          <t>Use los datos del registro de actividad para identificar "cuándo", "quién", "qué" y "cómo" se está viendo o cambiando la seguridad de la cuenta de almacenamiento (es decir, claves de cuenta de almacenamiento, directivas de acceso, etc.).</t>
         </is>
       </c>
       <c r="F631" s="18" t="inlineStr">
@@ -33244,7 +33228,7 @@
       <c r="K631" s="19" t="n"/>
       <c r="L631" s="19" t="inlineStr">
         <is>
-          <t>11cc57b4-a4b1-4410-b439-58a8c2289b3d</t>
+          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
         </is>
       </c>
       <c r="M631" s="20" t="n"/>
@@ -33271,17 +33255,17 @@
       </c>
       <c r="D632" s="18" t="inlineStr">
         <is>
-          <t>Esfuércese por obtener períodos de validez cortos para SAS ad-hoc</t>
+          <t>Al usar claves de cuenta de almacenamiento, considere la posibilidad de habilitar una "directiva de expiración de claves"</t>
         </is>
       </c>
       <c r="E632" s="18" t="inlineStr">
         <is>
-          <t>Use los tiempos de expiración a corto plazo en una SAS de servicio SAS ad hoc o en una SAS de cuenta. De esta manera, incluso si una SAS se ve comprometida, es válida solo por un corto tiempo. Esta práctica es especialmente importante si no puede hacer referencia a una directiva de acceso almacenada. Los tiempos de expiración a corto plazo también limitan la cantidad de datos que se pueden escribir en un blob al limitar el tiempo disponible para cargarlo.</t>
+          <t>Una directiva de expiración de claves le permite establecer un recordatorio para la rotación de las claves de acceso a la cuenta. El recordatorio se muestra si ha transcurrido el intervalo especificado y las teclas aún no se han girado.</t>
         </is>
       </c>
       <c r="F632" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G632" t="inlineStr">
@@ -33299,7 +33283,7 @@
       <c r="K632" s="19" t="n"/>
       <c r="L632" s="19" t="inlineStr">
         <is>
-          <t>27138b82-1102-4cac-9eae-01e6e842e52f</t>
+          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
         </is>
       </c>
       <c r="M632" s="20" t="n"/>
@@ -33326,12 +33310,12 @@
       </c>
       <c r="D633" s="18" t="inlineStr">
         <is>
-          <t>Aplicación de un ámbito limitado a una SAS</t>
+          <t>Considere la posibilidad de configurar una directiva de expiración de SAS</t>
         </is>
       </c>
       <c r="E633" s="18" t="inlineStr">
         <is>
-          <t>Al crear una SAS, sea lo más específico y restrictivo posible. Prefiera una SAS para un solo recurso y operación en lugar de una SAS que proporciona un acceso mucho más amplio.</t>
+          <t>Una directiva de expiración de SAS especifica un intervalo recomendado durante el cual la SAS es válida. Las directivas de expiración de SAS se aplican a una SAS de servicio o a una SAS de cuenta. Cuando un usuario genera una SAS de servicio o una SAS de cuenta con un intervalo de validez mayor que el intervalo recomendado, verá una advertencia.</t>
         </is>
       </c>
       <c r="F633" s="18" t="inlineStr">
@@ -33354,7 +33338,7 @@
       <c r="K633" s="19" t="n"/>
       <c r="L633" s="19" t="inlineStr">
         <is>
-          <t>4721d928-c1b1-4cd5-81e5-4a29a9de399c</t>
+          <t>352beee0-79b5-488d-bfc4-972cd3cd21bf</t>
         </is>
       </c>
       <c r="M633" s="20" t="n"/>
@@ -33381,12 +33365,12 @@
       </c>
       <c r="D634" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de definir el ámbito de SAS en una dirección IP de cliente específica, siempre que sea posible</t>
+          <t>Considere la posibilidad de vincular SAS a una directiva de acceso almacenada</t>
         </is>
       </c>
       <c r="E634" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Una SAS puede incluir parámetros en los que las direcciones IP de cliente o los intervalos de direcciones están autorizados a solicitar un recurso mediante la SAS. </t>
+          <t xml:space="preserve">Las directivas de acceso almacenadas ofrecen la opción de revocar los permisos de una SAS de servicio sin tener que volver a generar las claves de la cuenta de almacenamiento. </t>
         </is>
       </c>
       <c r="F634" s="18" t="inlineStr">
@@ -33409,7 +33393,7 @@
       <c r="K634" s="19" t="n"/>
       <c r="L634" s="19" t="inlineStr">
         <is>
-          <t>fd7b28dc-9355-4562-82bf-e4564b0d834a</t>
+          <t>77036e5e-6b4b-4ed3-b503-547c1347dc56</t>
         </is>
       </c>
       <c r="M634" s="20" t="n"/>
@@ -33436,17 +33420,13 @@
       </c>
       <c r="D635" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere la posibilidad de comprobar los datos cargados, después de que los clientes hayan usado una SAS para cargar un archivo. </t>
-        </is>
-      </c>
-      <c r="E635" s="18" t="inlineStr">
-        <is>
-          <t>Una SAS no puede restringir la cantidad de datos que carga un cliente; Dado el modelo de precios de la cantidad de almacenamiento a lo largo del tiempo, podría tener sentido validar si los clientes cargaron contenido de gran tamaño malintencionado.</t>
-        </is>
-      </c>
+          <t>Considere la posibilidad de configurar el repositorio de código fuente de la aplicación para detectar cadenas de conexión protegidas y claves de cuenta de almacenamiento.</t>
+        </is>
+      </c>
+      <c r="E635" s="18" t="n"/>
       <c r="F635" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G635" t="inlineStr">
@@ -33455,12 +33435,16 @@
         </is>
       </c>
       <c r="H635" s="18" t="n"/>
-      <c r="I635" s="13" t="n"/>
+      <c r="I635" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J635" s="13" t="n"/>
       <c r="K635" s="19" t="n"/>
       <c r="L635" s="19" t="inlineStr">
         <is>
-          <t>348b263e-6dd6-4051-8a36-498f6dbad38e</t>
+          <t>028a71ff-e1ce-415d-b3f0-d5e772d41e36</t>
         </is>
       </c>
       <c r="M635" s="20" t="n"/>
@@ -33487,12 +33471,12 @@
       </c>
       <c r="D636" s="18" t="inlineStr">
         <is>
-          <t>SFTP: Limite la cantidad de "usuarios locales" para el acceso SFTP y audite si el acceso es necesario a lo largo del tiempo.</t>
+          <t>Considere la posibilidad de almacenar cadenas de conexión en Azure KeyVault (en escenarios en los que las identidades administradas no son posibles)</t>
         </is>
       </c>
       <c r="E636" s="18" t="inlineStr">
         <is>
-          <t>Al acceder a Blob Storage a través de SFTP mediante una "cuenta de usuario local", no se aplican los controles RBAC "habituales". El acceso a blobs a través de NFS o REST puede ser más restrictivo que el acceso SFTP. Desafortunadamente, a partir de principios de 2023, los usuarios locales son la única forma de administración de identidades que actualmente se admite para el punto de conexión SFTP</t>
+          <t>Lo ideal es que la aplicación use una identidad administrada para autenticarse en Azure Storage. Si esto no es posible, considere la posibilidad de tener la credencial de almacenamiento (cadena de conexión, clave de cuenta de almacenamiento, SAS, credencial de entidad de servicio) en Azure KeyVault o un servicio equivalente.</t>
         </is>
       </c>
       <c r="F636" s="18" t="inlineStr">
@@ -33515,7 +33499,7 @@
       <c r="K636" s="19" t="n"/>
       <c r="L636" s="19" t="inlineStr">
         <is>
-          <t>ad53cc7c-e1d7-4aaa-a357-1449ab8053d8</t>
+          <t>11cc57b4-a4b1-4410-b439-58a8c2289b3d</t>
         </is>
       </c>
       <c r="M636" s="20" t="n"/>
@@ -33542,13 +33526,17 @@
       </c>
       <c r="D637" s="18" t="inlineStr">
         <is>
-          <t>SFTP: El punto de conexión SFTP no admite ACL similares a POSIX.</t>
-        </is>
-      </c>
-      <c r="E637" s="18" t="n"/>
+          <t>Esfuércese por obtener períodos de validez cortos para SAS ad-hoc</t>
+        </is>
+      </c>
+      <c r="E637" s="18" t="inlineStr">
+        <is>
+          <t>Use los tiempos de expiración a corto plazo en una SAS de servicio SAS ad hoc o en una SAS de cuenta. De esta manera, incluso si una SAS se ve comprometida, es válida solo por un corto tiempo. Esta práctica es especialmente importante si no puede hacer referencia a una directiva de acceso almacenada. Los tiempos de expiración a corto plazo también limitan la cantidad de datos que se pueden escribir en un blob al limitar el tiempo disponible para cargarlo.</t>
+        </is>
+      </c>
       <c r="F637" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G637" t="inlineStr">
@@ -33566,7 +33554,7 @@
       <c r="K637" s="19" t="n"/>
       <c r="L637" s="19" t="inlineStr">
         <is>
-          <t>9f89dc7b-33be-42a1-a27f-7b9e91be1f38</t>
+          <t>27138b82-1102-4cac-9eae-01e6e842e52f</t>
         </is>
       </c>
       <c r="M637" s="20" t="n"/>
@@ -33593,17 +33581,17 @@
       </c>
       <c r="D638" s="18" t="inlineStr">
         <is>
-          <t>Evite las políticas de CORS demasiado amplias</t>
+          <t>Aplicación de un ámbito limitado a una SAS</t>
         </is>
       </c>
       <c r="E638" s="18" t="inlineStr">
         <is>
-          <t>El almacenamiento es compatible con CORS (Cross-Origin Resource Sharing), es decir, una función HTTP que permite a las aplicaciones web de un dominio diferente relajar la política del mismo origen. Al habilitar CORS, mantenga CorsRules con el mínimo privilegio.</t>
+          <t>Al crear una SAS, sea lo más específico y restrictivo posible. Prefiera una SAS para un solo recurso y operación en lugar de una SAS que proporciona un acceso mucho más amplio.</t>
         </is>
       </c>
       <c r="F638" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G638" t="inlineStr">
@@ -33621,7 +33609,7 @@
       <c r="K638" s="19" t="n"/>
       <c r="L638" s="19" t="inlineStr">
         <is>
-          <t>cef39812-bd46-43cb-aac8-ac199ebb91a3</t>
+          <t>4721d928-c1b1-4cd5-81e5-4a29a9de399c</t>
         </is>
       </c>
       <c r="M638" s="20" t="n"/>
@@ -33648,17 +33636,17 @@
       </c>
       <c r="D639" s="18" t="inlineStr">
         <is>
-          <t>Determine cómo se deben cifrar los datos en reposo. Comprender el modelo de subprocesos para los datos.</t>
+          <t>Considere la posibilidad de definir el ámbito de SAS en una dirección IP de cliente específica, siempre que sea posible</t>
         </is>
       </c>
       <c r="E639" s="18" t="inlineStr">
         <is>
-          <t>Los datos en reposo siempre están cifrados en el lado del servidor y, además, también pueden estar cifrados en el lado del cliente. El cifrado del lado del servidor puede realizarse mediante una clave administrada por la plataforma (predeterminada) o una clave administrada por el cliente. El cifrado del lado cliente puede producirse haciendo que el cliente proporcione una clave de cifrado y descifrado por blob a Azure Storage o controlando completamente el cifrado en el lado cliente. por lo tanto, no depende en absoluto de Azure Storage para obtener garantías de confidencialidad.</t>
+          <t xml:space="preserve">Una SAS puede incluir parámetros en los que las direcciones IP de cliente o los intervalos de direcciones están autorizados a solicitar un recurso mediante la SAS. </t>
         </is>
       </c>
       <c r="F639" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G639" t="inlineStr">
@@ -33676,7 +33664,7 @@
       <c r="K639" s="19" t="n"/>
       <c r="L639" s="19" t="inlineStr">
         <is>
-          <t>3d90cae2-cc88-4137-86f7-c0cbafe61464</t>
+          <t>fd7b28dc-9355-4562-82bf-e4564b0d834a</t>
         </is>
       </c>
       <c r="M639" s="20" t="n"/>
@@ -33703,13 +33691,17 @@
       </c>
       <c r="D640" s="18" t="inlineStr">
         <is>
-          <t>Determine qué cifrado de plataforma se debe usar o si se debe usar.</t>
-        </is>
-      </c>
-      <c r="E640" s="18" t="n"/>
+          <t xml:space="preserve">Considere la posibilidad de comprobar los datos cargados, después de que los clientes hayan usado una SAS para cargar un archivo. </t>
+        </is>
+      </c>
+      <c r="E640" s="18" t="inlineStr">
+        <is>
+          <t>Una SAS no puede restringir la cantidad de datos que carga un cliente; Dado el modelo de precios de la cantidad de almacenamiento a lo largo del tiempo, podría tener sentido validar si los clientes cargaron contenido de gran tamaño malintencionado.</t>
+        </is>
+      </c>
       <c r="F640" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G640" t="inlineStr">
@@ -33718,16 +33710,12 @@
         </is>
       </c>
       <c r="H640" s="18" t="n"/>
-      <c r="I640" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I640" s="13" t="n"/>
       <c r="J640" s="13" t="n"/>
       <c r="K640" s="19" t="n"/>
       <c r="L640" s="19" t="inlineStr">
         <is>
-          <t>8dd457e9-2713-48b8-8110-2cac6eae01e6</t>
+          <t>348b263e-6dd6-4051-8a36-498f6dbad38e</t>
         </is>
       </c>
       <c r="M640" s="20" t="n"/>
@@ -33754,13 +33742,17 @@
       </c>
       <c r="D641" s="18" t="inlineStr">
         <is>
-          <t>Determine qué cifrado del lado del cliente se debe usar o si.</t>
-        </is>
-      </c>
-      <c r="E641" s="18" t="n"/>
+          <t>SFTP: Limite la cantidad de "usuarios locales" para el acceso SFTP y audite si el acceso es necesario a lo largo del tiempo.</t>
+        </is>
+      </c>
+      <c r="E641" s="18" t="inlineStr">
+        <is>
+          <t>Al acceder a Blob Storage a través de SFTP mediante una "cuenta de usuario local", no se aplican los controles RBAC "habituales". El acceso a blobs a través de NFS o REST puede ser más restrictivo que el acceso SFTP. Desafortunadamente, a partir de principios de 2023, los usuarios locales son la única forma de administración de identidades que actualmente se admite para el punto de conexión SFTP</t>
+        </is>
+      </c>
       <c r="F641" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G641" t="inlineStr">
@@ -33778,7 +33770,7 @@
       <c r="K641" s="19" t="n"/>
       <c r="L641" s="19" t="inlineStr">
         <is>
-          <t>e842e52f-4721-4d92-ac1b-1cd521e54a29</t>
+          <t>ad53cc7c-e1d7-4aaa-a357-1449ab8053d8</t>
         </is>
       </c>
       <c r="M641" s="20" t="n"/>
@@ -33805,17 +33797,13 @@
       </c>
       <c r="D642" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere si se necesita acceso público a blobs o si se puede deshabilitar para determinadas cuentas de almacenamiento. </t>
-        </is>
-      </c>
-      <c r="E642" s="18" t="inlineStr">
-        <is>
-          <t>Aproveche el Explorador de Resource Graph (resources | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true) para buscar cuentas de almacenamiento que permitan el acceso anónimo a blobs.</t>
-        </is>
-      </c>
+          <t>SFTP: El punto de conexión SFTP no admite ACL similares a POSIX.</t>
+        </is>
+      </c>
+      <c r="E642" s="18" t="n"/>
       <c r="F642" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G642" t="inlineStr">
@@ -33833,7 +33821,7 @@
       <c r="K642" s="19" t="n"/>
       <c r="L642" s="19" t="inlineStr">
         <is>
-          <t>659ae558-b937-4d49-a5e1-112dbd7ba012</t>
+          <t>9f89dc7b-33be-42a1-a27f-7b9e91be1f38</t>
         </is>
       </c>
       <c r="M642" s="20" t="n"/>
@@ -33845,25 +33833,29 @@
     <row r="643">
       <c r="A643" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps checklist</t>
+          <t>Azure Blob Storage Review</t>
         </is>
       </c>
       <c r="B643" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C643" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D643" s="18" t="inlineStr">
         <is>
-          <t>Seleccione el plan de hospedaje de aplicaciones lógicas adecuado en función de los requisitos empresariales y de SLO</t>
-        </is>
-      </c>
-      <c r="E643" s="18" t="n"/>
+          <t>Evite las políticas de CORS demasiado amplias</t>
+        </is>
+      </c>
+      <c r="E643" s="18" t="inlineStr">
+        <is>
+          <t>El almacenamiento es compatible con CORS (Cross-Origin Resource Sharing), es decir, una función HTTP que permite a las aplicaciones web de un dominio diferente relajar la política del mismo origen. Al habilitar CORS, mantenga CorsRules con el mínimo privilegio.</t>
+        </is>
+      </c>
       <c r="F643" s="18" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -33884,7 +33876,7 @@
       <c r="K643" s="19" t="n"/>
       <c r="L643" s="19" t="inlineStr">
         <is>
-          <t>3b7a56de-5020-4642-b3cb-c976e80b6d6d</t>
+          <t>cef39812-bd46-43cb-aac8-ac199ebb91a3</t>
         </is>
       </c>
       <c r="M643" s="20" t="n"/>
@@ -33896,25 +33888,29 @@
     <row r="644">
       <c r="A644" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps checklist</t>
+          <t>Azure Blob Storage Review</t>
         </is>
       </c>
       <c r="B644" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C644" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D644" s="18" t="inlineStr">
         <is>
-          <t>Proteja las aplicaciones lógicas de errores de región con redundancia de zona y zonas de disponibilidad</t>
-        </is>
-      </c>
-      <c r="E644" s="18" t="n"/>
+          <t>Determine cómo se deben cifrar los datos en reposo. Comprender el modelo de subprocesos para los datos.</t>
+        </is>
+      </c>
+      <c r="E644" s="18" t="inlineStr">
+        <is>
+          <t>Los datos en reposo siempre están cifrados en el lado del servidor y, además, también pueden estar cifrados en el lado del cliente. El cifrado del lado del servidor puede realizarse mediante una clave administrada por la plataforma (predeterminada) o una clave administrada por el cliente. El cifrado del lado cliente puede producirse haciendo que el cliente proporcione una clave de cifrado y descifrado por blob a Azure Storage o controlando completamente el cifrado en el lado cliente. por lo tanto, no depende en absoluto de Azure Storage para obtener garantías de confidencialidad.</t>
+        </is>
+      </c>
       <c r="F644" s="18" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -33935,7 +33931,7 @@
       <c r="K644" s="19" t="n"/>
       <c r="L644" s="19" t="inlineStr">
         <is>
-          <t>3d7008bd-6bc1-4b03-8aa8-ec2a3b55786a</t>
+          <t>3d90cae2-cc88-4137-86f7-c0cbafe61464</t>
         </is>
       </c>
       <c r="M644" s="20" t="n"/>
@@ -33947,28 +33943,28 @@
     <row r="645">
       <c r="A645" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps checklist</t>
+          <t>Azure Blob Storage Review</t>
         </is>
       </c>
       <c r="B645" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C645" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D645" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de una estrategia de recuperación ante desastres entre regiones para cargas de trabajo críticas</t>
+          <t>Determine qué cifrado de plataforma se debe usar o si se debe usar.</t>
         </is>
       </c>
       <c r="E645" s="18" t="n"/>
       <c r="F645" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G645" t="inlineStr">
@@ -33986,7 +33982,7 @@
       <c r="K645" s="19" t="n"/>
       <c r="L645" s="19" t="inlineStr">
         <is>
-          <t>1cda768f-a206-445d-8234-56f6a6e7286e</t>
+          <t>8dd457e9-2713-48b8-8110-2cac6eae01e6</t>
         </is>
       </c>
       <c r="M645" s="20" t="n"/>
@@ -33998,28 +33994,28 @@
     <row r="646">
       <c r="A646" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps checklist</t>
+          <t>Azure Blob Storage Review</t>
         </is>
       </c>
       <c r="B646" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C646" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D646" s="18" t="inlineStr">
         <is>
-          <t>Si se implementa en un entorno aislado, use o migre a App Service Environment (ASE) v3</t>
+          <t>Determine qué cifrado del lado del cliente se debe usar o si.</t>
         </is>
       </c>
       <c r="E646" s="18" t="n"/>
       <c r="F646" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G646" t="inlineStr">
@@ -34037,7 +34033,7 @@
       <c r="K646" s="19" t="n"/>
       <c r="L646" s="19" t="inlineStr">
         <is>
-          <t>82118ec5-ed6f-4c68-9471-eb0da98a1b34</t>
+          <t>e842e52f-4721-4d92-ac1b-1cd521e54a29</t>
         </is>
       </c>
       <c r="M646" s="20" t="n"/>
@@ -34049,28 +34045,32 @@
     <row r="647">
       <c r="A647" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps checklist</t>
+          <t>Azure Blob Storage Review</t>
         </is>
       </c>
       <c r="B647" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C647" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D647" s="18" t="inlineStr">
         <is>
-          <t>Aproveche Azure DevOps o GitHub para simplificar la CI/CD y proteger el código de la aplicación lógica</t>
-        </is>
-      </c>
-      <c r="E647" s="18" t="n"/>
+          <t xml:space="preserve">Considere si se necesita acceso público a blobs o si se puede deshabilitar para determinadas cuentas de almacenamiento. </t>
+        </is>
+      </c>
+      <c r="E647" s="18" t="inlineStr">
+        <is>
+          <t>Aproveche el Explorador de Resource Graph (resources | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true) para buscar cuentas de almacenamiento que permitan el acceso anónimo a blobs.</t>
+        </is>
+      </c>
       <c r="F647" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G647" t="inlineStr">
@@ -34088,7 +34088,7 @@
       <c r="K647" s="19" t="n"/>
       <c r="L647" s="19" t="inlineStr">
         <is>
-          <t>74275fa5-9e08-4c7e-b096-13b538fe1501</t>
+          <t>659ae558-b937-4d49-a5e1-112dbd7ba012</t>
         </is>
       </c>
       <c r="M647" s="20" t="n"/>
@@ -34100,28 +34100,28 @@
     <row r="648">
       <c r="A648" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B648" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C648" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D648" s="18" t="inlineStr">
         <is>
-          <t>Si usa certificados TLS administrados por el cliente con Azure Front Door, use la versión de certificado "más reciente". Reduzca el riesgo de interrupciones causadas por la renovación manual de certificados</t>
+          <t>Seleccione el plan de hospedaje de aplicaciones lógicas adecuado en función de los requisitos empresariales y de SLO</t>
         </is>
       </c>
       <c r="E648" s="18" t="n"/>
       <c r="F648" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G648" t="inlineStr">
@@ -34139,7 +34139,7 @@
       <c r="K648" s="19" t="n"/>
       <c r="L648" s="19" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>3b7a56de-5020-4642-b3cb-c976e80b6d6d</t>
         </is>
       </c>
       <c r="M648" s="20" t="n"/>
@@ -34151,28 +34151,28 @@
     <row r="649">
       <c r="A649" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B649" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C649" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D649" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que usa la SKU de Application Gateway v2</t>
+          <t>Proteja las aplicaciones lógicas de errores de región con redundancia de zona y zonas de disponibilidad</t>
         </is>
       </c>
       <c r="E649" s="18" t="n"/>
       <c r="F649" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G649" t="inlineStr">
@@ -34186,19 +34186,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J649" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
-      <c r="K649" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/applicationgateways' | project id, compliant = properties.sku.name in ('Standard_v2', 'WAF_v2') | project id,compliant</t>
-        </is>
-      </c>
+      <c r="J649" s="13" t="n"/>
+      <c r="K649" s="19" t="n"/>
       <c r="L649" s="19" t="inlineStr">
         <is>
-          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
+          <t>3d7008bd-6bc1-4b03-8aa8-ec2a3b55786a</t>
         </is>
       </c>
       <c r="M649" s="20" t="n"/>
@@ -34210,28 +34202,28 @@
     <row r="650">
       <c r="A650" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B650" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C650" s="18" t="inlineStr">
         <is>
-          <t>Load Balancer</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D650" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que usa la SKU estándar para Azure Load Balancers</t>
+          <t>Considere la posibilidad de una estrategia de recuperación ante desastres entre regiones para cargas de trabajo críticas</t>
         </is>
       </c>
       <c r="E650" s="18" t="n"/>
       <c r="F650" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G650" t="inlineStr">
@@ -34246,14 +34238,10 @@
         </is>
       </c>
       <c r="J650" s="13" t="n"/>
-      <c r="K650" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/loadbalancers' | project id, compliant=(tolower(sku.name) == 'standard')</t>
-        </is>
-      </c>
+      <c r="K650" s="19" t="n"/>
       <c r="L650" s="19" t="inlineStr">
         <is>
-          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
+          <t>1cda768f-a206-445d-8234-56f6a6e7286e</t>
         </is>
       </c>
       <c r="M650" s="20" t="n"/>
@@ -34265,28 +34253,28 @@
     <row r="651">
       <c r="A651" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B651" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C651" s="18" t="inlineStr">
         <is>
-          <t>Load Balancer</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D651" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que las direcciones IP de front-end de Load Balancers tengan redundancia de zona (a menos que necesite front-end zonal).</t>
+          <t>Si se implementa en un entorno aislado, use o migre a App Service Environment (ASE) v3</t>
         </is>
       </c>
       <c r="E651" s="18" t="n"/>
       <c r="F651" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G651" t="inlineStr">
@@ -34304,7 +34292,7 @@
       <c r="K651" s="19" t="n"/>
       <c r="L651" s="19" t="inlineStr">
         <is>
-          <t>9432621a-8397-4654-a882-5bc856b7ef83</t>
+          <t>82118ec5-ed6f-4c68-9471-eb0da98a1b34</t>
         </is>
       </c>
       <c r="M651" s="20" t="n"/>
@@ -34316,22 +34304,22 @@
     <row r="652">
       <c r="A652" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B652" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C652" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D652" s="18" t="inlineStr">
         <is>
-          <t>Application Gateways v2 debe implementarse en subredes con prefijos IP iguales o mayores que /24</t>
+          <t>Aproveche Azure DevOps o GitHub para simplificar la CI/CD y proteger el código de la aplicación lógica</t>
         </is>
       </c>
       <c r="E652" s="18" t="n"/>
@@ -34351,19 +34339,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J652" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
-      <c r="K652" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/applicationgateways' | extend subnetId = tostring(properties.gatewayIPConfigurations[0].properties.subnet.id) | project id, subnetId | join (resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | mv-expand subnets.properties.addressPrefixes | project id, subnetId = tostring(subnets.id), prefix1 = subnets.properties.addressPrefix, prefix2 = subnets.properties.addressPrefixes | mv-expand prefix2 | extend prefix = iff(isnotnull(prefix1), prefix1, prefix2) | extend subnetPrefixLength = split(prefix, '/')[1])on subnetId | extend compliant = (subnetPrefixLength &lt;= 24 or subnetPrefixLength == 64) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="J652" s="13" t="n"/>
+      <c r="K652" s="19" t="n"/>
       <c r="L652" s="19" t="inlineStr">
         <is>
-          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
+          <t>74275fa5-9e08-4c7e-b096-13b538fe1501</t>
         </is>
       </c>
       <c r="M652" s="20" t="n"/>
@@ -34380,24 +34360,20 @@
       </c>
       <c r="B653" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C653" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D653" s="18" t="inlineStr">
         <is>
-          <t>Implemente Azure Application Gateway v2 o aplicaciones virtuales de red de asociados que se usan para proxy de conexiones HTTP(S) entrantes dentro de la red virtual de la zona de aterrizaje y con las aplicaciones que están protegiendo.</t>
-        </is>
-      </c>
-      <c r="E653" s="18" t="inlineStr">
-        <is>
-          <t>La administración de proxies inversos en general y de WAF en particular está más cerca de la aplicación que de la red, por lo que pertenecen a la misma suscripción que la aplicación. La centralización de Application Gateway y WAF en la suscripción de conectividad puede ser correcta si la administra un solo equipo.</t>
-        </is>
-      </c>
+          <t>Si usa certificados TLS administrados por el cliente con Azure Front Door, use la versión de certificado "más reciente". Reduzca el riesgo de interrupciones causadas por la renovación manual de certificados</t>
+        </is>
+      </c>
+      <c r="E653" s="18" t="n"/>
       <c r="F653" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -34414,15 +34390,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J653" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+      <c r="J653" s="13" t="n"/>
       <c r="K653" s="19" t="n"/>
       <c r="L653" s="19" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M653" s="20" t="n"/>
@@ -34449,7 +34421,7 @@
       </c>
       <c r="D654" s="18" t="inlineStr">
         <is>
-          <t>Use una red DDoS o planes de protección IP para todas las direcciones IP públicas en las zonas de aterrizaje de la aplicación.</t>
+          <t>Asegúrese de que usa la SKU de Application Gateway v2</t>
         </is>
       </c>
       <c r="E654" s="18" t="n"/>
@@ -34471,13 +34443,17 @@
       </c>
       <c r="J654" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K654" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
+      <c r="K654" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/applicationgateways' | project id, compliant = properties.sku.name in ('Standard_v2', 'WAF_v2') | project id,compliant</t>
+        </is>
+      </c>
       <c r="L654" s="19" t="inlineStr">
         <is>
-          <t>f109e1f3-c79b-4f14-82de-6b5c22314d08</t>
+          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M654" s="20" t="n"/>
@@ -34494,17 +34470,17 @@
       </c>
       <c r="B655" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C655" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="D655" s="18" t="inlineStr">
         <is>
-          <t>Configure el escalado automático con una cantidad mínima de instancias de dos.</t>
+          <t>Asegúrese de que usa la SKU estándar para Azure Load Balancers</t>
         </is>
       </c>
       <c r="E655" s="18" t="n"/>
@@ -34524,19 +34500,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J655" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+      <c r="J655" s="13" t="n"/>
       <c r="K655" s="19" t="inlineStr">
         <is>
-          <t>resources | where type =~ 'microsoft.network/applicationGateways' | extend compliant = (isnotnull(properties.autoscaleConfiguration) and properties.autoscaleConfiguration.minCapacity &gt;= 2) | distinct id,compliant</t>
+          <t>resources | where type == 'microsoft.network/loadbalancers' | project id, compliant=(tolower(sku.name) == 'standard')</t>
         </is>
       </c>
       <c r="L655" s="19" t="inlineStr">
         <is>
-          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
+          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
         </is>
       </c>
       <c r="M655" s="20" t="n"/>
@@ -34553,17 +34525,17 @@
       </c>
       <c r="B656" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C656" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="D656" s="18" t="inlineStr">
         <is>
-          <t>Implementación de Application Gateway en zonas de disponibilidad</t>
+          <t>Asegúrese de que las direcciones IP de front-end de Load Balancers tengan redundancia de zona (a menos que necesite front-end zonal).</t>
         </is>
       </c>
       <c r="E656" s="18" t="n"/>
@@ -34583,19 +34555,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J656" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
-      <c r="K656" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type =~ 'microsoft.network/applicationGateways' | extend compliant = (isnotnull(zones) and array_length(zones) &gt; 1) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="J656" s="13" t="n"/>
+      <c r="K656" s="19" t="n"/>
       <c r="L656" s="19" t="inlineStr">
         <is>
-          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
+          <t>9432621a-8397-4654-a882-5bc856b7ef83</t>
         </is>
       </c>
       <c r="M656" s="20" t="n"/>
@@ -34617,12 +34581,12 @@
       </c>
       <c r="C657" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D657" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Front Door con directivas de WAF para entregar y ayudar a proteger aplicaciones HTTP/S globales que abarcan varias regiones de Azure.</t>
+          <t>Application Gateways v2 debe implementarse en subredes con prefijos IP iguales o mayores que /24</t>
         </is>
       </c>
       <c r="E657" s="18" t="n"/>
@@ -34644,13 +34608,17 @@
       </c>
       <c r="J657" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K657" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
+      <c r="K657" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/applicationgateways' | extend subnetId = tostring(properties.gatewayIPConfigurations[0].properties.subnet.id) | project id, subnetId | join (resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | mv-expand subnets.properties.addressPrefixes | project id, subnetId = tostring(subnets.id), prefix1 = subnets.properties.addressPrefix, prefix2 = subnets.properties.addressPrefixes | mv-expand prefix2 | extend prefix = iff(isnotnull(prefix1), prefix1, prefix2) | extend subnetPrefixLength = split(prefix, '/')[1])on subnetId | extend compliant = (subnetPrefixLength &lt;= 24 or subnetPrefixLength == 64) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L657" s="19" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
         </is>
       </c>
       <c r="M657" s="20" t="n"/>
@@ -34672,15 +34640,19 @@
       </c>
       <c r="C658" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D658" s="18" t="inlineStr">
         <is>
-          <t>Al usar Front Door y Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas de WAF en Front Door. Bloquee Application Gateway para recibir tráfico solo de Front Door.</t>
-        </is>
-      </c>
-      <c r="E658" s="18" t="n"/>
+          <t>Implemente Azure Application Gateway v2 o aplicaciones virtuales de red de asociados que se usan para proxy de conexiones HTTP(S) entrantes dentro de la red virtual de la zona de aterrizaje y con las aplicaciones que están protegiendo.</t>
+        </is>
+      </c>
+      <c r="E658" s="18" t="inlineStr">
+        <is>
+          <t>La administración de proxies inversos en general y de WAF en particular está más cerca de la aplicación que de la red, por lo que pertenecen a la misma suscripción que la aplicación. La centralización de Application Gateway y WAF en la suscripción de conectividad puede ser correcta si la administra un solo equipo.</t>
+        </is>
+      </c>
       <c r="F658" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -34699,13 +34671,13 @@
       </c>
       <c r="J658" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="K658" s="19" t="n"/>
       <c r="L658" s="19" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M658" s="20" t="n"/>
@@ -34722,23 +34694,23 @@
       </c>
       <c r="B659" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C659" s="18" t="inlineStr">
         <is>
-          <t>Traffic Manager</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D659" s="18" t="inlineStr">
         <is>
-          <t>Use el Administrador de tráfico para entregar aplicaciones globales que abarquen protocolos distintos de HTTP/S.</t>
+          <t>Use una red DDoS o planes de protección IP para todas las direcciones IP públicas en las zonas de aterrizaje de la aplicación.</t>
         </is>
       </c>
       <c r="E659" s="18" t="n"/>
       <c r="F659" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G659" t="inlineStr">
@@ -34760,7 +34732,7 @@
       <c r="K659" s="19" t="n"/>
       <c r="L659" s="19" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>f109e1f3-c79b-4f14-82de-6b5c22314d08</t>
         </is>
       </c>
       <c r="M659" s="20" t="n"/>
@@ -34777,23 +34749,23 @@
       </c>
       <c r="B660" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C660" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D660" s="18" t="inlineStr">
         <is>
-          <t>Si los usuarios solo necesitan acceso a aplicaciones internas, ¿se ha considerado Microsoft Entra ID Application Proxy como una alternativa a Azure Virtual Desktop (AVD)?</t>
+          <t>Configure el escalado automático con una cantidad mínima de instancias de dos.</t>
         </is>
       </c>
       <c r="E660" s="18" t="n"/>
       <c r="F660" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G660" t="inlineStr">
@@ -34809,13 +34781,17 @@
       </c>
       <c r="J660" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
-        </is>
-      </c>
-      <c r="K660" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
+      <c r="K660" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/applicationGateways' | extend compliant = (isnotnull(properties.autoscaleConfiguration) and properties.autoscaleConfiguration.minCapacity &gt;= 2) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L660" s="19" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
         </is>
       </c>
       <c r="M660" s="20" t="n"/>
@@ -34832,17 +34808,17 @@
       </c>
       <c r="B661" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C661" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D661" s="18" t="inlineStr">
         <is>
-          <t>Para reducir el número de puertos de firewall abiertos para las conexiones entrantes en la red, considere la posibilidad de usar Microsoft Entra ID Application Proxy para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas.</t>
+          <t>Implementación de Application Gateway en zonas de disponibilidad</t>
         </is>
       </c>
       <c r="E661" s="18" t="n"/>
@@ -34864,13 +34840,17 @@
       </c>
       <c r="J661" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
-      <c r="K661" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
+      <c r="K661" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/applicationGateways' | extend compliant = (isnotnull(zones) and array_length(zones) &gt; 1) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L661" s="19" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
         </is>
       </c>
       <c r="M661" s="20" t="n"/>
@@ -34897,13 +34877,13 @@
       </c>
       <c r="D662" s="18" t="inlineStr">
         <is>
-          <t>Implemente la directiva de WAF para Front Door en modo de "prevención".</t>
+          <t>Use Azure Front Door con directivas de WAF para entregar y ayudar a proteger aplicaciones HTTP/S globales que abarcan varias regiones de Azure.</t>
         </is>
       </c>
       <c r="E662" s="18" t="n"/>
       <c r="F662" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G662" t="inlineStr">
@@ -34917,15 +34897,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J662" s="13" t="n"/>
-      <c r="K662" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
-        </is>
-      </c>
+      <c r="J662" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K662" s="19" t="n"/>
       <c r="L662" s="19" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M662" s="20" t="n"/>
@@ -34952,13 +34932,13 @@
       </c>
       <c r="D663" s="18" t="inlineStr">
         <is>
-          <t>Evite combinar Azure Traffic Manager y Azure Front Door.</t>
+          <t>Al usar Front Door y Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas de WAF en Front Door. Bloquee Application Gateway para recibir tráfico solo de Front Door.</t>
         </is>
       </c>
       <c r="E663" s="18" t="n"/>
       <c r="F663" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G663" t="inlineStr">
@@ -34972,11 +34952,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J663" s="13" t="n"/>
+      <c r="J663" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K663" s="19" t="n"/>
       <c r="L663" s="19" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M663" s="20" t="n"/>
@@ -34993,17 +34977,17 @@
       </c>
       <c r="B664" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C664" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Traffic Manager</t>
         </is>
       </c>
       <c r="D664" s="18" t="inlineStr">
         <is>
-          <t>Use el mismo nombre de dominio en Azure Front Door y su origen. Los nombres de host no coincidentes pueden causar errores sutiles.</t>
+          <t>Use el Administrador de tráfico para entregar aplicaciones globales que abarquen protocolos distintos de HTTP/S.</t>
         </is>
       </c>
       <c r="E664" s="18" t="n"/>
@@ -35023,11 +35007,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J664" s="13" t="n"/>
+      <c r="J664" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K664" s="19" t="n"/>
       <c r="L664" s="19" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M664" s="20" t="n"/>
@@ -35044,17 +35032,17 @@
       </c>
       <c r="B665" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C665" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D665" s="18" t="inlineStr">
         <is>
-          <t>Deshabilite los sondeos de estado cuando solo haya un origen en un grupo de orígenes de Azure Front Door.</t>
+          <t>Si los usuarios solo necesitan acceso a aplicaciones internas, ¿se ha considerado Microsoft Entra ID Application Proxy como una alternativa a Azure Virtual Desktop (AVD)?</t>
         </is>
       </c>
       <c r="E665" s="18" t="n"/>
@@ -35074,15 +35062,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J665" s="13" t="n"/>
-      <c r="K665" s="19" t="inlineStr">
-        <is>
-          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/origins' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend originGroupId = substring(id, 0, indexof(id, '/origins')) | join kind=inner (cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend originGroupName = name | extend hasHealthProbe = isnotnull(properties.healthProbeSettings)) on $left.originGroupId == $right.id | summarize numberOrigins = count() by originGroupId, subscriptionId, frontDoorId, hasHealthProbe, originGroupName | extend compliant = not(numberOrigins == 1 and hasHealthProbe) | project id = frontDoorId, compliant</t>
-        </is>
-      </c>
+      <c r="J665" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+        </is>
+      </c>
+      <c r="K665" s="19" t="n"/>
       <c r="L665" s="19" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M665" s="20" t="n"/>
@@ -35099,17 +35087,17 @@
       </c>
       <c r="B666" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C666" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D666" s="18" t="inlineStr">
         <is>
-          <t>Seleccione puntos de conexión de sondeo de estado correctos para Azure Front Door. Considere la posibilidad de crear puntos de conexión de estado que comprueben todas las dependencias de la aplicación.</t>
+          <t>Para reducir el número de puertos de firewall abiertos para las conexiones entrantes en la red, considere la posibilidad de usar Microsoft Entra ID Application Proxy para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas.</t>
         </is>
       </c>
       <c r="E666" s="18" t="n"/>
@@ -35129,11 +35117,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J666" s="13" t="n"/>
+      <c r="J666" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="K666" s="19" t="n"/>
       <c r="L666" s="19" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M666" s="20" t="n"/>
@@ -35150,7 +35142,7 @@
       </c>
       <c r="B667" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C667" s="18" t="inlineStr">
@@ -35160,13 +35152,13 @@
       </c>
       <c r="D667" s="18" t="inlineStr">
         <is>
-          <t>Use sondeos de estado de HEAD con Azure Front Door para reducir el tráfico que Front Door envía a la aplicación.</t>
+          <t>Implemente la directiva de WAF para Front Door en modo de "prevención".</t>
         </is>
       </c>
       <c r="E667" s="18" t="n"/>
       <c r="F667" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G667" t="inlineStr">
@@ -35183,12 +35175,12 @@
       <c r="J667" s="13" t="n"/>
       <c r="K667" s="19" t="inlineStr">
         <is>
-          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups/')) | extend compliant = (isnull(properties['healthProbeSettings']['probeRequestType']) or toupper(properties['healthProbeSettings']['probeRequestType']) == 'HEAD') | project compliant, id=frontDoorId</t>
+          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
         </is>
       </c>
       <c r="L667" s="19" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M667" s="20" t="n"/>
@@ -35205,17 +35197,17 @@
       </c>
       <c r="B668" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C668" s="18" t="inlineStr">
         <is>
-          <t>Load Balancer</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D668" s="18" t="inlineStr">
         <is>
-          <t>Use Azure NAT Gateway en lugar de reglas de salida de Load Balancer para mejorar la escalabilidad de SNAT</t>
+          <t>Evite combinar Azure Traffic Manager y Azure Front Door.</t>
         </is>
       </c>
       <c r="E668" s="18" t="n"/>
@@ -35236,14 +35228,10 @@
         </is>
       </c>
       <c r="J668" s="13" t="n"/>
-      <c r="K668" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/loadbalancers' | extend countOutRules=array_length(properties.outboundRules) | extend compliant = (countOutRules == 0) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K668" s="19" t="n"/>
       <c r="L668" s="19" t="inlineStr">
         <is>
-          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M668" s="20" t="n"/>
@@ -35260,7 +35248,7 @@
       </c>
       <c r="B669" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C669" s="18" t="inlineStr">
@@ -35270,7 +35258,7 @@
       </c>
       <c r="D669" s="18" t="inlineStr">
         <is>
-          <t>Use certificados TLS administrados con Azure Front Door. Reduzca los costos operativos y el riesgo de interrupciones debido a las renovaciones de certificados.</t>
+          <t>Use el mismo nombre de dominio en Azure Front Door y su origen. Los nombres de host no coincidentes pueden causar errores sutiles.</t>
         </is>
       </c>
       <c r="E669" s="18" t="n"/>
@@ -35291,14 +35279,10 @@
         </is>
       </c>
       <c r="J669" s="13" t="n"/>
-      <c r="K669" s="19" t="inlineStr">
-        <is>
-          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/customdomains' | extend frontDoorId = substring(id, 0, indexof(id, '/customdomains')) | extend compliant = (isnull(properties['tlsSettings']['certificateType']) or tolower(properties['tlsSettings']['certificateType']) =~ 'customercertificate') | project compliant, id = frontDoorId</t>
-        </is>
-      </c>
+      <c r="K669" s="19" t="n"/>
       <c r="L669" s="19" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M669" s="20" t="n"/>
@@ -35315,7 +35299,7 @@
       </c>
       <c r="B670" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C670" s="18" t="inlineStr">
@@ -35325,13 +35309,13 @@
       </c>
       <c r="D670" s="18" t="inlineStr">
         <is>
-          <t>Defina la configuración de WAF de Azure Front Door como código. Mediante el uso de código, puede adoptar más fácilmente una nueva versión del conjunto de reglas y obtener protección adicional.</t>
+          <t>Deshabilite los sondeos de estado cuando solo haya un origen en un grupo de orígenes de Azure Front Door.</t>
         </is>
       </c>
       <c r="E670" s="18" t="n"/>
       <c r="F670" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G670" t="inlineStr">
@@ -35346,10 +35330,14 @@
         </is>
       </c>
       <c r="J670" s="13" t="n"/>
-      <c r="K670" s="19" t="n"/>
+      <c r="K670" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/origins' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend originGroupId = substring(id, 0, indexof(id, '/origins')) | join kind=inner (cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend originGroupName = name | extend hasHealthProbe = isnotnull(properties.healthProbeSettings)) on $left.originGroupId == $right.id | summarize numberOrigins = count() by originGroupId, subscriptionId, frontDoorId, hasHealthProbe, originGroupName | extend compliant = not(numberOrigins == 1 and hasHealthProbe) | project id = frontDoorId, compliant</t>
+        </is>
+      </c>
       <c r="L670" s="19" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M670" s="20" t="n"/>
@@ -35366,7 +35354,7 @@
       </c>
       <c r="B671" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C671" s="18" t="inlineStr">
@@ -35376,13 +35364,13 @@
       </c>
       <c r="D671" s="18" t="inlineStr">
         <is>
-          <t>Use TLS de un extremo a otro con Azure Front Door. Use TLS para las conexiones de los clientes a Front Door y de Front Door al origen.</t>
+          <t>Seleccione puntos de conexión de sondeo de estado correctos para Azure Front Door. Considere la posibilidad de crear puntos de conexión de estado que comprueben todas las dependencias de la aplicación.</t>
         </is>
       </c>
       <c r="E671" s="18" t="n"/>
       <c r="F671" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G671" t="inlineStr">
@@ -35400,7 +35388,7 @@
       <c r="K671" s="19" t="n"/>
       <c r="L671" s="19" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M671" s="20" t="n"/>
@@ -35417,7 +35405,7 @@
       </c>
       <c r="B672" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C672" s="18" t="inlineStr">
@@ -35427,13 +35415,13 @@
       </c>
       <c r="D672" s="18" t="inlineStr">
         <is>
-          <t>Use el redireccionamiento de HTTP a HTTPS con Azure Front Door. Apoye a los clientes más antiguos redirigiéndolos automáticamente a una solicitud HTTPS.</t>
+          <t>Use sondeos de estado de HEAD con Azure Front Door para reducir el tráfico que Front Door envía a la aplicación.</t>
         </is>
       </c>
       <c r="E672" s="18" t="n"/>
       <c r="F672" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G672" t="inlineStr">
@@ -35448,10 +35436,14 @@
         </is>
       </c>
       <c r="J672" s="13" t="n"/>
-      <c r="K672" s="19" t="n"/>
+      <c r="K672" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups/')) | extend compliant = (isnull(properties['healthProbeSettings']['probeRequestType']) or toupper(properties['healthProbeSettings']['probeRequestType']) == 'HEAD') | project compliant, id=frontDoorId</t>
+        </is>
+      </c>
       <c r="L672" s="19" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M672" s="20" t="n"/>
@@ -35468,17 +35460,17 @@
       </c>
       <c r="B673" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C673" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="D673" s="18" t="inlineStr">
         <is>
-          <t>Habilite el WAF de Azure Front Door. Proteja su aplicación de una variedad de ataques.</t>
+          <t>Use Azure NAT Gateway en lugar de reglas de salida de Load Balancer para mejorar la escalabilidad de SNAT</t>
         </is>
       </c>
       <c r="E673" s="18" t="n"/>
@@ -35499,10 +35491,14 @@
         </is>
       </c>
       <c r="J673" s="13" t="n"/>
-      <c r="K673" s="19" t="n"/>
+      <c r="K673" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/loadbalancers' | extend countOutRules=array_length(properties.outboundRules) | extend compliant = (countOutRules == 0) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L673" s="19" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
         </is>
       </c>
       <c r="M673" s="20" t="n"/>
@@ -35519,7 +35515,7 @@
       </c>
       <c r="B674" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C674" s="18" t="inlineStr">
@@ -35529,7 +35525,7 @@
       </c>
       <c r="D674" s="18" t="inlineStr">
         <is>
-          <t>Ajuste el WAF de Azure Front Door para su carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
+          <t>Use certificados TLS administrados con Azure Front Door. Reduzca los costos operativos y el riesgo de interrupciones debido a las renovaciones de certificados.</t>
         </is>
       </c>
       <c r="E674" s="18" t="n"/>
@@ -35550,10 +35546,14 @@
         </is>
       </c>
       <c r="J674" s="13" t="n"/>
-      <c r="K674" s="19" t="n"/>
+      <c r="K674" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/customdomains' | extend frontDoorId = substring(id, 0, indexof(id, '/customdomains')) | extend compliant = (isnull(properties['tlsSettings']['certificateType']) or tolower(properties['tlsSettings']['certificateType']) =~ 'customercertificate') | project compliant, id = frontDoorId</t>
+        </is>
+      </c>
       <c r="L674" s="19" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M674" s="20" t="n"/>
@@ -35570,7 +35570,7 @@
       </c>
       <c r="B675" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C675" s="18" t="inlineStr">
@@ -35580,13 +35580,13 @@
       </c>
       <c r="D675" s="18" t="inlineStr">
         <is>
-          <t>Habilite la característica de inspección del cuerpo de la solicitud habilitada en la directiva WAF de Azure Front Door.</t>
+          <t>Defina la configuración de WAF de Azure Front Door como código. Mediante el uso de código, puede adoptar más fácilmente una nueva versión del conjunto de reglas y obtener protección adicional.</t>
         </is>
       </c>
       <c r="E675" s="18" t="n"/>
       <c r="F675" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G675" t="inlineStr">
@@ -35604,7 +35604,7 @@
       <c r="K675" s="19" t="n"/>
       <c r="L675" s="19" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M675" s="20" t="n"/>
@@ -35631,7 +35631,7 @@
       </c>
       <c r="D676" s="18" t="inlineStr">
         <is>
-          <t>Habilite los conjuntos de reglas predeterminados de WAF de Azure Front Door. Los conjuntos de reglas predeterminados detectan y bloquean los ataques comunes.</t>
+          <t>Use TLS de un extremo a otro con Azure Front Door. Use TLS para las conexiones de los clientes a Front Door y de Front Door al origen.</t>
         </is>
       </c>
       <c r="E676" s="18" t="n"/>
@@ -35655,7 +35655,7 @@
       <c r="K676" s="19" t="n"/>
       <c r="L676" s="19" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M676" s="20" t="n"/>
@@ -35682,13 +35682,13 @@
       </c>
       <c r="D677" s="18" t="inlineStr">
         <is>
-          <t>Habilite el conjunto de reglas de protección contra bots de Azure Front Door WAF. Las reglas de bots detectan bots buenos y malos.</t>
+          <t>Use el redireccionamiento de HTTP a HTTPS con Azure Front Door. Apoye a los clientes más antiguos redirigiéndolos automáticamente a una solicitud HTTPS.</t>
         </is>
       </c>
       <c r="E677" s="18" t="n"/>
       <c r="F677" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G677" t="inlineStr">
@@ -35706,7 +35706,7 @@
       <c r="K677" s="19" t="n"/>
       <c r="L677" s="19" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M677" s="20" t="n"/>
@@ -35733,13 +35733,13 @@
       </c>
       <c r="D678" s="18" t="inlineStr">
         <is>
-          <t>Use la versión más reciente del conjunto de reglas de WAF de Azure Front Door. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
+          <t>Habilite el WAF de Azure Front Door. Proteja su aplicación de una variedad de ataques.</t>
         </is>
       </c>
       <c r="E678" s="18" t="n"/>
       <c r="F678" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G678" t="inlineStr">
@@ -35757,7 +35757,7 @@
       <c r="K678" s="19" t="n"/>
       <c r="L678" s="19" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M678" s="20" t="n"/>
@@ -35784,13 +35784,13 @@
       </c>
       <c r="D679" s="18" t="inlineStr">
         <is>
-          <t>Agregue limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes que envían accidental o intencionadamente grandes cantidades de tráfico en un corto período de tiempo.</t>
+          <t>Ajuste el WAF de Azure Front Door para su carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="E679" s="18" t="n"/>
       <c r="F679" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G679" t="inlineStr">
@@ -35808,7 +35808,7 @@
       <c r="K679" s="19" t="n"/>
       <c r="L679" s="19" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M679" s="20" t="n"/>
@@ -35835,13 +35835,13 @@
       </c>
       <c r="D680" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use un umbral alto para los límites de frecuencia de WAF de Azure Front Door. Los umbrales de límite de velocidad altos evitan el bloqueo del tráfico legítimo, a la vez que proporcionan protección contra un número extremadamente alto de solicitudes que podrían sobrecargar su infraestructura. </t>
+          <t>Habilite la característica de inspección del cuerpo de la solicitud habilitada en la directiva WAF de Azure Front Door.</t>
         </is>
       </c>
       <c r="E680" s="18" t="n"/>
       <c r="F680" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G680" t="inlineStr">
@@ -35859,7 +35859,7 @@
       <c r="K680" s="19" t="n"/>
       <c r="L680" s="19" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M680" s="20" t="n"/>
@@ -35886,13 +35886,13 @@
       </c>
       <c r="D681" s="18" t="inlineStr">
         <is>
-          <t>Si no espera tráfico de todas las regiones geográficas, utilice filtros geográficos para bloquear el tráfico de países no esperados.</t>
+          <t>Habilite los conjuntos de reglas predeterminados de WAF de Azure Front Door. Los conjuntos de reglas predeterminados detectan y bloquean los ataques comunes.</t>
         </is>
       </c>
       <c r="E681" s="18" t="n"/>
       <c r="F681" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G681" t="inlineStr">
@@ -35910,7 +35910,7 @@
       <c r="K681" s="19" t="n"/>
       <c r="L681" s="19" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M681" s="20" t="n"/>
@@ -35937,13 +35937,13 @@
       </c>
       <c r="D682" s="18" t="inlineStr">
         <is>
-          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con el WAF de Azure Front Door. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no puedan coincidir geográficamente.</t>
+          <t>Habilite el conjunto de reglas de protección contra bots de Azure Front Door WAF. Las reglas de bots detectan bots buenos y malos.</t>
         </is>
       </c>
       <c r="E682" s="18" t="n"/>
       <c r="F682" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G682" t="inlineStr">
@@ -35961,7 +35961,7 @@
       <c r="K682" s="19" t="n"/>
       <c r="L682" s="19" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M682" s="20" t="n"/>
@@ -35983,18 +35983,18 @@
       </c>
       <c r="C683" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D683" s="18" t="inlineStr">
         <is>
-          <t>Habilitación del conjunto de reglas de protección contra bots de WAF de Azure Application Gateway Las reglas de bots detectan bots buenos y malos.</t>
+          <t>Use la versión más reciente del conjunto de reglas de WAF de Azure Front Door. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
         </is>
       </c>
       <c r="E683" s="18" t="n"/>
       <c r="F683" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G683" t="inlineStr">
@@ -36009,14 +36009,10 @@
         </is>
       </c>
       <c r="J683" s="13" t="n"/>
-      <c r="K683" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/applicationgatewaywebapplicationfirewallpolicies' | mv-expand properties.managedRules.managedRuleSets | project id, rulesettype = properties_managedRules_managedRuleSets.ruleSetType | extend compliant1 = (rulesettype == 'Microsoft_BotManagerRuleSet') | project id, compliant1 | summarize compliant = max(compliant1) by id</t>
-        </is>
-      </c>
+      <c r="K683" s="19" t="n"/>
       <c r="L683" s="19" t="inlineStr">
         <is>
-          <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M683" s="20" t="n"/>
@@ -36038,18 +36034,18 @@
       </c>
       <c r="C684" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D684" s="18" t="inlineStr">
         <is>
-          <t>Habilite la característica de inspección del cuerpo de la solicitud habilitada en la directiva WAF de Azure Application Gateway.</t>
+          <t>Agregue limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes que envían accidental o intencionadamente grandes cantidades de tráfico en un corto período de tiempo.</t>
         </is>
       </c>
       <c r="E684" s="18" t="n"/>
       <c r="F684" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G684" t="inlineStr">
@@ -36067,7 +36063,7 @@
       <c r="K684" s="19" t="n"/>
       <c r="L684" s="19" t="inlineStr">
         <is>
-          <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M684" s="20" t="n"/>
@@ -36089,18 +36085,18 @@
       </c>
       <c r="C685" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D685" s="18" t="inlineStr">
         <is>
-          <t>Ajuste el WAF de Azure Application Gateway para la carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
+          <t xml:space="preserve">Use un umbral alto para los límites de frecuencia de WAF de Azure Front Door. Los umbrales de límite de velocidad altos evitan el bloqueo del tráfico legítimo, a la vez que proporcionan protección contra un número extremadamente alto de solicitudes que podrían sobrecargar su infraestructura. </t>
         </is>
       </c>
       <c r="E685" s="18" t="n"/>
       <c r="F685" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G685" t="inlineStr">
@@ -36118,7 +36114,7 @@
       <c r="K685" s="19" t="n"/>
       <c r="L685" s="19" t="inlineStr">
         <is>
-          <t>a4dd86d3-5ffa-408c-b660-cce073d085b8</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M685" s="20" t="n"/>
@@ -36140,18 +36136,18 @@
       </c>
       <c r="C686" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D686" s="18" t="inlineStr">
         <is>
-          <t>Implemente la directiva de WAF para Application Gateway en modo de "prevención".</t>
+          <t>Si no espera tráfico de todas las regiones geográficas, utilice filtros geográficos para bloquear el tráfico de países no esperados.</t>
         </is>
       </c>
       <c r="E686" s="18" t="n"/>
       <c r="F686" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G686" t="inlineStr">
@@ -36166,14 +36162,10 @@
         </is>
       </c>
       <c r="J686" s="13" t="n"/>
-      <c r="K686" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
-        </is>
-      </c>
+      <c r="K686" s="19" t="n"/>
       <c r="L686" s="19" t="inlineStr">
         <is>
-          <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M686" s="20" t="n"/>
@@ -36195,12 +36187,12 @@
       </c>
       <c r="C687" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D687" s="18" t="inlineStr">
         <is>
-          <t>Agregue limitación de velocidad al WAF de Azure Application Gateway. La limitación de velocidad bloquea a los clientes que envían accidental o intencionadamente grandes cantidades de tráfico en un corto período de tiempo.</t>
+          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con el WAF de Azure Front Door. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no puedan coincidir geográficamente.</t>
         </is>
       </c>
       <c r="E687" s="18" t="n"/>
@@ -36224,7 +36216,7 @@
       <c r="K687" s="19" t="n"/>
       <c r="L687" s="19" t="inlineStr">
         <is>
-          <t>43fae595-8a32-4299-a69e-0f32c454dcc9</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M687" s="20" t="n"/>
@@ -36251,13 +36243,13 @@
       </c>
       <c r="D688" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use un umbral alto para los límites de frecuencia de WAF de Azure Application Gateway. Los umbrales de límite de velocidad altos evitan el bloqueo del tráfico legítimo, a la vez que proporcionan protección contra un número extremadamente alto de solicitudes que podrían sobrecargar su infraestructura. </t>
+          <t>Habilitación del conjunto de reglas de protección contra bots de WAF de Azure Application Gateway Las reglas de bots detectan bots buenos y malos.</t>
         </is>
       </c>
       <c r="E688" s="18" t="n"/>
       <c r="F688" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G688" t="inlineStr">
@@ -36272,10 +36264,14 @@
         </is>
       </c>
       <c r="J688" s="13" t="n"/>
-      <c r="K688" s="19" t="n"/>
+      <c r="K688" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/applicationgatewaywebapplicationfirewallpolicies' | mv-expand properties.managedRules.managedRuleSets | project id, rulesettype = properties_managedRules_managedRuleSets.ruleSetType | extend compliant1 = (rulesettype == 'Microsoft_BotManagerRuleSet') | project id, compliant1 | summarize compliant = max(compliant1) by id</t>
+        </is>
+      </c>
       <c r="L688" s="19" t="inlineStr">
         <is>
-          <t>041e0ad8-7b12-4694-a0b7-a0e25ee2470f</t>
+          <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>
         </is>
       </c>
       <c r="M688" s="20" t="n"/>
@@ -36302,13 +36298,13 @@
       </c>
       <c r="D689" s="18" t="inlineStr">
         <is>
-          <t>Si no espera tráfico de todas las regiones geográficas, utilice filtros geográficos para bloquear el tráfico de países no esperados.</t>
+          <t>Habilite la característica de inspección del cuerpo de la solicitud habilitada en la directiva WAF de Azure Application Gateway.</t>
         </is>
       </c>
       <c r="E689" s="18" t="n"/>
       <c r="F689" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G689" t="inlineStr">
@@ -36326,7 +36322,7 @@
       <c r="K689" s="19" t="n"/>
       <c r="L689" s="19" t="inlineStr">
         <is>
-          <t>99937189-ff78-492a-b9ca-18d828d82b37</t>
+          <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
         </is>
       </c>
       <c r="M689" s="20" t="n"/>
@@ -36353,13 +36349,13 @@
       </c>
       <c r="D690" s="18" t="inlineStr">
         <is>
-          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con el WAF de Azure Application Gateway. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no puedan coincidir geográficamente.</t>
+          <t>Ajuste el WAF de Azure Application Gateway para la carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="E690" s="18" t="n"/>
       <c r="F690" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G690" t="inlineStr">
@@ -36377,7 +36373,7 @@
       <c r="K690" s="19" t="n"/>
       <c r="L690" s="19" t="inlineStr">
         <is>
-          <t>349a15c1-52f4-4319-9078-3895d95ecafd</t>
+          <t>a4dd86d3-5ffa-408c-b660-cce073d085b8</t>
         </is>
       </c>
       <c r="M690" s="20" t="n"/>
@@ -36404,13 +36400,13 @@
       </c>
       <c r="D691" s="18" t="inlineStr">
         <is>
-          <t>Use la versión más reciente del conjunto de reglas de WAF de Azure Application Gateway. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
+          <t>Implemente la directiva de WAF para Application Gateway en modo de "prevención".</t>
         </is>
       </c>
       <c r="E691" s="18" t="n"/>
       <c r="F691" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G691" t="inlineStr">
@@ -36425,10 +36421,14 @@
         </is>
       </c>
       <c r="J691" s="13" t="n"/>
-      <c r="K691" s="19" t="n"/>
+      <c r="K691" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
+        </is>
+      </c>
       <c r="L691" s="19" t="inlineStr">
         <is>
-          <t>6c19dfd5-a61c-436c-9001-491b9b3d0228</t>
+          <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
         </is>
       </c>
       <c r="M691" s="20" t="n"/>
@@ -36445,7 +36445,7 @@
       </c>
       <c r="B692" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C692" s="18" t="inlineStr">
@@ -36455,7 +36455,7 @@
       </c>
       <c r="D692" s="18" t="inlineStr">
         <is>
-          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de Azure Application Gateway.</t>
+          <t>Agregue limitación de velocidad al WAF de Azure Application Gateway. La limitación de velocidad bloquea a los clientes que envían accidental o intencionadamente grandes cantidades de tráfico en un corto período de tiempo.</t>
         </is>
       </c>
       <c r="E692" s="18" t="n"/>
@@ -36479,7 +36479,7 @@
       <c r="K692" s="19" t="n"/>
       <c r="L692" s="19" t="inlineStr">
         <is>
-          <t>f84106a2-2e9e-42ac-add6-d3416ecfed53</t>
+          <t>43fae595-8a32-4299-a69e-0f32c454dcc9</t>
         </is>
       </c>
       <c r="M692" s="20" t="n"/>
@@ -36496,17 +36496,17 @@
       </c>
       <c r="B693" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C693" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D693" s="18" t="inlineStr">
         <is>
-          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de Azure Front Door.</t>
+          <t xml:space="preserve">Use un umbral alto para los límites de frecuencia de WAF de Azure Application Gateway. Los umbrales de límite de velocidad altos evitan el bloqueo del tráfico legítimo, a la vez que proporcionan protección contra un número extremadamente alto de solicitudes que podrían sobrecargar su infraestructura. </t>
         </is>
       </c>
       <c r="E693" s="18" t="n"/>
@@ -36530,7 +36530,7 @@
       <c r="K693" s="19" t="n"/>
       <c r="L693" s="19" t="inlineStr">
         <is>
-          <t>4cea4050-7946-4a7c-89e6-b021b73c352d</t>
+          <t>041e0ad8-7b12-4694-a0b7-a0e25ee2470f</t>
         </is>
       </c>
       <c r="M693" s="20" t="n"/>
@@ -36547,7 +36547,7 @@
       </c>
       <c r="B694" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C694" s="18" t="inlineStr">
@@ -36557,13 +36557,13 @@
       </c>
       <c r="D694" s="18" t="inlineStr">
         <is>
-          <t>Envíe registros de WAF de Azure Application Gateway a Microsoft Sentinel.</t>
+          <t>Si no espera tráfico de todas las regiones geográficas, utilice filtros geográficos para bloquear el tráfico de países no esperados.</t>
         </is>
       </c>
       <c r="E694" s="18" t="n"/>
       <c r="F694" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G694" t="inlineStr">
@@ -36581,7 +36581,7 @@
       <c r="K694" s="19" t="n"/>
       <c r="L694" s="19" t="inlineStr">
         <is>
-          <t>92664c60-47e3-4591-8b1b-8d557656e686</t>
+          <t>99937189-ff78-492a-b9ca-18d828d82b37</t>
         </is>
       </c>
       <c r="M694" s="20" t="n"/>
@@ -36598,17 +36598,17 @@
       </c>
       <c r="B695" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C695" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D695" s="18" t="inlineStr">
         <is>
-          <t>Envíe registros de WAF de Azure Front Door a Microsoft Sentinel.</t>
+          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con el WAF de Azure Application Gateway. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no puedan coincidir geográficamente.</t>
         </is>
       </c>
       <c r="E695" s="18" t="n"/>
@@ -36632,7 +36632,7 @@
       <c r="K695" s="19" t="n"/>
       <c r="L695" s="19" t="inlineStr">
         <is>
-          <t>845f5f91-9c21-4674-a725-5ce890850e20</t>
+          <t>349a15c1-52f4-4319-9078-3895d95ecafd</t>
         </is>
       </c>
       <c r="M695" s="20" t="n"/>
@@ -36649,7 +36649,7 @@
       </c>
       <c r="B696" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C696" s="18" t="inlineStr">
@@ -36659,7 +36659,7 @@
       </c>
       <c r="D696" s="18" t="inlineStr">
         <is>
-          <t>Defina la configuración de WAF de Azure Application Gateway como código. Mediante el uso de código, puede adoptar más fácilmente una nueva versión del conjunto de reglas y obtener protección adicional.</t>
+          <t>Use la versión más reciente del conjunto de reglas de WAF de Azure Application Gateway. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
         </is>
       </c>
       <c r="E696" s="18" t="n"/>
@@ -36683,7 +36683,7 @@
       <c r="K696" s="19" t="n"/>
       <c r="L696" s="19" t="inlineStr">
         <is>
-          <t>ba0e9b26-6e0d-4ec8-8541-023c00afd5b7</t>
+          <t>6c19dfd5-a61c-436c-9001-491b9b3d0228</t>
         </is>
       </c>
       <c r="M696" s="20" t="n"/>
@@ -36710,7 +36710,7 @@
       </c>
       <c r="D697" s="18" t="inlineStr">
         <is>
-          <t>Utilice directivas de WAF en lugar de la configuración de WAF heredada.</t>
+          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de Azure Application Gateway.</t>
         </is>
       </c>
       <c r="E697" s="18" t="n"/>
@@ -36734,7 +36734,7 @@
       <c r="K697" s="19" t="n"/>
       <c r="L697" s="19" t="inlineStr">
         <is>
-          <t>f17ec301-8470-4afd-aabc-c1fdfe47dcc0</t>
+          <t>f84106a2-2e9e-42ac-add6-d3416ecfed53</t>
         </is>
       </c>
       <c r="M697" s="20" t="n"/>
@@ -36751,17 +36751,17 @@
       </c>
       <c r="B698" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C698" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D698" s="18" t="inlineStr">
         <is>
-          <t>Filtre el tráfico entrante en los back-end para que solo acepten conexiones de la subred de Application Gateway, por ejemplo, con grupos de seguridad de red.</t>
+          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de Azure Front Door.</t>
         </is>
       </c>
       <c r="E698" s="18" t="n"/>
@@ -36785,7 +36785,7 @@
       <c r="K698" s="19" t="n"/>
       <c r="L698" s="19" t="inlineStr">
         <is>
-          <t>d4eb8667-f8cb-4cdd-94e6-2f967ba98f88</t>
+          <t>4cea4050-7946-4a7c-89e6-b021b73c352d</t>
         </is>
       </c>
       <c r="M698" s="20" t="n"/>
@@ -36802,17 +36802,17 @@
       </c>
       <c r="B699" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C699" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D699" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que los orígenes solo toman tráfico de la instancia de Azure Front Door.</t>
+          <t>Envíe registros de WAF de Azure Application Gateway a Microsoft Sentinel.</t>
         </is>
       </c>
       <c r="E699" s="18" t="n"/>
@@ -36836,7 +36836,7 @@
       <c r="K699" s="19" t="n"/>
       <c r="L699" s="19" t="inlineStr">
         <is>
-          <t>7d3df025-59a3-447d-ac25-3f5750d35de1</t>
+          <t>92664c60-47e3-4591-8b1b-8d557656e686</t>
         </is>
       </c>
       <c r="M699" s="20" t="n"/>
@@ -36853,23 +36853,23 @@
       </c>
       <c r="B700" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C700" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D700" s="18" t="inlineStr">
         <is>
-          <t>Debe cifrar el tráfico a los servidores backend.</t>
+          <t>Envíe registros de WAF de Azure Front Door a Microsoft Sentinel.</t>
         </is>
       </c>
       <c r="E700" s="18" t="n"/>
       <c r="F700" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G700" t="inlineStr">
@@ -36887,7 +36887,7 @@
       <c r="K700" s="19" t="n"/>
       <c r="L700" s="19" t="inlineStr">
         <is>
-          <t>a66f0fd8-2ca4-422e-8df3-235148127ca2</t>
+          <t>845f5f91-9c21-4674-a725-5ce890850e20</t>
         </is>
       </c>
       <c r="M700" s="20" t="n"/>
@@ -36904,7 +36904,7 @@
       </c>
       <c r="B701" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C701" s="18" t="inlineStr">
@@ -36914,13 +36914,13 @@
       </c>
       <c r="D701" s="18" t="inlineStr">
         <is>
-          <t>Debe utilizar un firewall de aplicaciones web.</t>
+          <t>Defina la configuración de WAF de Azure Application Gateway como código. Mediante el uso de código, puede adoptar más fácilmente una nueva versión del conjunto de reglas y obtener protección adicional.</t>
         </is>
       </c>
       <c r="E701" s="18" t="n"/>
       <c r="F701" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G701" t="inlineStr">
@@ -36938,7 +36938,7 @@
       <c r="K701" s="19" t="n"/>
       <c r="L701" s="19" t="inlineStr">
         <is>
-          <t>3dba65cb-834d-44d8-a3ca-a6aa2f1587be</t>
+          <t>ba0e9b26-6e0d-4ec8-8541-023c00afd5b7</t>
         </is>
       </c>
       <c r="M701" s="20" t="n"/>
@@ -36955,7 +36955,7 @@
       </c>
       <c r="B702" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C702" s="18" t="inlineStr">
@@ -36965,7 +36965,7 @@
       </c>
       <c r="D702" s="18" t="inlineStr">
         <is>
-          <t>Redirigir HTTP a HTTPS</t>
+          <t>Utilice directivas de WAF en lugar de la configuración de WAF heredada.</t>
         </is>
       </c>
       <c r="E702" s="18" t="n"/>
@@ -36989,7 +36989,7 @@
       <c r="K702" s="19" t="n"/>
       <c r="L702" s="19" t="inlineStr">
         <is>
-          <t>0158fcb6-0bc1-4687-832f-cc7c359c22d2</t>
+          <t>f17ec301-8470-4afd-aabc-c1fdfe47dcc0</t>
         </is>
       </c>
       <c r="M702" s="20" t="n"/>
@@ -37006,7 +37006,7 @@
       </c>
       <c r="B703" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C703" s="18" t="inlineStr">
@@ -37016,7 +37016,7 @@
       </c>
       <c r="D703" s="18" t="inlineStr">
         <is>
-          <t>Utilice cookies administradas por puerta de enlace para dirigir el tráfico de una sesión de usuario al mismo servidor para su procesamiento</t>
+          <t>Filtre el tráfico entrante en los back-end para que solo acepten conexiones de la subred de Application Gateway, por ejemplo, con grupos de seguridad de red.</t>
         </is>
       </c>
       <c r="E703" s="18" t="n"/>
@@ -37040,7 +37040,7 @@
       <c r="K703" s="19" t="n"/>
       <c r="L703" s="19" t="inlineStr">
         <is>
-          <t>bb697864-1b4c-43af-8667-90cc69aaed5f</t>
+          <t>d4eb8667-f8cb-4cdd-94e6-2f967ba98f88</t>
         </is>
       </c>
       <c r="M703" s="20" t="n"/>
@@ -37062,18 +37062,18 @@
       </c>
       <c r="C704" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D704" s="18" t="inlineStr">
         <is>
-          <t>Habilite el drenaje de conexiones durante las actualizaciones de servicio planificadas para evitar la pérdida de conexión a los miembros existentes del grupo de back-end</t>
+          <t>Asegúrese de que los orígenes solo toman tráfico de la instancia de Azure Front Door.</t>
         </is>
       </c>
       <c r="E704" s="18" t="n"/>
       <c r="F704" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G704" t="inlineStr">
@@ -37091,7 +37091,7 @@
       <c r="K704" s="19" t="n"/>
       <c r="L704" s="19" t="inlineStr">
         <is>
-          <t>ff353ad8-15fb-4ae8-9fc5-a85a36d36a35</t>
+          <t>7d3df025-59a3-447d-ac25-3f5750d35de1</t>
         </is>
       </c>
       <c r="M704" s="20" t="n"/>
@@ -37108,7 +37108,7 @@
       </c>
       <c r="B705" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C705" s="18" t="inlineStr">
@@ -37118,13 +37118,13 @@
       </c>
       <c r="D705" s="18" t="inlineStr">
         <is>
-          <t>Crear páginas de error personalizadas para mostrar una experiencia de usuario personalizada</t>
+          <t>Debe cifrar el tráfico a los servidores backend.</t>
         </is>
       </c>
       <c r="E705" s="18" t="n"/>
       <c r="F705" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G705" t="inlineStr">
@@ -37142,7 +37142,7 @@
       <c r="K705" s="19" t="n"/>
       <c r="L705" s="19" t="inlineStr">
         <is>
-          <t>c8741f03-45a4-4183-a6b8-139e0773b8b5</t>
+          <t>a66f0fd8-2ca4-422e-8df3-235148127ca2</t>
         </is>
       </c>
       <c r="M705" s="20" t="n"/>
@@ -37169,13 +37169,13 @@
       </c>
       <c r="D706" s="18" t="inlineStr">
         <is>
-          <t>Edite las solicitudes HTTP y los encabezados de respuesta para facilitar el enrutamiento y el intercambio de información entre el cliente y el servidor</t>
+          <t>Debe utilizar un firewall de aplicaciones web.</t>
         </is>
       </c>
       <c r="E706" s="18" t="n"/>
       <c r="F706" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G706" t="inlineStr">
@@ -37193,7 +37193,7 @@
       <c r="K706" s="19" t="n"/>
       <c r="L706" s="19" t="inlineStr">
         <is>
-          <t>f850d46f-f5d7-4b17-b48c-a780741402e1</t>
+          <t>3dba65cb-834d-44d8-a3ca-a6aa2f1587be</t>
         </is>
       </c>
       <c r="M706" s="20" t="n"/>
@@ -37210,7 +37210,7 @@
       </c>
       <c r="B707" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C707" s="18" t="inlineStr">
@@ -37220,7 +37220,7 @@
       </c>
       <c r="D707" s="18" t="inlineStr">
         <is>
-          <t>Configure Front Door para optimizar el enrutamiento del tráfico web global y el rendimiento del usuario final de primer nivel, así como la confiabilidad a través de una rápida conmutación por error global</t>
+          <t>Redirigir HTTP a HTTPS</t>
         </is>
       </c>
       <c r="E707" s="18" t="n"/>
@@ -37244,7 +37244,7 @@
       <c r="K707" s="19" t="n"/>
       <c r="L707" s="19" t="inlineStr">
         <is>
-          <t>eadc3164-4a0f-461c-85f1-1a372c04dfd1</t>
+          <t>0158fcb6-0bc1-4687-832f-cc7c359c22d2</t>
         </is>
       </c>
       <c r="M707" s="20" t="n"/>
@@ -37261,7 +37261,7 @@
       </c>
       <c r="B708" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C708" s="18" t="inlineStr">
@@ -37271,7 +37271,7 @@
       </c>
       <c r="D708" s="18" t="inlineStr">
         <is>
-          <t>Usar el equilibrio de carga de la capa de transporte</t>
+          <t>Utilice cookies administradas por puerta de enlace para dirigir el tráfico de una sesión de usuario al mismo servidor para su procesamiento</t>
         </is>
       </c>
       <c r="E708" s="18" t="n"/>
@@ -37295,7 +37295,7 @@
       <c r="K708" s="19" t="n"/>
       <c r="L708" s="19" t="inlineStr">
         <is>
-          <t>29dcc19f-a8fa-4c35-8281-290577538793</t>
+          <t>bb697864-1b4c-43af-8667-90cc69aaed5f</t>
         </is>
       </c>
       <c r="M708" s="20" t="n"/>
@@ -37322,13 +37322,13 @@
       </c>
       <c r="D709" s="18" t="inlineStr">
         <is>
-          <t>Configure el enrutamiento basado en el host o el nombre de dominio para varias aplicaciones web en una sola puerta de enlace</t>
+          <t>Habilite el drenaje de conexiones durante las actualizaciones de servicio planificadas para evitar la pérdida de conexión a los miembros existentes del grupo de back-end</t>
         </is>
       </c>
       <c r="E709" s="18" t="n"/>
       <c r="F709" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G709" t="inlineStr">
@@ -37346,7 +37346,7 @@
       <c r="K709" s="19" t="n"/>
       <c r="L709" s="19" t="inlineStr">
         <is>
-          <t>276898c1-af5e-4819-9e8e-049c7801ab9d</t>
+          <t>ff353ad8-15fb-4ae8-9fc5-a85a36d36a35</t>
         </is>
       </c>
       <c r="M709" s="20" t="n"/>
@@ -37363,7 +37363,7 @@
       </c>
       <c r="B710" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C710" s="18" t="inlineStr">
@@ -37373,13 +37373,13 @@
       </c>
       <c r="D710" s="18" t="inlineStr">
         <is>
-          <t>Centralice la administración de certificados SSL para reducir la sobrecarga de cifrado y descifrado de una granja de servidores back-end</t>
+          <t>Crear páginas de error personalizadas para mostrar una experiencia de usuario personalizada</t>
         </is>
       </c>
       <c r="E710" s="18" t="n"/>
       <c r="F710" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G710" t="inlineStr">
@@ -37397,7 +37397,7 @@
       <c r="K710" s="19" t="n"/>
       <c r="L710" s="19" t="inlineStr">
         <is>
-          <t>5fe365b6-58e8-47ed-a8cf-5163850380a2</t>
+          <t>c8741f03-45a4-4183-a6b8-139e0773b8b5</t>
         </is>
       </c>
       <c r="M710" s="20" t="n"/>
@@ -37424,13 +37424,13 @@
       </c>
       <c r="D711" s="18" t="inlineStr">
         <is>
-          <t>Uso de Application Gateway para obtener compatibilidad nativa con los protocolos WebSocket y HTTP/2</t>
+          <t>Edite las solicitudes HTTP y los encabezados de respuesta para facilitar el enrutamiento y el intercambio de información entre el cliente y el servidor</t>
         </is>
       </c>
       <c r="E711" s="18" t="n"/>
       <c r="F711" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G711" t="inlineStr">
@@ -37448,7 +37448,7 @@
       <c r="K711" s="19" t="n"/>
       <c r="L711" s="19" t="inlineStr">
         <is>
-          <t>fa64b4dd-35c2-4047-ac5c-45dfbf8b0db9</t>
+          <t>f850d46f-f5d7-4b17-b48c-a780741402e1</t>
         </is>
       </c>
       <c r="M711" s="20" t="n"/>
@@ -37460,32 +37460,28 @@
     <row r="712">
       <c r="A712" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B712" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C712" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D712" s="18" t="inlineStr">
         <is>
-          <t>Usar la opción de clave administrada por el cliente en el cifrado de datos en reposo cuando sea necesario</t>
-        </is>
-      </c>
-      <c r="E712" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Azure Event Hub proporciona cifrado de datos en reposo. Si usa su propia clave, los datos se siguen cifrando con la clave administrada por Microsoft, pero además la clave administrada por Microsoft se cifrará con la clave administrada por el cliente. </t>
-        </is>
-      </c>
+          <t>Configure Front Door para optimizar el enrutamiento del tráfico web global y el rendimiento del usuario final de primer nivel, así como la confiabilidad a través de una rápida conmutación por error global</t>
+        </is>
+      </c>
+      <c r="E712" s="18" t="n"/>
       <c r="F712" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G712" t="inlineStr">
@@ -37499,15 +37495,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J712" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
-        </is>
-      </c>
+      <c r="J712" s="13" t="n"/>
       <c r="K712" s="19" t="n"/>
       <c r="L712" s="19" t="inlineStr">
         <is>
-          <t>7aaf12e7-b94e-4f6e-847d-2d92981b1cd6</t>
+          <t>eadc3164-4a0f-461c-85f1-1a372c04dfd1</t>
         </is>
       </c>
       <c r="M712" s="20" t="n"/>
@@ -37519,29 +37511,25 @@
     <row r="713">
       <c r="A713" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B713" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C713" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D713" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplicar una versión mínima requerida de Seguridad de la capa de transporte (TLS) para las solicitudes </t>
-        </is>
-      </c>
-      <c r="E713" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Los espacios de nombres de Azure Event Hubs permiten a los clientes enviar y recibir datos con TLS 1.0 y versiones posteriores. Para aplicar medidas de seguridad más estrictas, puede configurar el espacio de nombres de Event Hubs para requerir que los clientes envíen y reciban datos con una versión más reciente de TLS. Si un espacio de nombres de Event Hubs requiere una versión mínima de TLS, se producirá un error en las solicitudes realizadas con una versión anterior. </t>
-        </is>
-      </c>
+          <t>Usar el equilibrio de carga de la capa de transporte</t>
+        </is>
+      </c>
+      <c r="E713" s="18" t="n"/>
       <c r="F713" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -37558,15 +37546,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J713" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
-        </is>
-      </c>
+      <c r="J713" s="13" t="n"/>
       <c r="K713" s="19" t="n"/>
       <c r="L713" s="19" t="inlineStr">
         <is>
-          <t>d2f54b29-769e-43a6-a0e7-828ac936657e</t>
+          <t>29dcc19f-a8fa-4c35-8281-290577538793</t>
         </is>
       </c>
       <c r="M713" s="20" t="n"/>
@@ -37578,7 +37562,7 @@
     <row r="714">
       <c r="A714" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B714" s="18" t="inlineStr">
@@ -37588,19 +37572,15 @@
       </c>
       <c r="C714" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D714" s="18" t="inlineStr">
         <is>
-          <t>Evite usar la cuenta raíz cuando no sea necesario</t>
-        </is>
-      </c>
-      <c r="E714" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Al crear un espacio de nombres de Event Hubs, se crea automáticamente una regla de directiva denominada RootManageSharedAccessKey para el espacio de nombres. Esta directiva tiene permisos de administración para todo el espacio de nombres. Se recomienda tratar esta regla como una cuenta raíz administrativa y no usarla en la aplicación. Se recomienda usar AAD como proveedor de autenticación con RBAC. </t>
-        </is>
-      </c>
+          <t>Configure el enrutamiento basado en el host o el nombre de dominio para varias aplicaciones web en una sola puerta de enlace</t>
+        </is>
+      </c>
+      <c r="E714" s="18" t="n"/>
       <c r="F714" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -37617,15 +37597,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J714" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
-        </is>
-      </c>
+      <c r="J714" s="13" t="n"/>
       <c r="K714" s="19" t="n"/>
       <c r="L714" s="19" t="inlineStr">
         <is>
-          <t>13b0f566-4b1e-4944-a459-837ee79d6c6d</t>
+          <t>276898c1-af5e-4819-9e8e-049c7801ab9d</t>
         </is>
       </c>
       <c r="M714" s="20" t="n"/>
@@ -37637,7 +37613,7 @@
     <row r="715">
       <c r="A715" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B715" s="18" t="inlineStr">
@@ -37647,19 +37623,15 @@
       </c>
       <c r="C715" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D715" s="18" t="inlineStr">
         <is>
-          <t>Siempre que sea posible, la aplicación debe usar una identidad administrada para autenticarse en Azure Event Hub. Si no es así, considere la posibilidad de tener la credencial de almacenamiento (SAS, credencial de entidad de servicio) en Azure Key Vault o en un servicio equivalente</t>
-        </is>
-      </c>
-      <c r="E715" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Las identidades administradas para los recursos de Azure pueden autorizar el acceso a los recursos de Event Hubs mediante credenciales de Azure AD desde aplicaciones que se ejecutan en Azure Virtual Machines (VM), aplicaciones de funciones, conjuntos de escalado de máquinas virtuales y otros servicios. Mediante el uso de identidades administradas para los recursos de Azure junto con la autenticación de Azure AD, puede evitar el almacenamiento de credenciales con las aplicaciones que se ejecutan en la nube. </t>
-        </is>
-      </c>
+          <t>Centralice la administración de certificados SSL para reducir la sobrecarga de cifrado y descifrado de una granja de servidores back-end</t>
+        </is>
+      </c>
+      <c r="E715" s="18" t="n"/>
       <c r="F715" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -37676,15 +37648,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J715" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+      <c r="J715" s="13" t="n"/>
       <c r="K715" s="19" t="n"/>
       <c r="L715" s="19" t="inlineStr">
         <is>
-          <t>3a365a5c-7acb-4e48-abd5-4cd79f2e8776</t>
+          <t>5fe365b6-58e8-47ed-a8cf-5163850380a2</t>
         </is>
       </c>
       <c r="M715" s="20" t="n"/>
@@ -37696,7 +37664,7 @@
     <row r="716">
       <c r="A716" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B716" s="18" t="inlineStr">
@@ -37706,22 +37674,18 @@
       </c>
       <c r="C716" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D716" s="18" t="inlineStr">
         <is>
-          <t>Uso de RBAC de plano de datos con privilegios mínimos</t>
-        </is>
-      </c>
-      <c r="E716" s="18" t="inlineStr">
-        <is>
-          <t>Al crear permisos, proporcione un control específico sobre el acceso de un cliente al Centro de eventos de Azure. Los permisos del Centro de eventos de Azure pueden y deben limitarse al nivel de recurso individual, por ejemplo, grupo de consumidores, entidad del centro de eventos, espacios de nombres del centro de eventos, etc.</t>
-        </is>
-      </c>
+          <t>Uso de Application Gateway para obtener compatibilidad nativa con los protocolos WebSocket y HTTP/2</t>
+        </is>
+      </c>
+      <c r="E716" s="18" t="n"/>
       <c r="F716" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G716" t="inlineStr">
@@ -37735,15 +37699,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J716" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
-        </is>
-      </c>
+      <c r="J716" s="13" t="n"/>
       <c r="K716" s="19" t="n"/>
       <c r="L716" s="19" t="inlineStr">
         <is>
-          <t>8357c559-675c-45ee-a5b8-6ad8844ce3b2</t>
+          <t>fa64b4dd-35c2-4047-ac5c-45dfbf8b0db9</t>
         </is>
       </c>
       <c r="M716" s="20" t="n"/>
@@ -37770,17 +37730,17 @@
       </c>
       <c r="D717" s="18" t="inlineStr">
         <is>
-          <t>Habilite el registro para la investigación de seguridad. Use Azure Monitor para capturar métricas y registros, como registros de recursos, registros de auditoría en tiempo de ejecución y registros de Kafka</t>
+          <t>Usar la opción de clave administrada por el cliente en el cifrado de datos en reposo cuando sea necesario</t>
         </is>
       </c>
       <c r="E717" s="18" t="inlineStr">
         <is>
-          <t>Los registros de recursos del Centro de eventos de Azure incluyen registros operativos, registros de red virtual y registros de Kafka. Los registros de auditoría en tiempo de ejecución capturan información de diagnóstico agregada para todas las operaciones de acceso al plano de datos (como eventos de envío o recepción) en Event Hubs.</t>
+          <t xml:space="preserve">Azure Event Hub proporciona cifrado de datos en reposo. Si usa su propia clave, los datos se siguen cifrando con la clave administrada por Microsoft, pero además la clave administrada por Microsoft se cifrará con la clave administrada por el cliente. </t>
         </is>
       </c>
       <c r="F717" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G717" t="inlineStr">
@@ -37796,13 +37756,13 @@
       </c>
       <c r="J717" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="K717" s="19" t="n"/>
       <c r="L717" s="19" t="inlineStr">
         <is>
-          <t>b38b875b-a1cf-4104-a900-3a4d3ce474db</t>
+          <t>7aaf12e7-b94e-4f6e-847d-2d92981b1cd6</t>
         </is>
       </c>
       <c r="M717" s="20" t="n"/>
@@ -37829,12 +37789,12 @@
       </c>
       <c r="D718" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar puntos de conexión privados para acceder al Centro de eventos de Azure y deshabilitar el acceso a la red pública cuando corresponda.</t>
+          <t xml:space="preserve">Aplicar una versión mínima requerida de Seguridad de la capa de transporte (TLS) para las solicitudes </t>
         </is>
       </c>
       <c r="E718" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">De forma predeterminada, Azure Event Hub tiene una dirección IP pública y es accesible a través de Internet. Los puntos de conexión privados permiten el tráfico entre la red virtual y Azure Event Hubs a través de la red troncal de Microsoft. Además de eso, debe deshabilitar los puntos de conexión públicos si no se usan. </t>
+          <t xml:space="preserve">Los espacios de nombres de Azure Event Hubs permiten a los clientes enviar y recibir datos con TLS 1.0 y versiones posteriores. Para aplicar medidas de seguridad más estrictas, puede configurar el espacio de nombres de Event Hubs para requerir que los clientes envíen y reciban datos con una versión más reciente de TLS. Si un espacio de nombres de Event Hubs requiere una versión mínima de TLS, se producirá un error en las solicitudes realizadas con una versión anterior. </t>
         </is>
       </c>
       <c r="F718" s="18" t="inlineStr">
@@ -37855,13 +37815,13 @@
       </c>
       <c r="J718" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="K718" s="19" t="n"/>
       <c r="L718" s="19" t="inlineStr">
         <is>
-          <t>5abca2a4-eda1-4dae-8cc9-5d48c6b791dc</t>
+          <t>d2f54b29-769e-43a6-a0e7-828ac936657e</t>
         </is>
       </c>
       <c r="M718" s="20" t="n"/>
@@ -37888,12 +37848,12 @@
       </c>
       <c r="D719" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de permitir solo el acceso al espacio de nombres del Centro de eventos de Azure desde direcciones IP o intervalos específicos</t>
+          <t>Evite usar la cuenta raíz cuando no sea necesario</t>
         </is>
       </c>
       <c r="E719" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Con el firewall IP, puede restringir aún más el punto de conexión público a solo un conjunto de direcciones IPv4 o rangos de direcciones IPv4 en notación CIDR (Classless Inter-Domain Routing). </t>
+          <t xml:space="preserve">Al crear un espacio de nombres de Event Hubs, se crea automáticamente una regla de directiva denominada RootManageSharedAccessKey para el espacio de nombres. Esta directiva tiene permisos de administración para todo el espacio de nombres. Se recomienda tratar esta regla como una cuenta raíz administrativa y no usarla en la aplicación. Se recomienda usar AAD como proveedor de autenticación con RBAC. </t>
         </is>
       </c>
       <c r="F719" s="18" t="inlineStr">
@@ -37914,13 +37874,13 @@
       </c>
       <c r="J719" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="K719" s="19" t="n"/>
       <c r="L719" s="19" t="inlineStr">
         <is>
-          <t>a0e6c465-89e5-458b-a37d-3974d1112dbd</t>
+          <t>13b0f566-4b1e-4944-a459-837ee79d6c6d</t>
         </is>
       </c>
       <c r="M719" s="20" t="n"/>
@@ -37937,7 +37897,7 @@
       </c>
       <c r="B720" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C720" s="18" t="inlineStr">
@@ -37947,10 +37907,14 @@
       </c>
       <c r="D720" s="18" t="inlineStr">
         <is>
-          <t>Aproveche el Manual de Resiliencia de los TLC</t>
-        </is>
-      </c>
-      <c r="E720" s="18" t="n"/>
+          <t>Siempre que sea posible, la aplicación debe usar una identidad administrada para autenticarse en Azure Event Hub. Si no es así, considere la posibilidad de tener la credencial de almacenamiento (SAS, credencial de entidad de servicio) en Azure Key Vault o en un servicio equivalente</t>
+        </is>
+      </c>
+      <c r="E720" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Las identidades administradas para los recursos de Azure pueden autorizar el acceso a los recursos de Event Hubs mediante credenciales de Azure AD desde aplicaciones que se ejecutan en Azure Virtual Machines (VM), aplicaciones de funciones, conjuntos de escalado de máquinas virtuales y otros servicios. Mediante el uso de identidades administradas para los recursos de Azure junto con la autenticación de Azure AD, puede evitar el almacenamiento de credenciales con las aplicaciones que se ejecutan en la nube. </t>
+        </is>
+      </c>
       <c r="F720" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -37967,11 +37931,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J720" s="13" t="n"/>
+      <c r="J720" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+        </is>
+      </c>
       <c r="K720" s="19" t="n"/>
       <c r="L720" s="19" t="inlineStr">
         <is>
-          <t>31d41e36-11c8-417b-8afb-c410d4391898</t>
+          <t>3a365a5c-7acb-4e48-abd5-4cd79f2e8776</t>
         </is>
       </c>
       <c r="M720" s="20" t="n"/>
@@ -37988,7 +37956,7 @@
       </c>
       <c r="B721" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C721" s="18" t="inlineStr">
@@ -37998,12 +37966,12 @@
       </c>
       <c r="D721" s="18" t="inlineStr">
         <is>
-          <t>Aproveche las zonas de disponibilidad si corresponde regionalmente</t>
+          <t>Uso de RBAC de plano de datos con privilegios mínimos</t>
         </is>
       </c>
       <c r="E721" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Esto se activará automáticamente para un nuevo espacio de nombres EH creado desde el portal con SKU Premium, Dedicado o Estándar en una región habilitada para zonas. Tanto los metadatos de EH como los propios datos de eventos se replican en todas las zonas</t>
+          <t>Al crear permisos, proporcione un control específico sobre el acceso de un cliente al Centro de eventos de Azure. Los permisos del Centro de eventos de Azure pueden y deben limitarse al nivel de recurso individual, por ejemplo, grupo de consumidores, entidad del centro de eventos, espacios de nombres del centro de eventos, etc.</t>
         </is>
       </c>
       <c r="F721" s="18" t="inlineStr">
@@ -38022,11 +37990,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J721" s="13" t="n"/>
+      <c r="J721" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+        </is>
+      </c>
       <c r="K721" s="19" t="n"/>
       <c r="L721" s="19" t="inlineStr">
         <is>
-          <t>f15bce21-9e4a-40eb-9787-9424d226786d</t>
+          <t>8357c559-675c-45ee-a5b8-6ad8844ce3b2</t>
         </is>
       </c>
       <c r="M721" s="20" t="n"/>
@@ -38043,7 +38015,7 @@
       </c>
       <c r="B722" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C722" s="18" t="inlineStr">
@@ -38053,10 +38025,14 @@
       </c>
       <c r="D722" s="18" t="inlineStr">
         <is>
-          <t>Usa las SKU Premium o Dedicadas para obtener un rendimiento predecible</t>
-        </is>
-      </c>
-      <c r="E722" s="18" t="n"/>
+          <t>Habilite el registro para la investigación de seguridad. Use Azure Monitor para capturar métricas y registros, como registros de recursos, registros de auditoría en tiempo de ejecución y registros de Kafka</t>
+        </is>
+      </c>
+      <c r="E722" s="18" t="inlineStr">
+        <is>
+          <t>Los registros de recursos del Centro de eventos de Azure incluyen registros operativos, registros de red virtual y registros de Kafka. Los registros de auditoría en tiempo de ejecución capturan información de diagnóstico agregada para todas las operaciones de acceso al plano de datos (como eventos de envío o recepción) en Event Hubs.</t>
+        </is>
+      </c>
       <c r="F722" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -38073,11 +38049,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J722" s="13" t="n"/>
+      <c r="J722" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+        </is>
+      </c>
       <c r="K722" s="19" t="n"/>
       <c r="L722" s="19" t="inlineStr">
         <is>
-          <t>20b56c56-ad58-4519-8f82-735c586bb281</t>
+          <t>b38b875b-a1cf-4104-a900-3a4d3ce474db</t>
         </is>
       </c>
       <c r="M722" s="20" t="n"/>
@@ -38094,7 +38074,7 @@
       </c>
       <c r="B723" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C723" s="18" t="inlineStr">
@@ -38104,17 +38084,17 @@
       </c>
       <c r="D723" s="18" t="inlineStr">
         <is>
-          <t>Planeación de la recuperación ante desastres geográfica mediante la configuración pasiva activa</t>
+          <t>Considere la posibilidad de usar puntos de conexión privados para acceder al Centro de eventos de Azure y deshabilitar el acceso a la red pública cuando corresponda.</t>
         </is>
       </c>
       <c r="E723" s="18" t="inlineStr">
         <is>
-          <t>La característica integrada de recuperación ante desastres geográfica, cuando está habilitada, garantiza que toda la configuración de un espacio de nombres (Event Hubs, grupos de consumidores y configuración) se replique continuamente desde un espacio de nombres principal a un espacio de nombres secundario, y permite un movimiento de conmutación por error de una sola vez del principal al secundario en cualquier momento. La característica Activo/Pasivo está diseñada para facilitar la recuperación y el abandono de una región de Azure con errores sin tener que cambiar las configuraciones de la aplicación</t>
+          <t xml:space="preserve">De forma predeterminada, Azure Event Hub tiene una dirección IP pública y es accesible a través de Internet. Los puntos de conexión privados permiten el tráfico entre la red virtual y Azure Event Hubs a través de la red troncal de Microsoft. Además de eso, debe deshabilitar los puntos de conexión públicos si no se usan. </t>
         </is>
       </c>
       <c r="F723" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G723" t="inlineStr">
@@ -38128,11 +38108,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J723" s="13" t="n"/>
+      <c r="J723" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+        </is>
+      </c>
       <c r="K723" s="19" t="n"/>
       <c r="L723" s="19" t="inlineStr">
         <is>
-          <t>dc15a1c0-75ee-49f1-90ac-ccd579376bcd</t>
+          <t>5abca2a4-eda1-4dae-8cc9-5d48c6b791dc</t>
         </is>
       </c>
       <c r="M723" s="20" t="n"/>
@@ -38149,7 +38133,7 @@
       </c>
       <c r="B724" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C724" s="18" t="inlineStr">
@@ -38159,12 +38143,12 @@
       </c>
       <c r="D724" s="18" t="inlineStr">
         <is>
-          <t>En el caso de las aplicaciones críticas para la empresa, use la configuración Active Active</t>
+          <t>Considere la posibilidad de permitir solo el acceso al espacio de nombres del Centro de eventos de Azure desde direcciones IP o intervalos específicos</t>
         </is>
       </c>
       <c r="E724" s="18" t="inlineStr">
         <is>
-          <t>Debe utilizarse para configuraciones de recuperación ante desastres en las que no se puede tolerar una interrupción o pérdida de datos de eventos en la región inactiva. En estos casos, siga las instrucciones de replicación y no use la capacidad de recuperación ante desastres geográfica integrada (activa/pasiva). Con Activo/Activo, mantenga varios centros de eventos en diferentes regiones y espacios de nombres, y los eventos se replicarán entre los centros</t>
+          <t xml:space="preserve">Con el firewall IP, puede restringir aún más el punto de conexión público a solo un conjunto de direcciones IPv4 o rangos de direcciones IPv4 en notación CIDR (Classless Inter-Domain Routing). </t>
         </is>
       </c>
       <c r="F724" s="18" t="inlineStr">
@@ -38183,11 +38167,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J724" s="13" t="n"/>
+      <c r="J724" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="K724" s="19" t="n"/>
       <c r="L724" s="19" t="inlineStr">
         <is>
-          <t>6e31b67d-67ba-4591-89c0-9e805d597c7e</t>
+          <t>a0e6c465-89e5-458b-a37d-3974d1112dbd</t>
         </is>
       </c>
       <c r="M724" s="20" t="n"/>
@@ -38214,7 +38202,7 @@
       </c>
       <c r="D725" s="18" t="inlineStr">
         <is>
-          <t>Diseño de centros de eventos resilientes</t>
+          <t>Aproveche el Manual de Resiliencia de los TLC</t>
         </is>
       </c>
       <c r="E725" s="18" t="n"/>
@@ -38238,7 +38226,7 @@
       <c r="K725" s="19" t="n"/>
       <c r="L725" s="19" t="inlineStr">
         <is>
-          <t>9ced16ad-d186-4f0a-a241-a999a68af77c</t>
+          <t>31d41e36-11c8-417b-8afb-c410d4391898</t>
         </is>
       </c>
       <c r="M725" s="20" t="n"/>
@@ -38250,7 +38238,7 @@
     <row r="726">
       <c r="A726" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure Event Hub Review</t>
         </is>
       </c>
       <c r="B726" s="18" t="inlineStr">
@@ -38260,18 +38248,22 @@
       </c>
       <c r="C726" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D726" s="18" t="inlineStr">
         <is>
-          <t>Si es necesario para las cargas de trabajo de Windows de AKS, se pueden usar contenedores HostProcess</t>
-        </is>
-      </c>
-      <c r="E726" s="18" t="n"/>
+          <t>Aproveche las zonas de disponibilidad si corresponde regionalmente</t>
+        </is>
+      </c>
+      <c r="E726" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Esto se activará automáticamente para un nuevo espacio de nombres EH creado desde el portal con SKU Premium, Dedicado o Estándar en una región habilitada para zonas. Tanto los metadatos de EH como los propios datos de eventos se replican en todas las zonas</t>
+        </is>
+      </c>
       <c r="F726" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G726" t="inlineStr">
@@ -38289,7 +38281,7 @@
       <c r="K726" s="19" t="n"/>
       <c r="L726" s="19" t="inlineStr">
         <is>
-          <t>ab5351f6-383a-45ed-9c5e-b143b16db40a</t>
+          <t>f15bce21-9e4a-40eb-9787-9424d226786d</t>
         </is>
       </c>
       <c r="M726" s="20" t="n"/>
@@ -38301,28 +38293,28 @@
     <row r="727">
       <c r="A727" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure Event Hub Review</t>
         </is>
       </c>
       <c r="B727" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C727" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D727" s="18" t="inlineStr">
         <is>
-          <t>Utilice KEDA si ejecuta cargas de trabajo controladas por eventos</t>
+          <t>Usa las SKU Premium o Dedicadas para obtener un rendimiento predecible</t>
         </is>
       </c>
       <c r="E727" s="18" t="n"/>
       <c r="F727" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G727" t="inlineStr">
@@ -38340,7 +38332,7 @@
       <c r="K727" s="19" t="n"/>
       <c r="L727" s="19" t="inlineStr">
         <is>
-          <t>a280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
+          <t>20b56c56-ad58-4519-8f82-735c586bb281</t>
         </is>
       </c>
       <c r="M727" s="20" t="n"/>
@@ -38352,28 +38344,32 @@
     <row r="728">
       <c r="A728" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure Event Hub Review</t>
         </is>
       </c>
       <c r="B728" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C728" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D728" s="18" t="inlineStr">
         <is>
-          <t>Uso de Dapr para facilitar el desarrollo de microservicios</t>
-        </is>
-      </c>
-      <c r="E728" s="18" t="n"/>
+          <t>Planeación de la recuperación ante desastres geográfica mediante la configuración pasiva activa</t>
+        </is>
+      </c>
+      <c r="E728" s="18" t="inlineStr">
+        <is>
+          <t>La característica integrada de recuperación ante desastres geográfica, cuando está habilitada, garantiza que toda la configuración de un espacio de nombres (Event Hubs, grupos de consumidores y configuración) se replique continuamente desde un espacio de nombres principal a un espacio de nombres secundario, y permite un movimiento de conmutación por error de una sola vez del principal al secundario en cualquier momento. La característica Activo/Pasivo está diseñada para facilitar la recuperación y el abandono de una región de Azure con errores sin tener que cambiar las configuraciones de la aplicación</t>
+        </is>
+      </c>
       <c r="F728" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G728" t="inlineStr">
@@ -38391,7 +38387,7 @@
       <c r="K728" s="19" t="n"/>
       <c r="L728" s="19" t="inlineStr">
         <is>
-          <t>26886d20-b66c-457b-a591-19bf8e8f5c58</t>
+          <t>dc15a1c0-75ee-49f1-90ac-ccd579376bcd</t>
         </is>
       </c>
       <c r="M728" s="20" t="n"/>
@@ -38403,7 +38399,7 @@
     <row r="729">
       <c r="A729" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure Event Hub Review</t>
         </is>
       </c>
       <c r="B729" s="18" t="inlineStr">
@@ -38413,18 +38409,22 @@
       </c>
       <c r="C729" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D729" s="18" t="inlineStr">
         <is>
-          <t>Uso de la oferta de AKS respaldada por SLA</t>
-        </is>
-      </c>
-      <c r="E729" s="18" t="n"/>
+          <t>En el caso de las aplicaciones críticas para la empresa, use la configuración Active Active</t>
+        </is>
+      </c>
+      <c r="E729" s="18" t="inlineStr">
+        <is>
+          <t>Debe utilizarse para configuraciones de recuperación ante desastres en las que no se puede tolerar una interrupción o pérdida de datos de eventos en la región inactiva. En estos casos, siga las instrucciones de replicación y no use la capacidad de recuperación ante desastres geográfica integrada (activa/pasiva). Con Activo/Activo, mantenga varios centros de eventos en diferentes regiones y espacios de nombres, y los eventos se replicarán entre los centros</t>
+        </is>
+      </c>
       <c r="F729" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G729" t="inlineStr">
@@ -38439,14 +38439,10 @@
         </is>
       </c>
       <c r="J729" s="13" t="n"/>
-      <c r="K729" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (sku.tier=='Paid') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K729" s="19" t="n"/>
       <c r="L729" s="19" t="inlineStr">
         <is>
-          <t>71d41e36-10cc-457b-9a4b-1410d4395898</t>
+          <t>6e31b67d-67ba-4591-89c0-9e805d597c7e</t>
         </is>
       </c>
       <c r="M729" s="20" t="n"/>
@@ -38458,7 +38454,7 @@
     <row r="730">
       <c r="A730" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure Event Hub Review</t>
         </is>
       </c>
       <c r="B730" s="18" t="inlineStr">
@@ -38468,18 +38464,18 @@
       </c>
       <c r="C730" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D730" s="18" t="inlineStr">
         <is>
-          <t>Uso de presupuestos de interrupción en el pod y las definiciones de implementación</t>
+          <t>Diseño de centros de eventos resilientes</t>
         </is>
       </c>
       <c r="E730" s="18" t="n"/>
       <c r="F730" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G730" t="inlineStr">
@@ -38497,7 +38493,7 @@
       <c r="K730" s="19" t="n"/>
       <c r="L730" s="19" t="inlineStr">
         <is>
-          <t>c1288b3c-6a57-4cfc-9444-51e1a3d3453a</t>
+          <t>9ced16ad-d186-4f0a-a241-a999a68af77c</t>
         </is>
       </c>
       <c r="M730" s="20" t="n"/>
@@ -38519,18 +38515,18 @@
       </c>
       <c r="C731" s="18" t="inlineStr">
         <is>
-          <t>ACR</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D731" s="18" t="inlineStr">
         <is>
-          <t>Si usa un registro privado, configure la replicación de regiones para almacenar imágenes en varias regiones</t>
+          <t>Si es necesario para las cargas de trabajo de Windows de AKS, se pueden usar contenedores HostProcess</t>
         </is>
       </c>
       <c r="E731" s="18" t="n"/>
       <c r="F731" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G731" t="inlineStr">
@@ -38548,7 +38544,7 @@
       <c r="K731" s="19" t="n"/>
       <c r="L731" s="19" t="inlineStr">
         <is>
-          <t>3c763963-7a55-42d5-a15e-401955387e5c</t>
+          <t>ab5351f6-383a-45ed-9c5e-b143b16db40a</t>
         </is>
       </c>
       <c r="M731" s="20" t="n"/>
@@ -38565,7 +38561,7 @@
       </c>
       <c r="B732" s="18" t="inlineStr">
         <is>
-          <t>Costar</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C732" s="18" t="inlineStr">
@@ -38575,7 +38571,7 @@
       </c>
       <c r="D732" s="18" t="inlineStr">
         <is>
-          <t>Usar una aplicación externa como kubecost para asignar costos a diferentes usuarios</t>
+          <t>Utilice KEDA si ejecuta cargas de trabajo controladas por eventos</t>
         </is>
       </c>
       <c r="E732" s="18" t="n"/>
@@ -38599,7 +38595,7 @@
       <c r="K732" s="19" t="n"/>
       <c r="L732" s="19" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>a280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
         </is>
       </c>
       <c r="M732" s="20" t="n"/>
@@ -38616,7 +38612,7 @@
       </c>
       <c r="B733" s="18" t="inlineStr">
         <is>
-          <t>Costar</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C733" s="18" t="inlineStr">
@@ -38626,7 +38622,7 @@
       </c>
       <c r="D733" s="18" t="inlineStr">
         <is>
-          <t>Usar el modo de reducción vertical para eliminar/desasignar nodos</t>
+          <t>Uso de Dapr para facilitar el desarrollo de microservicios</t>
         </is>
       </c>
       <c r="E733" s="18" t="n"/>
@@ -38650,7 +38646,7 @@
       <c r="K733" s="19" t="n"/>
       <c r="L733" s="19" t="inlineStr">
         <is>
-          <t>4d3dfbab-9924-4831-a68d-fdf0d72f462c</t>
+          <t>26886d20-b66c-457b-a591-19bf8e8f5c58</t>
         </is>
       </c>
       <c r="M733" s="20" t="n"/>
@@ -38667,7 +38663,7 @@
       </c>
       <c r="B734" s="18" t="inlineStr">
         <is>
-          <t>Costar</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C734" s="18" t="inlineStr">
@@ -38677,13 +38673,13 @@
       </c>
       <c r="D734" s="18" t="inlineStr">
         <is>
-          <t>Cuando sea necesario, use la GPU de partición de varias instancias en clústeres de AKS</t>
+          <t>Uso de la oferta de AKS respaldada por SLA</t>
         </is>
       </c>
       <c r="E734" s="18" t="n"/>
       <c r="F734" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G734" t="inlineStr">
@@ -38698,10 +38694,14 @@
         </is>
       </c>
       <c r="J734" s="13" t="n"/>
-      <c r="K734" s="19" t="n"/>
+      <c r="K734" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (sku.tier=='Paid') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L734" s="19" t="inlineStr">
         <is>
-          <t>87e651ea-bc4a-4a87-a6df-c06a4b570ebc</t>
+          <t>71d41e36-10cc-457b-9a4b-1410d4395898</t>
         </is>
       </c>
       <c r="M734" s="20" t="n"/>
@@ -38718,7 +38718,7 @@
       </c>
       <c r="B735" s="18" t="inlineStr">
         <is>
-          <t>Costar</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C735" s="18" t="inlineStr">
@@ -38728,7 +38728,7 @@
       </c>
       <c r="D735" s="18" t="inlineStr">
         <is>
-          <t>Si se ejecuta un clúster de desarrollo y pruebas, use NodePool Start/Stop</t>
+          <t>Uso de presupuestos de interrupción en el pod y las definiciones de implementación</t>
         </is>
       </c>
       <c r="E735" s="18" t="n"/>
@@ -38752,7 +38752,7 @@
       <c r="K735" s="19" t="n"/>
       <c r="L735" s="19" t="inlineStr">
         <is>
-          <t>2b72a08b-0410-4cd6-9093-e068a5cf27e8</t>
+          <t>c1288b3c-6a57-4cfc-9444-51e1a3d3453a</t>
         </is>
       </c>
       <c r="M735" s="20" t="n"/>
@@ -38769,23 +38769,23 @@
       </c>
       <c r="B736" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C736" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>ACR</t>
         </is>
       </c>
       <c r="D736" s="18" t="inlineStr">
         <is>
-          <t>Uso de Azure Policy para Kubernetes para garantizar el cumplimiento de clústeres</t>
+          <t>Si usa un registro privado, configure la replicación de regiones para almacenar imágenes en varias regiones</t>
         </is>
       </c>
       <c r="E736" s="18" t="n"/>
       <c r="F736" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G736" t="inlineStr">
@@ -38800,14 +38800,10 @@
         </is>
       </c>
       <c r="J736" s="13" t="n"/>
-      <c r="K736" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.azurepolicy) and properties.addonProfiles.azurepolicy.enabled==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K736" s="19" t="n"/>
       <c r="L736" s="19" t="inlineStr">
         <is>
-          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
+          <t>3c763963-7a55-42d5-a15e-401955387e5c</t>
         </is>
       </c>
       <c r="M736" s="20" t="n"/>
@@ -38824,7 +38820,7 @@
       </c>
       <c r="B737" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C737" s="18" t="inlineStr">
@@ -38834,13 +38830,13 @@
       </c>
       <c r="D737" s="18" t="inlineStr">
         <is>
-          <t>Separe las aplicaciones del plano de control con grupos de nodos de usuario/sistema</t>
+          <t>Usar una aplicación externa como kubecost para asignar costos a diferentes usuarios</t>
         </is>
       </c>
       <c r="E737" s="18" t="n"/>
       <c r="F737" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G737" t="inlineStr">
@@ -38855,14 +38851,10 @@
         </is>
       </c>
       <c r="J737" s="13" t="n"/>
-      <c r="K737" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | project id,resourceGroup,name,pools=properties.agentPoolProfiles | project id,name,resourceGroup,poolcount=array_length(pools) | extend compliant = (poolcount &gt; 1)</t>
-        </is>
-      </c>
+      <c r="K737" s="19" t="n"/>
       <c r="L737" s="19" t="inlineStr">
         <is>
-          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M737" s="20" t="n"/>
@@ -38879,7 +38871,7 @@
       </c>
       <c r="B738" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C738" s="18" t="inlineStr">
@@ -38889,7 +38881,7 @@
       </c>
       <c r="D738" s="18" t="inlineStr">
         <is>
-          <t>Agregue taint a su grupo de nodos del sistema para que sea dedicado</t>
+          <t>Usar el modo de reducción vertical para eliminar/desasignar nodos</t>
         </is>
       </c>
       <c r="E738" s="18" t="n"/>
@@ -38913,7 +38905,7 @@
       <c r="K738" s="19" t="n"/>
       <c r="L738" s="19" t="inlineStr">
         <is>
-          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
+          <t>4d3dfbab-9924-4831-a68d-fdf0d72f462c</t>
         </is>
       </c>
       <c r="M738" s="20" t="n"/>
@@ -38930,7 +38922,7 @@
       </c>
       <c r="B739" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C739" s="18" t="inlineStr">
@@ -38940,7 +38932,7 @@
       </c>
       <c r="D739" s="18" t="inlineStr">
         <is>
-          <t>Utilice un registro privado para sus imágenes, como ACR</t>
+          <t>Cuando sea necesario, use la GPU de partición de varias instancias en clústeres de AKS</t>
         </is>
       </c>
       <c r="E739" s="18" t="n"/>
@@ -38964,7 +38956,7 @@
       <c r="K739" s="19" t="n"/>
       <c r="L739" s="19" t="inlineStr">
         <is>
-          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
+          <t>87e651ea-bc4a-4a87-a6df-c06a4b570ebc</t>
         </is>
       </c>
       <c r="M739" s="20" t="n"/>
@@ -38981,23 +38973,23 @@
       </c>
       <c r="B740" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C740" s="18" t="inlineStr">
         <is>
-          <t>ACR</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D740" s="18" t="inlineStr">
         <is>
-          <t>Escanea tus imágenes en busca de vulnerabilidades</t>
+          <t>Si se ejecuta un clúster de desarrollo y pruebas, use NodePool Start/Stop</t>
         </is>
       </c>
       <c r="E740" s="18" t="n"/>
       <c r="F740" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G740" t="inlineStr">
@@ -39015,7 +39007,7 @@
       <c r="K740" s="19" t="n"/>
       <c r="L740" s="19" t="inlineStr">
         <is>
-          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
+          <t>2b72a08b-0410-4cd6-9093-e068a5cf27e8</t>
         </is>
       </c>
       <c r="M740" s="20" t="n"/>
@@ -39042,13 +39034,13 @@
       </c>
       <c r="D741" s="18" t="inlineStr">
         <is>
-          <t>Definición de los requisitos de separación de aplicaciones (espacio de nombres/grupo de nodos/clúster)</t>
+          <t>Uso de Azure Policy para Kubernetes para garantizar el cumplimiento de clústeres</t>
         </is>
       </c>
       <c r="E741" s="18" t="n"/>
       <c r="F741" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G741" t="inlineStr">
@@ -39063,10 +39055,14 @@
         </is>
       </c>
       <c r="J741" s="13" t="n"/>
-      <c r="K741" s="19" t="n"/>
+      <c r="K741" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.azurepolicy) and properties.addonProfiles.azurepolicy.enabled==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L741" s="19" t="inlineStr">
         <is>
-          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
+          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
         </is>
       </c>
       <c r="M741" s="20" t="n"/>
@@ -39093,7 +39089,7 @@
       </c>
       <c r="D742" s="18" t="inlineStr">
         <is>
-          <t>Almacenamiento de los secretos en Azure Key Vault con el controlador del almacén de secretos de CSI</t>
+          <t>Separe las aplicaciones del plano de control con grupos de nodos de usuario/sistema</t>
         </is>
       </c>
       <c r="E742" s="18" t="n"/>
@@ -39114,10 +39110,14 @@
         </is>
       </c>
       <c r="J742" s="13" t="n"/>
-      <c r="K742" s="19" t="n"/>
+      <c r="K742" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | project id,resourceGroup,name,pools=properties.agentPoolProfiles | project id,name,resourceGroup,poolcount=array_length(pools) | extend compliant = (poolcount &gt; 1)</t>
+        </is>
+      </c>
       <c r="L742" s="19" t="inlineStr">
         <is>
-          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
+          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
         </is>
       </c>
       <c r="M742" s="20" t="n"/>
@@ -39144,13 +39144,13 @@
       </c>
       <c r="D743" s="18" t="inlineStr">
         <is>
-          <t>Si usa entidades de servicio para el clúster, actualice las credenciales periódicamente (por ejemplo, trimestralmente)</t>
+          <t>Agregue taint a su grupo de nodos del sistema para que sea dedicado</t>
         </is>
       </c>
       <c r="E743" s="18" t="n"/>
       <c r="F743" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G743" t="inlineStr">
@@ -39168,7 +39168,7 @@
       <c r="K743" s="19" t="n"/>
       <c r="L743" s="19" t="inlineStr">
         <is>
-          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
+          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
         </is>
       </c>
       <c r="M743" s="20" t="n"/>
@@ -39195,7 +39195,7 @@
       </c>
       <c r="D744" s="18" t="inlineStr">
         <is>
-          <t>Si es necesario, agregue el servicio de administración de claves, etcd, cifrado</t>
+          <t>Utilice un registro privado para sus imágenes, como ACR</t>
         </is>
       </c>
       <c r="E744" s="18" t="n"/>
@@ -39219,7 +39219,7 @@
       <c r="K744" s="19" t="n"/>
       <c r="L744" s="19" t="inlineStr">
         <is>
-          <t>e7ba73a3-0508-4f80-806f-527db30cee96</t>
+          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
         </is>
       </c>
       <c r="M744" s="20" t="n"/>
@@ -39241,18 +39241,18 @@
       </c>
       <c r="C745" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>ACR</t>
         </is>
       </c>
       <c r="D745" s="18" t="inlineStr">
         <is>
-          <t>Si es necesario, considere la posibilidad de usar Proceso confidencial para AKS</t>
+          <t>Escanea tus imágenes en busca de vulnerabilidades</t>
         </is>
       </c>
       <c r="E745" s="18" t="n"/>
       <c r="F745" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G745" t="inlineStr">
@@ -39270,7 +39270,7 @@
       <c r="K745" s="19" t="n"/>
       <c r="L745" s="19" t="inlineStr">
         <is>
-          <t>ec8e4e42-0344-41b0-b865-9123e8956d31</t>
+          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
         </is>
       </c>
       <c r="M745" s="20" t="n"/>
@@ -39297,13 +39297,13 @@
       </c>
       <c r="D746" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar Defender para contenedores</t>
+          <t>Definición de los requisitos de separación de aplicaciones (espacio de nombres/grupo de nodos/clúster)</t>
         </is>
       </c>
       <c r="E746" s="18" t="n"/>
       <c r="F746" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G746" t="inlineStr">
@@ -39321,7 +39321,7 @@
       <c r="K746" s="19" t="n"/>
       <c r="L746" s="19" t="inlineStr">
         <is>
-          <t>c9e95ffe-6dd1-4a17-8c5f-110389ca9b21</t>
+          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
         </is>
       </c>
       <c r="M746" s="20" t="n"/>
@@ -39348,13 +39348,13 @@
       </c>
       <c r="D747" s="18" t="inlineStr">
         <is>
-          <t>Uso de identidades administradas en lugar de entidades de servicio</t>
+          <t>Almacenamiento de los secretos en Azure Key Vault con el controlador del almacén de secretos de CSI</t>
         </is>
       </c>
       <c r="E747" s="18" t="n"/>
       <c r="F747" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G747" t="inlineStr">
@@ -39369,14 +39369,10 @@
         </is>
       </c>
       <c r="J747" s="13" t="n"/>
-      <c r="K747" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.servicePrincipalProfile.clientId=='msi') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K747" s="19" t="n"/>
       <c r="L747" s="19" t="inlineStr">
         <is>
-          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
+          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
         </is>
       </c>
       <c r="M747" s="20" t="n"/>
@@ -39403,13 +39399,13 @@
       </c>
       <c r="D748" s="18" t="inlineStr">
         <is>
-          <t>Integración de la autenticación con AAD (mediante la integración administrada)</t>
+          <t>Si usa entidades de servicio para el clúster, actualice las credenciales periódicamente (por ejemplo, trimestralmente)</t>
         </is>
       </c>
       <c r="E748" s="18" t="n"/>
       <c r="F748" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G748" t="inlineStr">
@@ -39424,14 +39420,10 @@
         </is>
       </c>
       <c r="J748" s="13" t="n"/>
-      <c r="K748" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = isnotnull(properties.aadProfile) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K748" s="19" t="n"/>
       <c r="L748" s="19" t="inlineStr">
         <is>
-          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
+          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
         </is>
       </c>
       <c r="M748" s="20" t="n"/>
@@ -39458,7 +39450,7 @@
       </c>
       <c r="D749" s="18" t="inlineStr">
         <is>
-          <t>Limitar el acceso a admin kubeconfig (get-credentials --admin)</t>
+          <t>Si es necesario, agregue el servicio de administración de claves, etcd, cifrado</t>
         </is>
       </c>
       <c r="E749" s="18" t="n"/>
@@ -39482,7 +39474,7 @@
       <c r="K749" s="19" t="n"/>
       <c r="L749" s="19" t="inlineStr">
         <is>
-          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
+          <t>e7ba73a3-0508-4f80-806f-527db30cee96</t>
         </is>
       </c>
       <c r="M749" s="20" t="n"/>
@@ -39509,13 +39501,13 @@
       </c>
       <c r="D750" s="18" t="inlineStr">
         <is>
-          <t>Integración de la autorización con RBAC de AAD</t>
+          <t>Si es necesario, considere la posibilidad de usar Proceso confidencial para AKS</t>
         </is>
       </c>
       <c r="E750" s="18" t="n"/>
       <c r="F750" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G750" t="inlineStr">
@@ -39533,7 +39525,7 @@
       <c r="K750" s="19" t="n"/>
       <c r="L750" s="19" t="inlineStr">
         <is>
-          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
+          <t>ec8e4e42-0344-41b0-b865-9123e8956d31</t>
         </is>
       </c>
       <c r="M750" s="20" t="n"/>
@@ -39560,13 +39552,13 @@
       </c>
       <c r="D751" s="18" t="inlineStr">
         <is>
-          <t>Uso de espacios de nombres para restringir el privilegio RBAC en Kubernetes</t>
+          <t>Considere la posibilidad de usar Defender para contenedores</t>
         </is>
       </c>
       <c r="E751" s="18" t="n"/>
       <c r="F751" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G751" t="inlineStr">
@@ -39584,7 +39576,7 @@
       <c r="K751" s="19" t="n"/>
       <c r="L751" s="19" t="inlineStr">
         <is>
-          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
+          <t>c9e95ffe-6dd1-4a17-8c5f-110389ca9b21</t>
         </is>
       </c>
       <c r="M751" s="20" t="n"/>
@@ -39611,13 +39603,13 @@
       </c>
       <c r="D752" s="18" t="inlineStr">
         <is>
-          <t>Para la administración de acceso a identidades de pods, use Azure AD Workload Identity (versión preliminar)</t>
+          <t>Uso de identidades administradas en lugar de entidades de servicio</t>
         </is>
       </c>
       <c r="E752" s="18" t="n"/>
       <c r="F752" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G752" t="inlineStr">
@@ -39632,10 +39624,14 @@
         </is>
       </c>
       <c r="J752" s="13" t="n"/>
-      <c r="K752" s="19" t="n"/>
+      <c r="K752" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.servicePrincipalProfile.clientId=='msi') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L752" s="19" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
         </is>
       </c>
       <c r="M752" s="20" t="n"/>
@@ -39662,7 +39658,7 @@
       </c>
       <c r="D753" s="18" t="inlineStr">
         <is>
-          <t>En el caso de los inicios de sesión no interactivos de AKS, use kubelogin (versión preliminar)</t>
+          <t>Integración de la autenticación con AAD (mediante la integración administrada)</t>
         </is>
       </c>
       <c r="E753" s="18" t="n"/>
@@ -39683,10 +39679,14 @@
         </is>
       </c>
       <c r="J753" s="13" t="n"/>
-      <c r="K753" s="19" t="n"/>
+      <c r="K753" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = isnotnull(properties.aadProfile) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L753" s="19" t="inlineStr">
         <is>
-          <t>f4dcf690-1b30-407d-abab-6f8aa780d3a3</t>
+          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
         </is>
       </c>
       <c r="M753" s="20" t="n"/>
@@ -39713,7 +39713,7 @@
       </c>
       <c r="D754" s="18" t="inlineStr">
         <is>
-          <t>Deshabilitación de cuentas locales de AKS</t>
+          <t>Limitar el acceso a admin kubeconfig (get-credentials --admin)</t>
         </is>
       </c>
       <c r="E754" s="18" t="n"/>
@@ -39734,14 +39734,10 @@
         </is>
       </c>
       <c r="J754" s="13" t="n"/>
-      <c r="K754" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.disableLocalAccounts==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K754" s="19" t="n"/>
       <c r="L754" s="19" t="inlineStr">
         <is>
-          <t>b085b1f2-3119-4771-8c9a-bbf4411810ec</t>
+          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
         </is>
       </c>
       <c r="M754" s="20" t="n"/>
@@ -39768,13 +39764,13 @@
       </c>
       <c r="D755" s="18" t="inlineStr">
         <is>
-          <t>Configure, si es necesario, el acceso al clúster Just-In-Time</t>
+          <t>Integración de la autorización con RBAC de AAD</t>
         </is>
       </c>
       <c r="E755" s="18" t="n"/>
       <c r="F755" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G755" t="inlineStr">
@@ -39792,7 +39788,7 @@
       <c r="K755" s="19" t="n"/>
       <c r="L755" s="19" t="inlineStr">
         <is>
-          <t>36abb0db-c118-4f4c-9880-3f30f9a2deb6</t>
+          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
         </is>
       </c>
       <c r="M755" s="20" t="n"/>
@@ -39819,13 +39815,13 @@
       </c>
       <c r="D756" s="18" t="inlineStr">
         <is>
-          <t>Configure si es necesario el acceso condicional de AAD para AKS</t>
+          <t>Uso de espacios de nombres para restringir el privilegio RBAC en Kubernetes</t>
         </is>
       </c>
       <c r="E756" s="18" t="n"/>
       <c r="F756" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G756" t="inlineStr">
@@ -39843,7 +39839,7 @@
       <c r="K756" s="19" t="n"/>
       <c r="L756" s="19" t="inlineStr">
         <is>
-          <t>c4d7f4c6-79bf-45d0-aa05-ce8fc717e150</t>
+          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
         </is>
       </c>
       <c r="M756" s="20" t="n"/>
@@ -39870,13 +39866,13 @@
       </c>
       <c r="D757" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Si es necesario para las cargas de trabajo de Windows AKS, configure gMSA </t>
+          <t>Para la administración de acceso a identidades de pods, use Azure AD Workload Identity (versión preliminar)</t>
         </is>
       </c>
       <c r="E757" s="18" t="n"/>
       <c r="F757" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G757" t="inlineStr">
@@ -39894,7 +39890,7 @@
       <c r="K757" s="19" t="n"/>
       <c r="L757" s="19" t="inlineStr">
         <is>
-          <t>e1123a7c-a333-4eb4-a120-4ee3f293c9f3</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M757" s="20" t="n"/>
@@ -39921,7 +39917,7 @@
       </c>
       <c r="D758" s="18" t="inlineStr">
         <is>
-          <t>Para un control más preciso, considere la posibilidad de utilizar una identidad de Kubelet administrada</t>
+          <t>En el caso de los inicios de sesión no interactivos de AKS, use kubelogin (versión preliminar)</t>
         </is>
       </c>
       <c r="E758" s="18" t="n"/>
@@ -39945,7 +39941,7 @@
       <c r="K758" s="19" t="n"/>
       <c r="L758" s="19" t="inlineStr">
         <is>
-          <t>1f711a74-3672-470b-b8b8-a2148d640d79</t>
+          <t>f4dcf690-1b30-407d-abab-6f8aa780d3a3</t>
         </is>
       </c>
       <c r="M758" s="20" t="n"/>
@@ -39962,7 +39958,7 @@
       </c>
       <c r="B759" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C759" s="18" t="inlineStr">
@@ -39972,7 +39968,7 @@
       </c>
       <c r="D759" s="18" t="inlineStr">
         <is>
-          <t>Si utiliza AGIC, no comparta un AppGW entre clústeres</t>
+          <t>Deshabilitación de cuentas locales de AKS</t>
         </is>
       </c>
       <c r="E759" s="18" t="n"/>
@@ -39993,10 +39989,14 @@
         </is>
       </c>
       <c r="J759" s="13" t="n"/>
-      <c r="K759" s="19" t="n"/>
+      <c r="K759" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.disableLocalAccounts==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L759" s="19" t="inlineStr">
         <is>
-          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
+          <t>b085b1f2-3119-4771-8c9a-bbf4411810ec</t>
         </is>
       </c>
       <c r="M759" s="20" t="n"/>
@@ -40013,7 +40013,7 @@
       </c>
       <c r="B760" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C760" s="18" t="inlineStr">
@@ -40023,13 +40023,13 @@
       </c>
       <c r="D760" s="18" t="inlineStr">
         <is>
-          <t>No use el complemento de enrutamiento HTTP de AKS, use en su lugar la entrada NGINX administrada con el complemento de enrutamiento de aplicaciones.</t>
+          <t>Configure, si es necesario, el acceso al clúster Just-In-Time</t>
         </is>
       </c>
       <c r="E760" s="18" t="n"/>
       <c r="F760" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G760" t="inlineStr">
@@ -40044,14 +40044,10 @@
         </is>
       </c>
       <c r="J760" s="13" t="n"/>
-      <c r="K760" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnull(properties.addonProfiles.httpApplicationRouting) or properties.addonProfiles.httpApplicationRouting.enabled==false) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K760" s="19" t="n"/>
       <c r="L760" s="19" t="inlineStr">
         <is>
-          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
+          <t>36abb0db-c118-4f4c-9880-3f30f9a2deb6</t>
         </is>
       </c>
       <c r="M760" s="20" t="n"/>
@@ -40068,7 +40064,7 @@
       </c>
       <c r="B761" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C761" s="18" t="inlineStr">
@@ -40078,13 +40074,13 @@
       </c>
       <c r="D761" s="18" t="inlineStr">
         <is>
-          <t>En el caso de las cargas de trabajo de Windows, use las redes aceleradas</t>
+          <t>Configure si es necesario el acceso condicional de AAD para AKS</t>
         </is>
       </c>
       <c r="E761" s="18" t="n"/>
       <c r="F761" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G761" t="inlineStr">
@@ -40102,7 +40098,7 @@
       <c r="K761" s="19" t="n"/>
       <c r="L761" s="19" t="inlineStr">
         <is>
-          <t>7bacd7b9-c025-4a9d-a5d2-25d6bc5439d9</t>
+          <t>c4d7f4c6-79bf-45d0-aa05-ce8fc717e150</t>
         </is>
       </c>
       <c r="M761" s="20" t="n"/>
@@ -40119,7 +40115,7 @@
       </c>
       <c r="B762" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C762" s="18" t="inlineStr">
@@ -40129,13 +40125,13 @@
       </c>
       <c r="D762" s="18" t="inlineStr">
         <is>
-          <t>Utilice el ALB estándar (en lugar del básico)</t>
+          <t xml:space="preserve">Si es necesario para las cargas de trabajo de Windows AKS, configure gMSA </t>
         </is>
       </c>
       <c r="E762" s="18" t="n"/>
       <c r="F762" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G762" t="inlineStr">
@@ -40150,14 +40146,10 @@
         </is>
       </c>
       <c r="J762" s="13" t="n"/>
-      <c r="K762" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (tolower(properties.networkProfile.loadBalancerSku)=='standard') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K762" s="19" t="n"/>
       <c r="L762" s="19" t="inlineStr">
         <is>
-          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
+          <t>e1123a7c-a333-4eb4-a120-4ee3f293c9f3</t>
         </is>
       </c>
       <c r="M762" s="20" t="n"/>
@@ -40184,7 +40176,7 @@
       </c>
       <c r="D763" s="18" t="inlineStr">
         <is>
-          <t>Si usa Azure CNI, considere la posibilidad de usar diferentes subredes para NodePools</t>
+          <t>Para un control más preciso, considere la posibilidad de utilizar una identidad de Kubelet administrada</t>
         </is>
       </c>
       <c r="E763" s="18" t="n"/>
@@ -40208,7 +40200,7 @@
       <c r="K763" s="19" t="n"/>
       <c r="L763" s="19" t="inlineStr">
         <is>
-          <t>22fbe8d6-9b40-47ef-9011-25bb1a555a6b</t>
+          <t>1f711a74-3672-470b-b8b8-a2148d640d79</t>
         </is>
       </c>
       <c r="M763" s="20" t="n"/>
@@ -40225,7 +40217,7 @@
       </c>
       <c r="B764" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C764" s="18" t="inlineStr">
@@ -40235,7 +40227,7 @@
       </c>
       <c r="D764" s="18" t="inlineStr">
         <is>
-          <t>Use puntos de conexión privados (preferidos) o puntos de conexión de servicio de red virtual para acceder a los servicios PaaS desde el clúster</t>
+          <t>Si utiliza AGIC, no comparta un AppGW entre clústeres</t>
         </is>
       </c>
       <c r="E764" s="18" t="n"/>
@@ -40259,7 +40251,7 @@
       <c r="K764" s="19" t="n"/>
       <c r="L764" s="19" t="inlineStr">
         <is>
-          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
+          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
         </is>
       </c>
       <c r="M764" s="20" t="n"/>
@@ -40286,7 +40278,7 @@
       </c>
       <c r="D765" s="18" t="inlineStr">
         <is>
-          <t>Elija el mejor complemento de red de CNI para sus necesidades (se recomienda Azure CNI)</t>
+          <t>No use el complemento de enrutamiento HTTP de AKS, use en su lugar la entrada NGINX administrada con el complemento de enrutamiento de aplicaciones.</t>
         </is>
       </c>
       <c r="E765" s="18" t="n"/>
@@ -40309,12 +40301,12 @@
       <c r="J765" s="13" t="n"/>
       <c r="K765" s="19" t="inlineStr">
         <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.networkProfile.networkPlugin=='azure') | distinct id,compliant</t>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnull(properties.addonProfiles.httpApplicationRouting) or properties.addonProfiles.httpApplicationRouting.enabled==false) | distinct id,compliant</t>
         </is>
       </c>
       <c r="L765" s="19" t="inlineStr">
         <is>
-          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
+          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
         </is>
       </c>
       <c r="M765" s="20" t="n"/>
@@ -40341,13 +40333,13 @@
       </c>
       <c r="D766" s="18" t="inlineStr">
         <is>
-          <t>Si usa CNI de Azure, ajuste el tamaño de la subred en consecuencia teniendo en cuenta el número máximo de pods por nodo</t>
+          <t>En el caso de las cargas de trabajo de Windows, use las redes aceleradas</t>
         </is>
       </c>
       <c r="E766" s="18" t="n"/>
       <c r="F766" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G766" t="inlineStr">
@@ -40365,7 +40357,7 @@
       <c r="K766" s="19" t="n"/>
       <c r="L766" s="19" t="inlineStr">
         <is>
-          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
+          <t>7bacd7b9-c025-4a9d-a5d2-25d6bc5439d9</t>
         </is>
       </c>
       <c r="M766" s="20" t="n"/>
@@ -40382,7 +40374,7 @@
       </c>
       <c r="B767" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C767" s="18" t="inlineStr">
@@ -40392,7 +40384,7 @@
       </c>
       <c r="D767" s="18" t="inlineStr">
         <is>
-          <t>Si usa Azure CNI, compruebe el número máximo de pods o nodo (valor predeterminado 30)</t>
+          <t>Utilice el ALB estándar (en lugar del básico)</t>
         </is>
       </c>
       <c r="E767" s="18" t="n"/>
@@ -40413,10 +40405,14 @@
         </is>
       </c>
       <c r="J767" s="13" t="n"/>
-      <c r="K767" s="19" t="n"/>
+      <c r="K767" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (tolower(properties.networkProfile.loadBalancerSku)=='standard') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L767" s="19" t="inlineStr">
         <is>
-          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
+          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
         </is>
       </c>
       <c r="M767" s="20" t="n"/>
@@ -40443,17 +40439,13 @@
       </c>
       <c r="D768" s="18" t="inlineStr">
         <is>
-          <t>Si usa servicios de LoadBalancer de dirección IP privada, use una subred dedicada (no la subred de AKS)</t>
-        </is>
-      </c>
-      <c r="E768" s="18" t="inlineStr">
-        <is>
-          <t>En el caso de las aplicaciones internas, las organizaciones suelen abrir toda la subred de AKS en sus firewalls. Esto también abre el acceso de red a los nodos y, potencialmente, también a los pods (si se usa Azure CNI). Si las direcciones IP de LoadBalancer están en una subred diferente, solo esta debe estar disponible para los clientes de la aplicación. Otra razón es que si las direcciones IP de la subred de AKS son un recurso escaso, el consumo de sus direcciones IP para los servicios reducirá la escalabilidad máxima del clúster.</t>
-        </is>
-      </c>
+          <t>Si usa Azure CNI, considere la posibilidad de usar diferentes subredes para NodePools</t>
+        </is>
+      </c>
+      <c r="E768" s="18" t="n"/>
       <c r="F768" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G768" t="inlineStr">
@@ -40471,7 +40463,7 @@
       <c r="K768" s="19" t="n"/>
       <c r="L768" s="19" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
+          <t>22fbe8d6-9b40-47ef-9011-25bb1a555a6b</t>
         </is>
       </c>
       <c r="M768" s="20" t="n"/>
@@ -40488,7 +40480,7 @@
       </c>
       <c r="B769" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C769" s="18" t="inlineStr">
@@ -40498,13 +40490,13 @@
       </c>
       <c r="D769" s="18" t="inlineStr">
         <is>
-          <t>Dimensione el rango de direcciones IP del servicio en consecuencia (limitará la escalabilidad del clúster)</t>
+          <t>Use puntos de conexión privados (preferidos) o puntos de conexión de servicio de red virtual para acceder a los servicios PaaS desde el clúster</t>
         </is>
       </c>
       <c r="E769" s="18" t="n"/>
       <c r="F769" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G769" t="inlineStr">
@@ -40522,7 +40514,7 @@
       <c r="K769" s="19" t="n"/>
       <c r="L769" s="19" t="inlineStr">
         <is>
-          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
+          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
         </is>
       </c>
       <c r="M769" s="20" t="n"/>
@@ -40539,7 +40531,7 @@
       </c>
       <c r="B770" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C770" s="18" t="inlineStr">
@@ -40549,13 +40541,13 @@
       </c>
       <c r="D770" s="18" t="inlineStr">
         <is>
-          <t>Si es necesario, agregue su propio complemento CNI</t>
+          <t>Elija el mejor complemento de red de CNI para sus necesidades (se recomienda Azure CNI)</t>
         </is>
       </c>
       <c r="E770" s="18" t="n"/>
       <c r="F770" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G770" t="inlineStr">
@@ -40570,10 +40562,14 @@
         </is>
       </c>
       <c r="J770" s="13" t="n"/>
-      <c r="K770" s="19" t="n"/>
+      <c r="K770" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.networkProfile.networkPlugin=='azure') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L770" s="19" t="inlineStr">
         <is>
-          <t>57bf217f-6dc8-481c-81e2-785773e9c00f</t>
+          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
         </is>
       </c>
       <c r="M770" s="20" t="n"/>
@@ -40600,13 +40596,13 @@
       </c>
       <c r="D771" s="18" t="inlineStr">
         <is>
-          <t>Si es necesario, configure la dirección IP pública por nodo en AKS</t>
+          <t>Si usa CNI de Azure, ajuste el tamaño de la subred en consecuencia teniendo en cuenta el número máximo de pods por nodo</t>
         </is>
       </c>
       <c r="E771" s="18" t="n"/>
       <c r="F771" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G771" t="inlineStr">
@@ -40624,7 +40620,7 @@
       <c r="K771" s="19" t="n"/>
       <c r="L771" s="19" t="inlineStr">
         <is>
-          <t>4b3bb365-9458-44d9-9ed1-5c8f52890364</t>
+          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
         </is>
       </c>
       <c r="M771" s="20" t="n"/>
@@ -40641,7 +40637,7 @@
       </c>
       <c r="B772" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C772" s="18" t="inlineStr">
@@ -40651,13 +40647,13 @@
       </c>
       <c r="D772" s="18" t="inlineStr">
         <is>
-          <t>Use un controlador de entrada para exponer aplicaciones basadas en web en lugar de exponerlas con servicios de tipo LoadBalancer</t>
+          <t>Si usa Azure CNI, compruebe el número máximo de pods o nodo (valor predeterminado 30)</t>
         </is>
       </c>
       <c r="E772" s="18" t="n"/>
       <c r="F772" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G772" t="inlineStr">
@@ -40675,7 +40671,7 @@
       <c r="K772" s="19" t="n"/>
       <c r="L772" s="19" t="inlineStr">
         <is>
-          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
+          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
         </is>
       </c>
       <c r="M772" s="20" t="n"/>
@@ -40692,7 +40688,7 @@
       </c>
       <c r="B773" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C773" s="18" t="inlineStr">
@@ -40702,10 +40698,14 @@
       </c>
       <c r="D773" s="18" t="inlineStr">
         <is>
-          <t>Uso de Azure NAT Gateway como outboundType para escalar el tráfico de salida</t>
-        </is>
-      </c>
-      <c r="E773" s="18" t="n"/>
+          <t>Si usa servicios de LoadBalancer de dirección IP privada, use una subred dedicada (no la subred de AKS)</t>
+        </is>
+      </c>
+      <c r="E773" s="18" t="inlineStr">
+        <is>
+          <t>En el caso de las aplicaciones internas, las organizaciones suelen abrir toda la subred de AKS en sus firewalls. Esto también abre el acceso de red a los nodos y, potencialmente, también a los pods (si se usa Azure CNI). Si las direcciones IP de LoadBalancer están en una subred diferente, solo esta debe estar disponible para los clientes de la aplicación. Otra razón es que si las direcciones IP de la subred de AKS son un recurso escaso, el consumo de sus direcciones IP para los servicios reducirá la escalabilidad máxima del clúster.</t>
+        </is>
+      </c>
       <c r="F773" s="18" t="inlineStr">
         <is>
           <t>Bajo</t>
@@ -40726,7 +40726,7 @@
       <c r="K773" s="19" t="n"/>
       <c r="L773" s="19" t="inlineStr">
         <is>
-          <t>ccb534e7-416e-4a1d-8e93-533b53199085</t>
+          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
         </is>
       </c>
       <c r="M773" s="20" t="n"/>
@@ -40753,13 +40753,13 @@
       </c>
       <c r="D774" s="18" t="inlineStr">
         <is>
-          <t>Uso de asignaciones dinámicas de direcciones IP para evitar el agotamiento de direcciones IP de Azure CNI</t>
+          <t>Dimensione el rango de direcciones IP del servicio en consecuencia (limitará la escalabilidad del clúster)</t>
         </is>
       </c>
       <c r="E774" s="18" t="n"/>
       <c r="F774" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G774" t="inlineStr">
@@ -40777,7 +40777,7 @@
       <c r="K774" s="19" t="n"/>
       <c r="L774" s="19" t="inlineStr">
         <is>
-          <t>8ee9a69a-1b58-4b1e-9c61-476e110a160b</t>
+          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
         </is>
       </c>
       <c r="M774" s="20" t="n"/>
@@ -40804,13 +40804,13 @@
       </c>
       <c r="D775" s="18" t="inlineStr">
         <is>
-          <t>Filtre el tráfico de salida con AzFW/NVA si sus requisitos de seguridad lo exigen</t>
+          <t>Si es necesario, agregue su propio complemento CNI</t>
         </is>
       </c>
       <c r="E775" s="18" t="n"/>
       <c r="F775" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G775" t="inlineStr">
@@ -40825,14 +40825,10 @@
         </is>
       </c>
       <c r="J775" s="13" t="n"/>
-      <c r="K775" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.networkProfile.outboundType=='userDefinedRouting') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K775" s="19" t="n"/>
       <c r="L775" s="19" t="inlineStr">
         <is>
-          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
+          <t>57bf217f-6dc8-481c-81e2-785773e9c00f</t>
         </is>
       </c>
       <c r="M775" s="20" t="n"/>
@@ -40849,7 +40845,7 @@
       </c>
       <c r="B776" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C776" s="18" t="inlineStr">
@@ -40859,13 +40855,13 @@
       </c>
       <c r="D776" s="18" t="inlineStr">
         <is>
-          <t>Si utiliza un punto de conexión de API público, restrinja las direcciones IP que pueden acceder a él</t>
+          <t>Si es necesario, configure la dirección IP pública por nodo en AKS</t>
         </is>
       </c>
       <c r="E776" s="18" t="n"/>
       <c r="F776" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G776" t="inlineStr">
@@ -40880,14 +40876,10 @@
         </is>
       </c>
       <c r="J776" s="13" t="n"/>
-      <c r="K776" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = ((isnull(properties.apiServerAccessProfile.enablePrivateCluster) or properties.apiServerAccessProfile.enablePrivateCluster==false) and isnotnull(properties.apiServerAccessProfile.authorizedIPRanges)) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K776" s="19" t="n"/>
       <c r="L776" s="19" t="inlineStr">
         <is>
-          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
+          <t>4b3bb365-9458-44d9-9ed1-5c8f52890364</t>
         </is>
       </c>
       <c r="M776" s="20" t="n"/>
@@ -40904,7 +40896,7 @@
       </c>
       <c r="B777" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C777" s="18" t="inlineStr">
@@ -40914,13 +40906,13 @@
       </c>
       <c r="D777" s="18" t="inlineStr">
         <is>
-          <t>Utilice clústeres privados si sus requisitos lo exigen</t>
+          <t>Use un controlador de entrada para exponer aplicaciones basadas en web en lugar de exponerlas con servicios de tipo LoadBalancer</t>
         </is>
       </c>
       <c r="E777" s="18" t="n"/>
       <c r="F777" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G777" t="inlineStr">
@@ -40935,14 +40927,10 @@
         </is>
       </c>
       <c r="J777" s="13" t="n"/>
-      <c r="K777" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | where isnotnull(properties.apiServerAccessProfile.enablePrivateCluster) | extend compliant = (properties.apiServerAccessProfile.enablePrivateCluster==true) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="K777" s="19" t="n"/>
       <c r="L777" s="19" t="inlineStr">
         <is>
-          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
+          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
         </is>
       </c>
       <c r="M777" s="20" t="n"/>
@@ -40959,7 +40947,7 @@
       </c>
       <c r="B778" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C778" s="18" t="inlineStr">
@@ -40969,13 +40957,13 @@
       </c>
       <c r="D778" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para los nodos de AKS de Windows 2019 y 2022, se pueden usar directivas de red de Calico </t>
+          <t>Uso de Azure NAT Gateway como outboundType para escalar el tráfico de salida</t>
         </is>
       </c>
       <c r="E778" s="18" t="n"/>
       <c r="F778" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G778" t="inlineStr">
@@ -40990,14 +40978,10 @@
         </is>
       </c>
       <c r="J778" s="13" t="n"/>
-      <c r="K778" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | where isnotnull(properties.apiServerAccessProfile.enablePrivateCluster) | extend compliant = (properties.apiServerAccessProfile.enablePrivateCluster==true) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="K778" s="19" t="n"/>
       <c r="L778" s="19" t="inlineStr">
         <is>
-          <t>ce7f2a7c-297c-47c6-adea-a6ff838db665</t>
+          <t>ccb534e7-416e-4a1d-8e93-533b53199085</t>
         </is>
       </c>
       <c r="M778" s="20" t="n"/>
@@ -41014,7 +40998,7 @@
       </c>
       <c r="B779" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C779" s="18" t="inlineStr">
@@ -41024,13 +41008,13 @@
       </c>
       <c r="D779" s="18" t="inlineStr">
         <is>
-          <t>Habilitación de una opción de directiva de red de Kubernetes (Calico/Azure)</t>
+          <t>Uso de asignaciones dinámicas de direcciones IP para evitar el agotamiento de direcciones IP de Azure CNI</t>
         </is>
       </c>
       <c r="E779" s="18" t="n"/>
       <c r="F779" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G779" t="inlineStr">
@@ -41045,14 +41029,10 @@
         </is>
       </c>
       <c r="J779" s="13" t="n"/>
-      <c r="K779" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = isnotnull(properties.networkProfile.networkPolicy) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K779" s="19" t="n"/>
       <c r="L779" s="19" t="inlineStr">
         <is>
-          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
+          <t>8ee9a69a-1b58-4b1e-9c61-476e110a160b</t>
         </is>
       </c>
       <c r="M779" s="20" t="n"/>
@@ -41079,7 +41059,7 @@
       </c>
       <c r="D780" s="18" t="inlineStr">
         <is>
-          <t>Uso de directivas de red de Kubernetes para aumentar la seguridad dentro del clúster</t>
+          <t>Filtre el tráfico de salida con AzFW/NVA si sus requisitos de seguridad lo exigen</t>
         </is>
       </c>
       <c r="E780" s="18" t="n"/>
@@ -41100,10 +41080,14 @@
         </is>
       </c>
       <c r="J780" s="13" t="n"/>
-      <c r="K780" s="19" t="n"/>
+      <c r="K780" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.networkProfile.outboundType=='userDefinedRouting') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L780" s="19" t="inlineStr">
         <is>
-          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
+          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
         </is>
       </c>
       <c r="M780" s="20" t="n"/>
@@ -41130,13 +41114,13 @@
       </c>
       <c r="D781" s="18" t="inlineStr">
         <is>
-          <t>Uso de un WAF para cargas de trabajo web (interfaces de usuario o API)</t>
+          <t>Si utiliza un punto de conexión de API público, restrinja las direcciones IP que pueden acceder a él</t>
         </is>
       </c>
       <c r="E781" s="18" t="n"/>
       <c r="F781" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G781" t="inlineStr">
@@ -41151,10 +41135,14 @@
         </is>
       </c>
       <c r="J781" s="13" t="n"/>
-      <c r="K781" s="19" t="n"/>
+      <c r="K781" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = ((isnull(properties.apiServerAccessProfile.enablePrivateCluster) or properties.apiServerAccessProfile.enablePrivateCluster==false) and isnotnull(properties.apiServerAccessProfile.authorizedIPRanges)) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L781" s="19" t="inlineStr">
         <is>
-          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
+          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
         </is>
       </c>
       <c r="M781" s="20" t="n"/>
@@ -41181,13 +41169,13 @@
       </c>
       <c r="D782" s="18" t="inlineStr">
         <is>
-          <t>Uso de DDoS Standard en la red virtual de AKS</t>
+          <t>Utilice clústeres privados si sus requisitos lo exigen</t>
         </is>
       </c>
       <c r="E782" s="18" t="n"/>
       <c r="F782" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G782" t="inlineStr">
@@ -41204,12 +41192,12 @@
       <c r="J782" s="13" t="n"/>
       <c r="K782" s="19" t="inlineStr">
         <is>
-          <t>Resources | where type=~'microsoft.containerservice/managedclusters' | project resourceGroup,name,pools=properties.agentPoolProfiles | mv-expand pools | project subnetId=tostring(pools.vnetSubnetID) | where isnotempty(subnetId) | join (Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,enableDdosProtection=tostring(properties.enableDdosProtection),subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,enableDdosProtection,subnetId=tostring(subnets.id)) on subnetId | distinct id,resourceGroup,name,enableDdosProtection | extend compliant = (enableDdosProtection == 'true')</t>
+          <t>where type=='microsoft.containerservice/managedclusters' | where isnotnull(properties.apiServerAccessProfile.enablePrivateCluster) | extend compliant = (properties.apiServerAccessProfile.enablePrivateCluster==true) | distinct id, compliant</t>
         </is>
       </c>
       <c r="L782" s="19" t="inlineStr">
         <is>
-          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
+          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
         </is>
       </c>
       <c r="M782" s="20" t="n"/>
@@ -41236,13 +41224,13 @@
       </c>
       <c r="D783" s="18" t="inlineStr">
         <is>
-          <t>Si es necesario, agregue el proxy HTTP de la empresa</t>
+          <t xml:space="preserve">Para los nodos de AKS de Windows 2019 y 2022, se pueden usar directivas de red de Calico </t>
         </is>
       </c>
       <c r="E783" s="18" t="n"/>
       <c r="F783" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G783" t="inlineStr">
@@ -41259,12 +41247,12 @@
       <c r="J783" s="13" t="n"/>
       <c r="K783" s="19" t="inlineStr">
         <is>
-          <t>Resources | where type=~'microsoft.containerservice/managedclusters' | project resourceGroup,name,pools=properties.agentPoolProfiles | mv-expand pools | project subnetId=tostring(pools.vnetSubnetID) | where isnotempty(subnetId) | join (Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,enableDdosProtection=tostring(properties.enableDdosProtection),subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,enableDdosProtection,subnetId=tostring(subnets.id)) on subnetId | distinct id,resourceGroup,name,enableDdosProtection | extend compliant = (enableDdosProtection == 'true')</t>
+          <t>where type=='microsoft.containerservice/managedclusters' | where isnotnull(properties.apiServerAccessProfile.enablePrivateCluster) | extend compliant = (properties.apiServerAccessProfile.enablePrivateCluster==true) | distinct id, compliant</t>
         </is>
       </c>
       <c r="L783" s="19" t="inlineStr">
         <is>
-          <t>6c46b91a-1107-4485-ad66-3183e2a8c266</t>
+          <t>ce7f2a7c-297c-47c6-adea-a6ff838db665</t>
         </is>
       </c>
       <c r="M783" s="20" t="n"/>
@@ -41291,13 +41279,13 @@
       </c>
       <c r="D784" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar una malla de servicios para la administración avanzada de comunicaciones de microservicios</t>
+          <t>Habilitación de una opción de directiva de red de Kubernetes (Calico/Azure)</t>
         </is>
       </c>
       <c r="E784" s="18" t="n"/>
       <c r="F784" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G784" t="inlineStr">
@@ -41312,10 +41300,14 @@
         </is>
       </c>
       <c r="J784" s="13" t="n"/>
-      <c r="K784" s="19" t="n"/>
+      <c r="K784" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = isnotnull(properties.networkProfile.networkPolicy) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L784" s="19" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
         </is>
       </c>
       <c r="M784" s="20" t="n"/>
@@ -41332,7 +41324,7 @@
       </c>
       <c r="B785" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C785" s="18" t="inlineStr">
@@ -41342,7 +41334,7 @@
       </c>
       <c r="D785" s="18" t="inlineStr">
         <is>
-          <t>Configurar alertas sobre las métricas más críticas (consulte Container Insights para obtener recomendaciones)</t>
+          <t>Uso de directivas de red de Kubernetes para aumentar la seguridad dentro del clúster</t>
         </is>
       </c>
       <c r="E785" s="18" t="n"/>
@@ -41366,7 +41358,7 @@
       <c r="K785" s="19" t="n"/>
       <c r="L785" s="19" t="inlineStr">
         <is>
-          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
+          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
         </is>
       </c>
       <c r="M785" s="20" t="n"/>
@@ -41383,7 +41375,7 @@
       </c>
       <c r="B786" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C786" s="18" t="inlineStr">
@@ -41393,13 +41385,13 @@
       </c>
       <c r="D786" s="18" t="inlineStr">
         <is>
-          <t>Consulte periódicamente Azure Advisor para obtener recomendaciones sobre el clúster</t>
+          <t>Uso de un WAF para cargas de trabajo web (interfaces de usuario o API)</t>
         </is>
       </c>
       <c r="E786" s="18" t="n"/>
       <c r="F786" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G786" t="inlineStr">
@@ -41417,7 +41409,7 @@
       <c r="K786" s="19" t="n"/>
       <c r="L786" s="19" t="inlineStr">
         <is>
-          <t>337453a3-cc63-4963-9a65-22ac19e80696</t>
+          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
         </is>
       </c>
       <c r="M786" s="20" t="n"/>
@@ -41434,7 +41426,7 @@
       </c>
       <c r="B787" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C787" s="18" t="inlineStr">
@@ -41444,13 +41436,13 @@
       </c>
       <c r="D787" s="18" t="inlineStr">
         <is>
-          <t>Habilitación de la rotación automática de certificados de AKS</t>
+          <t>Uso de DDoS Standard en la red virtual de AKS</t>
         </is>
       </c>
       <c r="E787" s="18" t="n"/>
       <c r="F787" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G787" t="inlineStr">
@@ -41465,10 +41457,14 @@
         </is>
       </c>
       <c r="J787" s="13" t="n"/>
-      <c r="K787" s="19" t="n"/>
+      <c r="K787" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type=~'microsoft.containerservice/managedclusters' | project resourceGroup,name,pools=properties.agentPoolProfiles | mv-expand pools | project subnetId=tostring(pools.vnetSubnetID) | where isnotempty(subnetId) | join (Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,enableDdosProtection=tostring(properties.enableDdosProtection),subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,enableDdosProtection,subnetId=tostring(subnets.id)) on subnetId | distinct id,resourceGroup,name,enableDdosProtection | extend compliant = (enableDdosProtection == 'true')</t>
+        </is>
+      </c>
       <c r="L787" s="19" t="inlineStr">
         <is>
-          <t>3aa70560-e7e7-4968-be3d-628af35b2ced</t>
+          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
         </is>
       </c>
       <c r="M787" s="20" t="n"/>
@@ -41485,7 +41481,7 @@
       </c>
       <c r="B788" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C788" s="18" t="inlineStr">
@@ -41495,13 +41491,13 @@
       </c>
       <c r="D788" s="18" t="inlineStr">
         <is>
-          <t>Tenga un proceso regular para actualizar la versión de Kubernetes periódicamente (trimestralmente, por ejemplo) o use la característica de actualización automática de AKS</t>
+          <t>Si es necesario, agregue el proxy HTTP de la empresa</t>
         </is>
       </c>
       <c r="E788" s="18" t="n"/>
       <c r="F788" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G788" t="inlineStr">
@@ -41516,10 +41512,14 @@
         </is>
       </c>
       <c r="J788" s="13" t="n"/>
-      <c r="K788" s="19" t="n"/>
+      <c r="K788" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type=~'microsoft.containerservice/managedclusters' | project resourceGroup,name,pools=properties.agentPoolProfiles | mv-expand pools | project subnetId=tostring(pools.vnetSubnetID) | where isnotempty(subnetId) | join (Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,enableDdosProtection=tostring(properties.enableDdosProtection),subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,enableDdosProtection,subnetId=tostring(subnets.id)) on subnetId | distinct id,resourceGroup,name,enableDdosProtection | extend compliant = (enableDdosProtection == 'true')</t>
+        </is>
+      </c>
       <c r="L788" s="19" t="inlineStr">
         <is>
-          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
+          <t>6c46b91a-1107-4485-ad66-3183e2a8c266</t>
         </is>
       </c>
       <c r="M788" s="20" t="n"/>
@@ -41536,7 +41536,7 @@
       </c>
       <c r="B789" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C789" s="18" t="inlineStr">
@@ -41546,13 +41546,13 @@
       </c>
       <c r="D789" s="18" t="inlineStr">
         <is>
-          <t>Utilice kured para las actualizaciones de nodos de Linux en caso de que no esté utilizando la actualización de imagen de nodo</t>
+          <t>Considere la posibilidad de usar una malla de servicios para la administración avanzada de comunicaciones de microservicios</t>
         </is>
       </c>
       <c r="E789" s="18" t="n"/>
       <c r="F789" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G789" t="inlineStr">
@@ -41570,7 +41570,7 @@
       <c r="K789" s="19" t="n"/>
       <c r="L789" s="19" t="inlineStr">
         <is>
-          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M789" s="20" t="n"/>
@@ -41597,7 +41597,7 @@
       </c>
       <c r="D790" s="18" t="inlineStr">
         <is>
-          <t>Disponer de un proceso regular para actualizar las imágenes de los nodos del clúster periódicamente (semanalmente, por ejemplo)</t>
+          <t>Configurar alertas sobre las métricas más críticas (consulte Container Insights para obtener recomendaciones)</t>
         </is>
       </c>
       <c r="E790" s="18" t="n"/>
@@ -41621,7 +41621,7 @@
       <c r="K790" s="19" t="n"/>
       <c r="L790" s="19" t="inlineStr">
         <is>
-          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
+          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
         </is>
       </c>
       <c r="M790" s="20" t="n"/>
@@ -41648,7 +41648,7 @@
       </c>
       <c r="D791" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de implementar aplicaciones o configuraciones de clústeres en varios clústeres</t>
+          <t>Consulte periódicamente Azure Advisor para obtener recomendaciones sobre el clúster</t>
         </is>
       </c>
       <c r="E791" s="18" t="n"/>
@@ -41672,7 +41672,7 @@
       <c r="K791" s="19" t="n"/>
       <c r="L791" s="19" t="inlineStr">
         <is>
-          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
+          <t>337453a3-cc63-4963-9a65-22ac19e80696</t>
         </is>
       </c>
       <c r="M791" s="20" t="n"/>
@@ -41699,7 +41699,7 @@
       </c>
       <c r="D792" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar la invocación de comandos de AKS en clústeres privados</t>
+          <t>Habilitación de la rotación automática de certificados de AKS</t>
         </is>
       </c>
       <c r="E792" s="18" t="n"/>
@@ -41723,7 +41723,7 @@
       <c r="K792" s="19" t="n"/>
       <c r="L792" s="19" t="inlineStr">
         <is>
-          <t>d7672c26-7602-4482-85a4-14527fbe855c</t>
+          <t>3aa70560-e7e7-4968-be3d-628af35b2ced</t>
         </is>
       </c>
       <c r="M792" s="20" t="n"/>
@@ -41750,13 +41750,13 @@
       </c>
       <c r="D793" s="18" t="inlineStr">
         <is>
-          <t>En el caso de los eventos planeados, considere la posibilidad de utilizar el drenaje automático de nodos</t>
+          <t>Tenga un proceso regular para actualizar la versión de Kubernetes periódicamente (trimestralmente, por ejemplo) o use la característica de actualización automática de AKS</t>
         </is>
       </c>
       <c r="E793" s="18" t="n"/>
       <c r="F793" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G793" t="inlineStr">
@@ -41774,7 +41774,7 @@
       <c r="K793" s="19" t="n"/>
       <c r="L793" s="19" t="inlineStr">
         <is>
-          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
+          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
         </is>
       </c>
       <c r="M793" s="20" t="n"/>
@@ -41801,7 +41801,7 @@
       </c>
       <c r="D794" s="18" t="inlineStr">
         <is>
-          <t>Desarrollar sus propias prácticas de gobernanza para asegurarse de que los operadores no realicen cambios en el nodo RG (también conocido como 'infra RG')</t>
+          <t>Utilice kured para las actualizaciones de nodos de Linux en caso de que no esté utilizando la actualización de imagen de nodo</t>
         </is>
       </c>
       <c r="E794" s="18" t="n"/>
@@ -41825,7 +41825,7 @@
       <c r="K794" s="19" t="n"/>
       <c r="L794" s="19" t="inlineStr">
         <is>
-          <t>ed0fda7f-211b-47c7-8b6e-c18873fb473c</t>
+          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
         </is>
       </c>
       <c r="M794" s="20" t="n"/>
@@ -41852,13 +41852,13 @@
       </c>
       <c r="D795" s="18" t="inlineStr">
         <is>
-          <t>Usar el nombre personalizado de Node RG (también conocido como 'Infra RG')</t>
+          <t>Disponer de un proceso regular para actualizar las imágenes de los nodos del clúster periódicamente (semanalmente, por ejemplo)</t>
         </is>
       </c>
       <c r="E795" s="18" t="n"/>
       <c r="F795" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G795" t="inlineStr">
@@ -41873,14 +41873,10 @@
         </is>
       </c>
       <c r="J795" s="13" t="n"/>
-      <c r="K795" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.nodeResourceGroup !startswith 'MC_') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K795" s="19" t="n"/>
       <c r="L795" s="19" t="inlineStr">
         <is>
-          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
+          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
         </is>
       </c>
       <c r="M795" s="20" t="n"/>
@@ -41907,13 +41903,13 @@
       </c>
       <c r="D796" s="18" t="inlineStr">
         <is>
-          <t>No use API de Kubernetes obsoletas en los manifiestos de YAML</t>
+          <t>Considere la posibilidad de implementar aplicaciones o configuraciones de clústeres en varios clústeres</t>
         </is>
       </c>
       <c r="E796" s="18" t="n"/>
       <c r="F796" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G796" t="inlineStr">
@@ -41931,7 +41927,7 @@
       <c r="K796" s="19" t="n"/>
       <c r="L796" s="19" t="inlineStr">
         <is>
-          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
+          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
         </is>
       </c>
       <c r="M796" s="20" t="n"/>
@@ -41958,7 +41954,7 @@
       </c>
       <c r="D797" s="18" t="inlineStr">
         <is>
-          <t>Nodos de Windows de Taint</t>
+          <t>Considere la posibilidad de usar la invocación de comandos de AKS en clústeres privados</t>
         </is>
       </c>
       <c r="E797" s="18" t="n"/>
@@ -41982,7 +41978,7 @@
       <c r="K797" s="19" t="n"/>
       <c r="L797" s="19" t="inlineStr">
         <is>
-          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
+          <t>d7672c26-7602-4482-85a4-14527fbe855c</t>
         </is>
       </c>
       <c r="M797" s="20" t="n"/>
@@ -42009,7 +42005,7 @@
       </c>
       <c r="D798" s="18" t="inlineStr">
         <is>
-          <t>Mantener el nivel de revisión de los contenedores de Windows sincronizado con el nivel de revisión del host</t>
+          <t>En el caso de los eventos planeados, considere la posibilidad de utilizar el drenaje automático de nodos</t>
         </is>
       </c>
       <c r="E798" s="18" t="n"/>
@@ -42033,7 +42029,7 @@
       <c r="K798" s="19" t="n"/>
       <c r="L798" s="19" t="inlineStr">
         <is>
-          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
+          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
         </is>
       </c>
       <c r="M798" s="20" t="n"/>
@@ -42060,17 +42056,13 @@
       </c>
       <c r="D799" s="18" t="inlineStr">
         <is>
-          <t>Envío de registros maestros (también conocidos como registros de API) a Azure Monitor o a la solución de administración de registros que prefiera</t>
-        </is>
-      </c>
-      <c r="E799" s="18" t="inlineStr">
-        <is>
-          <t>A través de la configuración de diagnóstico en el nivel de clúster</t>
-        </is>
-      </c>
+          <t>Desarrollar sus propias prácticas de gobernanza para asegurarse de que los operadores no realicen cambios en el nodo RG (también conocido como 'infra RG')</t>
+        </is>
+      </c>
+      <c r="E799" s="18" t="n"/>
       <c r="F799" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G799" t="inlineStr">
@@ -42088,7 +42080,7 @@
       <c r="K799" s="19" t="n"/>
       <c r="L799" s="19" t="inlineStr">
         <is>
-          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
+          <t>ed0fda7f-211b-47c7-8b6e-c18873fb473c</t>
         </is>
       </c>
       <c r="M799" s="20" t="n"/>
@@ -42105,7 +42097,7 @@
       </c>
       <c r="B800" s="18" t="inlineStr">
         <is>
-          <t>Costar</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C800" s="18" t="inlineStr">
@@ -42115,7 +42107,7 @@
       </c>
       <c r="D800" s="18" t="inlineStr">
         <is>
-          <t>Si es necesario, utilice instantáneas de nodePool</t>
+          <t>Usar el nombre personalizado de Node RG (también conocido como 'Infra RG')</t>
         </is>
       </c>
       <c r="E800" s="18" t="n"/>
@@ -42136,10 +42128,14 @@
         </is>
       </c>
       <c r="J800" s="13" t="n"/>
-      <c r="K800" s="19" t="n"/>
+      <c r="K800" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.nodeResourceGroup !startswith 'MC_') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L800" s="19" t="inlineStr">
         <is>
-          <t>64d1a846-e28a-4b6b-9a33-22a635c15a21</t>
+          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
         </is>
       </c>
       <c r="M800" s="20" t="n"/>
@@ -42166,13 +42162,13 @@
       </c>
       <c r="D801" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de crear grupos de nodos de acceso puntual para cargas de trabajo no urgentes</t>
+          <t>No use API de Kubernetes obsoletas en los manifiestos de YAML</t>
         </is>
       </c>
       <c r="E801" s="18" t="n"/>
       <c r="F801" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G801" t="inlineStr">
@@ -42190,7 +42186,7 @@
       <c r="K801" s="19" t="n"/>
       <c r="L801" s="19" t="inlineStr">
         <is>
-          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
+          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
         </is>
       </c>
       <c r="M801" s="20" t="n"/>
@@ -42217,7 +42213,7 @@
       </c>
       <c r="D802" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de utilizar el nodo virtual de AKS para una ráfaga rápida</t>
+          <t>Nodos de Windows de Taint</t>
         </is>
       </c>
       <c r="E802" s="18" t="n"/>
@@ -42238,14 +42234,10 @@
         </is>
       </c>
       <c r="J802" s="13" t="n"/>
-      <c r="K802" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.aciConnectorLinux) and properties.addonProfiles.aciConnectorLinux.enabled==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K802" s="19" t="n"/>
       <c r="L802" s="19" t="inlineStr">
         <is>
-          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
+          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
         </is>
       </c>
       <c r="M802" s="20" t="n"/>
@@ -42272,13 +42264,13 @@
       </c>
       <c r="D803" s="18" t="inlineStr">
         <is>
-          <t>Supervise las métricas de clúster con Container Insights (u otras herramientas como Prometheus)</t>
+          <t>Mantener el nivel de revisión de los contenedores de Windows sincronizado con el nivel de revisión del host</t>
         </is>
       </c>
       <c r="E803" s="18" t="n"/>
       <c r="F803" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G803" t="inlineStr">
@@ -42296,7 +42288,7 @@
       <c r="K803" s="19" t="n"/>
       <c r="L803" s="19" t="inlineStr">
         <is>
-          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
+          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
         </is>
       </c>
       <c r="M803" s="20" t="n"/>
@@ -42323,13 +42315,17 @@
       </c>
       <c r="D804" s="18" t="inlineStr">
         <is>
-          <t>Almacene y analice los registros del clúster con Container Insights (u otras herramientas como Telegraf/ElasticSearch)</t>
-        </is>
-      </c>
-      <c r="E804" s="18" t="n"/>
+          <t>Envío de registros maestros (también conocidos como registros de API) a Azure Monitor o a la solución de administración de registros que prefiera</t>
+        </is>
+      </c>
+      <c r="E804" s="18" t="inlineStr">
+        <is>
+          <t>A través de la configuración de diagnóstico en el nivel de clúster</t>
+        </is>
+      </c>
       <c r="F804" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G804" t="inlineStr">
@@ -42344,14 +42340,10 @@
         </is>
       </c>
       <c r="J804" s="13" t="n"/>
-      <c r="K804" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.omsagent) and properties.addonProfiles.omsagent.enabled==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K804" s="19" t="n"/>
       <c r="L804" s="19" t="inlineStr">
         <is>
-          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
+          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
         </is>
       </c>
       <c r="M804" s="20" t="n"/>
@@ -42368,7 +42360,7 @@
       </c>
       <c r="B805" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C805" s="18" t="inlineStr">
@@ -42378,13 +42370,13 @@
       </c>
       <c r="D805" s="18" t="inlineStr">
         <is>
-          <t>Supervisar el uso de la CPU y la memoria de los nodos</t>
+          <t>Si es necesario, utilice instantáneas de nodePool</t>
         </is>
       </c>
       <c r="E805" s="18" t="n"/>
       <c r="F805" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G805" t="inlineStr">
@@ -42402,7 +42394,7 @@
       <c r="K805" s="19" t="n"/>
       <c r="L805" s="19" t="inlineStr">
         <is>
-          <t>4621dd68-c5a5-4be2-bdb1-1726769ef669</t>
+          <t>64d1a846-e28a-4b6b-9a33-22a635c15a21</t>
         </is>
       </c>
       <c r="M805" s="20" t="n"/>
@@ -42429,13 +42421,13 @@
       </c>
       <c r="D806" s="18" t="inlineStr">
         <is>
-          <t>Si usa Azure CNI, supervise el porcentaje de direcciones IP de pod consumidas por nodo</t>
+          <t>Considere la posibilidad de crear grupos de nodos de acceso puntual para cargas de trabajo no urgentes</t>
         </is>
       </c>
       <c r="E806" s="18" t="n"/>
       <c r="F806" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G806" t="inlineStr">
@@ -42453,7 +42445,7 @@
       <c r="K806" s="19" t="n"/>
       <c r="L806" s="19" t="inlineStr">
         <is>
-          <t>1a4835ac-9422-423e-ae80-b123081a5417</t>
+          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
         </is>
       </c>
       <c r="M806" s="20" t="n"/>
@@ -42480,17 +42472,13 @@
       </c>
       <c r="D807" s="18" t="inlineStr">
         <is>
-          <t>Supervisión de la profundidad de la cola de disco del sistema operativo en los nodos</t>
-        </is>
-      </c>
-      <c r="E807" s="18" t="inlineStr">
-        <is>
-          <t>La E/S en el disco del sistema operativo es un recurso crítico. Si el sistema operativo de los nodos se limita en la E/S, esto podría dar lugar a un comportamiento impredecible, que normalmente terminaría en que el nodo se declarara NotReady</t>
-        </is>
-      </c>
+          <t>Considere la posibilidad de utilizar el nodo virtual de AKS para una ráfaga rápida</t>
+        </is>
+      </c>
+      <c r="E807" s="18" t="n"/>
       <c r="F807" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G807" t="inlineStr">
@@ -42505,10 +42493,14 @@
         </is>
       </c>
       <c r="J807" s="13" t="n"/>
-      <c r="K807" s="19" t="n"/>
+      <c r="K807" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.aciConnectorLinux) and properties.addonProfiles.aciConnectorLinux.enabled==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L807" s="19" t="inlineStr">
         <is>
-          <t>415833ea-3ad3-4c2d-b733-165c3acbe04b</t>
+          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
         </is>
       </c>
       <c r="M807" s="20" t="n"/>
@@ -42535,13 +42527,13 @@
       </c>
       <c r="D808" s="18" t="inlineStr">
         <is>
-          <t>Si no usa el filtrado de salida con AzFW/NVA, supervise los puertos SNAT asignados por ALB estándar</t>
+          <t>Supervise las métricas de clúster con Container Insights (u otras herramientas como Prometheus)</t>
         </is>
       </c>
       <c r="E808" s="18" t="n"/>
       <c r="F808" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G808" t="inlineStr">
@@ -42559,7 +42551,7 @@
       <c r="K808" s="19" t="n"/>
       <c r="L808" s="19" t="inlineStr">
         <is>
-          <t>be209d39-fda4-4777-a424-d116785c2fa5</t>
+          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
         </is>
       </c>
       <c r="M808" s="20" t="n"/>
@@ -42586,13 +42578,13 @@
       </c>
       <c r="D809" s="18" t="inlineStr">
         <is>
-          <t>Suscríbase a las notificaciones de estado de los recursos para el clúster de AKS</t>
+          <t>Almacene y analice los registros del clúster con Container Insights (u otras herramientas como Telegraf/ElasticSearch)</t>
         </is>
       </c>
       <c r="E809" s="18" t="n"/>
       <c r="F809" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G809" t="inlineStr">
@@ -42607,10 +42599,14 @@
         </is>
       </c>
       <c r="J809" s="13" t="n"/>
-      <c r="K809" s="19" t="n"/>
+      <c r="K809" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.omsagent) and properties.addonProfiles.omsagent.enabled==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L809" s="19" t="inlineStr">
         <is>
-          <t>74c2ee76-569b-4a79-a57e-dedf91b022c9</t>
+          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
         </is>
       </c>
       <c r="M809" s="20" t="n"/>
@@ -42637,13 +42633,13 @@
       </c>
       <c r="D810" s="18" t="inlineStr">
         <is>
-          <t>Configurar solicitudes y límites en las especificaciones del pod</t>
+          <t>Supervisar el uso de la CPU y la memoria de los nodos</t>
         </is>
       </c>
       <c r="E810" s="18" t="n"/>
       <c r="F810" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G810" t="inlineStr">
@@ -42661,7 +42657,7 @@
       <c r="K810" s="19" t="n"/>
       <c r="L810" s="19" t="inlineStr">
         <is>
-          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
+          <t>4621dd68-c5a5-4be2-bdb1-1726769ef669</t>
         </is>
       </c>
       <c r="M810" s="20" t="n"/>
@@ -42688,7 +42684,7 @@
       </c>
       <c r="D811" s="18" t="inlineStr">
         <is>
-          <t>Aplicación de cuotas de recursos para espacios de nombres</t>
+          <t>Si usa Azure CNI, supervise el porcentaje de direcciones IP de pod consumidas por nodo</t>
         </is>
       </c>
       <c r="E811" s="18" t="n"/>
@@ -42712,7 +42708,7 @@
       <c r="K811" s="19" t="n"/>
       <c r="L811" s="19" t="inlineStr">
         <is>
-          <t>769ef669-1a48-435a-a942-223ece80b123</t>
+          <t>1a4835ac-9422-423e-ae80-b123081a5417</t>
         </is>
       </c>
       <c r="M811" s="20" t="n"/>
@@ -42739,13 +42735,17 @@
       </c>
       <c r="D812" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que la suscripción tiene suficiente cuota para escalar horizontalmente los grupos de nodos</t>
-        </is>
-      </c>
-      <c r="E812" s="18" t="n"/>
+          <t>Supervisión de la profundidad de la cola de disco del sistema operativo en los nodos</t>
+        </is>
+      </c>
+      <c r="E812" s="18" t="inlineStr">
+        <is>
+          <t>La E/S en el disco del sistema operativo es un recurso crítico. Si el sistema operativo de los nodos se limita en la E/S, esto podría dar lugar a un comportamiento impredecible, que normalmente terminaría en que el nodo se declarara NotReady</t>
+        </is>
+      </c>
       <c r="F812" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G812" t="inlineStr">
@@ -42763,7 +42763,7 @@
       <c r="K812" s="19" t="n"/>
       <c r="L812" s="19" t="inlineStr">
         <is>
-          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
+          <t>415833ea-3ad3-4c2d-b733-165c3acbe04b</t>
         </is>
       </c>
       <c r="M812" s="20" t="n"/>
@@ -42780,7 +42780,7 @@
       </c>
       <c r="B813" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C813" s="18" t="inlineStr">
@@ -42790,7 +42790,7 @@
       </c>
       <c r="D813" s="18" t="inlineStr">
         <is>
-          <t>Uso del escalador automático de clústeres</t>
+          <t>Si no usa el filtrado de salida con AzFW/NVA, supervise los puertos SNAT asignados por ALB estándar</t>
         </is>
       </c>
       <c r="E813" s="18" t="n"/>
@@ -42811,14 +42811,10 @@
         </is>
       </c>
       <c r="J813" s="13" t="n"/>
-      <c r="K813" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.autoScalerProfile)) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K813" s="19" t="n"/>
       <c r="L813" s="19" t="inlineStr">
         <is>
-          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
+          <t>be209d39-fda4-4777-a424-d116785c2fa5</t>
         </is>
       </c>
       <c r="M813" s="20" t="n"/>
@@ -42835,7 +42831,7 @@
       </c>
       <c r="B814" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C814" s="18" t="inlineStr">
@@ -42845,13 +42841,13 @@
       </c>
       <c r="D814" s="18" t="inlineStr">
         <is>
-          <t>Personalización de la configuración de nodos para grupos de nodos de AKS</t>
+          <t>Suscríbase a las notificaciones de estado de los recursos para el clúster de AKS</t>
         </is>
       </c>
       <c r="E814" s="18" t="n"/>
       <c r="F814" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G814" t="inlineStr">
@@ -42866,14 +42862,10 @@
         </is>
       </c>
       <c r="J814" s="13" t="n"/>
-      <c r="K814" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.austoscalerProfile)) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K814" s="19" t="n"/>
       <c r="L814" s="19" t="inlineStr">
         <is>
-          <t>831c2872-c693-4b39-a887-a561bada49bc</t>
+          <t>74c2ee76-569b-4a79-a57e-dedf91b022c9</t>
         </is>
       </c>
       <c r="M814" s="20" t="n"/>
@@ -42890,7 +42882,7 @@
       </c>
       <c r="B815" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C815" s="18" t="inlineStr">
@@ -42900,13 +42892,13 @@
       </c>
       <c r="D815" s="18" t="inlineStr">
         <is>
-          <t>Usar el escalador automático horizontal de pods cuando sea necesario</t>
+          <t>Configurar solicitudes y límites en las especificaciones del pod</t>
         </is>
       </c>
       <c r="E815" s="18" t="n"/>
       <c r="F815" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G815" t="inlineStr">
@@ -42924,7 +42916,7 @@
       <c r="K815" s="19" t="n"/>
       <c r="L815" s="19" t="inlineStr">
         <is>
-          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
+          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
         </is>
       </c>
       <c r="M815" s="20" t="n"/>
@@ -42941,7 +42933,7 @@
       </c>
       <c r="B816" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C816" s="18" t="inlineStr">
@@ -42951,17 +42943,13 @@
       </c>
       <c r="D816" s="18" t="inlineStr">
         <is>
-          <t>Considere un tamaño de nodo adecuado, ni demasiado grande ni demasiado pequeño</t>
-        </is>
-      </c>
-      <c r="E816" s="18" t="inlineStr">
-        <is>
-          <t>Los nodos más grandes aportarán un mayor rendimiento y características como discos efímeros y redes aceleradas, pero aumentarán el radio de explosión y disminuirán la granularidad de escalado</t>
-        </is>
-      </c>
+          <t>Aplicación de cuotas de recursos para espacios de nombres</t>
+        </is>
+      </c>
+      <c r="E816" s="18" t="n"/>
       <c r="F816" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G816" t="inlineStr">
@@ -42979,7 +42967,7 @@
       <c r="K816" s="19" t="n"/>
       <c r="L816" s="19" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>769ef669-1a48-435a-a942-223ece80b123</t>
         </is>
       </c>
       <c r="M816" s="20" t="n"/>
@@ -42996,7 +42984,7 @@
       </c>
       <c r="B817" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C817" s="18" t="inlineStr">
@@ -43006,13 +42994,13 @@
       </c>
       <c r="D817" s="18" t="inlineStr">
         <is>
-          <t>Si se requieren más de 5000 nodos para la escalabilidad, considere la posibilidad de usar un clúster de AKS adicional</t>
+          <t>Asegúrese de que la suscripción tiene suficiente cuota para escalar horizontalmente los grupos de nodos</t>
         </is>
       </c>
       <c r="E817" s="18" t="n"/>
       <c r="F817" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G817" t="inlineStr">
@@ -43030,7 +43018,7 @@
       <c r="K817" s="19" t="n"/>
       <c r="L817" s="19" t="inlineStr">
         <is>
-          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
+          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
         </is>
       </c>
       <c r="M817" s="20" t="n"/>
@@ -43057,13 +43045,13 @@
       </c>
       <c r="D818" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de suscribirse a eventos de EventGrid para la automatización de AKS</t>
+          <t>Uso del escalador automático de clústeres</t>
         </is>
       </c>
       <c r="E818" s="18" t="n"/>
       <c r="F818" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G818" t="inlineStr">
@@ -43078,10 +43066,14 @@
         </is>
       </c>
       <c r="J818" s="13" t="n"/>
-      <c r="K818" s="19" t="n"/>
+      <c r="K818" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.autoScalerProfile)) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L818" s="19" t="inlineStr">
         <is>
-          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
+          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
         </is>
       </c>
       <c r="M818" s="20" t="n"/>
@@ -43108,7 +43100,7 @@
       </c>
       <c r="D819" s="18" t="inlineStr">
         <is>
-          <t>Para una operación de ejecución prolongada en un clúster de AKS, considere la finalización de eventos</t>
+          <t>Personalización de la configuración de nodos para grupos de nodos de AKS</t>
         </is>
       </c>
       <c r="E819" s="18" t="n"/>
@@ -43129,10 +43121,14 @@
         </is>
       </c>
       <c r="J819" s="13" t="n"/>
-      <c r="K819" s="19" t="n"/>
+      <c r="K819" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.austoscalerProfile)) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L819" s="19" t="inlineStr">
         <is>
-          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
+          <t>831c2872-c693-4b39-a887-a561bada49bc</t>
         </is>
       </c>
       <c r="M819" s="20" t="n"/>
@@ -43159,13 +43155,13 @@
       </c>
       <c r="D820" s="18" t="inlineStr">
         <is>
-          <t>Si es necesario, considere la posibilidad de usar Azure Dedicated Hosts para nodos de AKS</t>
+          <t>Usar el escalador automático horizontal de pods cuando sea necesario</t>
         </is>
       </c>
       <c r="E820" s="18" t="n"/>
       <c r="F820" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G820" t="inlineStr">
@@ -43183,7 +43179,7 @@
       <c r="K820" s="19" t="n"/>
       <c r="L820" s="19" t="inlineStr">
         <is>
-          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
+          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
         </is>
       </c>
       <c r="M820" s="20" t="n"/>
@@ -43210,10 +43206,14 @@
       </c>
       <c r="D821" s="18" t="inlineStr">
         <is>
-          <t>Usar discos de sistema operativo efímeros</t>
-        </is>
-      </c>
-      <c r="E821" s="18" t="n"/>
+          <t>Considere un tamaño de nodo adecuado, ni demasiado grande ni demasiado pequeño</t>
+        </is>
+      </c>
+      <c r="E821" s="18" t="inlineStr">
+        <is>
+          <t>Los nodos más grandes aportarán un mayor rendimiento y características como discos efímeros y redes aceleradas, pero aumentarán el radio de explosión y disminuirán la granularidad de escalado</t>
+        </is>
+      </c>
       <c r="F821" s="18" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -43231,14 +43231,10 @@
         </is>
       </c>
       <c r="J821" s="13" t="n"/>
-      <c r="K821" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | project id,resourceGroup,name,pools=properties.agentPoolProfiles | mvexpand pools | extend compliant = (pools.osDiskType=='Ephemeral') | project id,name=strcat(name,'-',pools.name), resourceGroup, compliant</t>
-        </is>
-      </c>
+      <c r="K821" s="19" t="n"/>
       <c r="L821" s="19" t="inlineStr">
         <is>
-          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M821" s="20" t="n"/>
@@ -43265,13 +43261,13 @@
       </c>
       <c r="D822" s="18" t="inlineStr">
         <is>
-          <t>En el caso de los discos no efímeros, use IOPS altas y discos de sistema operativo más grandes para los nodos cuando ejecute muchos pods o nodos, ya que requiere un alto rendimiento para ejecutar varios pods y generará registros enormes con umbrales de rotación de registros de AKS predeterminados</t>
+          <t>Si se requieren más de 5000 nodos para la escalabilidad, considere la posibilidad de usar un clúster de AKS adicional</t>
         </is>
       </c>
       <c r="E822" s="18" t="n"/>
       <c r="F822" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G822" t="inlineStr">
@@ -43289,7 +43285,7 @@
       <c r="K822" s="19" t="n"/>
       <c r="L822" s="19" t="inlineStr">
         <is>
-          <t>f0ce315f-1120-4166-8206-94f2cf3a4d07</t>
+          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
         </is>
       </c>
       <c r="M822" s="20" t="n"/>
@@ -43316,7 +43312,7 @@
       </c>
       <c r="D823" s="18" t="inlineStr">
         <is>
-          <t>Para la opción de almacenamiento de hiperrendimiento, use discos Ultra en AKS</t>
+          <t>Considere la posibilidad de suscribirse a eventos de EventGrid para la automatización de AKS</t>
         </is>
       </c>
       <c r="E823" s="18" t="n"/>
@@ -43340,7 +43336,7 @@
       <c r="K823" s="19" t="n"/>
       <c r="L823" s="19" t="inlineStr">
         <is>
-          <t>39c486ce-d5af-4062-89d5-18bb5fd795db</t>
+          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
         </is>
       </c>
       <c r="M823" s="20" t="n"/>
@@ -43367,13 +43363,13 @@
       </c>
       <c r="D824" s="18" t="inlineStr">
         <is>
-          <t>Evite mantener el estado en el clúster y almacene los datos fuera (AzStorage, AzSQL, Cosmos, etc.)</t>
+          <t>Para una operación de ejecución prolongada en un clúster de AKS, considere la finalización de eventos</t>
         </is>
       </c>
       <c r="E824" s="18" t="n"/>
       <c r="F824" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G824" t="inlineStr">
@@ -43391,7 +43387,7 @@
       <c r="K824" s="19" t="n"/>
       <c r="L824" s="19" t="inlineStr">
         <is>
-          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
+          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
         </is>
       </c>
       <c r="M824" s="20" t="n"/>
@@ -43418,13 +43414,13 @@
       </c>
       <c r="D825" s="18" t="inlineStr">
         <is>
-          <t>Si usa AzFiles Standard, considere AzFiles Premium o ANF por motivos de rendimiento</t>
+          <t>Si es necesario, considere la posibilidad de usar Azure Dedicated Hosts para nodos de AKS</t>
         </is>
       </c>
       <c r="E825" s="18" t="n"/>
       <c r="F825" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G825" t="inlineStr">
@@ -43442,7 +43438,7 @@
       <c r="K825" s="19" t="n"/>
       <c r="L825" s="19" t="inlineStr">
         <is>
-          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
+          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
         </is>
       </c>
       <c r="M825" s="20" t="n"/>
@@ -43469,13 +43465,13 @@
       </c>
       <c r="D826" s="18" t="inlineStr">
         <is>
-          <t>Si usa Azure Disks y AZ, considere la posibilidad de tener grupos de nodos dentro de una zona para el disco LRS con VolumeBindingMode:WaitForFirstConsumer para aprovisionar el almacenamiento en la zona correcta o use el disco ZRS para los grupos de nodos que abarquen varias zonas</t>
+          <t>Usar discos de sistema operativo efímeros</t>
         </is>
       </c>
       <c r="E826" s="18" t="n"/>
       <c r="F826" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G826" t="inlineStr">
@@ -43490,10 +43486,14 @@
         </is>
       </c>
       <c r="J826" s="13" t="n"/>
-      <c r="K826" s="19" t="n"/>
+      <c r="K826" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | project id,resourceGroup,name,pools=properties.agentPoolProfiles | mvexpand pools | extend compliant = (pools.osDiskType=='Ephemeral') | project id,name=strcat(name,'-',pools.name), resourceGroup, compliant</t>
+        </is>
+      </c>
       <c r="L826" s="19" t="inlineStr">
         <is>
-          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
+          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
         </is>
       </c>
       <c r="M826" s="20" t="n"/>
@@ -43503,17 +43503,50 @@
       <c r="Q826" s="20" t="n"/>
     </row>
     <row r="827">
-      <c r="A827" s="18" t="n"/>
-      <c r="B827" s="18" t="n"/>
-      <c r="C827" s="18" t="n"/>
-      <c r="D827" s="18" t="n"/>
+      <c r="A827" s="18" t="inlineStr">
+        <is>
+          <t>Azure AKS Review</t>
+        </is>
+      </c>
+      <c r="B827" s="18" t="inlineStr">
+        <is>
+          <t>Rendimiento</t>
+        </is>
+      </c>
+      <c r="C827" s="18" t="inlineStr">
+        <is>
+          <t>AKS</t>
+        </is>
+      </c>
+      <c r="D827" s="18" t="inlineStr">
+        <is>
+          <t>En el caso de los discos no efímeros, use IOPS altas y discos de sistema operativo más grandes para los nodos cuando ejecute muchos pods o nodos, ya que requiere un alto rendimiento para ejecutar varios pods y generará registros enormes con umbrales de rotación de registros de AKS predeterminados</t>
+        </is>
+      </c>
       <c r="E827" s="18" t="n"/>
-      <c r="F827" s="18" t="n"/>
+      <c r="F827" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G827" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H827" s="18" t="n"/>
-      <c r="I827" s="13" t="n"/>
+      <c r="I827" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J827" s="13" t="n"/>
       <c r="K827" s="19" t="n"/>
-      <c r="L827" s="19" t="n"/>
+      <c r="L827" s="19" t="inlineStr">
+        <is>
+          <t>f0ce315f-1120-4166-8206-94f2cf3a4d07</t>
+        </is>
+      </c>
       <c r="M827" s="20" t="n"/>
       <c r="N827" s="20" t="n"/>
       <c r="O827" s="20" t="n"/>
@@ -43521,17 +43554,50 @@
       <c r="Q827" s="20" t="n"/>
     </row>
     <row r="828">
-      <c r="A828" s="18" t="n"/>
-      <c r="B828" s="18" t="n"/>
-      <c r="C828" s="18" t="n"/>
-      <c r="D828" s="18" t="n"/>
+      <c r="A828" s="18" t="inlineStr">
+        <is>
+          <t>Azure AKS Review</t>
+        </is>
+      </c>
+      <c r="B828" s="18" t="inlineStr">
+        <is>
+          <t>Rendimiento</t>
+        </is>
+      </c>
+      <c r="C828" s="18" t="inlineStr">
+        <is>
+          <t>AKS</t>
+        </is>
+      </c>
+      <c r="D828" s="18" t="inlineStr">
+        <is>
+          <t>Para la opción de almacenamiento de hiperrendimiento, use discos Ultra en AKS</t>
+        </is>
+      </c>
       <c r="E828" s="18" t="n"/>
-      <c r="F828" s="18" t="n"/>
+      <c r="F828" s="18" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="G828" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H828" s="18" t="n"/>
-      <c r="I828" s="13" t="n"/>
+      <c r="I828" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J828" s="13" t="n"/>
       <c r="K828" s="19" t="n"/>
-      <c r="L828" s="19" t="n"/>
+      <c r="L828" s="19" t="inlineStr">
+        <is>
+          <t>39c486ce-d5af-4062-89d5-18bb5fd795db</t>
+        </is>
+      </c>
       <c r="M828" s="20" t="n"/>
       <c r="N828" s="20" t="n"/>
       <c r="O828" s="20" t="n"/>
@@ -43539,17 +43605,50 @@
       <c r="Q828" s="20" t="n"/>
     </row>
     <row r="829">
-      <c r="A829" s="18" t="n"/>
-      <c r="B829" s="18" t="n"/>
-      <c r="C829" s="18" t="n"/>
-      <c r="D829" s="18" t="n"/>
+      <c r="A829" s="18" t="inlineStr">
+        <is>
+          <t>Azure AKS Review</t>
+        </is>
+      </c>
+      <c r="B829" s="18" t="inlineStr">
+        <is>
+          <t>Rendimiento</t>
+        </is>
+      </c>
+      <c r="C829" s="18" t="inlineStr">
+        <is>
+          <t>AKS</t>
+        </is>
+      </c>
+      <c r="D829" s="18" t="inlineStr">
+        <is>
+          <t>Evite mantener el estado en el clúster y almacene los datos fuera (AzStorage, AzSQL, Cosmos, etc.)</t>
+        </is>
+      </c>
       <c r="E829" s="18" t="n"/>
-      <c r="F829" s="18" t="n"/>
+      <c r="F829" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G829" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H829" s="18" t="n"/>
-      <c r="I829" s="13" t="n"/>
+      <c r="I829" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J829" s="13" t="n"/>
       <c r="K829" s="19" t="n"/>
-      <c r="L829" s="19" t="n"/>
+      <c r="L829" s="19" t="inlineStr">
+        <is>
+          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
+        </is>
+      </c>
       <c r="M829" s="20" t="n"/>
       <c r="N829" s="20" t="n"/>
       <c r="O829" s="20" t="n"/>
@@ -43557,17 +43656,50 @@
       <c r="Q829" s="20" t="n"/>
     </row>
     <row r="830">
-      <c r="A830" s="18" t="n"/>
-      <c r="B830" s="18" t="n"/>
-      <c r="C830" s="18" t="n"/>
-      <c r="D830" s="18" t="n"/>
+      <c r="A830" s="18" t="inlineStr">
+        <is>
+          <t>Azure AKS Review</t>
+        </is>
+      </c>
+      <c r="B830" s="18" t="inlineStr">
+        <is>
+          <t>Rendimiento</t>
+        </is>
+      </c>
+      <c r="C830" s="18" t="inlineStr">
+        <is>
+          <t>AKS</t>
+        </is>
+      </c>
+      <c r="D830" s="18" t="inlineStr">
+        <is>
+          <t>Si usa AzFiles Standard, considere AzFiles Premium o ANF por motivos de rendimiento</t>
+        </is>
+      </c>
       <c r="E830" s="18" t="n"/>
-      <c r="F830" s="18" t="n"/>
+      <c r="F830" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G830" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H830" s="18" t="n"/>
-      <c r="I830" s="13" t="n"/>
+      <c r="I830" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J830" s="13" t="n"/>
       <c r="K830" s="19" t="n"/>
-      <c r="L830" s="19" t="n"/>
+      <c r="L830" s="19" t="inlineStr">
+        <is>
+          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
+        </is>
+      </c>
       <c r="M830" s="20" t="n"/>
       <c r="N830" s="20" t="n"/>
       <c r="O830" s="20" t="n"/>
@@ -43575,17 +43707,50 @@
       <c r="Q830" s="20" t="n"/>
     </row>
     <row r="831">
-      <c r="A831" s="18" t="n"/>
-      <c r="B831" s="18" t="n"/>
-      <c r="C831" s="18" t="n"/>
-      <c r="D831" s="18" t="n"/>
+      <c r="A831" s="18" t="inlineStr">
+        <is>
+          <t>Azure AKS Review</t>
+        </is>
+      </c>
+      <c r="B831" s="18" t="inlineStr">
+        <is>
+          <t>Rendimiento</t>
+        </is>
+      </c>
+      <c r="C831" s="18" t="inlineStr">
+        <is>
+          <t>AKS</t>
+        </is>
+      </c>
+      <c r="D831" s="18" t="inlineStr">
+        <is>
+          <t>Si usa Azure Disks y AZ, considere la posibilidad de tener grupos de nodos dentro de una zona para el disco LRS con VolumeBindingMode:WaitForFirstConsumer para aprovisionar el almacenamiento en la zona correcta o use el disco ZRS para los grupos de nodos que abarquen varias zonas</t>
+        </is>
+      </c>
       <c r="E831" s="18" t="n"/>
-      <c r="F831" s="18" t="n"/>
+      <c r="F831" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G831" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H831" s="18" t="n"/>
-      <c r="I831" s="13" t="n"/>
+      <c r="I831" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J831" s="13" t="n"/>
       <c r="K831" s="19" t="n"/>
-      <c r="L831" s="19" t="n"/>
+      <c r="L831" s="19" t="inlineStr">
+        <is>
+          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
+        </is>
+      </c>
       <c r="M831" s="20" t="n"/>
       <c r="N831" s="20" t="n"/>
       <c r="O831" s="20" t="n"/>
@@ -50469,7 +50634,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G827" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G832" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -50987,22 +51152,22 @@
     <hyperlink ref="I620" r:id="rId511"/>
     <hyperlink ref="I621" r:id="rId512"/>
     <hyperlink ref="I622" r:id="rId513"/>
-    <hyperlink ref="I624" r:id="rId514"/>
-    <hyperlink ref="I625" r:id="rId515"/>
-    <hyperlink ref="I626" r:id="rId516"/>
-    <hyperlink ref="I627" r:id="rId517"/>
-    <hyperlink ref="I628" r:id="rId518"/>
+    <hyperlink ref="I623" r:id="rId514"/>
+    <hyperlink ref="I624" r:id="rId515"/>
+    <hyperlink ref="I625" r:id="rId516"/>
+    <hyperlink ref="I626" r:id="rId517"/>
+    <hyperlink ref="I627" r:id="rId518"/>
     <hyperlink ref="I629" r:id="rId519"/>
     <hyperlink ref="I630" r:id="rId520"/>
     <hyperlink ref="I631" r:id="rId521"/>
     <hyperlink ref="I632" r:id="rId522"/>
     <hyperlink ref="I633" r:id="rId523"/>
     <hyperlink ref="I634" r:id="rId524"/>
-    <hyperlink ref="I636" r:id="rId525"/>
-    <hyperlink ref="I637" r:id="rId526"/>
-    <hyperlink ref="I638" r:id="rId527"/>
-    <hyperlink ref="I639" r:id="rId528"/>
-    <hyperlink ref="I640" r:id="rId529"/>
+    <hyperlink ref="I635" r:id="rId525"/>
+    <hyperlink ref="I636" r:id="rId526"/>
+    <hyperlink ref="I637" r:id="rId527"/>
+    <hyperlink ref="I638" r:id="rId528"/>
+    <hyperlink ref="I639" r:id="rId529"/>
     <hyperlink ref="I641" r:id="rId530"/>
     <hyperlink ref="I642" r:id="rId531"/>
     <hyperlink ref="I643" r:id="rId532"/>
@@ -51189,6 +51354,11 @@
     <hyperlink ref="I824" r:id="rId713"/>
     <hyperlink ref="I825" r:id="rId714"/>
     <hyperlink ref="I826" r:id="rId715"/>
+    <hyperlink ref="I827" r:id="rId716"/>
+    <hyperlink ref="I828" r:id="rId717"/>
+    <hyperlink ref="I829" r:id="rId718"/>
+    <hyperlink ref="I830" r:id="rId719"/>
+    <hyperlink ref="I831" r:id="rId720"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf_checklist.es.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.es.xlsx
@@ -281,7 +281,7 @@
     <xf numFmtId="49" fontId="9" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -24828,11 +24828,7 @@
           <t>Policy</t>
         </is>
       </c>
-      <c r="D469" s="18" t="inlineStr">
-        <is>
-          <t>Establezca definiciones de Azure Policy en el grupo de administración raíz intermedio para que se puedan asignar en ámbitos heredados</t>
-        </is>
-      </c>
+      <c r="D469" s="18" t="n"/>
       <c r="E469" s="18" t="n"/>
       <c r="F469" s="18" t="inlineStr">
         <is>
@@ -24971,21 +24967,13 @@
           <t>Azure Landing Zone Review</t>
         </is>
       </c>
-      <c r="B472" s="18" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
+      <c r="B472" s="18" t="n"/>
       <c r="C472" s="18" t="inlineStr">
         <is>
           <t>Policy</t>
         </is>
       </c>
-      <c r="D472" s="18" t="inlineStr">
-        <is>
-          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
-        </is>
-      </c>
+      <c r="D472" s="18" t="n"/>
       <c r="E472" s="18" t="n"/>
       <c r="F472" s="18" t="inlineStr">
         <is>
@@ -25022,11 +25010,7 @@
           <t>Azure Landing Zone Review</t>
         </is>
       </c>
-      <c r="B473" s="18" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
+      <c r="B473" s="18" t="n"/>
       <c r="C473" s="18" t="inlineStr">
         <is>
           <t>Policy</t>
@@ -25077,11 +25061,7 @@
           <t>Azure Landing Zone Review</t>
         </is>
       </c>
-      <c r="B474" s="18" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
+      <c r="B474" s="18" t="n"/>
       <c r="C474" s="18" t="inlineStr">
         <is>
           <t>Policy</t>
@@ -25183,11 +25163,7 @@
           <t>Azure Landing Zone Review</t>
         </is>
       </c>
-      <c r="B476" s="18" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
+      <c r="B476" s="18" t="n"/>
       <c r="C476" s="18" t="inlineStr">
         <is>
           <t>Policy</t>
@@ -25250,11 +25226,7 @@
         </is>
       </c>
       <c r="E477" s="18" t="n"/>
-      <c r="F477" s="18" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
+      <c r="F477" s="18" t="n"/>
       <c r="G477" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -25342,11 +25314,7 @@
           <t>Monitor</t>
         </is>
       </c>
-      <c r="D479" s="18" t="inlineStr">
-        <is>
-          <t>Use un área de trabajo de registros de un único monitor para administrar las plataformas de forma centralizada, excepto cuando el control de acceso basado en rol de Azure (Azure RBAC), los requisitos de soberanía de datos o las directivas de retención de datos exijan áreas de trabajo independientes.</t>
-        </is>
-      </c>
+      <c r="D479" s="18" t="n"/>
       <c r="E479" s="18" t="n"/>
       <c r="F479" s="18" t="inlineStr">
         <is>
@@ -25387,11 +25355,7 @@
           <t>Azure Landing Zone Review</t>
         </is>
       </c>
-      <c r="B480" s="18" t="inlineStr">
-        <is>
-          <t>Operaciones</t>
-        </is>
-      </c>
+      <c r="B480" s="18" t="n"/>
       <c r="C480" s="18" t="inlineStr">
         <is>
           <t>Monitor</t>
@@ -25562,11 +25526,7 @@
           <t>VM</t>
         </is>
       </c>
-      <c r="D483" s="18" t="inlineStr">
-        <is>
-          <t>Use Azure Update Manager como mecanismo de aplicación de revisiones para máquinas virtuales Windows y Linux fuera de Azure mediante Azure Arc.</t>
-        </is>
-      </c>
+      <c r="D483" s="18" t="n"/>
       <c r="E483" s="18" t="n"/>
       <c r="F483" s="18" t="inlineStr">
         <is>
@@ -25723,17 +25683,9 @@
           <t>Monitor</t>
         </is>
       </c>
-      <c r="D486" s="18" t="inlineStr">
-        <is>
-          <t>Use alertas de Azure Monitor para la generación de alertas operativas.</t>
-        </is>
-      </c>
+      <c r="D486" s="18" t="n"/>
       <c r="E486" s="18" t="n"/>
-      <c r="F486" s="18" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
+      <c r="F486" s="18" t="n"/>
       <c r="G486" t="inlineStr">
         <is>
           <t>No verificado</t>

--- a/spreadsheet/macrofree/waf_checklist.es.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.es.xlsx
@@ -25379,7 +25379,7 @@
       </c>
       <c r="B474" s="18" t="inlineStr">
         <is>
-          <t>Excelencia Operativa</t>
+          <t>Excelencia Operacional</t>
         </is>
       </c>
       <c r="C474" s="18" t="inlineStr">

--- a/spreadsheet/macrofree/waf_checklist.es.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.es.xlsx
@@ -38800,12 +38800,12 @@
       </c>
       <c r="D735" s="18" t="inlineStr">
         <is>
-          <t>Cuando sea posible, la aplicación debe usar una identidad administrada para autenticarse en Azure Service Bus. Si no es así, considere la posibilidad de tener la credencial de almacenamiento (SAS, credencial de entidad de servicio) en Azure Key Vault o en un servicio equivalente</t>
+          <t>Cuando sea posible, deshabilite la autenticación de clave SAS (o autenticación local) y use solo el identificador de Microsoft Entra para la autenticación</t>
         </is>
       </c>
       <c r="E735" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Una aplicación cliente de Service Bus que se ejecuta dentro de una aplicación de Azure App Service o en una máquina virtual con entidades administradas habilitadas para la compatibilidad con recursos de Azure no necesita controlar reglas y claves de SAS, ni ningún otro token de acceso. La aplicación cliente solo necesita la dirección del punto de conexión del espacio de nombres de mensajería de Service Bus. </t>
+          <t>Microsoft Entra ID proporciona una seguridad superior y facilidad de uso en comparación con las firmas de acceso compartido (SAS). Con Microsoft Entra ID, no es necesario almacenar los tokens en el código y correr el riesgo de posibles vulnerabilidades de seguridad. Se recomienda usar el identificador de Microsoft Entra con las aplicaciones de Azure Service Bus siempre que sea posible.</t>
         </is>
       </c>
       <c r="F735" s="18" t="inlineStr">
@@ -38829,7 +38829,11 @@
           <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
-      <c r="K735" s="19" t="n"/>
+      <c r="K735" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type =~ 'microsoft.servicebus/namespaces' | extend compliant = iif(properties.disableLocalAuth == 'false', 'No', 'Yes') | project id, compliant</t>
+        </is>
+      </c>
       <c r="L735" s="19" t="inlineStr">
         <is>
           <t>786d60f9-6c96-4ad8-a55d-04c2b39c986b</t>

--- a/spreadsheet/macrofree/waf_checklist.es.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.es.xlsx
@@ -41487,7 +41487,11 @@
         </is>
       </c>
       <c r="J785" s="13" t="n"/>
-      <c r="K785" s="19" t="n"/>
+      <c r="K785" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.Cdn/profiles/secrets' | extend frontDoorId = substring(id, 0, indexof(id, '/secrets')) | where properties.parameters.type =~ 'CustomerCertificate' | extend compliant = properties.parameters.useLatestVersion == true | project compliant, id=frontDoorId, certificateName = name | distinct id, certificateName, compliant</t>
+        </is>
+      </c>
       <c r="L785" s="19" t="inlineStr">
         <is>
           <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
@@ -41542,7 +41546,11 @@
           <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
-      <c r="K786" s="19" t="n"/>
+      <c r="K786" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.cdn/profiles' and sku has 'AzureFrontDoor' | project name, cdnprofileid=tolower(id), tostring(tags), resourceGroup, subscriptionId,skuname=tostring(sku.name) | join kind= fullouter ( cdnresources | where type == 'microsoft.cdn/profiles/securitypolicies' | extend wafpolicyid=tostring(properties['parameters']['wafPolicy']['id']) | extend splitid=split(id, '/') | extend cdnprofileid=tolower(strcat_array(array_slice(splitid, 0, 8), '/')) | project secpolname=name, cdnprofileid, wafpolicyid ) on cdnprofileid | project name, cdnprofileid, secpolname, wafpolicyid,skuname | join kind = fullouter ( resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | extend managedrulesenabled=iff(tostring(properties.managedRules.managedRuleSets) != '[]', true, false), enabledState = tostring(properties.policySettings.enabledState) | project afdwafname=name, managedrulesenabled, wafpolicyid=id, enabledState, tostring(tags) ) on wafpolicyid | where name != '' | summarize associatedsecuritypolicies=countif(secpolname != ''), wafswithmanagedrules=countif(managedrulesenabled == 1) by name, id=cdnprofileid, tags,skuname | extend compliant = (associatedsecuritypolicies &gt; 0 and wafswithmanagedrules &gt; 0) | project id, compliant</t>
+        </is>
+      </c>
       <c r="L786" s="19" t="inlineStr">
         <is>
           <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
@@ -41758,7 +41766,11 @@
         </is>
       </c>
       <c r="J790" s="13" t="n"/>
-      <c r="K790" s="19" t="n"/>
+      <c r="K790" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/origins' | extend frontDoorId = substring(id, 0, indexof(id, '/origins')) | extend compliant = isempty(properties.originHostHeader) or (tostring(properties.hostName) =~ tostring(properties.originHostHeader)) | project id=frontDoorId, originName = name, compliant</t>
+        </is>
+      </c>
       <c r="L790" s="19" t="inlineStr">
         <is>
           <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>

--- a/spreadsheet/macrofree/waf_checklist.es.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.es.xlsx
@@ -39902,7 +39902,11 @@
         </is>
       </c>
       <c r="J754" s="13" t="n"/>
-      <c r="K754" s="19" t="n"/>
+      <c r="K754" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/applicationgatewaywebapplicationfirewallpolicies' | extend compliant = (properties['policySettings']['requestBodyCheck'] == 'true' and properties['policySettings']['state'] =~ 'Enabled') | distinct id, name, compliant</t>
+        </is>
+      </c>
       <c r="L754" s="19" t="inlineStr">
         <is>
           <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>

--- a/spreadsheet/macrofree/waf_checklist.es.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.es.xlsx
@@ -19459,7 +19459,7 @@
       </c>
       <c r="J374" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/entra/identity/authentication/concept-mandatory-multifactor-authentication</t>
         </is>
       </c>
       <c r="K374" s="19" t="n"/>
@@ -19716,7 +19716,7 @@
       </c>
       <c r="D379" s="18" t="inlineStr">
         <is>
-          <t>Implemente un acceso de emergencia o cuentas de emergencia para evitar el bloqueo de cuentas en todo el inquilino.</t>
+          <t xml:space="preserve">Implemente un acceso de emergencia o cuentas de emergencia para evitar el bloqueo de cuentas en todo el inquilino. MFA se activará de forma predeterminada para todos los usuarios en octubre de 2024. Recomendamos actualizar estas cuentas para usar la clave de paso (FIDO2) o configurar la autenticación basada en certificados para MFA. </t>
         </is>
       </c>
       <c r="E379" s="18" t="n"/>
@@ -19738,7 +19738,7 @@
       </c>
       <c r="J379" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/entra/identity/role-based-access-control/security-emergency-access#exclude-at-least-one-account-from-conditional-access-policies</t>
         </is>
       </c>
       <c r="K379" s="19" t="n"/>

--- a/spreadsheet/macrofree/waf_checklist.es.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.es.xlsx
@@ -44206,7 +44206,7 @@
       </c>
       <c r="D837" s="18" t="inlineStr">
         <is>
-          <t>Azure Center for SAP Solutions (ACSS) es una oferta de Azure que convierte a SAP en una carga de trabajo de nivel superior en Azure. ACSS es una solución integral que permite crear y ejecutar sistemas SAP como una carga de trabajo unificada en Azure y proporciona una base más fluida para la innovación. Puede aprovechar las funcionalidades de administración de los sistemas SAP nuevos y existentes basados en Azure.</t>
+          <t>Azure Center for SAP solutions (ACSS) es una oferta de Azure que convierte a SAP en una carga de trabajo de nivel superior en Azure. ACSS es una solución integral que permite crear y ejecutar sistemas SAP como una carga de trabajo unificada en Azure y proporciona una base más fluida para la innovación. Puede aprovechar las capacidades de administración de los sistemas SAP basados en Azure nuevos y existentes.</t>
         </is>
       </c>
       <c r="E837" s="18" t="n"/>
@@ -44316,7 +44316,7 @@
       </c>
       <c r="D839" s="18" t="inlineStr">
         <is>
-          <t>Realice una recuperación a un momento dado de sus bases de datos de producción en cualquier momento y en un período de tiempo que cumpla con su RTO; La recuperación a un momento dado suele incluir errores del operador al eliminar datos en la capa DBMS o a través de SAP, por cierto</t>
+          <t>Realice una recuperación a un momento dado para sus bases de datos de producción en cualquier momento y en un período de tiempo que cumpla con su RTO; La recuperación a un momento dado suele incluir errores del operador que eliminan datos en la capa DBMS o a través de SAP, por cierto</t>
         </is>
       </c>
       <c r="E839" s="18" t="n"/>
@@ -44367,7 +44367,7 @@
       </c>
       <c r="D840" s="18" t="inlineStr">
         <is>
-          <t>Pruebe los tiempos de copia de seguridad y recuperación para verificar que cumplen con los requisitos de RTO para restaurar todos los sistemas simultáneamente después de un desastre.</t>
+          <t>Pruebe los tiempos de copia de seguridad y recuperación para verificar que cumplan con los requisitos de RTO para restaurar todos los sistemas simultáneamente después de un desastre.</t>
         </is>
       </c>
       <c r="E840" s="18" t="n"/>
@@ -44414,7 +44414,7 @@
       </c>
       <c r="D841" s="18" t="inlineStr">
         <is>
-          <t>Puede replicar el almacenamiento estándar entre regiones emparejadas, pero no puede usar el almacenamiento estándar para almacenar las bases de datos o los discos duros virtuales. Las copias de seguridad solo se pueden replicar entre las regiones emparejadas que utilice. Para todos los demás datos, ejecute la replicación mediante características nativas de DBMS, como SQL Server Always On o SAP HANA System Replication. Use una combinación de Site Recovery, rsync o robocopy y otro software de terceros para la capa de aplicación de SAP.</t>
+          <t>Puede replicar el almacenamiento estándar entre regiones emparejadas, pero no puede usar el almacenamiento estándar para almacenar sus bases de datos o discos duros virtuales. Solo puede replicar copias de seguridad entre las regiones emparejadas que utilice. Para todos los demás datos, ejecute la replicación mediante características nativas de DBMS, como SQL Server Always On o SAP HANA System Replication. Utilice una combinación de Site Recovery, rsync o robocopy y otro software de terceros para la capa de aplicación de SAP.</t>
         </is>
       </c>
       <c r="E841" s="18" t="n"/>
@@ -44524,7 +44524,7 @@
       </c>
       <c r="D843" s="18" t="inlineStr">
         <is>
-          <t>Configure conexiones de ExpressRoute desde el entorno local a las regiones de recuperación ante desastres de Azure principal y secundaria. Además, como alternativa al uso de ExpressRoute, considere la posibilidad de configurar conexiones VPN desde el entorno local a las regiones de recuperación ante desastres de Azure principal y secundaria.</t>
+          <t>Configure las conexiones de ExpressRoute desde el entorno local a las regiones de recuperación ante desastres de Azure principal y secundaria. Además, como alternativa al uso de ExpressRoute, considere la posibilidad de configurar conexiones VPN desde el entorno local a las regiones de recuperación ante desastres de Azure principal y secundaria.</t>
         </is>
       </c>
       <c r="E843" s="18" t="n"/>
@@ -44549,7 +44549,11 @@
           <t>https://learn.microsoft.com/azure/expressroute/use-s2s-vpn-as-backup-for-expressroute-privatepeering</t>
         </is>
       </c>
-      <c r="K843" s="19" t="n"/>
+      <c r="K843" s="19" t="inlineStr">
+        <is>
+          <t>resources| where type =~ 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType =~ 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier contains 'AZ'| project name, id, subscriptionId, resourceGroup, Type, compliant</t>
+        </is>
+      </c>
       <c r="L843" s="19" t="inlineStr">
         <is>
           <t>ba07c007-1f90-43e9-aa4f-601346b80352</t>
@@ -44736,7 +44740,7 @@
       </c>
       <c r="D847" s="18" t="inlineStr">
         <is>
-          <t>Se debe usar la tecnología de replicación de bases de datos nativas para sincronizar la base de datos en un par de alta disponibilidad.</t>
+          <t>Se debe usar la tecnología de replicación de base de datos nativa para sincronizar la base de datos en un par de alta disponibilidad.</t>
         </is>
       </c>
       <c r="E847" s="18" t="n"/>
@@ -44816,7 +44820,11 @@
           <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
-      <c r="K848" s="19" t="n"/>
+      <c r="K848" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | project name, id, location, resourceGroup, subscriptionId, cidr = addressPrefix | extend compliant = (cidr matches regex @'^(10\.|172\.(1[6-9]|2[0-9]|3[01])\.|192\.168\.)')  | project id, compliant, cidr</t>
+        </is>
+      </c>
       <c r="L848" s="19" t="inlineStr">
         <is>
           <t>6561f847-3db5-4ff8-9200-5ad3c3b436ad</t>
@@ -44846,7 +44854,7 @@
       </c>
       <c r="D849" s="18" t="inlineStr">
         <is>
-          <t>Use Site Recovery para replicar un servidor de aplicaciones en un sitio de recuperación ante desastres. Site Recovery también puede ayudar a replicar máquinas virtuales de clúster de servicios centrales en el sitio de recuperación ante desastres. Al invocar la recuperación ante desastres, deberá volver a configurar el clúster de Linux Pacemaker en el sitio de recuperación ante desastres (por ejemplo, reemplazar el VIP o SBD, ejecutar corosync.conf, etc.).</t>
+          <t>Use Site Recovery para replicar un servidor de aplicaciones en un sitio de recuperación ante desastres. Site Recovery también puede ayudar a replicar máquinas virtuales de clúster de servicios centrales en el sitio de recuperación ante desastres. Al invocar la recuperación ante desastres, deberá volver a configurar el clúster de Linux Pacemaker en el sitio de recuperación ante desastres (por ejemplo, reemplazar el VIP o el SBD, ejecutar corosync.conf, etc.).</t>
         </is>
       </c>
       <c r="E849" s="18" t="n"/>
@@ -44952,7 +44960,7 @@
       </c>
       <c r="D851" s="18" t="inlineStr">
         <is>
-          <t>En el caso de SAP y bases de datos de SAP, considere la posibilidad de implementar clústeres de conmutación por error automática. En Windows, los clústeres de conmutación por error de Windows Server admiten la conmutación por error. En Linux, Linux Pacemaker o herramientas de terceros como SIOS Protection Suite y Veritas InfoScale admiten la conmutación por error.</t>
+          <t>En el caso de SAP y bases de datos de SAP, considere la posibilidad de implementar clústeres de conmutación por error automática. En Windows, los clústeres de conmutación por error de Windows Server admiten la conmutación por error. En Linux, Linux Pacemaker o herramientas de terceros, como SIOS Protection Suite y Veritas InfoScale, admiten la conmutación por error.</t>
         </is>
       </c>
       <c r="E851" s="18" t="n"/>
@@ -45007,7 +45015,7 @@
       </c>
       <c r="D852" s="18" t="inlineStr">
         <is>
-          <t>Azure no admite arquitecturas en las que las máquinas virtuales principal y secundaria compartan el almacenamiento de los datos de DBMS. Para la capa DBMS, el patrón de arquitectura común es replicar bases de datos al mismo tiempo y con pilas de almacenamiento diferentes a las que usan las máquinas virtuales principal y secundaria.</t>
+          <t>Azure no admite arquitecturas en las que las máquinas virtuales principal y secundaria compartan almacenamiento para los datos de DBMS. Para la capa DBMS, el patrón de arquitectura común es replicar bases de datos al mismo tiempo y con pilas de almacenamiento diferentes a las que usan las máquinas virtuales principales y secundarias.</t>
         </is>
       </c>
       <c r="E852" s="18" t="n"/>
@@ -45062,7 +45070,7 @@
       </c>
       <c r="D853" s="18" t="inlineStr">
         <is>
-          <t>Los datos de DBMS y los archivos de registro de transacciones y puesta al día se almacenan en el almacenamiento en bloque compatible con Azure o en Azure NetApp Files. Azure Files o Azure Premium Files no se admiten como almacenamiento para datos de DBMS o archivos de registro de puesta al día con la carga de trabajo de SAP.</t>
+          <t>Los datos de DBMS y los archivos de registro de transacciones/puesta al día se almacenan en el almacenamiento en bloque compatible con Azure o en Azure NetApp Files. Azure Files o Azure Premium Files no se admiten como almacenamiento para datos de DBMS ni archivos de registro de puesta al día con la carga de trabajo de SAP.</t>
         </is>
       </c>
       <c r="E853" s="18" t="n"/>
@@ -45117,7 +45125,7 @@
       </c>
       <c r="D854" s="18" t="inlineStr">
         <is>
-          <t>Puede usar discos compartidos de Azure en Windows para componentes ASCS + SCS y escenarios específicos de alta disponibilidad. Configure los clústeres de conmutación por error por separado para los componentes de la capa de aplicación de SAP y la capa de DBMS. Actualmente, Azure no admite arquitecturas de alta disponibilidad que combinen componentes de la capa de aplicación de SAP y la capa de DBMS en un clúster de conmutación por error.</t>
+          <t>Puede usar discos compartidos de Azure en Windows para componentes ASCS + SCS y escenarios específicos de alta disponibilidad. Configure los clústeres de conmutación por error por separado para los componentes de la capa de aplicación de SAP y la capa de DBMS. Actualmente, Azure no admite arquitecturas de alta disponibilidad que combinen los componentes de la capa de aplicación de SAP y la capa de DBMS en un clúster de conmutación por error.</t>
         </is>
       </c>
       <c r="E854" s="18" t="n"/>
@@ -45172,7 +45180,7 @@
       </c>
       <c r="D855" s="18" t="inlineStr">
         <is>
-          <t>La mayoría de los clústeres de conmutación por error para los componentes de la capa de aplicación (ASCS) de SAP y la capa de DBMS requieren una dirección IP virtual para un clúster de conmutación por error.  Azure Load Balancer debe controlar la dirección IP virtual para todos los demás casos. Un principio de diseño es usar un equilibrador de carga por configuración de clúster. Te recomendamos que utilices la versión estándar del equilibrador de carga (SKU de equilibrador de carga estándar).</t>
+          <t>La mayoría de los clústeres de conmutación por error para los componentes de la capa de aplicación (ASCS) de SAP y la capa de DBMS requieren una dirección IP virtual para un clúster de conmutación por error.  Azure Load Balancer debe controlar la dirección IP virtual para todos los demás casos. Un principio de diseño es usar un equilibrador de carga por configuración de clúster. Te recomendamos que utilices la versión estándar del equilibrador de carga (SKU de Standard Load Balancer).</t>
         </is>
       </c>
       <c r="E855" s="18" t="n"/>
@@ -45197,7 +45205,11 @@
           <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/?source=recommendations</t>
         </is>
       </c>
-      <c r="K855" s="19" t="n"/>
+      <c r="K855" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'Microsoft.Network/loadBalancers' | extend bep = properties.backendAddressPools | extend BackEndPools = array_length(bep) | where BackEndPools =~ 0 | project name, id, Param1='backendPools', Param2=toint(0), tags | union (resources | where type =~ 'Microsoft.Network/loadBalancers' | where sku.name =~ 'Standard' | extend bep = properties.backendAddressPools | extend BackEndPools = toint(array_length(bep)) | mv-expand bip = properties.backendAddressPools | extend BackendAddresses = array_length(bip.properties.loadBalancerBackendAddresses) | where toint(BackendAddresses) &lt;= 1 | project name, id, tags, Param1='backendAddresses', Param2=toint(BackendAddresses)) | union ( resources | where type =~ 'Microsoft.Network/loadBalancers' | where sku.name =~ 'Basic' | mv-expand properties.backendAddressPools | extend backendPoolId = properties_backendAddressPools.id | project id, name, tags, tostring(backendPoolId), Param1='BackEndPools' | join kind = leftouter ( resources | where type =~ 'Microsoft.Network/networkInterfaces' | mv-expand properties.ipConfigurations | mv-expand properties_ipConfigurations.properties.loadBalancerBackendAddressPools | extend backendPoolId = tostring(properties_ipConfigurations_properties_loadBalancerBackendAddressPools.id) | summarize poolMembers = count() by backendPoolId | project tostring(backendPoolId), poolMembers ) on backendPoolId | where toint(poolMembers) &lt;= 1 | extend BackendAddresses = poolMembers | project id, name, tags, Param1='backendAddresses', Param2=toint(BackendAddresses))</t>
+        </is>
+      </c>
       <c r="L855" s="19" t="inlineStr">
         <is>
           <t>a78b3d31-3170-44f2-b5d7-651a29f4ccf5</t>
@@ -45282,7 +45294,7 @@
       </c>
       <c r="D857" s="18" t="inlineStr">
         <is>
-          <t>Antes de implementar la infraestructura de alta disponibilidad, y en función de la región que elija, determine si desea realizar la implementación con un conjunto de disponibilidad de Azure o una zona de disponibilidad.</t>
+          <t>Antes de implementar la infraestructura de alta disponibilidad, y en función de la región que elija, determine si desea implementar con un conjunto de disponibilidad de Azure o con una zona de disponibilidad.</t>
         </is>
       </c>
       <c r="E857" s="18" t="n"/>
@@ -45337,7 +45349,7 @@
       </c>
       <c r="D858" s="18" t="inlineStr">
         <is>
-          <t>Si desea cumplir los acuerdos de nivel de servicio de infraestructura para las aplicaciones de los componentes de SAP (servicios centrales, servidores de aplicaciones y bases de datos), debe elegir las mismas opciones de alta disponibilidad (máquinas virtuales, conjuntos de disponibilidad, zonas de disponibilidad) para todos los componentes.</t>
+          <t>Si desea cumplir los acuerdos de nivel de servicio de infraestructura para sus aplicaciones para componentes de SAP (servicios centrales, servidores de aplicaciones y bases de datos), debe elegir las mismas opciones de alta disponibilidad (máquinas virtuales, conjuntos de disponibilidad, zonas de disponibilidad) para todos los componentes.</t>
         </is>
       </c>
       <c r="E858" s="18" t="n"/>
@@ -45388,7 +45400,7 @@
       </c>
       <c r="D859" s="18" t="inlineStr">
         <is>
-          <t>No mezcle servidores de diferentes roles en el mismo conjunto de disponibilidad. Mantenga las máquinas virtuales de servicios centrales, las máquinas virtuales de base de datos y las máquinas virtuales de aplicaciones en sus propios conjuntos de disponibilidad</t>
+          <t>No mezcle servidores de diferentes roles en el mismo conjunto de disponibilidad. Mantenga las máquinas virtuales de servicios centrales, las máquinas virtuales de bases de datos y las máquinas virtuales de aplicaciones en sus propios conjuntos de disponibilidad</t>
         </is>
       </c>
       <c r="E859" s="18" t="n"/>
@@ -45443,7 +45455,7 @@
       </c>
       <c r="D860" s="18" t="inlineStr">
         <is>
-          <t>No se pueden implementar conjuntos de disponibilidad de Azure dentro de una zona de disponibilidad de Azure a menos que se usen grupos de selección de ubicación de proximidad.</t>
+          <t>No se pueden implementar conjuntos de disponibilidad de Azure en una zona de disponibilidad de Azure a menos que se usen grupos de selección de ubicación por proximidad.</t>
         </is>
       </c>
       <c r="E860" s="18" t="n"/>
@@ -45498,7 +45510,7 @@
       </c>
       <c r="D861" s="18" t="inlineStr">
         <is>
-          <t>Al crear conjuntos de disponibilidad, use el número máximo de dominios de error y dominios de actualización disponibles. Por ejemplo, si implementa más de dos máquinas virtuales en un conjunto de disponibilidad, use el número máximo de dominios de error (tres) y suficientes dominios de actualización para limitar el efecto de posibles errores de hardware físico, interrupciones de red o interrupciones de energía, además del mantenimiento planeado de Azure. El número predeterminado de dominios de error es dos y no puede cambiarlo en línea más adelante.</t>
+          <t>Al crear conjuntos de disponibilidad, use el número máximo de dominios de error y dominios de actualización disponibles. Por ejemplo, si implementa más de dos máquinas virtuales en un conjunto de disponibilidad, use el número máximo de dominios de error (tres) y suficientes dominios de actualización para limitar el efecto de posibles errores de hardware físico, interrupciones de red o interrupciones de energía, además del mantenimiento planeado de Azure. El número predeterminado de dominios de error es dos y no se puede cambiar en línea más adelante.</t>
         </is>
       </c>
       <c r="E861" s="18" t="n"/>
@@ -45553,7 +45565,7 @@
       </c>
       <c r="D862" s="18" t="inlineStr">
         <is>
-          <t>Cuando se usan grupos de selección con selección de ubicación de proximidad de Azure en una implementación de conjunto de disponibilidad, los tres componentes de SAP (servicios centrales, servidor de aplicaciones y base de datos) deben estar en el mismo grupo con selección de ubicación de proximidad.</t>
+          <t>Cuando se usan grupos de selección de ubicación de proximidad de Azure en una implementación de conjunto de disponibilidad, los tres componentes de SAP (servicios centrales, servidor de aplicaciones y base de datos) deben estar en el mismo grupo de selección de ubicación por proximidad.</t>
         </is>
       </c>
       <c r="E862" s="18" t="n"/>
@@ -45604,7 +45616,7 @@
       </c>
       <c r="D863" s="18" t="inlineStr">
         <is>
-          <t>Use un grupo de selección de ubicación de proximidad por SID de SAP. Los grupos no abarcan zonas de disponibilidad ni regiones de Azure</t>
+          <t>Utilice un grupo de ubicación de proximidad por SID de SAP. Los grupos no se extienden entre zonas de disponibilidad ni regiones de Azure</t>
         </is>
       </c>
       <c r="E863" s="18" t="n"/>
@@ -45710,7 +45722,7 @@
       </c>
       <c r="D865" s="18" t="inlineStr">
         <is>
-          <t>Actualmente, Azure no admite la combinación de ASCS y alta disponibilidad de base de datos en el mismo clúster de Linux Pacemaker; sepáralos en grupos individuales. Sin embargo, puede combinar hasta cinco clústeres de servicios centrales en un par de máquinas virtuales.</t>
+          <t>Actualmente, Azure no admite la combinación de ASCS y DB HA en el mismo clúster de Linux Pacemaker; sepárelos en grupos individuales. Sin embargo, puede combinar hasta cinco clústeres de servicios centrales en un par de máquinas virtuales.</t>
         </is>
       </c>
       <c r="E865" s="18" t="n"/>
@@ -45786,7 +45798,11 @@
         </is>
       </c>
       <c r="J866" s="13" t="n"/>
-      <c r="K866" s="19" t="n"/>
+      <c r="K866" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type =~ 'Microsoft.Storage/storageAccounts' | where sku.name in~ ('Standard_LRS', 'Premium_LRS') | project name, id, tags, param1 = strcat('sku: ', sku.name)</t>
+        </is>
+      </c>
       <c r="L866" s="19" t="inlineStr">
         <is>
           <t>f656e745-0cfb-453e-8008-0528fa21c933</t>
@@ -45816,7 +45832,7 @@
       </c>
       <c r="D867" s="18" t="inlineStr">
         <is>
-          <t>Azure admite la instalación y configuración de SAP HANA y las instancias de ASCS/SCS y ERS en el mismo clúster de alta disponibilidad que se ejecuta en Red Hat Enterprise Linux (RHEL).</t>
+          <t>Azure admite la instalación y configuración de SAP HANA, ASCS/SCS e instancias de ERS en el mismo clúster de alta disponibilidad que se ejecuta en Red Hat Enterprise Linux (RHEL).</t>
         </is>
       </c>
       <c r="E867" s="18" t="n"/>
@@ -45926,7 +45942,7 @@
       </c>
       <c r="D869" s="18" t="inlineStr">
         <is>
-          <t>Debe ejecutar SAP HANA en Azure solo en los tipos de almacenamiento certificados por SAP. Tenga en cuenta que ciertos volúmenes deben ejecutarse en determinadas configuraciones de disco, cuando corresponda. Estas configuraciones incluyen la habilitación del acelerador de escritura y el uso del almacenamiento premium. También debe asegurarse de que el sistema de archivos que se ejecuta en el almacenamiento es compatible con el DBMS que se ejecuta en la máquina.</t>
+          <t>Debe ejecutar SAP HANA en Azure solo en los tipos de almacenamiento certificados por SAP. Tenga en cuenta que ciertos volúmenes deben ejecutarse en ciertas configuraciones de disco, cuando corresponda. Estas configuraciones incluyen la habilitación del Acelerador de escritura y el uso del almacenamiento Premium. También debe asegurarse de que el sistema de archivos que se ejecuta en el almacenamiento sea compatible con el DBMS que se ejecuta en la máquina.</t>
         </is>
       </c>
       <c r="E869" s="18" t="n"/>
@@ -46036,7 +46052,7 @@
       </c>
       <c r="D871" s="18" t="inlineStr">
         <is>
-          <t>Es posible que los diferentes servicios de almacenamiento nativos de Azure (como Azure Files, Azure NetApp Files, Azure Shared Disk) no estén disponibles en todas las regiones. Por lo tanto, para tener una configuración de SAP similar en la región de recuperación ante desastres después de la conmutación por error, asegúrese de que el servicio de almacenamiento correspondiente se ofrece en el sitio de recuperación ante desastres.</t>
+          <t>Es posible que los diferentes servicios de almacenamiento nativo de Azure (como Azure Files, Azure NetApp Files, Azure Shared Disk) no estén disponibles en todas las regiones. Por lo tanto, para tener una configuración de SAP similar en la región de recuperación ante desastres después de la conmutación por error, asegúrese de que el servicio de almacenamiento correspondiente se ofrezca en el sitio de recuperación ante desastres.</t>
         </is>
       </c>
       <c r="E871" s="18" t="n"/>
@@ -46138,7 +46154,7 @@
       </c>
       <c r="D873" s="18" t="inlineStr">
         <is>
-          <t>En el caso de usar Azure Premium Storage con SAP HANA, se puede usar el almacenamiento SSD estándar de Azure para seleccionar una solución de almacenamiento rentable. Sin embargo, tenga en cuenta que la elección de SSD estándar o almacenamiento de Azure HDD estándar afectará al Acuerdo de Nivel de Servicio de las máquinas virtuales individuales. Además, para sistemas con menor rendimiento de E/S y baja latencia, como entornos que no son de producción, se pueden usar máquinas virtuales de series inferiores.</t>
+          <t>En el caso de usar Azure Premium Storage con SAP HANA, el almacenamiento SSD estándar de Azure se puede usar para seleccionar una solución de almacenamiento económica en cuanto a costos. Sin embargo, tenga en cuenta que la elección del almacenamiento SSD estándar o HDD estándar de Azure afectará al Acuerdo de Nivel de Servicio de las máquinas virtuales individuales. Además, para sistemas con menor rendimiento de E/S y baja latencia, como entornos que no son de producción, se pueden usar máquinas virtuales de series inferiores.</t>
         </is>
       </c>
       <c r="E873" s="18" t="n"/>
@@ -46189,7 +46205,7 @@
       </c>
       <c r="D874" s="18" t="inlineStr">
         <is>
-          <t>Como configuración alternativa de menor costo (multipropósito), puede elegir una SKU de bajo rendimiento para las máquinas virtuales del servidor de base de datos de HANA que no son de producción. Sin embargo, es importante tener en cuenta que algunos tipos de máquinas virtuales, como la serie E, no están certificadas para HANA (directorio de hardware de SAP HANA) o no pueden alcanzar una latencia de almacenamiento inferior a 1 ms.</t>
+          <t>Como configuración alternativa de menor costo (multipropósito), puede elegir una SKU de bajo rendimiento para las máquinas virtuales de servidor de base de datos HANA que no son de producción. Sin embargo, es importante tener en cuenta que algunos tipos de máquinas virtuales, como la serie E, no están certificadas por HANA (directorio de hardware de SAP HANA) o no pueden alcanzar una latencia de almacenamiento inferior a 1 ms.</t>
         </is>
       </c>
       <c r="E874" s="18" t="n"/>
@@ -46265,7 +46281,11 @@
           <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
-      <c r="K875" s="19" t="n"/>
+      <c r="K875" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.aad/domainservices' | extend replicaSets = properties.replicaSets | where array_length(replicaSets) &lt; 2 | project name=name, id=id, tags=tags, param1=strcat('replicaSetLocation:', replicaSets[0].location)</t>
+        </is>
+      </c>
       <c r="L875" s="19" t="inlineStr">
         <is>
           <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
@@ -46295,7 +46315,7 @@
       </c>
       <c r="D876" s="18" t="inlineStr">
         <is>
-          <t>Aplicación de la propagación de la entidad de seguridad para reenviar la identidad de la aplicación en la nube de SAP a SAP local (incluida IaaS) a través del conector en la nube</t>
+          <t>Aplicación de la propagación de la entidad de seguridad para reenviar la identidad de la aplicación en la nube de SAP a SAP local (incluida la IaaS) a través del conector en la nube</t>
         </is>
       </c>
       <c r="E876" s="18" t="n"/>
@@ -46401,7 +46421,7 @@
       </c>
       <c r="D878" s="18" t="inlineStr">
         <is>
-          <t>Implemente SSO en aplicaciones web basadas en SAP NetWeaver, como SAP Fiori y SAP Web GUI mediante SAML.</t>
+          <t>Implemente SSO en aplicaciones web basadas en SAP NetWeaver, como SAP Fiori y SAP Web GUI, mediante SAML.</t>
         </is>
       </c>
       <c r="E878" s="18" t="n"/>
@@ -46456,7 +46476,7 @@
       </c>
       <c r="D879" s="18" t="inlineStr">
         <is>
-          <t>Implemente SSO en aplicaciones web basadas en SAP NetWeaver, como SAP Fiori y SAP Web GUI mediante SAML.</t>
+          <t>Implemente SSO en aplicaciones web basadas en SAP NetWeaver, como SAP Fiori y SAP Web GUI, mediante SAML.</t>
         </is>
       </c>
       <c r="E879" s="18" t="n"/>
@@ -46507,7 +46527,7 @@
       </c>
       <c r="D880" s="18" t="inlineStr">
         <is>
-          <t>Puede implementar SSO en la GUI de SAP mediante SAP NetWeaver SSO o una solución de partner.</t>
+          <t>Puede implementar el inicio de sesión único en la interfaz gráfica de usuario de SAP mediante el inicio de sesión único de SAP NetWeaver o una solución de socio.</t>
         </is>
       </c>
       <c r="E880" s="18" t="n"/>
@@ -46562,7 +46582,7 @@
       </c>
       <c r="D881" s="18" t="inlineStr">
         <is>
-          <t>Para SSO para SAP GUI y acceso al navegador web, implemente SNC / Kerberos / SPNEGO (mecanismo de negociación GSSAPI simple y protegido) debido a su facilidad de configuración y mantenimiento. Para SSO con certificados de cliente X.509, considere el servidor de inicio de sesión seguro de SAP, que es un componente de la solución SSO de SAP.</t>
+          <t>Para SSO para SAP GUI y acceso al navegador web, implemente SNC / Kerberos / SPNEGO (mecanismo de negociación GSSAPI simple y protegido) debido a su facilidad de configuración y mantenimiento. Para SSO con certificados de cliente X.509, considere la posibilidad de utilizar SAP Secure Login Server, que es un componente de la solución SAP SSO.</t>
         </is>
       </c>
       <c r="E881" s="18" t="n"/>
@@ -46613,7 +46633,7 @@
       </c>
       <c r="D882" s="18" t="inlineStr">
         <is>
-          <t>Para SSO para SAP GUI y acceso al navegador web, implemente SNC / Kerberos / SPNEGO (mecanismo de negociación GSSAPI simple y protegido) debido a su facilidad de configuración y mantenimiento. Para SSO con certificados de cliente X.509, considere el servidor de inicio de sesión seguro de SAP, que es un componente de la solución SSO de SAP.</t>
+          <t>Para SSO para SAP GUI y acceso al navegador web, implemente SNC / Kerberos / SPNEGO (mecanismo de negociación GSSAPI simple y protegido) debido a su facilidad de configuración y mantenimiento. Para SSO con certificados de cliente X.509, considere la posibilidad de utilizar SAP Secure Login Server, que es un componente de la solución SAP SSO.</t>
         </is>
       </c>
       <c r="E882" s="18" t="n"/>
@@ -46970,7 +46990,7 @@
       </c>
       <c r="D889" s="18" t="inlineStr">
         <is>
-          <t>Si usa SAP SuccessFactors, considere la posibilidad de usar el aprovisionamiento automatizado de usuarios de Azure AD. Con esta integración, a medida que agrega nuevos empleados a SAP SuccessFactors, puede crear automáticamente sus cuentas de usuario en Azure AD. Opcionalmente, puede crear cuentas de usuario en Microsoft 365 u otras aplicaciones SaaS compatibles con Azure AD. Utilice la escritura diferida de la dirección de correo electrónico en SAP SuccessFactors.</t>
+          <t>Si usa SAP SuccessFactors, considere la posibilidad de usar el aprovisionamiento automatizado de usuarios de Azure AD. Con esta integración, a medida que agregue nuevos empleados a SAP SuccessFactors, puede crear automáticamente sus cuentas de usuario en Azure AD. Opcionalmente, puede crear cuentas de usuario en Microsoft 365 u otras aplicaciones SaaS compatibles con Azure AD. Utilice la reescritura de la dirección de correo electrónico en SAP SuccessFactors.</t>
         </is>
       </c>
       <c r="E889" s="18" t="n"/>
@@ -47024,7 +47044,11 @@
           <t>aplicar las directivas de grupo de administración existentes a las suscripciones de SAP</t>
         </is>
       </c>
-      <c r="E890" s="18" t="n"/>
+      <c r="E890" s="18" t="inlineStr">
+        <is>
+          <t>Mantenga la jerarquía del grupo de administración razonablemente plana, no más de cuatro.</t>
+        </is>
+      </c>
       <c r="F890" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -47046,7 +47070,11 @@
           <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
         </is>
       </c>
-      <c r="K890" s="19" t="n"/>
+      <c r="K890" s="19" t="inlineStr">
+        <is>
+          <t>resourcecontainers| where type =~ 'microsoft.resources/subscriptions'| extend ManagementGroup = tostring(tags),mgmtChain = properties.managementGroupAncestorsChain| extend compliant =( array_length(mgmtChain) &lt;= 4 and array_length(mgmtChain) &gt; 1)</t>
+        </is>
+      </c>
       <c r="L890" s="19" t="inlineStr">
         <is>
           <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
@@ -47076,7 +47104,7 @@
       </c>
       <c r="D891" s="18" t="inlineStr">
         <is>
-          <t>Integre aplicaciones estrechamente acopladas en la misma suscripción de SAP para evitar una complejidad adicional de enrutamiento y administración</t>
+          <t>Integre aplicaciones estrechamente acopladas en la misma suscripción de SAP para evitar la complejidad adicional del enrutamiento y la administración</t>
         </is>
       </c>
       <c r="E891" s="18" t="n"/>
@@ -47101,7 +47129,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
-      <c r="K891" s="19" t="n"/>
+      <c r="K891" s="19" t="inlineStr">
+        <is>
+          <t>Resources | summarize count()</t>
+        </is>
+      </c>
       <c r="L891" s="19" t="inlineStr">
         <is>
           <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
@@ -47131,7 +47163,7 @@
       </c>
       <c r="D892" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aprovechar la suscripción como unidad de escalado y escalar nuestros recursos, considere implementar la suscripción por entorno, por ejemplo. Sandbox, no-prod, prod </t>
+          <t xml:space="preserve">Aprovechar la suscripción como unidad de escala y escalar nuestros recursos, considere implementar la suscripción por entorno, por ejemplo. Sandbox, no prod, prod </t>
         </is>
       </c>
       <c r="E892" s="18" t="n"/>
@@ -47156,7 +47188,11 @@
           <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
         </is>
       </c>
-      <c r="K892" s="19" t="n"/>
+      <c r="K892" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type contains 'publicIPAddresses' and isnotempty(properties.ipAddress) | summarize count () by subscriptionId</t>
+        </is>
+      </c>
       <c r="L892" s="19" t="inlineStr">
         <is>
           <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
@@ -47211,7 +47247,11 @@
           <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
-      <c r="K893" s="19" t="n"/>
+      <c r="K893" s="19" t="inlineStr">
+        <is>
+          <t>QuotaResources | where type =~ 'microsoft.compute/locations/usages' | where subscriptionId in~ ('&lt;Subscription1&gt;','&lt;Subscription2&gt;') | mv-expand json = properties.value limit 400 | extend usagevCPUs = json.currentValue, QuotaLimit = json['limit'], quotaName = tostring(json['name'].localizedValue) | extend usagePercent = toint(usagevCPUs)*100 / toint(QuotaLimit) |where quotaName =~ 'Total Regional vCPUs' or quotaName =~ 'Total Regional Low-priority vCPUs' |project subscriptionId,quotaName,usagevCPUs,QuotaLimit,usagePercent,location,['json'] | order by ['usagePercent'] desc</t>
+        </is>
+      </c>
       <c r="L893" s="19" t="inlineStr">
         <is>
           <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
@@ -47241,7 +47281,7 @@
       </c>
       <c r="D894" s="18" t="inlineStr">
         <is>
-          <t>La API de cuota es una API de REST que se puede usar para ver y administrar las cuotas de los servicios de Azure. Considere usarlo si es necesario.</t>
+          <t>La API de cuota es una API de REST que puede usar para ver y administrar las cuotas de los servicios de Azure. Considere usarlo si es necesario.</t>
         </is>
       </c>
       <c r="E894" s="18" t="n"/>
@@ -47292,7 +47332,7 @@
       </c>
       <c r="D895" s="18" t="inlineStr">
         <is>
-          <t>Si realiza la implementación en una zona de disponibilidad, asegúrese de que la implementación de la zona de la máquina virtual esté disponible una vez que se haya aprobado la cuota. Envíe una solicitud de soporte técnico con la suscripción, la serie de máquinas virtuales, el número de CPU y la zona de disponibilidad necesarias.</t>
+          <t>Si se implementa en una zona de disponibilidad, asegúrese de que la implementación de zona de la máquina virtual esté disponible una vez que se haya aprobado la cuota. Envíe una solicitud de soporte técnico con la suscripción, la serie de máquinas virtuales, el número de CPU y la zona de disponibilidad necesarias.</t>
         </is>
       </c>
       <c r="E895" s="18" t="n"/>
@@ -47343,7 +47383,7 @@
       </c>
       <c r="D896" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios y funciones requeridos estén disponibles dentro de las regiones de implementación elegidas, por ejemplo. ANF, Zona, etc.</t>
+          <t>Asegúrese de que los servicios y funciones necesarios estén disponibles dentro de las regiones de implementación elegidas, por ejemplo. ANF, Zona, etc.</t>
         </is>
       </c>
       <c r="E896" s="18" t="n"/>
@@ -47398,7 +47438,7 @@
       </c>
       <c r="D897" s="18" t="inlineStr">
         <is>
-          <t>Aproveche la etiqueta de recurso de Azure para la categorización de costos y la agrupación de recursos (facturación, departamento (o unidad de negocio), entorno (producción, fase, desarrollo), nivel (nivel web, nivel de aplicación), propietario de la aplicación, ProjectName)</t>
+          <t>Aproveche la etiqueta de recurso de Azure para la categorización de costos y la agrupación de recursos (: BillTo, Departamento (o unidad de negocio), Medio ambiente (producción, Fase, Desarrollo), Nivel (nivel web, nivel de aplicación), Propietario de la aplicación, Nombre del proyecto)</t>
         </is>
       </c>
       <c r="E897" s="18" t="n"/>
@@ -47423,7 +47463,11 @@
           <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
-      <c r="K897" s="19" t="n"/>
+      <c r="K897" s="19" t="inlineStr">
+        <is>
+          <t>resources | extend compliant = isnotnull(['tags']) | project name, id, subscriptionId, resourceGroup, tags, compliant</t>
+        </is>
+      </c>
       <c r="L897" s="19" t="inlineStr">
         <is>
           <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
@@ -47508,7 +47552,7 @@
       </c>
       <c r="D899" s="18" t="inlineStr">
         <is>
-          <t>Si implementa Azure NetApp Files para la base de datos HANA, Oracle o DB2, use la herramienta Azure Application Consistent Snapshot (AzAcSnap) para tomar instantáneas coherentes con la aplicación. AzAcSnap también es compatible con las bases de datos de Oracle. Considere la posibilidad de usar AzAcSnap en una máquina virtual central en lugar de en máquinas virtuales individuales.</t>
+          <t>Si implementa Azure NetApp Files para la base de datos HANA, Oracle o DB2, use la herramienta Azure Application Consistent Snapshot (AzAcSnap) para tomar instantáneas coherentes con la aplicación. AzAcSnap también es compatible con bases de datos de Oracle. Considere la posibilidad de usar AzAcSnap en una máquina virtual central en lugar de en máquinas virtuales individuales.</t>
         </is>
       </c>
       <c r="E899" s="18" t="n"/>
@@ -47559,7 +47603,7 @@
       </c>
       <c r="D900" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que la zona horaria coincida entre el sistema operativo y el sistema SAP.</t>
+          <t>Asegúrese de que las zonas horarias coincidan entre el sistema operativo y el sistema SAP.</t>
         </is>
       </c>
       <c r="E900" s="18" t="n"/>
@@ -47716,7 +47760,7 @@
       </c>
       <c r="D903" s="18" t="inlineStr">
         <is>
-          <t>Si se asocia con los clientes mediante la administración de sus propiedades de SAP, considere la posibilidad de usar Azure Lighthouse. Azure Lighthouse permite a los proveedores de servicios administrados usar los servicios de identidad nativos de Azure para autenticarse en el entorno de los clientes. Pone el control en manos de los clientes, ya que pueden revocar el acceso en cualquier momento y auditar las acciones de los proveedores de servicios.</t>
+          <t>Si se asocia con los clientes mediante la administración de sus propiedades de SAP, considere la posibilidad de Azure Lighthouse. Azure Lighthouse permite a los proveedores de servicios administrados usar los servicios de identidad nativos de Azure para autenticarse en el entorno de los clientes. Pone el control en manos de los clientes, ya que pueden revocar el acceso en cualquier momento y auditar las acciones de los proveedores de servicios.</t>
         </is>
       </c>
       <c r="E903" s="18" t="n"/>
@@ -47767,7 +47811,7 @@
       </c>
       <c r="D904" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Update Manager para comprobar el estado de las actualizaciones disponibles para una sola máquina virtual o varias máquinas virtuales y considere la posibilidad de programar revisiones periódicas.</t>
+          <t>Use Azure Update Manager para comprobar el estado de las actualizaciones disponibles para una sola máquina virtual o varias máquinas virtuales y considere la posibilidad de programar la aplicación periódica de revisiones.</t>
         </is>
       </c>
       <c r="E904" s="18" t="n"/>
@@ -47877,7 +47921,7 @@
       </c>
       <c r="D906" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Monitor para soluciones SAP para supervisar las cargas de trabajo de SAP (SAP HANA, clústeres de SUSE de alta disponibilidad y sistemas SQL) en Azure. Considere la posibilidad de complementar las soluciones de Azure Monitor para SAP con SAP Solution Manager.</t>
+          <t>Use las soluciones de Azure Monitor para SAP para supervisar las cargas de trabajo de SAP (SAP HANA, clústeres de SUSE de alta disponibilidad y sistemas SQL) en Azure. Considere la posibilidad de complementar las soluciones de Azure Monitor para SAP con SAP Solution Manager.</t>
         </is>
       </c>
       <c r="E906" s="18" t="n"/>
@@ -47932,7 +47976,7 @@
       </c>
       <c r="D907" s="18" t="inlineStr">
         <is>
-          <t>Ejecute una comprobación de extensión de máquina virtual para SAP. VM Extension for SAP usa la identidad administrada asignada de una máquina virtual (VM) para acceder a los datos de configuración y supervisión de VM. La comprobación garantiza que todas las métricas de rendimiento de la aplicación SAP proceden de la extensión de Azure para SAP subyacente.</t>
+          <t>Ejecute una extensión de máquina virtual para la comprobación de SAP. VM Extension for SAP usa la identidad administrada asignada de una máquina virtual (VM) para acceder a los datos de configuración y supervisión de VM. La comprobación garantiza que todas las métricas de rendimiento de la aplicación SAP procedan de la extensión de Azure para SAP subyacente.</t>
         </is>
       </c>
       <c r="E907" s="18" t="n"/>
@@ -48203,7 +48247,7 @@
       </c>
       <c r="D912" s="18" t="inlineStr">
         <is>
-          <t>Ejecute el informe de resistencia para asegurarse de que la configuración de toda la infraestructura de Azure aprovisionada (proceso, base de datos, redes, almacenamiento, Site Recovery) cumple con la configuración definida por Cloud Adaption Framework para Azure.</t>
+          <t>Ejecute el informe de resistencia para asegurarse de que la configuración de toda la infraestructura de Azure aprovisionada (proceso, base de datos, redes, almacenamiento, Site Recovery) cumpla con la configuración definida por Cloud Adaption Framework para Azure.</t>
         </is>
       </c>
       <c r="E912" s="18" t="n"/>
@@ -48313,7 +48357,7 @@
       </c>
       <c r="D914" s="18" t="inlineStr">
         <is>
-          <t>El etiquetado de Azure se puede aprovechar para agrupar y realizar un seguimiento lógico de los recursos, automatizar sus implementaciones y, lo que es más importante, proporcionar visibilidad de los costos incurridos.</t>
+          <t>El etiquetado de Azure se puede aprovechar para agrupar y realizar un seguimiento lógicos de los recursos, automatizar sus implementaciones y, lo que es más importante, proporcionar visibilidad de los costos incurridos.</t>
         </is>
       </c>
       <c r="E914" s="18" t="n"/>
@@ -48338,7 +48382,11 @@
           <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
         </is>
       </c>
-      <c r="K914" s="19" t="n"/>
+      <c r="K914" s="19" t="inlineStr">
+        <is>
+          <t>resources | extend compliant = isnotnull(['tags']) | project name, id, subscriptionId, resourceGroup, tags, compliant</t>
+        </is>
+      </c>
       <c r="L914" s="19" t="inlineStr">
         <is>
           <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
@@ -48368,7 +48416,7 @@
       </c>
       <c r="D915" s="18" t="inlineStr">
         <is>
-          <t>Use la supervisión de latencia entre máquinas virtuales para aplicaciones sensibles a la latencia.</t>
+          <t>Utilice la supervisión de latencia entre máquinas virtuales para aplicaciones sensibles a la latencia.</t>
         </is>
       </c>
       <c r="E915" s="18" t="n"/>
@@ -48419,7 +48467,7 @@
       </c>
       <c r="D916" s="18" t="inlineStr">
         <is>
-          <t>Use la supervisión de Azure Site Recovery para mantener el estado del servicio de recuperación ante desastres para los servidores de aplicaciones SAP.</t>
+          <t>Use la supervisión de Azure Site Recovery para mantener el estado del servicio de recuperación ante desastres para los servidores de aplicaciones de SAP.</t>
         </is>
       </c>
       <c r="E916" s="18" t="n"/>
@@ -48474,7 +48522,7 @@
       </c>
       <c r="D917" s="18" t="inlineStr">
         <is>
-          <t>Excluya todos los sistemas de archivos de bases de datos y programas ejecutables de los análisis antivirus. Incluirlos podría dar lugar a problemas de rendimiento. Consulte con los proveedores de bases de datos para obtener detalles prescriptivos sobre la lista de exclusión. Por ejemplo, Oracle recomienda excluir /oracle/&lt;sid&gt;/sapdata de los análisis antivirus.</t>
+          <t>Excluya todos los sistemas de archivos de bases de datos y programas ejecutables de los análisis antivirus. Incluirlos podría provocar problemas de rendimiento. Consulte con los proveedores de bases de datos para obtener detalles prescriptivos sobre la lista de exclusión. Por ejemplo, Oracle recomienda excluir /oracle/&lt;sid&gt;/sapdata de los análisis antivirus.</t>
         </is>
       </c>
       <c r="E917" s="18" t="n"/>
@@ -48525,7 +48573,7 @@
       </c>
       <c r="D918" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de recopilar estadísticas de base de datos completas para bases de datos que no son de HANA después de la migración. Por ejemplo, implemente la nota de SAP 1020260 - Entrega de estadísticas de Oracle.</t>
+          <t>Considere la posibilidad de recopilar estadísticas completas de bases de datos que no sean de HANA después de la migración. Por ejemplo, implemente la nota de SAP 1020260 - Entrega de estadísticas de Oracle.</t>
         </is>
       </c>
       <c r="E918" s="18" t="n"/>
@@ -48576,7 +48624,7 @@
       </c>
       <c r="D919" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar Oracle Automatic Storage Management (ASM) para todas las implementaciones de Oracle que usan SAP en Azure.</t>
+          <t>Considere la posibilidad de usar Oracle Automatic Storage Management (ASM) para todas las implementaciones de Oracle que utilicen SAP en Azure.</t>
         </is>
       </c>
       <c r="E919" s="18" t="n"/>
@@ -48631,7 +48679,7 @@
       </c>
       <c r="D920" s="18" t="inlineStr">
         <is>
-          <t>En el caso de SAP en Azure que ejecuta Oracle, una colección de scripts SQL puede ayudarle a diagnosticar problemas de rendimiento.  Los informes de repositorio automático de cargas de trabajo (AWR) contienen información valiosa para diagnosticar problemas en el sistema Oracle. Le recomendamos que ejecute un informe de AWR durante varias sesiones y elija las horas punta para él, a fin de garantizar una amplia cobertura del análisis.</t>
+          <t>En el caso de SAP en Azure que ejecuta Oracle, una colección de scripts SQL puede ayudarle a diagnosticar problemas de rendimiento.  Los informes de Automatic Workload Repository (AWR) contienen información valiosa para diagnosticar problemas en el sistema Oracle. Le recomendamos que ejecute un informe de AWR durante varias sesiones y elija las horas punta para él, a fin de garantizar una amplia cobertura del análisis.</t>
         </is>
       </c>
       <c r="E920" s="18" t="n"/>
@@ -48686,7 +48734,7 @@
       </c>
       <c r="D921" s="18" t="inlineStr">
         <is>
-          <t>Use la supervisión de Azure Site Recovery para mantener el estado del servicio de recuperación ante desastres para los servidores de aplicaciones SAP.</t>
+          <t>Use la supervisión de Azure Site Recovery para mantener el estado del servicio de recuperación ante desastres para los servidores de aplicaciones de SAP.</t>
         </is>
       </c>
       <c r="E921" s="18" t="n"/>
@@ -48741,7 +48789,7 @@
       </c>
       <c r="D922" s="18" t="inlineStr">
         <is>
-          <t>Para la entrega segura de aplicaciones HTTP/S, use Application Gateway v2 y asegúrese de que la protección y las directivas de WAF están habilitadas.</t>
+          <t>Para la entrega segura de aplicaciones HTTP/S, use Application Gateway v2 y asegúrese de que la protección y las directivas de WAF estén habilitadas.</t>
         </is>
       </c>
       <c r="E922" s="18" t="n"/>
@@ -48796,7 +48844,7 @@
       </c>
       <c r="D923" s="18" t="inlineStr">
         <is>
-          <t>Si el DNS o el nombre virtual de la máquina virtual no se cambia durante la migración a Azure, el DNS en segundo plano y los nombres virtuales conectan muchas interfaces del sistema en el entorno de SAP, y los clientes solo conocen a veces las interfaces que los desarrolladores definen a lo largo del tiempo. Los desafíos de conexión surgen entre varios sistemas cuando los nombres virtuales o DNS cambian después de las migraciones, y se recomienda conservar los alias DNS para evitar este tipo de dificultades.</t>
+          <t>Si el DNS o el nombre virtual de la máquina virtual no se cambia durante la migración a Azure, el DNS en segundo plano y los nombres virtuales conectan muchas interfaces del sistema en el entorno de SAP, y los clientes solo a veces son conscientes de las interfaces que los desarrolladores definen a lo largo del tiempo. Surgen desafíos de conexión entre varios sistemas cuando los nombres virtuales o de DNS cambian después de las migraciones, y se recomienda conservar los alias de DNS para evitar este tipo de dificultades.</t>
         </is>
       </c>
       <c r="E923" s="18" t="n"/>
@@ -48851,7 +48899,7 @@
       </c>
       <c r="D924" s="18" t="inlineStr">
         <is>
-          <t>Utilice diferentes zonas DNS para distinguir cada entorno (espacio aislado, desarrollo, preproducción y producción) entre sí. La excepción es para las implementaciones de SAP con su propia red virtual; en este caso, es posible que las zonas DNS privadas no sean necesarias.</t>
+          <t>Utilice diferentes zonas DNS para distinguir cada entorno (espacio aislado, desarrollo, preproducción y producción) entre sí. La excepción es para las implementaciones de SAP con su propia red virtual; aquí, es posible que las zonas DNS privadas no sean necesarias.</t>
         </is>
       </c>
       <c r="E924" s="18" t="n"/>
@@ -48909,7 +48957,11 @@
           <t>El emparejamiento de red virtual local y global proporciona conectividad y son los enfoques preferidos para garantizar la conectividad entre las zonas de aterrizaje para las implementaciones de SAP en varias regiones de Azure</t>
         </is>
       </c>
-      <c r="E925" s="18" t="n"/>
+      <c r="E925" s="18" t="inlineStr">
+        <is>
+          <t>Al configurar el emparejamiento de red virtual, use la opción Permitir tráfico a redes virtuales remotas.</t>
+        </is>
+      </c>
       <c r="F925" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -48931,7 +48983,11 @@
           <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
-      <c r="K925" s="19" t="n"/>
+      <c r="K925" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | project id, peeringName=properties_virtualNetworkPeerings.name, compliant = (properties_virtualNetworkPeerings.properties.allowVirtualNetworkAccess =~ True)</t>
+        </is>
+      </c>
       <c r="L925" s="19" t="inlineStr">
         <is>
           <t>a3592829-e6e2-4061-9368-6af46791f893</t>
@@ -48961,7 +49017,7 @@
       </c>
       <c r="D926" s="18" t="inlineStr">
         <is>
-          <t>No se admite la implementación de ninguna aplicación virtual de red entre la aplicación SAP y el servidor de base de datos SAP</t>
+          <t>No se admite la implementación de ninguna NVA entre la aplicación SAP y el servidor de base de datos SAP</t>
         </is>
       </c>
       <c r="E926" s="18" t="n"/>
@@ -49041,7 +49097,11 @@
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
-      <c r="K927" s="19" t="n"/>
+      <c r="K927" s="19" t="inlineStr">
+        <is>
+          <t>resources| where type =~ 'microsoft.network/virtualwans' | extend compliant= (properties.allowBranchToBranchTraffic =~ 'true') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L927" s="19" t="inlineStr">
         <is>
           <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
@@ -49071,7 +49131,7 @@
       </c>
       <c r="D928" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de implementar aplicaciones virtuales de red (NVA) entre regiones solo si se usan aplicaciones virtuales de red de asociados. Las aplicaciones virtuales de red entre regiones o redes virtuales no son necesarias si hay aplicaciones virtuales de red nativas. Al implementar tecnologías de redes de asociados y aplicaciones virtuales de red, siga las instrucciones del proveedor para comprobar las configuraciones conflictivas con las redes de Azure.</t>
+          <t>Considere la posibilidad de implementar aplicaciones virtuales de red (NVA) entre regiones solo si se usan NVA de asociados. Las aplicaciones virtuales de red entre regiones o redes virtuales no son necesarias si hay aplicaciones virtuales de red nativas. Al implementar tecnologías de redes de asociados y NVA, siga las instrucciones del proveedor para comprobar las configuraciones conflictivas con las redes de Azure.</t>
         </is>
       </c>
       <c r="E928" s="18" t="n"/>
@@ -49126,7 +49186,7 @@
       </c>
       <c r="D929" s="18" t="inlineStr">
         <is>
-          <t>Virtual WAN administra la conectividad entre redes virtuales de radio para topologías basadas en WAN virtuales (sin necesidad de configurar el enrutamiento definido por el usuario [UDR] o NVA), y el rendimiento máximo de red para el tráfico de red virtual a red virtual en el mismo centro virtual es de 50 gigabits por segundo. Si es necesario, las zonas de aterrizaje de SAP pueden usar el emparejamiento de red virtual para conectarse a otras zonas de aterrizaje y superar esta limitación de ancho de banda.</t>
+          <t>Virtual WAN administra la conectividad entre redes virtuales de radio para topologías basadas en WAN virtuales (sin necesidad de configurar el enrutamiento definido por el usuario [UDR] o NVA) y el rendimiento máximo de red para el tráfico de red virtual a red virtual en el mismo centro virtual es de 50 gigabits por segundo. Si es necesario, las zonas de aterrizaje de SAP pueden usar el emparejamiento de red virtual para conectarse a otras zonas de aterrizaje y superar esta limitación de ancho de banda.</t>
         </is>
       </c>
       <c r="E929" s="18" t="n"/>
@@ -49206,7 +49266,11 @@
           <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
-      <c r="K930" s="19" t="n"/>
+      <c r="K930" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type =~ 'Microsoft.Network/publicIPAddresses' and sku.tier =~ 'Regional' | where isempty(zones) or array_length(zones) &lt;= 1 | extend az = case(isempty(zones), 'Non-zonal', array_length(zones) &lt;= 1, strcat('Zonal (', strcat_array(zones, ','), ')'), zones) | project name, id, tags, param1 = strcat('sku: ', sku.name), param2 = strcat('availabilityZone: ', az)</t>
+        </is>
+      </c>
       <c r="L930" s="19" t="inlineStr">
         <is>
           <t>82734c88-6ba2-4802-8459-11475e39e530</t>
@@ -49261,7 +49325,11 @@
           <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
-      <c r="K931" s="19" t="n"/>
+      <c r="K931" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type contains 'publicIPAddresses' and isnotempty(properties.ipAddress) | summarize count () by subscriptionId</t>
+        </is>
+      </c>
       <c r="L931" s="19" t="inlineStr">
         <is>
           <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
@@ -49401,7 +49469,7 @@
       </c>
       <c r="D934" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado del tráfico Este/Oeste (si la organización lo requiere)</t>
+          <t>Use Azure Firewall para controlar el tráfico de salida de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico este/oeste (si la organización lo requiere)</t>
         </is>
       </c>
       <c r="E934" s="18" t="n"/>
@@ -49426,7 +49494,11 @@
           <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
-      <c r="K934" s="19" t="n"/>
+      <c r="K934" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=~'microsoft.network/virtualhubs' | extend compliant = isnotnull(properties.azureFirewall.id) | project id, compliant</t>
+        </is>
+      </c>
       <c r="L934" s="19" t="inlineStr">
         <is>
           <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
@@ -49511,7 +49583,7 @@
       </c>
       <c r="D936" s="18" t="inlineStr">
         <is>
-          <t>Use directivas de Azure Front Door y WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
+          <t>Use las directivas de Azure Front Door y WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
         </is>
       </c>
       <c r="E936" s="18" t="n"/>
@@ -49566,7 +49638,7 @@
       </c>
       <c r="D937" s="18" t="inlineStr">
         <is>
-          <t>Aproveche las directivas de Web Application Firewall en Azure Front Door cuando use Azure Front Door y Application Gateway para proteger las aplicaciones HTTP/S. Bloquee Application Gateway para recibir tráfico solo de Azure Front Door.</t>
+          <t>Aproveche las directivas de firewall de aplicaciones web de Azure Front Door cuando use Azure Front Door y Application Gateway para proteger las aplicaciones HTTP/S. Bloquee Application Gateway para recibir tráfico solo desde Azure Front Door.</t>
         </is>
       </c>
       <c r="E937" s="18" t="n"/>
@@ -49731,7 +49803,7 @@
       </c>
       <c r="D940" s="18" t="inlineStr">
         <is>
-          <t>Para evitar la pérdida de datos, use Azure Private Link para acceder de forma segura a los recursos de plataforma como servicio, como Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory, etc. El punto de conexión privado de Azure también puede ayudar a proteger el tráfico entre redes virtuales y servicios como Azure Storage, Azure Backup, etc. El tráfico entre la red virtual y el servicio habilitado para punto de conexión privado viaja a través de la red global de Microsoft, lo que impide su exposición a la red pública de Internet.</t>
+          <t>Para evitar la pérdida de datos, use Azure Private Link para acceder de forma segura a los recursos de la plataforma como servicio, como Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory, etc. Azure Private Endpoint también puede ayudar a proteger el tráfico entre redes virtuales y servicios como Azure Storage, Azure Backup, etc. El tráfico entre la red virtual y el servicio habilitado para el punto de conexión privado viaja a través de la red global de Microsoft, lo que impide su exposición a la red pública de Internet.</t>
         </is>
       </c>
       <c r="E940" s="18" t="n"/>
@@ -49786,7 +49858,7 @@
       </c>
       <c r="D941" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que las redes aceleradas de Azure están habilitadas en las máquinas virtuales que se usan en las capas de aplicación SAP y DBMS.</t>
+          <t>Asegúrese de que las redes aceleradas de Azure estén habilitadas en las máquinas virtuales usadas en las capas de aplicación SAP y DBMS.</t>
         </is>
       </c>
       <c r="E941" s="18" t="n"/>
@@ -49811,7 +49883,11 @@
           <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
-      <c r="K941" s="19" t="n"/>
+      <c r="K941" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type =~ 'Microsoft.Network/NetworkInterfaces' | where properties.enableAcceleratedNetworking =~ 'false' | project name, subscriptionId, properties.enableAcceleratedNetworking</t>
+        </is>
+      </c>
       <c r="L941" s="19" t="inlineStr">
         <is>
           <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
@@ -49841,7 +49917,7 @@
       </c>
       <c r="D942" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que las implementaciones internas de Azure Load Balancer están configuradas para usar Direct Server Return (DSR). Esta configuración (Habilitación de IP flotante) reducirá la latencia cuando se utilicen configuraciones internas del equilibrador de carga para configuraciones de alta disponibilidad en la capa DBMS.</t>
+          <t>Asegúrese de que las implementaciones internas de Azure Load Balancer están configuradas para usar Direct Server Return (DSR). Esta configuración (Habilitación de IP flotante) reducirá la latencia cuando se utilicen configuraciones de equilibrador de carga internas para configuraciones de alta disponibilidad en la capa DBMS.</t>
         </is>
       </c>
       <c r="E942" s="18" t="n"/>
@@ -49896,7 +49972,7 @@
       </c>
       <c r="D943" s="18" t="inlineStr">
         <is>
-          <t>Puede usar reglas de grupo de seguridad de aplicaciones (ASG) y NSG para definir listas de control de acceso de seguridad de red entre la aplicación SAP y las capas DBMS. Los ASG agrupan las máquinas virtuales para ayudar a administrar su seguridad.</t>
+          <t>Puede usar el grupo de seguridad de aplicaciones (ASG) y las reglas de NSG para definir listas de control de acceso de seguridad de red entre la aplicación SAP y las capas de DBMS. Los ASG agrupan las máquinas virtuales para ayudar a administrar su seguridad.</t>
         </is>
       </c>
       <c r="E943" s="18" t="n"/>
@@ -49921,7 +49997,11 @@
           <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
         </is>
       </c>
-      <c r="K943" s="19" t="n"/>
+      <c r="K943" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type =~ 'microsoft.network/networksecuritygroups' and isnull(properties.networkInterfaces) and isnull(properties.subnets) | project name, resourceGroup | sort by name asc</t>
+        </is>
+      </c>
       <c r="L943" s="19" t="inlineStr">
         <is>
           <t>6791f893-5ada-4433-84e1-3811523181aa</t>
@@ -50061,7 +50141,7 @@
       </c>
       <c r="D946" s="18" t="inlineStr">
         <is>
-          <t>NO se admite en absoluto la ejecución de una capa de servidor de aplicaciones de SAP y una capa de DBMS divididas entre el entorno local y Azure. Ambas capas deben residir completamente en el entorno local o en Azure.</t>
+          <t>NO se admite en absoluto la ejecución de una capa de servidor de aplicaciones SAP y una capa de DBMS dividida entre local y Azure. Ambas capas deben residir completamente en el entorno local o en Azure.</t>
         </is>
       </c>
       <c r="E946" s="18" t="n"/>
@@ -50116,7 +50196,7 @@
       </c>
       <c r="D947" s="18" t="inlineStr">
         <is>
-          <t>No se recomienda hospedar el sistema de administración de bases de datos (DBMS) y las capas de aplicación de los sistemas SAP en diferentes redes virtuales y conectarlas con el emparejamiento de redes virtuales debido a los costos sustanciales que puede producir un tráfico de red excesivo entre las capas. Se recomienda el uso de subredes dentro de la red virtual de Azure para separar la capa de aplicación de SAP y la capa de DBMS.</t>
+          <t>No se recomienda hospedar el sistema de administración de bases de datos (DBMS) y las capas de aplicación de los sistemas SAP en diferentes redes virtuales y conectarlas con el emparejamiento de redes virtuales debido a los costos sustanciales que puede producir un tráfico de red excesivo entre las capas. Se recomienda usar subredes dentro de la red virtual de Azure para separar la capa de aplicación de SAP y la capa de DBMS.</t>
         </is>
       </c>
       <c r="E947" s="18" t="n"/>
@@ -50226,7 +50306,7 @@
       </c>
       <c r="D949" s="18" t="inlineStr">
         <is>
-          <t>En el caso de las implementaciones de SAP RISE/ECS, el emparejamiento virtual es la forma preferida de establecer la conectividad con el entorno de Azure existente del cliente. Tanto la red virtual de SAP como las redes virtuales del cliente están protegidas con grupos de seguridad de red (NSG), lo que permite la comunicación en los puertos de SAP y de base de datos a través del emparejamiento de redes virtuales</t>
+          <t>En el caso de las implementaciones de SAP RISE/ECS, el emparejamiento virtual es la forma preferida de establecer la conectividad con el entorno de Azure existente del cliente. Tanto la red virtual de SAP como las redes virtuales del cliente están protegidas con grupos de seguridad de red (NSG), lo que permite la comunicación en SAP y los puertos de base de datos a través del emparejamiento de redes virtuales</t>
         </is>
       </c>
       <c r="E949" s="18" t="n"/>
@@ -50328,7 +50408,7 @@
       </c>
       <c r="D951" s="18" t="inlineStr">
         <is>
-          <t>Revise la supervisión integrada de Site Recovery, si se usa para SAP.</t>
+          <t>Revise la supervisión integrada de Site Recovery, donde se use para SAP.</t>
         </is>
       </c>
       <c r="E951" s="18" t="n"/>
@@ -50379,7 +50459,7 @@
       </c>
       <c r="D952" s="18" t="inlineStr">
         <is>
-          <t>Revise la guía Supervisión del entorno del sistema SAP HANA.</t>
+          <t>Revise la guía Supervisión del panorama del sistema SAP HANA.</t>
         </is>
       </c>
       <c r="E952" s="18" t="n"/>
@@ -50995,7 +51075,7 @@
       </c>
       <c r="D964" s="18" t="inlineStr">
         <is>
-          <t>Si ejecuta máquinas virtuales Windows y Linux en Azure, en el entorno local o en otros entornos en la nube, puede usar el Centro de administración de actualizaciones de Automatización de Azure para administrar las actualizaciones del sistema operativo, incluidas las revisiones de seguridad.</t>
+          <t>Si ejecuta máquinas virtuales Windows y Linux en Azure, en el entorno local o en otros entornos en la nube, puede usar el Centro de administración de actualizaciones de Azure Automation para administrar las actualizaciones del sistema operativo, incluidas las revisiones de seguridad.</t>
         </is>
       </c>
       <c r="E964" s="18" t="n"/>
@@ -51050,7 +51130,7 @@
       </c>
       <c r="D965" s="18" t="inlineStr">
         <is>
-          <t>Revise de forma rutinaria las notas de seguridad de SAP OSS, ya que SAP publica parches de seguridad muy críticos, o revisiones, que requieren una acción inmediata para proteger sus sistemas SAP.</t>
+          <t>Revise de forma rutinaria las notas del OSS de seguridad de SAP, ya que SAP publica parches de seguridad muy críticos, o correcciones en caliente, que requieren una acción inmediata para proteger sus sistemas SAP.</t>
         </is>
       </c>
       <c r="E965" s="18" t="n"/>
@@ -51156,7 +51236,7 @@
       </c>
       <c r="D967" s="18" t="inlineStr">
         <is>
-          <t>Deshabilite xp_cmdshell. La característica de SQL Server xp_cmdshell habilita un shell de comandos del sistema operativo interno de SQL Server. Es un riesgo potencial en las auditorías de seguridad.</t>
+          <t>Deshabilite xp_cmdshell. La característica SQL Server xp_cmdshell habilita un shell de comandos del sistema operativo interno de SQL Server. Es un riesgo potencial en las auditorías de seguridad.</t>
         </is>
       </c>
       <c r="E967" s="18" t="n"/>
@@ -51211,7 +51291,7 @@
       </c>
       <c r="D968" s="18" t="inlineStr">
         <is>
-          <t>El cifrado de servidores de bases de datos de SAP HANA en Azure usa la tecnología de cifrado nativa de SAP HANA. Además, si usa SQL Server en Azure, use el cifrado de datos transparente (TDE) para proteger los datos y los archivos de registro y asegurarse de que las copias de seguridad también están cifradas.</t>
+          <t>El cifrado de servidores de base de datos de SAP HANA en Azure usa la tecnología de cifrado nativa de SAP HANA. Además, si usa SQL Server en Azure, use el cifrado de datos transparente (TDE) para proteger los datos y los archivos de registro y asegurarse de que las copias de seguridad también estén cifradas.</t>
         </is>
       </c>
       <c r="E968" s="18" t="n"/>
@@ -51266,7 +51346,7 @@
       </c>
       <c r="D969" s="18" t="inlineStr">
         <is>
-          <t>El cifrado de Azure Storage está habilitado para todas las cuentas de Azure Resource Manager y de almacenamiento clásico, y no se puede deshabilitar. Dado que los datos están cifrados de forma predeterminada, no es necesario modificar el código o las aplicaciones para usar el cifrado de Azure Storage.</t>
+          <t>El cifrado de Azure Storage está habilitado para todas las cuentas de Azure Resource Manager y de almacenamiento clásico, y no se puede deshabilitar. Dado que los datos están cifrados de forma predeterminada, no es necesario modificar el código ni las aplicaciones para usar el cifrado de Azure Storage.</t>
         </is>
       </c>
       <c r="E969" s="18" t="n"/>
@@ -51346,7 +51426,11 @@
           <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
-      <c r="K970" s="19" t="n"/>
+      <c r="K970" s="19" t="inlineStr">
+        <is>
+          <t>Resources | join kind=leftouter (ResourceContainers | where type=~'microsoft.resources/subscriptions' | project SubName=name, subscriptionId) on subscriptionId | where type =~ 'microsoft.keyvault/vaults' | project type, name, SubName</t>
+        </is>
+      </c>
       <c r="L970" s="19" t="inlineStr">
         <is>
           <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
@@ -51376,7 +51460,7 @@
       </c>
       <c r="D971" s="18" t="inlineStr">
         <is>
-          <t>Se recomienda bloquear los recursos de Azure después de la implementación correcta para protegerse contra cambios no autorizados. También puede aplicar restricciones y reglas de LOCK por suscripción mediante directivas de Azure personalizadas (rol personalizado).</t>
+          <t>Se recomienda bloquear los recursos de Azure después de la implementación correcta para protegerse contra cambios no autorizados. También puede aplicar restricciones y reglas de LOCK por suscripción mediante directivas de Azure personalizadas (rol Custome).</t>
         </is>
       </c>
       <c r="E971" s="18" t="n"/>
@@ -51431,7 +51515,7 @@
       </c>
       <c r="D972" s="18" t="inlineStr">
         <is>
-          <t>Aprovisione Azure Key Vault con las directivas de eliminación temporal y purga habilitadas para permitir la protección de retención de los objetos eliminados.</t>
+          <t>Aprovisione Azure Key Vault con las directivas de eliminación temporal y purga habilitadas para permitir la protección de retención para los objetos eliminados.</t>
         </is>
       </c>
       <c r="E972" s="18" t="n"/>
@@ -51486,7 +51570,7 @@
       </c>
       <c r="D973" s="18" t="inlineStr">
         <is>
-          <t>En función de los requisitos existentes, controles normativos y de cumplimiento (internos y externos): determine qué directivas de Azure y el rol de RBAC de Azure son necesarios</t>
+          <t>En función de los requisitos existentes, controles normativos y de cumplimiento (internos y externos): determine qué rol de Azure Policies y Azure RBAC son necesarios</t>
         </is>
       </c>
       <c r="E973" s="18" t="n"/>
@@ -51541,7 +51625,7 @@
       </c>
       <c r="D974" s="18" t="inlineStr">
         <is>
-          <t>Al habilitar Microsoft Defender para punto de conexión en el entorno de SAP, se recomienda excluir los archivos de datos y registro en los servidores DBMS en lugar de dirigirse a todos los servidores. Siga las recomendaciones de su proveedor de DBMS al excluir archivos de destino.</t>
+          <t>Al habilitar Microsoft Defender para punto de conexión en el entorno de SAP, se recomienda excluir los archivos de datos y registros en servidores DBMS en lugar de dirigirse a todos los servidores. Siga las recomendaciones de su proveedor de DBMS al excluir archivos de destino.</t>
         </is>
       </c>
       <c r="E974" s="18" t="n"/>
@@ -51706,7 +51790,7 @@
       </c>
       <c r="D977" s="18" t="inlineStr">
         <is>
-          <t>De forma predeterminada, utilice claves administradas por Microsoft para la funcionalidad de cifrado de entidad de seguridad y use claves administradas por el cliente cuando sea necesario.</t>
+          <t>De forma predeterminada, use claves administradas por Microsoft para la funcionalidad de cifrado principal y use claves administradas por el cliente cuando sea necesario.</t>
         </is>
       </c>
       <c r="E977" s="18" t="n"/>
@@ -51786,7 +51870,11 @@
           <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
-      <c r="K978" s="19" t="n"/>
+      <c r="K978" s="19" t="inlineStr">
+        <is>
+          <t>Resources | join kind=leftouter (ResourceContainers | where type=~'microsoft.resources/subscriptions' | project SubName=name, subscriptionId) on subscriptionId | where type =~ 'microsoft.keyvault/vaults' | project type, name, SubName</t>
+        </is>
+      </c>
       <c r="L978" s="19" t="inlineStr">
         <is>
           <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
@@ -51816,7 +51904,7 @@
       </c>
       <c r="D979" s="18" t="inlineStr">
         <is>
-          <t>Para controlar y administrar claves y secretos de cifrado de disco para sistemas operativos Windows y Windows que no son de HANA, use Azure Key Vault. SAP HANA no es compatible con Azure Key Vault, por lo que debe usar métodos alternativos como SAP ABAP o claves SSH.</t>
+          <t>Para controlar y administrar las claves y los secretos de cifrado de disco para sistemas operativos Windows y Windows que no son de HANA, use Azure Key Vault. SAP HANA no es compatible con Azure Key Vault, por lo que debe usar métodos alternativos como SAP ABAP o claves SSH.</t>
         </is>
       </c>
       <c r="E979" s="18" t="n"/>
@@ -51871,7 +51959,7 @@
       </c>
       <c r="D980" s="18" t="inlineStr">
         <is>
-          <t>Personalización de los roles de control de acceso basado en rol (RBAC) para SAP en suscripciones de Azure spoke para evitar cambios accidentales relacionados con la red</t>
+          <t>Personalice los roles de control de acceso basado en roles (RBAC) para las suscripciones de SAP en Azure spoke para evitar cambios accidentales relacionados con la red</t>
         </is>
       </c>
       <c r="E980" s="18" t="n"/>
@@ -51926,7 +52014,7 @@
       </c>
       <c r="D981" s="18" t="inlineStr">
         <is>
-          <t>Aísle las redes perimetrales y las aplicaciones virtuales de red del resto del patrimonio de SAP, configure Azure Private Link y administre y controle de forma segura los recursos de SAP en Azure</t>
+          <t>Aísle las DMZ y las NVA del resto del patrimonio de SAP, configure Azure Private Link y administre y controle de forma segura los recursos de SAP en Azure</t>
         </is>
       </c>
       <c r="E981" s="18" t="n"/>
@@ -51981,7 +52069,7 @@
       </c>
       <c r="D982" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar el software antimalware de Microsoft en Azure para proteger las máquinas virtuales de archivos malintencionados, adware y otras amenazas.</t>
+          <t>Considere la posibilidad de usar el software antimalware de Microsoft en Azure para proteger sus máquinas virtuales de archivos malintencionados, adware y otras amenazas.</t>
         </is>
       </c>
       <c r="E982" s="18" t="n"/>
@@ -52091,7 +52179,7 @@
       </c>
       <c r="D984" s="18" t="inlineStr">
         <is>
-          <t>Aísle los servidores de aplicaciones y bases de datos de SAP de Internet o de la red local pasando todo el tráfico a través de la red virtual del centro de conectividad, que está conectada a la red radial mediante el emparejamiento de red virtual. Las redes virtuales emparejadas garantizan que la solución de SAP en Azure esté aislada de la red pública de Internet.</t>
+          <t>Aísle los servidores de bases de datos y aplicaciones de SAP de Internet o de la red local pasando todo el tráfico a través de la red virtual del concentrador, que está conectada a la red radial mediante el emparejamiento de red virtual. Las redes virtuales emparejadas garantizan que la solución de SAP en Azure esté aislada de la red pública de Internet.</t>
         </is>
       </c>
       <c r="E984" s="18" t="n"/>
@@ -57354,7 +57442,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Recomendación entendida, pero no necesaria por los requisitos actuales</t>
+          <t>Recomendación comprendida, pero no necesaria por los requisitos actuales</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">

--- a/spreadsheet/macrofree/waf_checklist.es.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.es.xlsx
@@ -44670,7 +44670,7 @@
       </c>
       <c r="D841" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que usa la SKU estándar para los equilibradores de carga de Azure.</t>
+          <t>Asegúrese de que usa la SKU estándar para Azure Load Balancers</t>
         </is>
       </c>
       <c r="E841" s="18" t="n"/>
@@ -44725,7 +44725,7 @@
       </c>
       <c r="D842" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que las direcciones IP de front-end de Load Balancers sean redundantes de zona (a menos que necesite front-end zonales).</t>
+          <t>Asegúrese de que las direcciones IP de front-end de los equilibradores de carga tengan redundancia de zona (a menos que necesite front-end zonales).</t>
         </is>
       </c>
       <c r="E842" s="18" t="n"/>
@@ -45418,7 +45418,11 @@
         </is>
       </c>
       <c r="J854" s="13" t="n"/>
-      <c r="K854" s="19" t="n"/>
+      <c r="K854" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/applicationgatewaywebapplicationfirewallpolicies' | extend compliant = (properties['policySettings']['requestBodyCheck'] == 'true' and properties['policySettings']['state'] =~ 'Enabled') | distinct id, name, compliant</t>
+        </is>
+      </c>
       <c r="L854" s="19" t="inlineStr">
         <is>
           <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
@@ -45520,7 +45524,11 @@
         </is>
       </c>
       <c r="J856" s="13" t="n"/>
-      <c r="K856" s="19" t="n"/>
+      <c r="K856" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/applicationgatewaywebapplicationfirewallpolicies' | extend compliant = (properties['policySettings']['mode'] =~ 'Prevention')| where properties['policySettings']['mode'] =~ 'Prevention' | distinct id, name, compliant</t>
+        </is>
+      </c>
       <c r="L856" s="19" t="inlineStr">
         <is>
           <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
@@ -45601,7 +45609,7 @@
       </c>
       <c r="D858" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use un umbral alto para los límites de velocidad de WAF de Azure Application Gateway. Los umbrales de límite de velocidad altos evitan bloquear el tráfico legítimo, a la vez que proporcionan protección contra un número extremadamente alto de solicitudes que podrían sobrecargar su infraestructura. </t>
+          <t xml:space="preserve">Use un umbral alto para los límites de frecuencia de WAF de Azure Application Gateway. Los umbrales de límite de velocidad altos evitan bloquear el tráfico legítimo, al tiempo que brindan protección contra un número extremadamente alto de solicitudes que podrían sobrecargar su infraestructura. </t>
         </is>
       </c>
       <c r="E858" s="18" t="n"/>
@@ -45907,7 +45915,7 @@
       </c>
       <c r="D864" s="18" t="inlineStr">
         <is>
-          <t>Defina la configuración de WAF de Azure Application Gateway como código. Mediante el uso de código, puede adoptar más fácilmente una nueva versión del conjunto de reglas y obtener protección adicional.</t>
+          <t>Defina la configuración de WAF de Azure Application Gateway como código. Mediante el uso de código, puede adoptar más fácilmente la nueva versión del conjunto de reglas y obtener protección adicional.</t>
         </is>
       </c>
       <c r="E864" s="18" t="n"/>
@@ -45958,7 +45966,7 @@
       </c>
       <c r="D865" s="18" t="inlineStr">
         <is>
-          <t>Utilice directivas de WAF en lugar de la configuración de WAF heredada.</t>
+          <t>Utilice las políticas de WAF en lugar de la configuración de WAF heredada.</t>
         </is>
       </c>
       <c r="E865" s="18" t="n"/>
@@ -46081,7 +46089,11 @@
         </is>
       </c>
       <c r="J867" s="13" t="n"/>
-      <c r="K867" s="19" t="n"/>
+      <c r="K867" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/applicationgateways'| extend compliant = (properties['backendHttpSettingsCollection'][0]['properties']['port'] =~ '443') |where properties['backendHttpSettingsCollection'][0]['properties']['port'] =~ '443'|distinct id,name,compliant</t>
+        </is>
+      </c>
       <c r="L867" s="19" t="inlineStr">
         <is>
           <t>a66f0fd8-2ca4-422e-8df3-235148127ca2</t>
@@ -46162,7 +46174,7 @@
       </c>
       <c r="D869" s="18" t="inlineStr">
         <is>
-          <t>Redirigir HTTP a HTTPS</t>
+          <t>Redireccionar HTTP a HTTPS</t>
         </is>
       </c>
       <c r="E869" s="18" t="n"/>
@@ -46264,7 +46276,7 @@
       </c>
       <c r="D871" s="18" t="inlineStr">
         <is>
-          <t>Habilite el drenaje de conexiones durante las actualizaciones de servicio planeadas para evitar la pérdida de conexión con los miembros existentes del grupo de back-end</t>
+          <t>Habilite el drenaje de conexiones durante las actualizaciones de servicio planeadas para evitar la pérdida de conexión a los miembros existentes del grupo de back-end</t>
         </is>
       </c>
       <c r="E871" s="18" t="n"/>
@@ -46417,7 +46429,7 @@
       </c>
       <c r="D874" s="18" t="inlineStr">
         <is>
-          <t>Configure Front Door para optimizar el enrutamiento del tráfico web global y el rendimiento del usuario final de primer nivel, así como la confiabilidad a través de una rápida conmutación por error global</t>
+          <t>Configure Front Door para optimizar el enrutamiento del tráfico web global y el rendimiento y la confiabilidad del usuario final de primer nivel a través de una conmutación por error global rápida</t>
         </is>
       </c>
       <c r="E874" s="18" t="n"/>
@@ -46621,7 +46633,7 @@
       </c>
       <c r="D878" s="18" t="inlineStr">
         <is>
-          <t>Use Application Gateway para obtener compatibilidad nativa con los protocolos WebSocket y HTTP/2</t>
+          <t>Uso de Application Gateway para obtener compatibilidad nativa con los protocolos WebSocket y HTTP/2</t>
         </is>
       </c>
       <c r="E878" s="18" t="n"/>

--- a/spreadsheet/macrofree/waf_checklist.es.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.es.xlsx
@@ -25710,7 +25710,7 @@
       </c>
       <c r="D481" s="18" t="inlineStr">
         <is>
-          <t>Utilice solo el tipo de autenticación Cuenta profesional o educativa para todos los tipos de cuenta. Evite usar la cuenta de Microsoft</t>
+          <t>Utilice únicamente el tipo de autenticación Cuenta profesional o educativa para todos los tipos de cuenta. Evite usar la cuenta de Microsoft</t>
         </is>
       </c>
       <c r="E481" s="18" t="n"/>
@@ -25765,7 +25765,7 @@
       </c>
       <c r="D482" s="18" t="inlineStr">
         <is>
-          <t>Utilice solo grupos para asignar permisos. Agregue grupos locales al grupo Solo ID de Entra si ya hay un sistema de administración de grupos en su lugar.</t>
+          <t>Utilice solo grupos para asignar permisos. Agregue grupos locales al grupo Solo ID de Entra si ya existe un sistema de administración de grupos.</t>
         </is>
       </c>
       <c r="E482" s="18" t="n"/>
@@ -25875,7 +25875,7 @@
       </c>
       <c r="D484" s="18" t="inlineStr">
         <is>
-          <t>Aplique la autenticación multifactor para cualquier usuario con derechos sobre los entornos de Azure.</t>
+          <t>Aplique la autenticación multifactor para cualquier usuario con derechos en los entornos de Azure.</t>
         </is>
       </c>
       <c r="E484" s="18" t="n"/>
@@ -25930,7 +25930,7 @@
       </c>
       <c r="D485" s="18" t="inlineStr">
         <is>
-          <t>Aplique la administración de identidades privilegiadas (PIM) de Microsoft Entra ID para establecer un acceso permanente cero y privilegios mínimos.</t>
+          <t>Aplique la administración de identidades privilegiadas (PIM) de Microsoft Entra ID para establecer el acceso permanente cero y el privilegio mínimo.</t>
         </is>
       </c>
       <c r="E485" s="18" t="n"/>
@@ -26040,7 +26040,7 @@
       </c>
       <c r="D487" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Al usar Microsoft Entra Domain Services, use conjuntos de réplicas. Los conjuntos de réplicas mejorarán la resistencia del dominio administrado y le permitirán implementarlo en regiones adicionales. </t>
+          <t xml:space="preserve">Al usar Microsoft Entra Domain Services, use conjuntos de réplicas. Los conjuntos de réplicas mejorarán la resistencia del dominio administrado y le permitirán implementarlos en regiones adicionales. </t>
         </is>
       </c>
       <c r="E487" s="18" t="n"/>
@@ -26099,7 +26099,7 @@
       </c>
       <c r="D488" s="18" t="inlineStr">
         <is>
-          <t>Integre los registros de identificador de Microsoft Entra con Azure Monitor central de la plataforma. Azure Monitor permite una única fuente de información sobre los datos de registro y supervisión en Azure, lo que proporciona a las organizaciones opciones nativas en la nube para cumplir los requisitos relacionados con la recopilación y retención de registros.</t>
+          <t>Integre los registros de identificador de Microsoft Entra con Azure Monitor central de la plataforma. Azure Monitor permite una única fuente de verdad en torno a los datos de registro y supervisión en Azure, lo que proporciona a las organizaciones opciones nativas en la nube para cumplir los requisitos relacionados con la recopilación y retención de registros.</t>
         </is>
       </c>
       <c r="E488" s="18" t="n"/>
@@ -26154,7 +26154,7 @@
       </c>
       <c r="D489" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Implemente un acceso de emergencia o cuentas de emergencia para evitar el bloqueo de cuentas en todo el inquilino. MFA se activará de forma predeterminada para todos los usuarios en octubre de 2024. Recomendamos actualizar estas cuentas para usar la clave de paso (FIDO2) o configurar la autenticación basada en certificados para MFA. </t>
+          <t xml:space="preserve">Implemente un acceso de emergencia o rompa las cuentas para evitar el bloqueo de cuentas en todo el inquilino. MFA se activará de forma predeterminada para todos los usuarios en octubre de 2024. Recomendamos actualizar estas cuentas para usar la clave de paso (FIDO2) o configurar la autenticación basada en certificados para MFA. </t>
         </is>
       </c>
       <c r="E489" s="18" t="n"/>
@@ -26319,7 +26319,7 @@
       </c>
       <c r="D492" s="18" t="inlineStr">
         <is>
-          <t>Utilice una topología de red radial para escenarios de red que requieran la máxima flexibilidad.</t>
+          <t>Utilice una topología de red en estrella tipo hub-and-spoke para escenarios de red que requieran la máxima flexibilidad.</t>
         </is>
       </c>
       <c r="E492" s="18" t="n"/>
@@ -26374,7 +26374,7 @@
       </c>
       <c r="D493" s="18" t="inlineStr">
         <is>
-          <t>Implemente servicios de redes compartidas, incluidas puertas de enlace de ExpressRoute, puertas de enlace de VPN y Azure Firewall o aplicaciones virtuales de red de asociados en la red virtual del centro central. Si es necesario, implemente también servicios DNS.</t>
+          <t>Implemente servicios de red compartidos, incluidas puertas de enlace de ExpressRoute, puertas de enlace de VPN y Azure Firewall o aplicaciones virtuales de red de asociados en la red virtual del centro central. Si es necesario, implemente también los servicios DNS.</t>
         </is>
       </c>
       <c r="E493" s="18" t="n"/>
@@ -26535,7 +26535,7 @@
       </c>
       <c r="D496" s="18" t="inlineStr">
         <is>
-          <t>Si necesita el tránsito entre ExpressRoute y puertas de enlace de VPN en escenarios tipo hub-and-spoke, use Azure Route Server.</t>
+          <t>Si necesita tránsito entre ExpressRoute y puertas de enlace de VPN en escenarios tipo hub-and-spoke, use Azure Route Server.</t>
         </is>
       </c>
       <c r="E496" s="18" t="n"/>
@@ -26649,7 +26649,7 @@
       </c>
       <c r="D498" s="18" t="inlineStr">
         <is>
-          <t>En el caso de las arquitecturas de red con varias topologías radiales en las regiones de Azure, use emparejamientos de redes virtuales globales entre las redes virtuales del centro para conectar las regiones entre sí.</t>
+          <t>En el caso de las arquitecturas de red con varias topologías en estrella tipo hub-and-spoke en regiones de Azure, use emparejamientos de red virtual global entre las redes virtuales del centro para conectar las regiones entre sí.</t>
         </is>
       </c>
       <c r="E498" s="18" t="n"/>
@@ -26931,7 +26931,7 @@
       </c>
       <c r="C503" s="18" t="inlineStr">
         <is>
-          <t>Load Balancers</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="D503" s="18" t="inlineStr">
@@ -26986,7 +26986,7 @@
       </c>
       <c r="C504" s="18" t="inlineStr">
         <is>
-          <t>Load Balancers</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="D504" s="18" t="inlineStr">
@@ -27156,7 +27156,7 @@
       </c>
       <c r="D507" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que no se usen espacios de direcciones IP superpuestos entre regiones de Azure y ubicaciones locales.</t>
+          <t>Asegúrese de que no se usen espacios de direcciones IP superpuestos entre las regiones de Azure y las ubicaciones locales.</t>
         </is>
       </c>
       <c r="E507" s="18" t="n"/>
@@ -27211,7 +27211,7 @@
       </c>
       <c r="D508" s="18" t="inlineStr">
         <is>
-          <t>Utilice las direcciones IP de los rangos de asignación de direcciones para Internets privadas (RFC 1918).</t>
+          <t>Utilice las direcciones IP de los rangos de asignación de direcciones para Internet privadas (RFC 1918).</t>
         </is>
       </c>
       <c r="E508" s="18" t="n"/>
@@ -27443,7 +27443,7 @@
       </c>
       <c r="D512" s="18" t="inlineStr">
         <is>
-          <t>En entornos en los que la resolución de nombres en Azure es todo lo necesario, use Azure Private DNS para la resolución con una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
+          <t>En el caso de los entornos en los que la resolución de nombres en Azure es todo lo necesario, use Azure Private DNS para la resolución con una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="E512" s="18" t="n"/>
@@ -27553,7 +27553,7 @@
       </c>
       <c r="D514" s="18" t="inlineStr">
         <is>
-          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben utilizar su solución de DNS preferida.</t>
+          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben usar su solución de DNS preferida.</t>
         </is>
       </c>
       <c r="E514" s="18" t="n"/>
@@ -27887,7 +27887,7 @@
       </c>
       <c r="D520" s="18" t="inlineStr">
         <is>
-          <t>Al usar Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas de WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
+          <t>Al usar Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas de WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo desde Azure Front Door.</t>
         </is>
       </c>
       <c r="E520" s="18" t="n"/>
@@ -28052,7 +28052,7 @@
       </c>
       <c r="D523" s="18" t="inlineStr">
         <is>
-          <t>Planifique cómo administrar la configuración y la estrategia del tráfico saliente de la red antes del próximo cambio importante. El 30 de septiembre de 2025, se retirará el acceso saliente predeterminado para las nuevas implementaciones y solo se permitirán configuraciones de acceso explícitas.</t>
+          <t>Planifique cómo administrar la configuración y la estrategia del tráfico saliente de la red antes del próximo cambio importante. El 30 de septiembre de 2025, se retirará el acceso de salida predeterminado para las nuevas implementaciones y solo se permitirán configuraciones de acceso explícitas.</t>
         </is>
       </c>
       <c r="E523" s="18" t="n"/>
@@ -28107,7 +28107,7 @@
       </c>
       <c r="D524" s="18" t="inlineStr">
         <is>
-          <t>Agregue configuraciones de diagnóstico para guardar los registros relacionados con DDoS para todas las direcciones IP públicas protegidas (DDoS IP o Protección de red).</t>
+          <t>Agregue configuraciones de diagnóstico para guardar los registros relacionados con DDoS para todas las direcciones IP públicas protegidas (IP DDoS o Protección de red).</t>
         </is>
       </c>
       <c r="E524" s="18" t="n"/>
@@ -28277,7 +28277,7 @@
       </c>
       <c r="E527" s="18" t="inlineStr">
         <is>
-          <t>Puede usar la anteposición de AS Path y los pesos de conexión para influir en el tráfico de Azure al entorno local, y la gama completa de atributos BGP en sus propios enrutadores para influir en el tráfico del entorno local a Azure.</t>
+          <t>Puede usar la anteposición de AS y los pesos de conexión para influir en el tráfico de Azure al entorno local, y la gama completa de atributos BGP en sus propios enrutadores para influir en el tráfico del entorno local a Azure.</t>
         </is>
       </c>
       <c r="F527" s="18" t="inlineStr">
@@ -29125,7 +29125,7 @@
       </c>
       <c r="D542" s="18" t="inlineStr">
         <is>
-          <t>Si utiliza una tabla de rutas en GatewaySubnet, asegúrese de que las rutas de puerta de enlace se propagan.</t>
+          <t>Si utiliza una tabla de rutas en GatewaySubnet, asegúrese de que las rutas de puerta de enlace se propaguen.</t>
         </is>
       </c>
       <c r="E542" s="18" t="n"/>
@@ -29180,7 +29180,7 @@
       </c>
       <c r="D543" s="18" t="inlineStr">
         <is>
-          <t>Si usa ExpressRoute, el enrutamiento local debe ser dinámico: en caso de que se produzca un error de conexión, debe converger a la conexión restante del circuito. La carga debe compartirse entre ambas conexiones, idealmente como activa/activa, aunque también se admite activa/pasiva.</t>
+          <t>Si usa ExpressRoute, el enrutamiento local debe ser dinámico: en caso de que se produzca un error de conexión, debe converger con la conexión restante del circuito. La carga debe compartirse entre ambas conexiones, idealmente como activa/activa, aunque también se admite activa/pasiva.</t>
         </is>
       </c>
       <c r="E543" s="18" t="n"/>
@@ -29345,7 +29345,7 @@
       </c>
       <c r="D546" s="18" t="inlineStr">
         <is>
-          <t>Conecte la puerta de enlace de ExpressRoute a dos o más circuitos de diferentes ubicaciones de emparejamiento para una mayor resistencia.</t>
+          <t>Conecte la puerta de enlace de ExpressRoute a dos o más circuitos desde diferentes ubicaciones de emparejamiento para una mayor resistencia.</t>
         </is>
       </c>
       <c r="E546" s="18" t="n"/>
@@ -29510,7 +29510,7 @@
       </c>
       <c r="D549" s="18" t="inlineStr">
         <is>
-          <t>No envíe el tráfico de Azure a ubicaciones híbridas para su inspección.  En su lugar, siga el principio "el tráfico de Azure se queda en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft.</t>
+          <t>No envíe el tráfico de Azure a ubicaciones híbridas para su inspección.  En su lugar, siga el principio "el tráfico de Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft.</t>
         </is>
       </c>
       <c r="E549" s="18" t="n"/>
@@ -29561,7 +29561,7 @@
       </c>
       <c r="D550" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Firewall para controlar el tráfico de salida de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado del tráfico este/oeste (si la organización lo requiere).</t>
+          <t>Use Azure Firewall para controlar el tráfico de salida de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico este/oeste (si la organización lo requiere).</t>
         </is>
       </c>
       <c r="E550" s="18" t="n"/>
@@ -29958,7 +29958,7 @@
       </c>
       <c r="D557" s="18" t="inlineStr">
         <is>
-          <t>En el caso de las subredes de redes virtuales que no están conectadas a Virtual WAN, adjunte una tabla de rutas para que el tráfico de Internet se redirija a Azure Firewall o a una aplicación virtual de red.</t>
+          <t>En el caso de las subredes de las redes virtuales que no están conectadas a Virtual WAN, adjunte una tabla de rutas para que el tráfico de Internet se redirija a Azure Firewall o a una aplicación virtual de red.</t>
         </is>
       </c>
       <c r="E557" s="18" t="n"/>
@@ -30182,7 +30182,7 @@
       </c>
       <c r="D561" s="18" t="inlineStr">
         <is>
-          <t>Organice las reglas dentro de la política de firewall en grupos de recopilación de reglas y colecciones de reglas, en función de su frecuencia de uso.</t>
+          <t>Organice las reglas dentro de la política de firewall en grupos de colecciones de reglas y colecciones de reglas, en función de su frecuencia de uso.</t>
         </is>
       </c>
       <c r="E561" s="18" t="n"/>
@@ -30237,7 +30237,7 @@
       </c>
       <c r="D562" s="18" t="inlineStr">
         <is>
-          <t>Utilice grupos de direcciones IP o prefijos de direcciones IP para reducir el número de reglas de tabla de direcciones IP.</t>
+          <t>Utilice grupos de IP o prefijos de IP para reducir el número de reglas de tabla de IP.</t>
         </is>
       </c>
       <c r="E562" s="18" t="n"/>
@@ -30288,7 +30288,7 @@
       </c>
       <c r="D563" s="18" t="inlineStr">
         <is>
-          <t>No utilice caracteres comodín como IP de origen para los DNAT, como * o cualquiera, debe especificar las direcciones IP de origen para los DNAT entrantes.</t>
+          <t>No utilice comodines como IP de origen para DNATS, como * o cualquiera, debe especificar IP de origen para los DNAT entrantes.</t>
         </is>
       </c>
       <c r="E563" s="18" t="n"/>
@@ -30343,7 +30343,7 @@
       </c>
       <c r="D564" s="18" t="inlineStr">
         <is>
-          <t>Evite el agotamiento del puerto SNAT supervisando el uso del puerto SNAT, evaluando la configuración de la puerta de enlace NAT y garantizando una conmutación por error sin problemas. Si el número de puertos se acerca al límite, es una señal de que el agotamiento de SNAT podría ser inminente.</t>
+          <t>Evite el agotamiento del puerto SNAT supervisando el uso del puerto SNAT, evaluando la configuración de la puerta de enlace NAT y garantizando una conmutación por error sin problemas. Si el recuento de puertos se acerca al límite, es una señal de que el agotamiento de SNAT podría ser inminente.</t>
         </is>
       </c>
       <c r="E564" s="18" t="n"/>
@@ -30555,7 +30555,7 @@
       </c>
       <c r="D568" s="18" t="inlineStr">
         <is>
-          <t>Habilite la configuración de proxy DNS de Azure Firewall.</t>
+          <t>Habilite la configuración del proxy DNS de Azure Firewall.</t>
         </is>
       </c>
       <c r="E568" s="18" t="n"/>
@@ -30614,7 +30614,7 @@
       </c>
       <c r="D569" s="18" t="inlineStr">
         <is>
-          <t>Integre Azure Firewall con Azure Monitor y habilite el registro de diagnóstico para almacenar y analizar los registros y las métricas del firewall.</t>
+          <t>Integre Azure Firewall con Azure Monitor y habilite el registro de diagnóstico para almacenar y analizar registros y métricas de firewall.</t>
         </is>
       </c>
       <c r="E569" s="18" t="n"/>
@@ -30669,7 +30669,7 @@
       </c>
       <c r="D570" s="18" t="inlineStr">
         <is>
-          <t>Implementación de copias de seguridad para las reglas de firewall</t>
+          <t>Implemente copias de seguridad para las reglas de firewall</t>
         </is>
       </c>
       <c r="E570" s="18" t="n"/>
@@ -30724,7 +30724,7 @@
       </c>
       <c r="D571" s="18" t="inlineStr">
         <is>
-          <t>Implemente Azure Firewall en varias zonas de disponibilidad. Azure Firewall ofrece diferentes acuerdos de nivel de servicio en función de su implementación; en una sola zona de disponibilidad o en varias, lo que podría mejorar la fiabilidad y el rendimiento.</t>
+          <t>Implemente Azure Firewall en varias zonas de disponibilidad. Azure Firewall ofrece diferentes acuerdos de nivel de servicio en función de su implementación; en una sola zona de disponibilidad o en varias, lo que podría mejorar la confiabilidad y el rendimiento.</t>
         </is>
       </c>
       <c r="E571" s="18" t="n"/>
@@ -30838,7 +30838,7 @@
       </c>
       <c r="D573" s="18" t="inlineStr">
         <is>
-          <t>No interrumpa la comunicación del plano de control para los servicios PaaS de Azure insertados en una red virtual, como con una ruta 0.0.0.0/0 o una regla de grupo de seguridad de red que bloquee el tráfico del plano de control.</t>
+          <t>No interrumpa la comunicación del plano de control para los servicios PaaS de Azure insertados en una red virtual, como con una ruta 0.0.0.0/0 o una regla de NSG que bloquee el tráfico del plano de control.</t>
         </is>
       </c>
       <c r="E573" s="18" t="n"/>
@@ -30893,7 +30893,7 @@
       </c>
       <c r="D574" s="18" t="inlineStr">
         <is>
-          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través de puntos de conexión privados y el emparejamiento privado de ExpressRoute. Este método evita el tránsito por la Internet pública.</t>
+          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través de puntos de conexión privados y el emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
         </is>
       </c>
       <c r="E574" s="18" t="n"/>
@@ -31172,7 +31172,7 @@
       </c>
       <c r="D579" s="18" t="inlineStr">
         <is>
-          <t>Use los grupos de seguridad de red para ayudar a proteger el tráfico a través de las subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
+          <t>Use los grupos de seguridad de red para ayudar a proteger el tráfico entre subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
         </is>
       </c>
       <c r="E579" s="18" t="n"/>
@@ -31459,7 +31459,7 @@
       </c>
       <c r="D584" s="18" t="inlineStr">
         <is>
-          <t>Use un centro de conectividad de Virtual WAN por región de Azure para conectar varias zonas de aterrizaje entre sí en regiones de Azure a través de una Azure Virtual WAN global común.</t>
+          <t>Use un centro de conectividad de Virtual WAN por región de Azure para conectar varias zonas de aterrizaje entre sí en regiones de Azure a través de una instancia global común de Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="E584" s="18" t="n"/>
@@ -31628,7 +31628,7 @@
       </c>
       <c r="D587" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights para Virtual WAN para supervisar la topología de un extremo a otro de Virtual WAN, el estado y las métricas clave.</t>
+          <t>Use Azure Monitor Insights para Virtual WAN para supervisar la topología de un extremo a otro de la Virtual WAN, el estado y las métricas clave.</t>
         </is>
       </c>
       <c r="E587" s="18" t="n"/>
@@ -32135,7 +32135,7 @@
       </c>
       <c r="D596" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Policy para controlar los servicios que los usuarios pueden aprovisionar en el nivel de suscripción o grupo de administración.</t>
+          <t>Use Azure Policy para controlar qué servicios pueden aprovisionar los usuarios en el nivel de suscripción o grupo de administración.</t>
         </is>
       </c>
       <c r="E596" s="18" t="n"/>
@@ -32245,12 +32245,12 @@
       </c>
       <c r="D598" s="18" t="inlineStr">
         <is>
-          <t>Asigne el rol integrado Colaborador de directiva de recursos en un ámbito determinado para habilitar la gobernanza de nivel de aplicación.</t>
+          <t>Asigne el rol de colaborador de directiva de recursos integrado en un ámbito determinado para habilitar la gobernanza de nivel de aplicación.</t>
         </is>
       </c>
       <c r="E598" s="18" t="inlineStr">
         <is>
-          <t>La asignación del rol Colaborador de políticas de recursos a ámbitos específicos le permite delegar la administración de directivas a los equipos pertinentes. Por ejemplo, un equipo de TI central puede supervisar las políticas a nivel de grupo de administración, mientras que los equipos de aplicaciones se encargan de las políticas de sus suscripciones, lo que permite la gobernanza distribuida con el cumplimiento de los estándares de la organización.</t>
+          <t>La asignación del rol Colaborador de directivas de recursos a ámbitos específicos le permite delegar la administración de directivas a los equipos pertinentes. Por ejemplo, un equipo de TI central puede supervisar las políticas a nivel de grupo de administración, mientras que los equipos de aplicaciones se encargan de las políticas de sus suscripciones, lo que permite la gobernanza distribuida con el cumplimiento de los estándares de la organización.</t>
         </is>
       </c>
       <c r="F598" s="18" t="inlineStr">
@@ -32359,7 +32359,7 @@
       </c>
       <c r="D600" s="18" t="inlineStr">
         <is>
-          <t>Si existen requisitos de soberanía de datos, se deben implementar Azure Policies para aplicarlos.</t>
+          <t>Si existen requisitos de soberanía de datos, se deben implementar directivas de Azure para aplicarlos.</t>
         </is>
       </c>
       <c r="E600" s="18" t="n"/>
@@ -32414,7 +32414,7 @@
       </c>
       <c r="D601" s="18" t="inlineStr">
         <is>
-          <t>Para la zona de aterrizaje soberana, implemente la línea base de la política de soberanía y asígnela en el nivel de grupo de gestión correcto.</t>
+          <t>Para Sovereign Landing Zone, implemente la línea base de la política de soberanía y asígnela en el nivel de grupo de administración correcto.</t>
         </is>
       </c>
       <c r="E601" s="18" t="n"/>
@@ -32516,7 +32516,7 @@
       </c>
       <c r="D603" s="18" t="inlineStr">
         <is>
-          <t>En el caso de la Zona de Aterrizaje Soberana, garantizar que exista un proceso para la gestión de los "objetivos de control soberano para el mapeo de políticas".</t>
+          <t>En el caso de la Zona de Aterrizaje Soberana, asegúrese de que exista un proceso para la gestión de los "objetivos de control soberano para el mapeo de políticas".</t>
         </is>
       </c>
       <c r="E603" s="18" t="n"/>
@@ -32622,7 +32622,7 @@
       </c>
       <c r="D605" s="18" t="inlineStr">
         <is>
-          <t>Decida si desea usar una única área de trabajo de Azure Monitor Logs para todas las regiones o crear varias áreas de trabajo para cubrir varias regiones geográficas. Cada enfoque tiene ventajas y desventajas, incluidos los posibles cargos de red entre regiones</t>
+          <t>Decida si desea usar una única área de trabajo de registros de Azure Monitor para todas las regiones o crear varias áreas de trabajo para cubrir varias regiones geográficas. Cada enfoque tiene ventajas y desventajas, incluidos los posibles cargos de red entre regiones</t>
         </is>
       </c>
       <c r="E605" s="18" t="n"/>
@@ -32677,7 +32677,7 @@
       </c>
       <c r="D606" s="18" t="inlineStr">
         <is>
-          <t>Exporte los registros a Azure Storage si los requisitos de retención de registros superan los doce años. Use el almacenamiento inmutable con una política de escritura única y lectura múltiple para que los datos no se puedan borrar ni modificar durante un intervalo especificado por el usuario.</t>
+          <t>Exporte registros a Azure Storage si los requisitos de retención de registros superan los doce años. Use el almacenamiento inmutable con una política de escritura única y lectura múltiple para que los datos no se puedan borrar ni modificar durante un intervalo especificado por el usuario.</t>
         </is>
       </c>
       <c r="E606" s="18" t="n"/>
@@ -33007,7 +33007,7 @@
       </c>
       <c r="D612" s="18" t="inlineStr">
         <is>
-          <t>Use las alertas de Azure Monitor para la generación de alertas operativas.</t>
+          <t>Use alertas de Azure Monitor para la generación de alertas operativas.</t>
         </is>
       </c>
       <c r="E612" s="18" t="n"/>
@@ -33062,7 +33062,7 @@
       </c>
       <c r="D613" s="18" t="inlineStr">
         <is>
-          <t>Al usar el seguimiento de cambios e inventario a través de cuentas de Azure Automation, asegúrese de que ha seleccionado regiones compatibles para vincular el área de trabajo de Log Analytics y las cuentas de automatización.</t>
+          <t>Al usar el seguimiento de cambios e inventario a través de cuentas de Azure Automation, asegúrese de que ha seleccionado las regiones admitidas para vincular el área de trabajo de Log Analytics y las cuentas de automatización.</t>
         </is>
       </c>
       <c r="E613" s="18" t="n"/>
@@ -33557,7 +33557,7 @@
       </c>
       <c r="D622" s="18" t="inlineStr">
         <is>
-          <t>Use diferentes instancias de Azure Key Vaults para diferentes aplicaciones y regiones para evitar límites de escala de transacciones y restringir el acceso a los secretos.</t>
+          <t>Use diferentes almacenes de claves de Azure para diferentes aplicaciones y regiones para evitar límites de escala de transacciones y restringir el acceso a los secretos.</t>
         </is>
       </c>
       <c r="E622" s="18" t="n"/>
@@ -33671,7 +33671,7 @@
       </c>
       <c r="D624" s="18" t="inlineStr">
         <is>
-          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar claves, secretos y certificados de forma permanente a roles de identificador personalizados especializados de Microsoft Entra.</t>
+          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar permanentemente claves, secretos y certificados a roles de identificador personalizados especializados de Microsoft Entra.</t>
         </is>
       </c>
       <c r="E624" s="18" t="n"/>
@@ -33726,7 +33726,7 @@
       </c>
       <c r="D625" s="18" t="inlineStr">
         <is>
-          <t>Automatice el proceso de gestión y renovación de certificados con autoridades de certificación públicas para facilitar la administración.</t>
+          <t>Automatice la gestión de certificados y el proceso de renovación con autoridades de certificación públicas para facilitar la administración.</t>
         </is>
       </c>
       <c r="E625" s="18" t="n"/>
@@ -33836,7 +33836,7 @@
       </c>
       <c r="D627" s="18" t="inlineStr">
         <is>
-          <t>Habilite el firewall y el punto de conexión de servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
+          <t>Habilite el firewall y el punto de conexión del servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
         </is>
       </c>
       <c r="E627" s="18" t="n"/>
@@ -34001,7 +34001,7 @@
       </c>
       <c r="D630" s="18" t="inlineStr">
         <is>
-          <t>Use una instancia de Azure Key Vault por aplicación, por entorno, por región.</t>
+          <t>Use Azure Key Vault por aplicación, por entorno, por región.</t>
         </is>
       </c>
       <c r="E630" s="18" t="n"/>
@@ -34276,7 +34276,7 @@
       </c>
       <c r="D635" s="18" t="inlineStr">
         <is>
-          <t>Habilite un plan de protección de carga de trabajo en la nube de Defender para servidores en todas las suscripciones.</t>
+          <t>Habilite un plan de protección de cargas de trabajo en la nube de Defender para servidores en todas las suscripciones.</t>
         </is>
       </c>
       <c r="E635" s="18" t="n"/>
@@ -34496,7 +34496,7 @@
       </c>
       <c r="D639" s="18" t="inlineStr">
         <is>
-          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Azure Monitor Log Analytics.</t>
+          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Log Analytics de Azure Monitor.</t>
         </is>
       </c>
       <c r="E639" s="18" t="n"/>
@@ -34551,7 +34551,7 @@
       </c>
       <c r="D640" s="18" t="inlineStr">
         <is>
-          <t>Detección centralizada de amenazas con registros correlacionados: consolide los datos de seguridad en una ubicación central donde se puedan correlacionar entre varios servicios a través de SIEM (información de seguridad y gestión de eventos)</t>
+          <t>Detección centralizada de amenazas con registros correlacionados: consolide los datos de seguridad en una ubicación central donde se puedan correlacionar entre varios servicios a través de SIEM (gestión de eventos e información de seguridad)</t>
         </is>
       </c>
       <c r="E640" s="18" t="n"/>
@@ -34708,7 +34708,7 @@
       </c>
       <c r="D643" s="18" t="inlineStr">
         <is>
-          <t>Habilite la transferencia segura a las cuentas de almacenamiento.</t>
+          <t>Habilite la transferencia segura a cuentas de almacenamiento.</t>
         </is>
       </c>
       <c r="E643" s="18" t="n"/>
@@ -34814,7 +34814,7 @@
       </c>
       <c r="D645" s="18" t="inlineStr">
         <is>
-          <t>Use los secretos de Key Vault para evitar codificar de forma rígida información confidencial, como credenciales (máquinas virtuales, contraseñas de usuario), certificados o claves.</t>
+          <t>Use secretos de Key Vault para evitar codificar de forma rígida información confidencial, como credenciales (máquinas virtuales, contraseñas de usuario), certificados o claves.</t>
         </is>
       </c>
       <c r="E645" s="18" t="n"/>
